--- a/Importación RETPER SOS.xlsx
+++ b/Importación RETPER SOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF75533-235F-4191-84F4-9A37442AE4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E14154-E4D9-46CB-9A81-3C0BA2DC4BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clientes!$A$1:$R$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clientes!$A$1:$S$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="155">
   <si>
     <t>Nro</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Periodo</t>
   </si>
   <si>
-    <t>Desde (No Formula)</t>
-  </si>
-  <si>
     <t>Importar</t>
   </si>
   <si>
@@ -491,6 +488,12 @@
   </si>
   <si>
     <t>Destino</t>
+  </si>
+  <si>
+    <t>Raiz Destino</t>
+  </si>
+  <si>
+    <t>Desde</t>
   </si>
 </sst>
 </file>
@@ -904,11 +907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,10 +920,10 @@
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="12" max="17" width="18" customWidth="1"/>
+    <col min="13" max="18" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -934,55 +937,58 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>153</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A65" si="0">RIGHT(D2,1)</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>20168291680</v>
@@ -995,45 +1001,46 @@
         <v>44958</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="4" t="str">
         <f>G2&amp;"\"&amp;B2&amp;"\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\2023\02\</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="4" t="str">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="str">
         <f>TEXT(E2,"AAAAMM")</f>
         <v>202302</v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="L2" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E2,"MMMM AAAA"),1))&amp;MID(TEXT(E2,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",SUBSTITUTE(D2,"-","")," - ",TEXT(K2,"AAAAMM")," - ",B2)</f>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ",SUBSTITUTE(D2,"-","")," - ",TEXT(L2,"AAAAMM")," - ",B2)</f>
         <v>0 - 20168291680 - 202302 - CRIVELLO LUIS</v>
       </c>
-      <c r="N2" s="3" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",SUBSTITUTE(D2,"-","")," - ",TEXT(K2,"AAAAMM")," - ",B2)</f>
+      <c r="O2" s="3" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ",SUBSTITUTE(D2,"-","")," - ",TEXT(L2,"AAAAMM")," - ",B2)</f>
         <v>0 - 20168291680 - 202302 - CRIVELLO LUIS</v>
       </c>
-      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="4">
+      <c r="R2" s="3"/>
+      <c r="S2" s="4">
         <f>ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>20315731330</v>
@@ -1046,348 +1053,355 @@
         <v>44958</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H66" si="1">G3&amp;"\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\2023\02\</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J66" si="2">TEXT(E3,"AAAAMM")</f>
-        <v>202302</v>
-      </c>
-      <c r="K3" s="3" t="str">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="str">
+        <f t="shared" ref="K3:K66" si="2">TEXT(E3,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="L3" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E3,"MMMM AAAA"),1))&amp;MID(TEXT(E3,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="str">
-        <f t="shared" ref="M3:M66" si="3">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ",TEXT(K3,"AAAAMM")," - ",B3)</f>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="str">
+        <f t="shared" ref="N3:N66" si="3">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ",TEXT(L3,"AAAAMM")," - ",B3)</f>
         <v>0 - 20315731330 - 202302 - VARENIZA ANGEL</v>
       </c>
-      <c r="N3" s="3" t="str">
-        <f t="shared" ref="N3:N66" si="4">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ",TEXT(K3,"AAAAMM")," - ",B3)</f>
+      <c r="O3" s="3" t="str">
+        <f t="shared" ref="O3:O66" si="4">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ",TEXT(L3,"AAAAMM")," - ",B3)</f>
         <v>0 - 20315731330 - 202302 - VARENIZA ANGEL</v>
       </c>
-      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="4">
+      <c r="R3" s="3"/>
+      <c r="S3" s="4">
         <f>ROW(A3)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>20364074310</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1">
         <v>44743</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA TOMAS\2022\07\</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>202207</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="L4" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E4,"MMMM AAAA"),1))&amp;MID(TEXT(E4,"MMMM AAAA"),2,30)</f>
         <v>Julio 2022</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="str">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="str">
         <f t="shared" si="3"/>
         <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
       </c>
-      <c r="N4" s="3" t="str">
+      <c r="O4" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
       </c>
-      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="4">
+      <c r="R4" s="3"/>
+      <c r="S4" s="4">
         <f>ROW(A4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>27067089680</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1">
         <v>44958</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\2023\02\</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K5" s="3" t="str">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L5" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E5,"MMMM AAAA"),1))&amp;MID(TEXT(E5,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="str">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="str">
         <f t="shared" si="3"/>
         <v>0 - 27067089680 - 202302 - SESMERO TERESITA</v>
       </c>
-      <c r="N5" s="3" t="str">
+      <c r="O5" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0 - 27067089680 - 202302 - SESMERO TERESITA</v>
       </c>
-      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="4">
+      <c r="R5" s="3"/>
+      <c r="S5" s="4">
         <f>ROW(A5)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>27116976620</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1">
         <v>44958</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA MIRIAM\2023\02\</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K6" s="3" t="str">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L6" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E6,"MMMM AAAA"),1))&amp;MID(TEXT(E6,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="str">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="str">
         <f t="shared" si="3"/>
         <v>0 - 27116976620 - 202302 - URRUTIA MIRIAM</v>
       </c>
-      <c r="N6" s="3" t="str">
+      <c r="O6" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0 - 27116976620 - 202302 - URRUTIA MIRIAM</v>
       </c>
-      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="4">
+      <c r="R6" s="3"/>
+      <c r="S6" s="4">
         <f>ROW(A6)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>20133762761</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
         <v>44958</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\MEDINT SRL\2023\02\</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K7" s="3" t="str">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L7" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E7,"MMMM AAAA"),1))&amp;MID(TEXT(E7,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="str">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="str">
         <f t="shared" si="3"/>
         <v>0 - 30657146850 - 202302 - MEDINT SRL</v>
       </c>
-      <c r="N7" s="3" t="str">
+      <c r="O7" s="3" t="str">
         <f t="shared" si="4"/>
         <v>0 - 30657146850 - 202302 - MEDINT SRL</v>
       </c>
-      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="4">
+      <c r="R7" s="3"/>
+      <c r="S7" s="4">
         <f>ROW(A7)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>20133762761</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <v>44958</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARLOS ALFREDO\2023\02\</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K8" s="3" t="str">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L8" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E8,"MMMM AAAA"),1))&amp;MID(TEXT(E8,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="str">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1 - 20133762761 - 202302 - FERREYRA CARLOS ALFREDO</v>
       </c>
-      <c r="N8" s="3" t="str">
+      <c r="O8" s="3" t="str">
         <f t="shared" si="4"/>
         <v>1 - 20133762761 - 202302 - FERREYRA CARLOS ALFREDO</v>
       </c>
-      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="4">
+      <c r="R8" s="3"/>
+      <c r="S8" s="4">
         <f>ROW(A8)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>20149462601</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>44958</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI MARCELO\2023\02\</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K9" s="3" t="str">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L9" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E9,"MMMM AAAA"),1))&amp;MID(TEXT(E9,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="str">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1 - 20149462601 - 202302 - SZYCHOWSKI MARCELO</v>
       </c>
-      <c r="N9" s="3" t="str">
+      <c r="O9" s="3" t="str">
         <f t="shared" si="4"/>
         <v>1 - 20149462601 - 202302 - SZYCHOWSKI MARCELO</v>
       </c>
-      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="4">
+      <c r="R9" s="3"/>
+      <c r="S9" s="4">
         <f>ROW(A9)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>20168291281</v>
@@ -1400,45 +1414,46 @@
         <v>44958</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GUSTAVO\2023\02\</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K10" s="3" t="str">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L10" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E10,"MMMM AAAA"),1))&amp;MID(TEXT(E10,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="str">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1 - 20168291281 - 202302 - BUSTOS GUSTAVO</v>
       </c>
-      <c r="N10" s="3" t="str">
+      <c r="O10" s="3" t="str">
         <f t="shared" si="4"/>
         <v>1 - 20168291281 - 202302 - BUSTOS GUSTAVO</v>
       </c>
-      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="4">
+      <c r="R10" s="3"/>
+      <c r="S10" s="4">
         <f>ROW(A10)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>20172521771</v>
@@ -1451,345 +1466,352 @@
         <v>44958</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PEREYRA ESTEBAN\2023\02\</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K11" s="3" t="str">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L11" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E11,"MMMM AAAA"),1))&amp;MID(TEXT(E11,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="str">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1 - 20172521771 - 202302 - PEREYRA ESTEBAN</v>
       </c>
-      <c r="N11" s="3" t="str">
+      <c r="O11" s="3" t="str">
         <f t="shared" si="4"/>
         <v>1 - 20172521771 - 202302 - PEREYRA ESTEBAN</v>
       </c>
-      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="4">
+      <c r="R11" s="3"/>
+      <c r="S11" s="4">
         <f>ROW(A11)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>27128520851</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1">
         <v>44958</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\MOLAS PATRICIA\2023\02\</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K12" s="3" t="str">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L12" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E12,"MMMM AAAA"),1))&amp;MID(TEXT(E12,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="str">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1 - 27128520851 - 202302 - MOLAS PATRICIA</v>
       </c>
-      <c r="N12" s="3" t="str">
+      <c r="O12" s="3" t="str">
         <f t="shared" si="4"/>
         <v>1 - 27128520851 - 202302 - MOLAS PATRICIA</v>
       </c>
-      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="4">
+      <c r="R12" s="3"/>
+      <c r="S12" s="4">
         <f>ROW(A12)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>20149466356</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
         <v>44958</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\GESAL SA\2023\02\</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K13" s="3" t="str">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L13" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E13,"MMMM AAAA"),1))&amp;MID(TEXT(E13,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="str">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1 - 30710404131 - 202302 - GESAL SA</v>
       </c>
-      <c r="N13" s="3" t="str">
+      <c r="O13" s="3" t="str">
         <f t="shared" si="4"/>
         <v>1 - 30710404131 - 202302 - GESAL SA</v>
       </c>
-      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="4">
+      <c r="R13" s="3"/>
+      <c r="S13" s="4">
         <f>ROW(A13)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>27109797257</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>44958</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONDOMINIO SAN LORENZO\2023\02\</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K14" s="3" t="str">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L14" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E14,"MMMM AAAA"),1))&amp;MID(TEXT(E14,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="str">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="str">
         <f t="shared" si="3"/>
         <v>1 - 30717059111 - 202302 - CONDOMINIO SAN LORENZO</v>
       </c>
-      <c r="N14" s="3" t="str">
+      <c r="O14" s="3" t="str">
         <f t="shared" si="4"/>
         <v>1 - 30717059111 - 202302 - CONDOMINIO SAN LORENZO</v>
       </c>
-      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="4">
+      <c r="R14" s="3"/>
+      <c r="S14" s="4">
         <f>ROW(A14)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>20121182832</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1">
         <v>44958</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\RIERA HECTOR M\2023\02\</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K15" s="3" t="str">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L15" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E15,"MMMM AAAA"),1))&amp;MID(TEXT(E15,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="str">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="str">
         <f t="shared" si="3"/>
         <v>2 - 20121182832 - 202302 - RIERA HECTOR M</v>
       </c>
-      <c r="N15" s="3" t="str">
+      <c r="O15" s="3" t="str">
         <f t="shared" si="4"/>
         <v>2 - 20121182832 - 202302 - RIERA HECTOR M</v>
       </c>
-      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="4">
+      <c r="R15" s="3"/>
+      <c r="S15" s="4">
         <f>ROW(A15)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>20147130202</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1">
         <v>44958</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS MARTIN\2023\02\</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K16" s="3" t="str">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L16" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E16,"MMMM AAAA"),1))&amp;MID(TEXT(E16,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="str">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="str">
         <f t="shared" si="3"/>
         <v>2 - 20147130202 - 202302 - BUSTOS MARTIN</v>
       </c>
-      <c r="N16" s="3" t="str">
+      <c r="O16" s="3" t="str">
         <f t="shared" si="4"/>
         <v>2 - 20147130202 - 202302 - BUSTOS MARTIN</v>
       </c>
-      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="4">
+      <c r="R16" s="3"/>
+      <c r="S16" s="4">
         <f>ROW(A16)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>20174123072</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1">
         <v>44958</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INSAURRALDE CARLOS\2023\02\</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K17" s="3" t="str">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L17" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E17,"MMMM AAAA"),1))&amp;MID(TEXT(E17,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="str">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="str">
         <f t="shared" si="3"/>
         <v>2 - 20174123072 - 202302 - INSAURRALDE CARLOS</v>
       </c>
-      <c r="N17" s="3" t="str">
+      <c r="O17" s="3" t="str">
         <f t="shared" si="4"/>
         <v>2 - 20174123072 - 202302 - INSAURRALDE CARLOS</v>
       </c>
-      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="4">
+      <c r="R17" s="3"/>
+      <c r="S17" s="4">
         <f>ROW(A17)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>27182653972</v>
@@ -1802,801 +1824,817 @@
         <v>44958</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA LILIANA\2023\02\</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K18" s="3" t="str">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L18" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E18,"MMMM AAAA"),1))&amp;MID(TEXT(E18,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3" t="str">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="str">
         <f t="shared" si="3"/>
         <v>2 - 27182653972 - 202302 - FERNANDEZ SOSA LILIANA</v>
       </c>
-      <c r="N18" s="3" t="str">
+      <c r="O18" s="3" t="str">
         <f t="shared" si="4"/>
         <v>2 - 27182653972 - 202302 - FERNANDEZ SOSA LILIANA</v>
       </c>
-      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="4">
+      <c r="R18" s="3"/>
+      <c r="S18" s="4">
         <f>ROW(A18)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>27348916942</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="1">
         <v>44743</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI KAREN\2022\07\</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4" t="str">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>202207</v>
       </c>
-      <c r="K19" s="3" t="str">
+      <c r="L19" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E19,"MMMM AAAA"),1))&amp;MID(TEXT(E19,"MMMM AAAA"),2,30)</f>
         <v>Julio 2022</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3" t="str">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="str">
         <f t="shared" si="3"/>
         <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
       </c>
-      <c r="N19" s="3" t="str">
+      <c r="O19" s="3" t="str">
         <f t="shared" si="4"/>
         <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
       </c>
-      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="4">
+      <c r="R19" s="3"/>
+      <c r="S19" s="4">
         <f>ROW(A19)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>20100325048</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1">
         <v>44958</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\POSADAS FIDUCIARIA SA\2023\02\</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K20" s="3" t="str">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L20" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E20,"MMMM AAAA"),1))&amp;MID(TEXT(E20,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3" t="str">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="str">
         <f t="shared" si="3"/>
         <v>2 - 30708370122 - 202302 - POSADAS FIDUCIARIA SA</v>
       </c>
-      <c r="N20" s="3" t="str">
+      <c r="O20" s="3" t="str">
         <f t="shared" si="4"/>
         <v>2 - 30708370122 - 202302 - POSADAS FIDUCIARIA SA</v>
       </c>
-      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="4">
+      <c r="R20" s="3"/>
+      <c r="S20" s="4">
         <f>ROW(A20)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21">
         <v>27068286323</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="1">
         <v>44958</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SEMILLA ELVIES\2023\02\</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K21" s="3" t="str">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L21" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E21,"MMMM AAAA"),1))&amp;MID(TEXT(E21,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="str">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="str">
         <f t="shared" si="3"/>
         <v>3 - 27068286323 - 202302 - SEMILLA ELVIES</v>
       </c>
-      <c r="N21" s="3" t="str">
+      <c r="O21" s="3" t="str">
         <f t="shared" si="4"/>
         <v>3 - 27068286323 - 202302 - SEMILLA ELVIES</v>
       </c>
-      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="4">
+      <c r="R21" s="3"/>
+      <c r="S21" s="4">
         <f>ROW(A21)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <v>27354872183</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="1">
         <v>44743</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA MARIA EUGENIA\2022\07\</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4" t="str">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>202207</v>
       </c>
-      <c r="K22" s="3" t="str">
+      <c r="L22" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E22,"MMMM AAAA"),1))&amp;MID(TEXT(E22,"MMMM AAAA"),2,30)</f>
         <v>Julio 2022</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3" t="str">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="str">
         <f t="shared" si="3"/>
         <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
       </c>
-      <c r="N22" s="3" t="str">
+      <c r="O22" s="3" t="str">
         <f t="shared" si="4"/>
         <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
       </c>
-      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="4">
+      <c r="R22" s="3"/>
+      <c r="S22" s="4">
         <f>ROW(A22)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>20114794083</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1">
         <v>44958</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CUCYTI SRL\2023\02\</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K23" s="3" t="str">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L23" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E23,"MMMM AAAA"),1))&amp;MID(TEXT(E23,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="str">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="str">
         <f t="shared" si="3"/>
         <v>3 - 30672355393 - 202302 - CUCYTI SRL</v>
       </c>
-      <c r="N23" s="3" t="str">
+      <c r="O23" s="3" t="str">
         <f t="shared" si="4"/>
         <v>3 - 30672355393 - 202302 - CUCYTI SRL</v>
       </c>
-      <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="4">
+      <c r="R23" s="3"/>
+      <c r="S23" s="4">
         <f>ROW(A23)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>23149462074</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1">
         <v>44958</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARLOS ABELARDO SESMERO SRL\2023\02\</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K24" s="3" t="str">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L24" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E24,"MMMM AAAA"),1))&amp;MID(TEXT(E24,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="str">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="str">
         <f t="shared" si="3"/>
         <v>3 - 30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL</v>
       </c>
-      <c r="N24" s="3" t="str">
+      <c r="O24" s="3" t="str">
         <f t="shared" si="4"/>
         <v>3 - 30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL</v>
       </c>
-      <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="4">
+      <c r="R24" s="3"/>
+      <c r="S24" s="4">
         <f>ROW(A24)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>20133762761</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1">
         <v>44958</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\TRANS. MISIONES SA\2023\02\</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K25" s="3" t="str">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L25" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E25,"MMMM AAAA"),1))&amp;MID(TEXT(E25,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3" t="str">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="str">
         <f t="shared" si="3"/>
         <v>3 - 30715577743 - 202302 - TRANS. MISIONES SA</v>
       </c>
-      <c r="N25" s="3" t="str">
+      <c r="O25" s="3" t="str">
         <f t="shared" si="4"/>
         <v>3 - 30715577743 - 202302 - TRANS. MISIONES SA</v>
       </c>
-      <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="4">
+      <c r="R25" s="3"/>
+      <c r="S25" s="4">
         <f>ROW(A25)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>27201178776</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="1">
         <v>44958</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\DON LALO SRL\2023\02\</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K26" s="3" t="str">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L26" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E26,"MMMM AAAA"),1))&amp;MID(TEXT(E26,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="str">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3" t="str">
         <f t="shared" si="3"/>
         <v>3 - 30717537153 - 202302 - DON LALO SRL</v>
       </c>
-      <c r="N26" s="3" t="str">
+      <c r="O26" s="3" t="str">
         <f t="shared" si="4"/>
         <v>3 - 30717537153 - 202302 - DON LALO SRL</v>
       </c>
-      <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="4">
+      <c r="R26" s="3"/>
+      <c r="S26" s="4">
         <f>ROW(A26)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27">
         <v>20168291834</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="1">
         <v>44958</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA RODOLFO\2023\02\</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K27" s="3" t="str">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L27" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E27,"MMMM AAAA"),1))&amp;MID(TEXT(E27,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3" t="str">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="str">
         <f t="shared" si="3"/>
         <v>4 - 20168291834 - 202302 - FERNANDEZ SOSA RODOLFO</v>
       </c>
-      <c r="N27" s="3" t="str">
+      <c r="O27" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4 - 20168291834 - 202302 - FERNANDEZ SOSA RODOLFO</v>
       </c>
-      <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="4">
+      <c r="R27" s="3"/>
+      <c r="S27" s="4">
         <f>ROW(A27)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28">
         <v>23149462074</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E28" s="1">
         <v>44958</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO MARIA GABRIELA\2023\02\</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K28" s="3" t="str">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L28" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E28,"MMMM AAAA"),1))&amp;MID(TEXT(E28,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3" t="str">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="str">
         <f t="shared" si="3"/>
         <v>4 - 23149462074 - 202302 - SESMERO MARIA GABRIELA</v>
       </c>
-      <c r="N28" s="3" t="str">
+      <c r="O28" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4 - 23149462074 - 202302 - SESMERO MARIA GABRIELA</v>
       </c>
-      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="4">
+      <c r="R28" s="3"/>
+      <c r="S28" s="4">
         <f>ROW(A28)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29">
         <v>23342751644</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" s="1">
         <v>44958</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARMEN VICTORIA\2023\02\</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K29" s="3" t="str">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L29" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E29,"MMMM AAAA"),1))&amp;MID(TEXT(E29,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3" t="str">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="str">
         <f t="shared" si="3"/>
         <v>4 - 23342751644 - 202302 - FERREYRA CARMEN VICTORIA</v>
       </c>
-      <c r="N29" s="3" t="str">
+      <c r="O29" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4 - 23342751644 - 202302 - FERREYRA CARMEN VICTORIA</v>
       </c>
-      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="4">
+      <c r="R29" s="3"/>
+      <c r="S29" s="4">
         <f>ROW(A29)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>23351897074</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1">
         <v>44958</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTO LUCILA\2023\02\</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K30" s="3" t="str">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L30" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E30,"MMMM AAAA"),1))&amp;MID(TEXT(E30,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="str">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3" t="str">
         <f t="shared" si="3"/>
         <v>4 - 23351897074 - 202302 - SCOTO LUCILA</v>
       </c>
-      <c r="N30" s="3" t="str">
+      <c r="O30" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4 - 23351897074 - 202302 - SCOTO LUCILA</v>
       </c>
-      <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="4">
+      <c r="R30" s="3"/>
+      <c r="S30" s="4">
         <f>ROW(A30)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <v>27236873744</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="1">
         <v>44958</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\TUFRO MALENA\2023\02\</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K31" s="3" t="str">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L31" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E31,"MMMM AAAA"),1))&amp;MID(TEXT(E31,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3" t="str">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="str">
         <f t="shared" si="3"/>
         <v>4 - 27236873744 - 202302 - TUFRO MALENA</v>
       </c>
-      <c r="N31" s="3" t="str">
+      <c r="O31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4 - 27236873744 - 202302 - TUFRO MALENA</v>
       </c>
-      <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="4">
+      <c r="R31" s="3"/>
+      <c r="S31" s="4">
         <f>ROW(A31)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>20149462601</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="1">
         <v>44958</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\DVC SRL\2023\02\</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K32" s="3" t="str">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L32" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E32,"MMMM AAAA"),1))&amp;MID(TEXT(E32,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3" t="str">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="str">
         <f t="shared" si="3"/>
         <v>4 - 30709431834 - 202302 - DVC SRL</v>
       </c>
-      <c r="N32" s="3" t="str">
+      <c r="O32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4 - 30709431834 - 202302 - DVC SRL</v>
       </c>
-      <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="4">
+      <c r="R32" s="3"/>
+      <c r="S32" s="4">
         <f>ROW(A32)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>20334250327</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1">
         <v>44958</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VECINAS SRL\2023\02\</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K33" s="3" t="str">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L33" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E33,"MMMM AAAA"),1))&amp;MID(TEXT(E33,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3" t="str">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="str">
         <f t="shared" si="3"/>
         <v>4 - 30715795864 - 202302 - VECINAS SRL</v>
       </c>
-      <c r="N33" s="3" t="str">
+      <c r="O33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>4 - 30715795864 - 202302 - VECINAS SRL</v>
       </c>
-      <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="4">
+      <c r="R33" s="3"/>
+      <c r="S33" s="4">
         <f>ROW(A33)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>20074827455</v>
@@ -2609,95 +2647,97 @@
         <v>44958</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI RICARDO\2023\02\</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K34" s="3" t="str">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L34" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3" t="str">
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="str">
         <f t="shared" si="3"/>
         <v>5 - 20074827455 - 202302 - SZYCHOWSKI RICARDO</v>
       </c>
-      <c r="N34" s="3" t="str">
+      <c r="O34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5 - 20074827455 - 202302 - SZYCHOWSKI RICARDO</v>
       </c>
-      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="4">
+      <c r="R34" s="3"/>
+      <c r="S34" s="4">
         <f>ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <v>20170394845</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" s="1">
         <v>44958</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA MARCELO\2023\02\</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K35" s="3" t="str">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L35" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E35,"MMMM AAAA"),1))&amp;MID(TEXT(E35,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3" t="str">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3" t="str">
         <f t="shared" si="3"/>
         <v>5 - 20170394845 - 202302 - FERREYRA MARCELO</v>
       </c>
-      <c r="N35" s="3" t="str">
+      <c r="O35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5 - 20170394845 - 202302 - FERREYRA MARCELO</v>
       </c>
-      <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="4">
+      <c r="R35" s="3"/>
+      <c r="S35" s="4">
         <f>ROW(A35)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>27148268105</v>
@@ -2710,45 +2750,46 @@
         <v>44958</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CANTELI GRACIELA\2023\02\</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K36" s="3" t="str">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L36" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E36,"MMMM AAAA"),1))&amp;MID(TEXT(E36,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3" t="str">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3" t="str">
         <f t="shared" si="3"/>
         <v>5 - 27148268105 - 202302 - CANTELI GRACIELA</v>
       </c>
-      <c r="N36" s="3" t="str">
+      <c r="O36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5 - 27148268105 - 202302 - CANTELI GRACIELA</v>
       </c>
-      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="4">
+      <c r="R36" s="3"/>
+      <c r="S36" s="4">
         <f>ROW(A36)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>27171709925</v>
@@ -2761,495 +2802,505 @@
         <v>44958</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CORONAS ALINE\2023\02\</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K37" s="3" t="str">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L37" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E37,"MMMM AAAA"),1))&amp;MID(TEXT(E37,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3" t="str">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3" t="str">
         <f t="shared" si="3"/>
         <v>5 - 27171709925 - 202302 - CORONAS ALINE</v>
       </c>
-      <c r="N37" s="3" t="str">
+      <c r="O37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5 - 27171709925 - 202302 - CORONAS ALINE</v>
       </c>
-      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="4">
+      <c r="R37" s="3"/>
+      <c r="S37" s="4">
         <f>ROW(A37)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>20114794083</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1">
         <v>44958</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ASOC. SALUD MNES\2023\02\</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K38" s="3" t="str">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L38" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E38,"MMMM AAAA"),1))&amp;MID(TEXT(E38,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3" t="str">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3" t="str">
         <f t="shared" si="3"/>
         <v>5 - 30708553715 - 202302 - ASOC. SALUD MNES</v>
       </c>
-      <c r="N38" s="3" t="str">
+      <c r="O38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>5 - 30708553715 - 202302 - ASOC. SALUD MNES</v>
       </c>
-      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="4">
+      <c r="R38" s="3"/>
+      <c r="S38" s="4">
         <f>ROW(A38)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>20149466356</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="1">
         <v>44958</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ENRIQUEZ RUBEN\2023\02\</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K39" s="3" t="str">
+      <c r="J39" s="4"/>
+      <c r="K39" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L39" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E39,"MMMM AAAA"),1))&amp;MID(TEXT(E39,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3" t="str">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3" t="str">
         <f t="shared" si="3"/>
         <v>6 - 20149466356 - 202302 - ENRIQUEZ RUBEN</v>
       </c>
-      <c r="N39" s="3" t="str">
+      <c r="O39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>6 - 20149466356 - 202302 - ENRIQUEZ RUBEN</v>
       </c>
-      <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="4">
+      <c r="R39" s="3"/>
+      <c r="S39" s="4">
         <f>ROW(A39)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>20416948926</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="1">
         <v>44958</v>
       </c>
       <c r="G40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA IÑAKI\2023\02\</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K40" s="3" t="str">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L40" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E40,"MMMM AAAA"),1))&amp;MID(TEXT(E40,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3" t="str">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3" t="str">
         <f t="shared" si="3"/>
         <v>6 - 20416948926 - 202302 - BEITIA IÑAKI</v>
       </c>
-      <c r="N40" s="3" t="str">
+      <c r="O40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>6 - 20416948926 - 202302 - BEITIA IÑAKI</v>
       </c>
-      <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="4">
+      <c r="R40" s="3"/>
+      <c r="S40" s="4">
         <f>ROW(A40)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41">
         <v>27058846916</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1">
         <v>44958</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LAZCOZ VIOLETA\2023\02\</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K41" s="3" t="str">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L41" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E41,"MMMM AAAA"),1))&amp;MID(TEXT(E41,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3" t="str">
+      <c r="M41" s="3"/>
+      <c r="N41" s="3" t="str">
         <f t="shared" si="3"/>
         <v>6 - 27058846916 - 202302 - LAZCOZ VIOLETA</v>
       </c>
-      <c r="N41" s="3" t="str">
+      <c r="O41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>6 - 27058846916 - 202302 - LAZCOZ VIOLETA</v>
       </c>
-      <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="4">
+      <c r="R41" s="3"/>
+      <c r="S41" s="4">
         <f>ROW(A41)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42">
         <v>27201178776</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" s="1">
         <v>44958</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI AMANDA \2023\02\</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K42" s="3" t="str">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L42" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E42,"MMMM AAAA"),1))&amp;MID(TEXT(E42,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3" t="str">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">6 - 27201178776 - 202302 - SZYCHOWSKI AMANDA </v>
       </c>
-      <c r="N42" s="3" t="str">
+      <c r="O42" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">6 - 27201178776 - 202302 - SZYCHOWSKI AMANDA </v>
       </c>
-      <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="4">
+      <c r="R42" s="3"/>
+      <c r="S42" s="4">
         <f>ROW(A42)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>27261827366</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="1">
         <v>44958</v>
       </c>
       <c r="G43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARBALLO GRACIELA\2023\02\</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K43" s="3" t="str">
+      <c r="J43" s="4"/>
+      <c r="K43" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L43" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E43,"MMMM AAAA"),1))&amp;MID(TEXT(E43,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3" t="str">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>6 - 27261827366 - 202302 - CARBALLO GRACIELA</v>
       </c>
-      <c r="N43" s="3" t="str">
+      <c r="O43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>6 - 27261827366 - 202302 - CARBALLO GRACIELA</v>
       </c>
-      <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="4">
+      <c r="R43" s="3"/>
+      <c r="S43" s="4">
         <f>ROW(A43)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>20109908852</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="1">
         <v>44958</v>
       </c>
       <c r="G44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PREST. SANAT. SA\2023\02\</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K44" s="3" t="str">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L44" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E44,"MMMM AAAA"),1))&amp;MID(TEXT(E44,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3" t="str">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>6 - 30687910636 - 202302 - PREST. SANAT. SA</v>
       </c>
-      <c r="N44" s="3" t="str">
+      <c r="O44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>6 - 30687910636 - 202302 - PREST. SANAT. SA</v>
       </c>
-      <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="4">
+      <c r="R44" s="3"/>
+      <c r="S44" s="4">
         <f>ROW(A44)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>23173121539</v>
       </c>
       <c r="D45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="1">
         <v>44958</v>
       </c>
       <c r="G45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONSULTORIO SAN MARTIN\2023\02\</v>
       </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K45" s="3" t="str">
+      <c r="J45" s="4"/>
+      <c r="K45" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L45" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E45,"MMMM AAAA"),1))&amp;MID(TEXT(E45,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3" t="str">
+      <c r="M45" s="3"/>
+      <c r="N45" s="3" t="str">
         <f t="shared" si="3"/>
         <v>6 - 30715347926 - 202302 - CONSULTORIO SAN MARTIN</v>
       </c>
-      <c r="N45" s="3" t="str">
+      <c r="O45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>6 - 30715347926 - 202302 - CONSULTORIO SAN MARTIN</v>
       </c>
-      <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="4">
+      <c r="R45" s="3"/>
+      <c r="S45" s="4">
         <f>ROW(A45)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>20334250327</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46" s="1">
         <v>44958</v>
       </c>
       <c r="G46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA PROPIEDADES\2023\02\</v>
       </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K46" s="3" t="str">
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L46" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E46,"MMMM AAAA"),1))&amp;MID(TEXT(E46,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3" t="str">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3" t="str">
         <f t="shared" si="3"/>
         <v>6 - 30716503816 - 202302 - PENSA PROPIEDADES</v>
       </c>
-      <c r="N46" s="3" t="str">
+      <c r="O46" s="3" t="str">
         <f t="shared" si="4"/>
         <v>6 - 30716503816 - 202302 - PENSA PROPIEDADES</v>
       </c>
-      <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="4">
+      <c r="R46" s="3"/>
+      <c r="S46" s="4">
         <f>ROW(A46)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>20077065637</v>
@@ -3262,45 +3313,46 @@
         <v>44958</v>
       </c>
       <c r="G47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA ANIBAL\2023\02\</v>
       </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K47" s="3" t="str">
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L47" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E47,"MMMM AAAA"),1))&amp;MID(TEXT(E47,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3" t="str">
+      <c r="M47" s="3"/>
+      <c r="N47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 20077065637 - 202302 - PENSA ANIBAL</v>
       </c>
-      <c r="N47" s="3" t="str">
+      <c r="O47" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 20077065637 - 202302 - PENSA ANIBAL</v>
       </c>
-      <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="4">
+      <c r="R47" s="3"/>
+      <c r="S47" s="4">
         <f>ROW(A47)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>20130056637</v>
@@ -3313,95 +3365,97 @@
         <v>44958</v>
       </c>
       <c r="G48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\TABBIA ENRIQUE\2023\02\</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K48" s="3" t="str">
+      <c r="J48" s="4"/>
+      <c r="K48" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L48" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E48,"MMMM AAAA"),1))&amp;MID(TEXT(E48,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3" t="str">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 20130056637 - 202302 - TABBIA ENRIQUE</v>
       </c>
-      <c r="N48" s="3" t="str">
+      <c r="O48" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 20130056637 - 202302 - TABBIA ENRIQUE</v>
       </c>
-      <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="4">
+      <c r="R48" s="3"/>
+      <c r="S48" s="4">
         <f>ROW(A48)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <v>20170395167</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="1">
         <v>44958</v>
       </c>
       <c r="G49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE HUGO\2023\02\</v>
       </c>
       <c r="I49" s="4"/>
-      <c r="J49" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K49" s="3" t="str">
+      <c r="J49" s="4"/>
+      <c r="K49" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L49" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E49,"MMMM AAAA"),1))&amp;MID(TEXT(E49,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3" t="str">
+      <c r="M49" s="3"/>
+      <c r="N49" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 20170395167 - 202302 - HOPE HUGO</v>
       </c>
-      <c r="N49" s="3" t="str">
+      <c r="O49" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 20170395167 - 202302 - HOPE HUGO</v>
       </c>
-      <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="4">
+      <c r="R49" s="3"/>
+      <c r="S49" s="4">
         <f>ROW(A49)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>20301650087</v>
@@ -3414,448 +3468,457 @@
         <v>44958</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA NESTOR LEONEL\2023\02\</v>
       </c>
       <c r="I50" s="4"/>
-      <c r="J50" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K50" s="3" t="str">
+      <c r="J50" s="4"/>
+      <c r="K50" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L50" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E50,"MMMM AAAA"),1))&amp;MID(TEXT(E50,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3" t="str">
+      <c r="M50" s="3"/>
+      <c r="N50" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 20301650087 - 202302 - VARENIZA NESTOR LEONEL</v>
       </c>
-      <c r="N50" s="3" t="str">
+      <c r="O50" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 20301650087 - 202302 - VARENIZA NESTOR LEONEL</v>
       </c>
-      <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="4">
+      <c r="R50" s="3"/>
+      <c r="S50" s="4">
         <f>ROW(A50)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <v>20327623967</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E51" s="1">
         <v>44958</v>
       </c>
       <c r="G51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA ANDRES\2023\02\</v>
       </c>
       <c r="I51" s="4"/>
-      <c r="J51" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K51" s="3" t="str">
+      <c r="J51" s="4"/>
+      <c r="K51" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L51" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E51,"MMMM AAAA"),1))&amp;MID(TEXT(E51,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3" t="str">
+      <c r="M51" s="3"/>
+      <c r="N51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 20327623967 - 202302 - FERREYRA ANDRES</v>
       </c>
-      <c r="N51" s="3" t="str">
+      <c r="O51" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 20327623967 - 202302 - FERREYRA ANDRES</v>
       </c>
-      <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="4">
+      <c r="R51" s="3"/>
+      <c r="S51" s="4">
         <f>ROW(A51)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52">
         <v>20334250327</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" s="1">
         <v>44743</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA LUCIANO\2022\07\</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52" s="4" t="str">
+      <c r="J52" s="4"/>
+      <c r="K52" s="4" t="str">
         <f t="shared" si="2"/>
         <v>202207</v>
       </c>
-      <c r="K52" s="3" t="str">
+      <c r="L52" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E52,"MMMM AAAA"),1))&amp;MID(TEXT(E52,"MMMM AAAA"),2,30)</f>
         <v>Julio 2022</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3" t="str">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
       </c>
-      <c r="N52" s="3" t="str">
+      <c r="O52" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
       </c>
-      <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="4">
+      <c r="R52" s="3"/>
+      <c r="S52" s="4">
         <f>ROW(A52)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53">
         <v>27109797257</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="1">
         <v>44958</v>
       </c>
       <c r="G53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTTO OLGA MARIA\2023\02\</v>
       </c>
       <c r="I53" s="4"/>
-      <c r="J53" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K53" s="3" t="str">
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L53" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E53,"MMMM AAAA"),1))&amp;MID(TEXT(E53,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3" t="str">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 27109797257 - 202302 - SCOTTO OLGA MARIA</v>
       </c>
-      <c r="N53" s="3" t="str">
+      <c r="O53" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 27109797257 - 202302 - SCOTTO OLGA MARIA</v>
       </c>
-      <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="4">
+      <c r="R53" s="3"/>
+      <c r="S53" s="4">
         <f>ROW(A53)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54">
         <v>27217236547</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" s="1">
         <v>44958</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ROKO EUGENIA\2023\02\</v>
       </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K54" s="3" t="str">
+      <c r="J54" s="4"/>
+      <c r="K54" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L54" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E54,"MMMM AAAA"),1))&amp;MID(TEXT(E54,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3" t="str">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 27217236547 - 202302 - ROKO EUGENIA</v>
       </c>
-      <c r="N54" s="3" t="str">
+      <c r="O54" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 27217236547 - 202302 - ROKO EUGENIA</v>
       </c>
-      <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="4">
+      <c r="R54" s="3"/>
+      <c r="S54" s="4">
         <f>ROW(A54)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55">
         <v>20147130202</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E55" s="1">
         <v>44958</v>
       </c>
       <c r="G55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS-HOPE S.H\2023\02\</v>
       </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K55" s="3" t="str">
+      <c r="J55" s="4"/>
+      <c r="K55" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L55" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E55,"MMMM AAAA"),1))&amp;MID(TEXT(E55,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3" t="str">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 30650940667 - 202302 - BUSTOS-HOPE S.H</v>
       </c>
-      <c r="N55" s="3" t="str">
+      <c r="O55" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 30650940667 - 202302 - BUSTOS-HOPE S.H</v>
       </c>
-      <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="4">
+      <c r="R55" s="3"/>
+      <c r="S55" s="4">
         <f>ROW(A55)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56">
         <v>20174123072</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E56" s="1">
         <v>44958</v>
       </c>
       <c r="G56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CEBAC\2023\02\</v>
       </c>
       <c r="I56" s="4"/>
-      <c r="J56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K56" s="3" t="str">
+      <c r="J56" s="4"/>
+      <c r="K56" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L56" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E56,"MMMM AAAA"),1))&amp;MID(TEXT(E56,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3" t="str">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 30672372697 - 202302 - CEBAC</v>
       </c>
-      <c r="N56" s="3" t="str">
+      <c r="O56" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 30672372697 - 202302 - CEBAC</v>
       </c>
-      <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="4">
+      <c r="R56" s="3"/>
+      <c r="S56" s="4">
         <f>ROW(A56)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <v>23183086499</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" s="1">
         <v>44958</v>
       </c>
       <c r="G57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\AITA S.A.\2023\02\</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K57" s="3" t="str">
+      <c r="J57" s="4"/>
+      <c r="K57" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L57" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E57,"MMMM AAAA"),1))&amp;MID(TEXT(E57,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3" t="str">
+      <c r="M57" s="3"/>
+      <c r="N57" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 30709419567 - 202302 - AITA S.A.</v>
       </c>
-      <c r="N57" s="3" t="str">
+      <c r="O57" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 30709419567 - 202302 - AITA S.A.</v>
       </c>
-      <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="4">
+      <c r="R57" s="3"/>
+      <c r="S57" s="4">
         <f>ROW(A57)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58">
         <v>27222731416</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E58" s="1">
         <v>44958</v>
       </c>
       <c r="G58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. LARZABAL\2023\02\</v>
       </c>
       <c r="I58" s="4"/>
-      <c r="J58" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K58" s="3" t="str">
+      <c r="J58" s="4"/>
+      <c r="K58" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L58" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E58,"MMMM AAAA"),1))&amp;MID(TEXT(E58,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3" t="str">
+      <c r="M58" s="3"/>
+      <c r="N58" s="3" t="str">
         <f t="shared" si="3"/>
         <v>7 - 30712026797 - 202302 - COND. LARZABAL</v>
       </c>
-      <c r="N58" s="3" t="str">
+      <c r="O58" s="3" t="str">
         <f t="shared" si="4"/>
         <v>7 - 30712026797 - 202302 - COND. LARZABAL</v>
       </c>
-      <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="4">
+      <c r="R58" s="3"/>
+      <c r="S58" s="4">
         <f>ROW(A58)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <v>20082750488</v>
@@ -3868,45 +3931,46 @@
         <v>44958</v>
       </c>
       <c r="G59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA CARLOS\2023\02\</v>
       </c>
       <c r="I59" s="4"/>
-      <c r="J59" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K59" s="3" t="str">
+      <c r="J59" s="4"/>
+      <c r="K59" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L59" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E59,"MMMM AAAA"),1))&amp;MID(TEXT(E59,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3" t="str">
+      <c r="M59" s="3"/>
+      <c r="N59" s="3" t="str">
         <f t="shared" si="3"/>
         <v>8 - 20082750488 - 202302 - CASTRO OLIVERA CARLOS</v>
       </c>
-      <c r="N59" s="3" t="str">
+      <c r="O59" s="3" t="str">
         <f t="shared" si="4"/>
         <v>8 - 20082750488 - 202302 - CASTRO OLIVERA CARLOS</v>
       </c>
-      <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="4">
+      <c r="R59" s="3"/>
+      <c r="S59" s="4">
         <f>ROW(A59)</f>
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <v>20230966738</v>
@@ -3919,445 +3983,454 @@
         <v>44958</v>
       </c>
       <c r="G60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA DIEGO\2023\02\</v>
       </c>
       <c r="I60" s="4"/>
-      <c r="J60" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K60" s="3" t="str">
+      <c r="J60" s="4"/>
+      <c r="K60" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L60" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E60,"MMMM AAAA"),1))&amp;MID(TEXT(E60,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3" t="str">
+      <c r="M60" s="3"/>
+      <c r="N60" s="3" t="str">
         <f t="shared" si="3"/>
         <v>8 - 20230966738 - 202302 - URRUTIA DIEGO</v>
       </c>
-      <c r="N60" s="3" t="str">
+      <c r="O60" s="3" t="str">
         <f t="shared" si="4"/>
         <v>8 - 20230966738 - 202302 - URRUTIA DIEGO</v>
       </c>
-      <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="4">
+      <c r="R60" s="3"/>
+      <c r="S60" s="4">
         <f>ROW(A60)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61">
         <v>20303980378</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E61" s="1">
         <v>44958</v>
       </c>
       <c r="G61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA GONZALO\2023\02\</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K61" s="3" t="str">
+      <c r="J61" s="4"/>
+      <c r="K61" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L61" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E61,"MMMM AAAA"),1))&amp;MID(TEXT(E61,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3" t="str">
+      <c r="M61" s="3"/>
+      <c r="N61" s="3" t="str">
         <f t="shared" si="3"/>
         <v>8 - 20303980378 - 202302 - CASTRO OLIVERA GONZALO</v>
       </c>
-      <c r="N61" s="3" t="str">
+      <c r="O61" s="3" t="str">
         <f t="shared" si="4"/>
         <v>8 - 20303980378 - 202302 - CASTRO OLIVERA GONZALO</v>
       </c>
-      <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="4">
+      <c r="R61" s="3"/>
+      <c r="S61" s="4">
         <f>ROW(A61)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62">
         <v>27163651918</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E62" s="1">
         <v>44958</v>
       </c>
       <c r="G62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\MARTIN ADRIANA\2023\02\</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K62" s="3" t="str">
+      <c r="J62" s="4"/>
+      <c r="K62" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L62" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E62,"MMMM AAAA"),1))&amp;MID(TEXT(E62,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3" t="str">
+      <c r="M62" s="3"/>
+      <c r="N62" s="3" t="str">
         <f t="shared" si="3"/>
         <v>8 - 27163651918 - 202302 - MARTIN ADRIANA</v>
       </c>
-      <c r="N62" s="3" t="str">
+      <c r="O62" s="3" t="str">
         <f t="shared" si="4"/>
         <v>8 - 27163651918 - 202302 - MARTIN ADRIANA</v>
       </c>
-      <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="4">
+      <c r="R62" s="3"/>
+      <c r="S62" s="4">
         <f>ROW(A62)</f>
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>27201932268</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E63" s="1">
         <v>44958</v>
       </c>
       <c r="G63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SPAGNOLI SUSANA\2023\02\</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K63" s="3" t="str">
+      <c r="J63" s="4"/>
+      <c r="K63" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L63" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E63,"MMMM AAAA"),1))&amp;MID(TEXT(E63,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3" t="str">
+      <c r="M63" s="3"/>
+      <c r="N63" s="3" t="str">
         <f t="shared" si="3"/>
         <v>8 - 27201932268 - 202302 - SPAGNOLI SUSANA</v>
       </c>
-      <c r="N63" s="3" t="str">
+      <c r="O63" s="3" t="str">
         <f t="shared" si="4"/>
         <v>8 - 27201932268 - 202302 - SPAGNOLI SUSANA</v>
       </c>
-      <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="4">
+      <c r="R63" s="3"/>
+      <c r="S63" s="4">
         <f>ROW(A63)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64">
         <v>20175255819</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E64" s="1">
         <v>44958</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FORESTAL SA\2023\02\</v>
       </c>
       <c r="I64" s="4"/>
-      <c r="J64" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K64" s="3" t="str">
+      <c r="J64" s="4"/>
+      <c r="K64" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L64" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E64,"MMMM AAAA"),1))&amp;MID(TEXT(E64,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3" t="str">
+      <c r="M64" s="3"/>
+      <c r="N64" s="3" t="str">
         <f t="shared" si="3"/>
         <v>8 - 30701299538 - 202302 - FORESTAL SA</v>
       </c>
-      <c r="N64" s="3" t="str">
+      <c r="O64" s="3" t="str">
         <f t="shared" si="4"/>
         <v>8 - 30701299538 - 202302 - FORESTAL SA</v>
       </c>
-      <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="4">
+      <c r="R64" s="3"/>
+      <c r="S64" s="4">
         <f>ROW(A64)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65">
         <v>20100325048</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E65" s="1">
         <v>44958</v>
       </c>
       <c r="G65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FIDEIC. PDAS INMOB\2023\02\</v>
       </c>
       <c r="I65" s="4"/>
-      <c r="J65" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K65" s="3" t="str">
+      <c r="J65" s="4"/>
+      <c r="K65" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L65" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E65,"MMMM AAAA"),1))&amp;MID(TEXT(E65,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3" t="str">
+      <c r="M65" s="3"/>
+      <c r="N65" s="3" t="str">
         <f t="shared" si="3"/>
         <v>8 - 30708626348 - 202302 - FIDEIC. PDAS INMOB</v>
       </c>
-      <c r="N65" s="3" t="str">
+      <c r="O65" s="3" t="str">
         <f t="shared" si="4"/>
         <v>8 - 30708626348 - 202302 - FIDEIC. PDAS INMOB</v>
       </c>
-      <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="4">
+      <c r="R65" s="3"/>
+      <c r="S65" s="4">
         <f>ROW(A65)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" ref="A66:A75" si="5">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66">
         <v>20149466739</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="1">
         <v>44958</v>
       </c>
       <c r="G66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE RICARDO\2023\02\</v>
       </c>
       <c r="I66" s="4"/>
-      <c r="J66" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="K66" s="3" t="str">
+      <c r="J66" s="4"/>
+      <c r="K66" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>202302</v>
+      </c>
+      <c r="L66" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3" t="str">
+      <c r="M66" s="3"/>
+      <c r="N66" s="3" t="str">
         <f t="shared" si="3"/>
         <v>9 - 20149466739 - 202302 - HOPE RICARDO</v>
       </c>
-      <c r="N66" s="3" t="str">
+      <c r="O66" s="3" t="str">
         <f t="shared" si="4"/>
         <v>9 - 20149466739 - 202302 - HOPE RICARDO</v>
       </c>
-      <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="4">
+      <c r="R66" s="3"/>
+      <c r="S66" s="4">
         <f>ROW(A66)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67">
         <v>20175255819</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E67" s="1">
         <v>44958</v>
       </c>
       <c r="G67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H67" s="4" t="str">
         <f t="shared" ref="H67:H75" si="6">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
       </c>
       <c r="I67" s="4"/>
-      <c r="J67" s="4" t="str">
-        <f t="shared" ref="J67:J75" si="7">TEXT(E67,"AAAAMM")</f>
-        <v>202302</v>
-      </c>
-      <c r="K67" s="3" t="str">
+      <c r="J67" s="4"/>
+      <c r="K67" s="4" t="str">
+        <f t="shared" ref="K67:K75" si="7">TEXT(E67,"AAAAMM")</f>
+        <v>202302</v>
+      </c>
+      <c r="L67" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E67,"MMMM AAAA"),1))&amp;MID(TEXT(E67,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3" t="str">
-        <f t="shared" ref="M67:M75" si="8">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ",TEXT(K67,"AAAAMM")," - ",B67)</f>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3" t="str">
+        <f t="shared" ref="N67:N75" si="8">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ",TEXT(L67,"AAAAMM")," - ",B67)</f>
         <v>9 - 20175255819 - 202302 - BEITIA CRISPIN</v>
       </c>
-      <c r="N67" s="3" t="str">
-        <f t="shared" ref="N67:N75" si="9">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ",TEXT(K67,"AAAAMM")," - ",B67)</f>
+      <c r="O67" s="3" t="str">
+        <f t="shared" ref="O67:O75" si="9">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ",TEXT(L67,"AAAAMM")," - ",B67)</f>
         <v>9 - 20175255819 - 202302 - BEITIA CRISPIN</v>
       </c>
-      <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="4">
+      <c r="R67" s="3"/>
+      <c r="S67" s="4">
         <f>ROW(A67)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68">
         <v>20246008109</v>
       </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68" s="1">
         <v>44958</v>
       </c>
       <c r="G68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H68" s="4" t="str">
         <f t="shared" si="6"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
       </c>
       <c r="I68" s="4"/>
-      <c r="J68" s="4" t="str">
+      <c r="J68" s="4"/>
+      <c r="K68" s="4" t="str">
         <f t="shared" si="7"/>
         <v>202302</v>
       </c>
-      <c r="K68" s="3" t="str">
+      <c r="L68" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E68,"MMMM AAAA"),1))&amp;MID(TEXT(E68,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3" t="str">
+      <c r="M68" s="3"/>
+      <c r="N68" s="3" t="str">
         <f t="shared" si="8"/>
         <v>9 - 20246008109 - 202302 - BUSTOS GONZALO</v>
       </c>
-      <c r="N68" s="3" t="str">
+      <c r="O68" s="3" t="str">
         <f t="shared" si="9"/>
         <v>9 - 20246008109 - 202302 - BUSTOS GONZALO</v>
       </c>
-      <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="4">
+      <c r="R68" s="3"/>
+      <c r="S68" s="4">
         <f>ROW(A68)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69">
         <v>23120538209</v>
@@ -4370,341 +4443,348 @@
         <v>44958</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H69" s="4" t="str">
         <f t="shared" si="6"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
       </c>
       <c r="I69" s="4"/>
-      <c r="J69" s="4" t="str">
+      <c r="J69" s="4"/>
+      <c r="K69" s="4" t="str">
         <f t="shared" si="7"/>
         <v>202302</v>
       </c>
-      <c r="K69" s="3" t="str">
+      <c r="L69" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E69,"MMMM AAAA"),1))&amp;MID(TEXT(E69,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3" t="str">
+      <c r="M69" s="3"/>
+      <c r="N69" s="3" t="str">
         <f t="shared" si="8"/>
         <v>9 - 23120538209 - 202302 - LINDSTROM PLINIO</v>
       </c>
-      <c r="N69" s="3" t="str">
+      <c r="O69" s="3" t="str">
         <f t="shared" si="9"/>
         <v>9 - 23120538209 - 202302 - LINDSTROM PLINIO</v>
       </c>
-      <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="4">
+      <c r="R69" s="3"/>
+      <c r="S69" s="4">
         <f>ROW(A69)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70">
         <v>23242946669</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70" s="1">
         <v>44958</v>
       </c>
       <c r="G70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H70" s="4" t="str">
         <f t="shared" si="6"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
       </c>
       <c r="I70" s="4"/>
-      <c r="J70" s="4" t="str">
+      <c r="J70" s="4"/>
+      <c r="K70" s="4" t="str">
         <f t="shared" si="7"/>
         <v>202302</v>
       </c>
-      <c r="K70" s="3" t="str">
+      <c r="L70" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E70,"MMMM AAAA"),1))&amp;MID(TEXT(E70,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3" t="str">
+      <c r="M70" s="3"/>
+      <c r="N70" s="3" t="str">
         <f t="shared" si="8"/>
         <v>9 - 23242946669 - 202302 - SOTO GERONIMO</v>
       </c>
-      <c r="N70" s="3" t="str">
+      <c r="O70" s="3" t="str">
         <f t="shared" si="9"/>
         <v>9 - 23242946669 - 202302 - SOTO GERONIMO</v>
       </c>
-      <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="4">
+      <c r="R70" s="3"/>
+      <c r="S70" s="4">
         <f>ROW(A70)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71">
         <v>27173878309</v>
       </c>
       <c r="D71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E71" s="1">
         <v>44958</v>
       </c>
       <c r="G71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H71" s="4" t="str">
         <f t="shared" si="6"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
       </c>
       <c r="I71" s="4"/>
-      <c r="J71" s="4" t="str">
+      <c r="J71" s="4"/>
+      <c r="K71" s="4" t="str">
         <f t="shared" si="7"/>
         <v>202302</v>
       </c>
-      <c r="K71" s="3" t="str">
+      <c r="L71" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E71,"MMMM AAAA"),1))&amp;MID(TEXT(E71,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3" t="str">
+      <c r="M71" s="3"/>
+      <c r="N71" s="3" t="str">
         <f t="shared" si="8"/>
         <v>9 - 27173878309 - 202302 - LIONETO CAROLINA</v>
       </c>
-      <c r="N71" s="3" t="str">
+      <c r="O71" s="3" t="str">
         <f t="shared" si="9"/>
         <v>9 - 27173878309 - 202302 - LIONETO CAROLINA</v>
       </c>
-      <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="4">
+      <c r="R71" s="3"/>
+      <c r="S71" s="4">
         <f>ROW(A71)</f>
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C72">
         <v>23351897074</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E72" s="1">
         <v>44958</v>
       </c>
       <c r="G72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H72" s="4" t="str">
         <f t="shared" si="6"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
       </c>
       <c r="I72" s="4"/>
-      <c r="J72" s="4" t="str">
+      <c r="J72" s="4"/>
+      <c r="K72" s="4" t="str">
         <f t="shared" si="7"/>
         <v>202302</v>
       </c>
-      <c r="K72" s="3" t="str">
+      <c r="L72" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E72,"MMMM AAAA"),1))&amp;MID(TEXT(E72,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3" t="str">
+      <c r="M72" s="3"/>
+      <c r="N72" s="3" t="str">
         <f t="shared" si="8"/>
         <v>9 - 30715085409 - 202302 - COND. INVERNADA</v>
       </c>
-      <c r="N72" s="3" t="str">
+      <c r="O72" s="3" t="str">
         <f t="shared" si="9"/>
         <v>9 - 30715085409 - 202302 - COND. INVERNADA</v>
       </c>
-      <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="4">
+      <c r="R72" s="3"/>
+      <c r="S72" s="4">
         <f>ROW(A72)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73">
         <v>20168296011</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E73" s="1">
         <v>44958</v>
       </c>
       <c r="G73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H73" s="4" t="str">
         <f t="shared" si="6"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
       </c>
       <c r="I73" s="4"/>
-      <c r="J73" s="4" t="str">
+      <c r="J73" s="4"/>
+      <c r="K73" s="4" t="str">
         <f t="shared" si="7"/>
         <v>202302</v>
       </c>
-      <c r="K73" s="3" t="str">
+      <c r="L73" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E73,"MMMM AAAA"),1))&amp;MID(TEXT(E73,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3" t="str">
+      <c r="M73" s="3"/>
+      <c r="N73" s="3" t="str">
         <f t="shared" si="8"/>
         <v>9 - 33653520439 - 202302 - FAX SRL</v>
       </c>
-      <c r="N73" s="3" t="str">
+      <c r="O73" s="3" t="str">
         <f t="shared" si="9"/>
         <v>9 - 33653520439 - 202302 - FAX SRL</v>
       </c>
-      <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-      <c r="R73" s="4">
+      <c r="R73" s="3"/>
+      <c r="S73" s="4">
         <f>ROW(A73)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74">
         <v>20175255819</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E74" s="1">
         <v>44958</v>
       </c>
       <c r="G74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H74" s="4" t="str">
         <f t="shared" si="6"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
       </c>
       <c r="I74" s="4"/>
-      <c r="J74" s="4" t="str">
+      <c r="J74" s="4"/>
+      <c r="K74" s="4" t="str">
         <f t="shared" si="7"/>
         <v>202302</v>
       </c>
-      <c r="K74" s="3" t="str">
+      <c r="L74" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E74,"MMMM AAAA"),1))&amp;MID(TEXT(E74,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3" t="str">
+      <c r="M74" s="3"/>
+      <c r="N74" s="3" t="str">
         <f t="shared" si="8"/>
         <v>9 - 33712370829 - 202302 - KM 0 SA</v>
       </c>
-      <c r="N74" s="3" t="str">
+      <c r="O74" s="3" t="str">
         <f t="shared" si="9"/>
         <v>9 - 33712370829 - 202302 - KM 0 SA</v>
       </c>
-      <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="4">
+      <c r="R74" s="3"/>
+      <c r="S74" s="4">
         <f>ROW(A74)</f>
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75">
         <v>20175255819</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E75" s="1">
         <v>44958</v>
       </c>
       <c r="G75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H75" s="4" t="str">
         <f t="shared" si="6"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
       </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="4" t="str">
+      <c r="J75" s="4"/>
+      <c r="K75" s="4" t="str">
         <f t="shared" si="7"/>
         <v>202302</v>
       </c>
-      <c r="K75" s="3" t="str">
+      <c r="L75" s="3" t="str">
         <f>UPPER(LEFT(TEXT(E75,"MMMM AAAA"),1))&amp;MID(TEXT(E75,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3" t="str">
+      <c r="M75" s="3"/>
+      <c r="N75" s="3" t="str">
         <f t="shared" si="8"/>
         <v>9 - 33712529909 - 202302 - INMUEBLES SRL</v>
       </c>
-      <c r="N75" s="3" t="str">
+      <c r="O75" s="3" t="str">
         <f t="shared" si="9"/>
         <v>9 - 33712529909 - 202302 - INMUEBLES SRL</v>
       </c>
-      <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="4">
+      <c r="R75" s="3"/>
+      <c r="S75" s="4">
         <f>ROW(A75)</f>
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S75">
+  <autoFilter ref="A1:S75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T75">
     <sortCondition ref="B2:B75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Importación RETPER SOS.xlsx
+++ b/Importación RETPER SOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E14154-E4D9-46CB-9A81-3C0BA2DC4BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98835BD9-6AED-4E9B-B972-3B439A60FF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,11 +907,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,13 +1009,16 @@
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\2023\02\</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="str">
+        <f>H2</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\2023\02\</v>
+      </c>
       <c r="K2" s="4" t="str">
         <f>TEXT(E2,"AAAAMM")</f>
         <v>202302</v>
       </c>
       <c r="L2" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E2,"MMMM AAAA"),1))&amp;MID(TEXT(E2,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="L2:L33" si="1">UPPER(LEFT(TEXT(E2,"MMMM AAAA"),1))&amp;MID(TEXT(E2,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M2" s="3"/>
@@ -1030,7 +1034,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="4">
-        <f>ROW(A2)</f>
+        <f t="shared" ref="S2:S33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1056,37 +1060,40 @@
         <v>142</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="shared" ref="H3:H66" si="1">G3&amp;"\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
+        <f t="shared" ref="H3:H66" si="3">G3&amp;"\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\2023\02\</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="str">
+        <f t="shared" ref="J3:J66" si="4">H3</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\2023\02\</v>
+      </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K66" si="2">TEXT(E3,"AAAAMM")</f>
+        <f t="shared" ref="K3:K66" si="5">TEXT(E3,"AAAAMM")</f>
         <v>202302</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E3,"MMMM AAAA"),1))&amp;MID(TEXT(E3,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="str">
-        <f t="shared" ref="N3:N66" si="3">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ",TEXT(L3,"AAAAMM")," - ",B3)</f>
+        <f t="shared" ref="N3:N66" si="6">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ",TEXT(L3,"AAAAMM")," - ",B3)</f>
         <v>0 - 20315731330 - 202302 - VARENIZA ANGEL</v>
       </c>
       <c r="O3" s="3" t="str">
-        <f t="shared" ref="O3:O66" si="4">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ",TEXT(L3,"AAAAMM")," - ",B3)</f>
+        <f t="shared" ref="O3:O66" si="7">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ",TEXT(L3,"AAAAMM")," - ",B3)</f>
         <v>0 - 20315731330 - 202302 - VARENIZA ANGEL</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="4">
-        <f>ROW(A3)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1110,33 +1117,36 @@
         <v>142</v>
       </c>
       <c r="H4" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA TOMAS\2022\07\</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA TOMAS\2022\07\</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202207</v>
+      </c>
+      <c r="L4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA TOMAS\2022\07\</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202207</v>
-      </c>
-      <c r="L4" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E4,"MMMM AAAA"),1))&amp;MID(TEXT(E4,"MMMM AAAA"),2,30)</f>
         <v>Julio 2022</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
       </c>
       <c r="O4" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="4">
-        <f>ROW(A4)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1161,33 +1171,36 @@
         <v>142</v>
       </c>
       <c r="H5" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\2023\02\</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\2023\02\</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\2023\02\</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L5" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E5,"MMMM AAAA"),1))&amp;MID(TEXT(E5,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0 - 27067089680 - 202302 - SESMERO TERESITA</v>
       </c>
       <c r="O5" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0 - 27067089680 - 202302 - SESMERO TERESITA</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="4">
-        <f>ROW(A5)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -1212,33 +1225,36 @@
         <v>142</v>
       </c>
       <c r="H6" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA MIRIAM\2023\02\</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA MIRIAM\2023\02\</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA MIRIAM\2023\02\</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L6" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E6,"MMMM AAAA"),1))&amp;MID(TEXT(E6,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0 - 27116976620 - 202302 - URRUTIA MIRIAM</v>
       </c>
       <c r="O6" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0 - 27116976620 - 202302 - URRUTIA MIRIAM</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="4">
-        <f>ROW(A6)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -1263,33 +1279,36 @@
         <v>142</v>
       </c>
       <c r="H7" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MEDINT SRL\2023\02\</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MEDINT SRL\2023\02\</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MEDINT SRL\2023\02\</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L7" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E7,"MMMM AAAA"),1))&amp;MID(TEXT(E7,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0 - 30657146850 - 202302 - MEDINT SRL</v>
       </c>
       <c r="O7" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0 - 30657146850 - 202302 - MEDINT SRL</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="4">
-        <f>ROW(A7)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -1314,33 +1333,36 @@
         <v>142</v>
       </c>
       <c r="H8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARLOS ALFREDO\2023\02\</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARLOS ALFREDO\2023\02\</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARLOS ALFREDO\2023\02\</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L8" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E8,"MMMM AAAA"),1))&amp;MID(TEXT(E8,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1 - 20133762761 - 202302 - FERREYRA CARLOS ALFREDO</v>
       </c>
       <c r="O8" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1 - 20133762761 - 202302 - FERREYRA CARLOS ALFREDO</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="4">
-        <f>ROW(A8)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -1365,33 +1387,36 @@
         <v>142</v>
       </c>
       <c r="H9" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI MARCELO\2023\02\</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI MARCELO\2023\02\</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI MARCELO\2023\02\</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L9" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E9,"MMMM AAAA"),1))&amp;MID(TEXT(E9,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1 - 20149462601 - 202302 - SZYCHOWSKI MARCELO</v>
       </c>
       <c r="O9" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1 - 20149462601 - 202302 - SZYCHOWSKI MARCELO</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="4">
-        <f>ROW(A9)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -1417,33 +1442,36 @@
         <v>142</v>
       </c>
       <c r="H10" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GUSTAVO\2023\02\</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GUSTAVO\2023\02\</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GUSTAVO\2023\02\</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L10" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E10,"MMMM AAAA"),1))&amp;MID(TEXT(E10,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1 - 20168291281 - 202302 - BUSTOS GUSTAVO</v>
       </c>
       <c r="O10" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1 - 20168291281 - 202302 - BUSTOS GUSTAVO</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="4">
-        <f>ROW(A10)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -1469,33 +1497,36 @@
         <v>142</v>
       </c>
       <c r="H11" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PEREYRA ESTEBAN\2023\02\</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PEREYRA ESTEBAN\2023\02\</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PEREYRA ESTEBAN\2023\02\</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L11" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E11,"MMMM AAAA"),1))&amp;MID(TEXT(E11,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1 - 20172521771 - 202302 - PEREYRA ESTEBAN</v>
       </c>
       <c r="O11" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1 - 20172521771 - 202302 - PEREYRA ESTEBAN</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="4">
-        <f>ROW(A11)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -1520,33 +1551,36 @@
         <v>142</v>
       </c>
       <c r="H12" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MOLAS PATRICIA\2023\02\</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MOLAS PATRICIA\2023\02\</v>
+      </c>
+      <c r="K12" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MOLAS PATRICIA\2023\02\</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L12" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E12,"MMMM AAAA"),1))&amp;MID(TEXT(E12,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1 - 27128520851 - 202302 - MOLAS PATRICIA</v>
       </c>
       <c r="O12" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1 - 27128520851 - 202302 - MOLAS PATRICIA</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="4">
-        <f>ROW(A12)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -1571,33 +1605,36 @@
         <v>142</v>
       </c>
       <c r="H13" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\GESAL SA\2023\02\</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\GESAL SA\2023\02\</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\GESAL SA\2023\02\</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L13" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E13,"MMMM AAAA"),1))&amp;MID(TEXT(E13,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1 - 30710404131 - 202302 - GESAL SA</v>
       </c>
       <c r="O13" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1 - 30710404131 - 202302 - GESAL SA</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="4">
-        <f>ROW(A13)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -1622,33 +1659,36 @@
         <v>142</v>
       </c>
       <c r="H14" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONDOMINIO SAN LORENZO\2023\02\</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONDOMINIO SAN LORENZO\2023\02\</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONDOMINIO SAN LORENZO\2023\02\</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L14" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E14,"MMMM AAAA"),1))&amp;MID(TEXT(E14,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1 - 30717059111 - 202302 - CONDOMINIO SAN LORENZO</v>
       </c>
       <c r="O14" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1 - 30717059111 - 202302 - CONDOMINIO SAN LORENZO</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="4">
-        <f>ROW(A14)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
@@ -1673,33 +1713,36 @@
         <v>142</v>
       </c>
       <c r="H15" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\RIERA HECTOR M\2023\02\</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\RIERA HECTOR M\2023\02\</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\RIERA HECTOR M\2023\02\</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L15" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E15,"MMMM AAAA"),1))&amp;MID(TEXT(E15,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2 - 20121182832 - 202302 - RIERA HECTOR M</v>
       </c>
       <c r="O15" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2 - 20121182832 - 202302 - RIERA HECTOR M</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="4">
-        <f>ROW(A15)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -1724,33 +1767,36 @@
         <v>142</v>
       </c>
       <c r="H16" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS MARTIN\2023\02\</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS MARTIN\2023\02\</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS MARTIN\2023\02\</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L16" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E16,"MMMM AAAA"),1))&amp;MID(TEXT(E16,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2 - 20147130202 - 202302 - BUSTOS MARTIN</v>
       </c>
       <c r="O16" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2 - 20147130202 - 202302 - BUSTOS MARTIN</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="4">
-        <f>ROW(A16)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -1775,33 +1821,36 @@
         <v>142</v>
       </c>
       <c r="H17" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\INSAURRALDE CARLOS\2023\02\</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\INSAURRALDE CARLOS\2023\02\</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\INSAURRALDE CARLOS\2023\02\</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L17" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E17,"MMMM AAAA"),1))&amp;MID(TEXT(E17,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2 - 20174123072 - 202302 - INSAURRALDE CARLOS</v>
       </c>
       <c r="O17" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2 - 20174123072 - 202302 - INSAURRALDE CARLOS</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="4">
-        <f>ROW(A17)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -1827,37 +1876,40 @@
         <v>142</v>
       </c>
       <c r="H18" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA LILIANA\2023\02\</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA LILIANA\2023\02\</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA LILIANA\2023\02\</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L18" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E18,"MMMM AAAA"),1))&amp;MID(TEXT(E18,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2 - 27182653972 - 202302 - FERNANDEZ SOSA LILIANA</v>
       </c>
       <c r="O18" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2 - 27182653972 - 202302 - FERNANDEZ SOSA LILIANA</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="4">
-        <f>ROW(A18)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1881,33 +1933,36 @@
         <v>142</v>
       </c>
       <c r="H19" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI KAREN\2022\07\</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI KAREN\2022\07\</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202207</v>
+      </c>
+      <c r="L19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI KAREN\2022\07\</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202207</v>
-      </c>
-      <c r="L19" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E19,"MMMM AAAA"),1))&amp;MID(TEXT(E19,"MMMM AAAA"),2,30)</f>
         <v>Julio 2022</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="4">
-        <f>ROW(A19)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -1932,33 +1987,36 @@
         <v>142</v>
       </c>
       <c r="H20" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\POSADAS FIDUCIARIA SA\2023\02\</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\POSADAS FIDUCIARIA SA\2023\02\</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\POSADAS FIDUCIARIA SA\2023\02\</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L20" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E20,"MMMM AAAA"),1))&amp;MID(TEXT(E20,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2 - 30708370122 - 202302 - POSADAS FIDUCIARIA SA</v>
       </c>
       <c r="O20" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2 - 30708370122 - 202302 - POSADAS FIDUCIARIA SA</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="4">
-        <f>ROW(A20)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -1983,37 +2041,40 @@
         <v>142</v>
       </c>
       <c r="H21" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SEMILLA ELVIES\2023\02\</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SEMILLA ELVIES\2023\02\</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SEMILLA ELVIES\2023\02\</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L21" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E21,"MMMM AAAA"),1))&amp;MID(TEXT(E21,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3 - 27068286323 - 202302 - SEMILLA ELVIES</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3 - 27068286323 - 202302 - SEMILLA ELVIES</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="4">
-        <f>ROW(A21)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2037,33 +2098,36 @@
         <v>142</v>
       </c>
       <c r="H22" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA MARIA EUGENIA\2022\07\</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA MARIA EUGENIA\2022\07\</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202207</v>
+      </c>
+      <c r="L22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA MARIA EUGENIA\2022\07\</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202207</v>
-      </c>
-      <c r="L22" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E22,"MMMM AAAA"),1))&amp;MID(TEXT(E22,"MMMM AAAA"),2,30)</f>
         <v>Julio 2022</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="4">
-        <f>ROW(A22)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -2088,33 +2152,36 @@
         <v>142</v>
       </c>
       <c r="H23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CUCYTI SRL\2023\02\</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CUCYTI SRL\2023\02\</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CUCYTI SRL\2023\02\</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L23" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E23,"MMMM AAAA"),1))&amp;MID(TEXT(E23,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3 - 30672355393 - 202302 - CUCYTI SRL</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3 - 30672355393 - 202302 - CUCYTI SRL</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="4">
-        <f>ROW(A23)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -2139,33 +2206,36 @@
         <v>142</v>
       </c>
       <c r="H24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARLOS ABELARDO SESMERO SRL\2023\02\</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARLOS ABELARDO SESMERO SRL\2023\02\</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARLOS ABELARDO SESMERO SRL\2023\02\</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L24" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E24,"MMMM AAAA"),1))&amp;MID(TEXT(E24,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3 - 30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3 - 30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="4">
-        <f>ROW(A24)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -2190,33 +2260,36 @@
         <v>142</v>
       </c>
       <c r="H25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\TRANS. MISIONES SA\2023\02\</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\TRANS. MISIONES SA\2023\02\</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\TRANS. MISIONES SA\2023\02\</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L25" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E25,"MMMM AAAA"),1))&amp;MID(TEXT(E25,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3 - 30715577743 - 202302 - TRANS. MISIONES SA</v>
       </c>
       <c r="O25" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3 - 30715577743 - 202302 - TRANS. MISIONES SA</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="4">
-        <f>ROW(A25)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -2241,33 +2314,36 @@
         <v>142</v>
       </c>
       <c r="H26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\DON LALO SRL\2023\02\</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\DON LALO SRL\2023\02\</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\DON LALO SRL\2023\02\</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L26" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E26,"MMMM AAAA"),1))&amp;MID(TEXT(E26,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3 - 30717537153 - 202302 - DON LALO SRL</v>
       </c>
       <c r="O26" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3 - 30717537153 - 202302 - DON LALO SRL</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="4">
-        <f>ROW(A26)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
@@ -2292,33 +2368,36 @@
         <v>142</v>
       </c>
       <c r="H27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA RODOLFO\2023\02\</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA RODOLFO\2023\02\</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA RODOLFO\2023\02\</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L27" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E27,"MMMM AAAA"),1))&amp;MID(TEXT(E27,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4 - 20168291834 - 202302 - FERNANDEZ SOSA RODOLFO</v>
       </c>
       <c r="O27" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4 - 20168291834 - 202302 - FERNANDEZ SOSA RODOLFO</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="4">
-        <f>ROW(A27)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -2343,33 +2422,36 @@
         <v>142</v>
       </c>
       <c r="H28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO MARIA GABRIELA\2023\02\</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO MARIA GABRIELA\2023\02\</v>
+      </c>
+      <c r="K28" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO MARIA GABRIELA\2023\02\</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L28" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E28,"MMMM AAAA"),1))&amp;MID(TEXT(E28,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4 - 23149462074 - 202302 - SESMERO MARIA GABRIELA</v>
       </c>
       <c r="O28" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4 - 23149462074 - 202302 - SESMERO MARIA GABRIELA</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="4">
-        <f>ROW(A28)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
@@ -2394,33 +2476,36 @@
         <v>142</v>
       </c>
       <c r="H29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARMEN VICTORIA\2023\02\</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARMEN VICTORIA\2023\02\</v>
+      </c>
+      <c r="K29" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARMEN VICTORIA\2023\02\</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L29" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E29,"MMMM AAAA"),1))&amp;MID(TEXT(E29,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4 - 23342751644 - 202302 - FERREYRA CARMEN VICTORIA</v>
       </c>
       <c r="O29" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4 - 23342751644 - 202302 - FERREYRA CARMEN VICTORIA</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="4">
-        <f>ROW(A29)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -2445,33 +2530,36 @@
         <v>142</v>
       </c>
       <c r="H30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTO LUCILA\2023\02\</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTO LUCILA\2023\02\</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTO LUCILA\2023\02\</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L30" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E30,"MMMM AAAA"),1))&amp;MID(TEXT(E30,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4 - 23351897074 - 202302 - SCOTO LUCILA</v>
       </c>
       <c r="O30" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4 - 23351897074 - 202302 - SCOTO LUCILA</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="4">
-        <f>ROW(A30)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -2496,33 +2584,36 @@
         <v>142</v>
       </c>
       <c r="H31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\TUFRO MALENA\2023\02\</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\TUFRO MALENA\2023\02\</v>
+      </c>
+      <c r="K31" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\TUFRO MALENA\2023\02\</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L31" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E31,"MMMM AAAA"),1))&amp;MID(TEXT(E31,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4 - 27236873744 - 202302 - TUFRO MALENA</v>
       </c>
       <c r="O31" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4 - 27236873744 - 202302 - TUFRO MALENA</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="4">
-        <f>ROW(A31)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
@@ -2547,33 +2638,36 @@
         <v>142</v>
       </c>
       <c r="H32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\DVC SRL\2023\02\</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\DVC SRL\2023\02\</v>
+      </c>
+      <c r="K32" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\DVC SRL\2023\02\</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L32" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E32,"MMMM AAAA"),1))&amp;MID(TEXT(E32,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4 - 30709431834 - 202302 - DVC SRL</v>
       </c>
       <c r="O32" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4 - 30709431834 - 202302 - DVC SRL</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="4">
-        <f>ROW(A32)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -2598,33 +2692,36 @@
         <v>142</v>
       </c>
       <c r="H33" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VECINAS SRL\2023\02\</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VECINAS SRL\2023\02\</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>202302</v>
+      </c>
+      <c r="L33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VECINAS SRL\2023\02\</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>202302</v>
-      </c>
-      <c r="L33" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E33,"MMMM AAAA"),1))&amp;MID(TEXT(E33,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4 - 30715795864 - 202302 - VECINAS SRL</v>
       </c>
       <c r="O33" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4 - 30715795864 - 202302 - VECINAS SRL</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="4">
-        <f>ROW(A33)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
@@ -2650,33 +2747,36 @@
         <v>142</v>
       </c>
       <c r="H34" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI RICARDO\2023\02\</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI RICARDO\2023\02\</v>
+      </c>
       <c r="K34" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="L34:L65" si="8">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5 - 20074827455 - 202302 - SZYCHOWSKI RICARDO</v>
       </c>
       <c r="O34" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5 - 20074827455 - 202302 - SZYCHOWSKI RICARDO</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="4">
-        <f>ROW(A34)</f>
+        <f t="shared" ref="S34:S65" si="9">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
@@ -2701,33 +2801,36 @@
         <v>142</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA MARCELO\2023\02\</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA MARCELO\2023\02\</v>
+      </c>
       <c r="K35" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E35,"MMMM AAAA"),1))&amp;MID(TEXT(E35,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5 - 20170394845 - 202302 - FERREYRA MARCELO</v>
       </c>
       <c r="O35" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5 - 20170394845 - 202302 - FERREYRA MARCELO</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="4">
-        <f>ROW(A35)</f>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
     </row>
@@ -2753,33 +2856,36 @@
         <v>142</v>
       </c>
       <c r="H36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CANTELI GRACIELA\2023\02\</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CANTELI GRACIELA\2023\02\</v>
+      </c>
       <c r="K36" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E36,"MMMM AAAA"),1))&amp;MID(TEXT(E36,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5 - 27148268105 - 202302 - CANTELI GRACIELA</v>
       </c>
       <c r="O36" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5 - 27148268105 - 202302 - CANTELI GRACIELA</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="4">
-        <f>ROW(A36)</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
@@ -2805,33 +2911,36 @@
         <v>142</v>
       </c>
       <c r="H37" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CORONAS ALINE\2023\02\</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CORONAS ALINE\2023\02\</v>
+      </c>
       <c r="K37" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E37,"MMMM AAAA"),1))&amp;MID(TEXT(E37,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5 - 27171709925 - 202302 - CORONAS ALINE</v>
       </c>
       <c r="O37" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5 - 27171709925 - 202302 - CORONAS ALINE</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="4">
-        <f>ROW(A37)</f>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
     </row>
@@ -2856,33 +2965,36 @@
         <v>142</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ASOC. SALUD MNES\2023\02\</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="J38" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\ASOC. SALUD MNES\2023\02\</v>
+      </c>
       <c r="K38" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E38,"MMMM AAAA"),1))&amp;MID(TEXT(E38,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5 - 30708553715 - 202302 - ASOC. SALUD MNES</v>
       </c>
       <c r="O38" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5 - 30708553715 - 202302 - ASOC. SALUD MNES</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="4">
-        <f>ROW(A38)</f>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
     </row>
@@ -2907,33 +3019,36 @@
         <v>142</v>
       </c>
       <c r="H39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ENRIQUEZ RUBEN\2023\02\</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="J39" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\ENRIQUEZ RUBEN\2023\02\</v>
+      </c>
       <c r="K39" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E39,"MMMM AAAA"),1))&amp;MID(TEXT(E39,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6 - 20149466356 - 202302 - ENRIQUEZ RUBEN</v>
       </c>
       <c r="O39" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6 - 20149466356 - 202302 - ENRIQUEZ RUBEN</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="4">
-        <f>ROW(A39)</f>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
     </row>
@@ -2958,33 +3073,36 @@
         <v>142</v>
       </c>
       <c r="H40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA IÑAKI\2023\02\</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="J40" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA IÑAKI\2023\02\</v>
+      </c>
       <c r="K40" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E40,"MMMM AAAA"),1))&amp;MID(TEXT(E40,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6 - 20416948926 - 202302 - BEITIA IÑAKI</v>
       </c>
       <c r="O40" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6 - 20416948926 - 202302 - BEITIA IÑAKI</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="4">
-        <f>ROW(A40)</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
     </row>
@@ -3009,33 +3127,36 @@
         <v>142</v>
       </c>
       <c r="H41" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LAZCOZ VIOLETA\2023\02\</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\LAZCOZ VIOLETA\2023\02\</v>
+      </c>
       <c r="K41" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E41,"MMMM AAAA"),1))&amp;MID(TEXT(E41,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6 - 27058846916 - 202302 - LAZCOZ VIOLETA</v>
       </c>
       <c r="O41" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6 - 27058846916 - 202302 - LAZCOZ VIOLETA</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="4">
-        <f>ROW(A41)</f>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
     </row>
@@ -3060,33 +3181,36 @@
         <v>142</v>
       </c>
       <c r="H42" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI AMANDA \2023\02\</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI AMANDA \2023\02\</v>
+      </c>
       <c r="K42" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E42,"MMMM AAAA"),1))&amp;MID(TEXT(E42,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">6 - 27201178776 - 202302 - SZYCHOWSKI AMANDA </v>
       </c>
       <c r="O42" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">6 - 27201178776 - 202302 - SZYCHOWSKI AMANDA </v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="4">
-        <f>ROW(A42)</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
@@ -3111,33 +3235,36 @@
         <v>142</v>
       </c>
       <c r="H43" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARBALLO GRACIELA\2023\02\</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="J43" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARBALLO GRACIELA\2023\02\</v>
+      </c>
       <c r="K43" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E43,"MMMM AAAA"),1))&amp;MID(TEXT(E43,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6 - 27261827366 - 202302 - CARBALLO GRACIELA</v>
       </c>
       <c r="O43" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6 - 27261827366 - 202302 - CARBALLO GRACIELA</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="4">
-        <f>ROW(A43)</f>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
     </row>
@@ -3162,33 +3289,36 @@
         <v>142</v>
       </c>
       <c r="H44" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PREST. SANAT. SA\2023\02\</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="J44" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PREST. SANAT. SA\2023\02\</v>
+      </c>
       <c r="K44" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E44,"MMMM AAAA"),1))&amp;MID(TEXT(E44,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6 - 30687910636 - 202302 - PREST. SANAT. SA</v>
       </c>
       <c r="O44" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6 - 30687910636 - 202302 - PREST. SANAT. SA</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="4">
-        <f>ROW(A44)</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
     </row>
@@ -3213,33 +3343,36 @@
         <v>142</v>
       </c>
       <c r="H45" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONSULTORIO SAN MARTIN\2023\02\</v>
       </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="J45" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONSULTORIO SAN MARTIN\2023\02\</v>
+      </c>
       <c r="K45" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E45,"MMMM AAAA"),1))&amp;MID(TEXT(E45,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6 - 30715347926 - 202302 - CONSULTORIO SAN MARTIN</v>
       </c>
       <c r="O45" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6 - 30715347926 - 202302 - CONSULTORIO SAN MARTIN</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="4">
-        <f>ROW(A45)</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
     </row>
@@ -3264,33 +3397,36 @@
         <v>142</v>
       </c>
       <c r="H46" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA PROPIEDADES\2023\02\</v>
       </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA PROPIEDADES\2023\02\</v>
+      </c>
       <c r="K46" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E46,"MMMM AAAA"),1))&amp;MID(TEXT(E46,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6 - 30716503816 - 202302 - PENSA PROPIEDADES</v>
       </c>
       <c r="O46" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6 - 30716503816 - 202302 - PENSA PROPIEDADES</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="4">
-        <f>ROW(A46)</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
     </row>
@@ -3316,33 +3452,36 @@
         <v>142</v>
       </c>
       <c r="H47" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA ANIBAL\2023\02\</v>
       </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="J47" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA ANIBAL\2023\02\</v>
+      </c>
       <c r="K47" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E47,"MMMM AAAA"),1))&amp;MID(TEXT(E47,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 20077065637 - 202302 - PENSA ANIBAL</v>
       </c>
       <c r="O47" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 20077065637 - 202302 - PENSA ANIBAL</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="4">
-        <f>ROW(A47)</f>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
     </row>
@@ -3368,33 +3507,36 @@
         <v>142</v>
       </c>
       <c r="H48" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\TABBIA ENRIQUE\2023\02\</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="J48" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\TABBIA ENRIQUE\2023\02\</v>
+      </c>
       <c r="K48" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E48,"MMMM AAAA"),1))&amp;MID(TEXT(E48,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 20130056637 - 202302 - TABBIA ENRIQUE</v>
       </c>
       <c r="O48" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 20130056637 - 202302 - TABBIA ENRIQUE</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="4">
-        <f>ROW(A48)</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
     </row>
@@ -3419,33 +3561,36 @@
         <v>142</v>
       </c>
       <c r="H49" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE HUGO\2023\02\</v>
       </c>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="J49" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE HUGO\2023\02\</v>
+      </c>
       <c r="K49" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E49,"MMMM AAAA"),1))&amp;MID(TEXT(E49,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 20170395167 - 202302 - HOPE HUGO</v>
       </c>
       <c r="O49" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 20170395167 - 202302 - HOPE HUGO</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="4">
-        <f>ROW(A49)</f>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
     </row>
@@ -3471,33 +3616,36 @@
         <v>142</v>
       </c>
       <c r="H50" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA NESTOR LEONEL\2023\02\</v>
       </c>
       <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA NESTOR LEONEL\2023\02\</v>
+      </c>
       <c r="K50" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E50,"MMMM AAAA"),1))&amp;MID(TEXT(E50,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 20301650087 - 202302 - VARENIZA NESTOR LEONEL</v>
       </c>
       <c r="O50" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 20301650087 - 202302 - VARENIZA NESTOR LEONEL</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="4">
-        <f>ROW(A50)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
     </row>
@@ -3522,37 +3670,40 @@
         <v>142</v>
       </c>
       <c r="H51" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA ANDRES\2023\02\</v>
       </c>
       <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="J51" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA ANDRES\2023\02\</v>
+      </c>
       <c r="K51" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E51,"MMMM AAAA"),1))&amp;MID(TEXT(E51,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 20327623967 - 202302 - FERREYRA ANDRES</v>
       </c>
       <c r="O51" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 20327623967 - 202302 - FERREYRA ANDRES</v>
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="4">
-        <f>ROW(A51)</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3576,33 +3727,36 @@
         <v>142</v>
       </c>
       <c r="H52" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA LUCIANO\2022\07\</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA LUCIANO\2022\07\</v>
+      </c>
       <c r="K52" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202207</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E52,"MMMM AAAA"),1))&amp;MID(TEXT(E52,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Julio 2022</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
       </c>
       <c r="O52" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="4">
-        <f>ROW(A52)</f>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
     </row>
@@ -3627,33 +3781,36 @@
         <v>142</v>
       </c>
       <c r="H53" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTTO OLGA MARIA\2023\02\</v>
       </c>
       <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="J53" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTTO OLGA MARIA\2023\02\</v>
+      </c>
       <c r="K53" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E53,"MMMM AAAA"),1))&amp;MID(TEXT(E53,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 27109797257 - 202302 - SCOTTO OLGA MARIA</v>
       </c>
       <c r="O53" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 27109797257 - 202302 - SCOTTO OLGA MARIA</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="4">
-        <f>ROW(A53)</f>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
     </row>
@@ -3678,33 +3835,36 @@
         <v>142</v>
       </c>
       <c r="H54" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ROKO EUGENIA\2023\02\</v>
       </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="J54" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\ROKO EUGENIA\2023\02\</v>
+      </c>
       <c r="K54" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E54,"MMMM AAAA"),1))&amp;MID(TEXT(E54,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 27217236547 - 202302 - ROKO EUGENIA</v>
       </c>
       <c r="O54" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 27217236547 - 202302 - ROKO EUGENIA</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="4">
-        <f>ROW(A54)</f>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
     </row>
@@ -3729,33 +3889,36 @@
         <v>142</v>
       </c>
       <c r="H55" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS-HOPE S.H\2023\02\</v>
       </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="J55" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS-HOPE S.H\2023\02\</v>
+      </c>
       <c r="K55" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E55,"MMMM AAAA"),1))&amp;MID(TEXT(E55,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 30650940667 - 202302 - BUSTOS-HOPE S.H</v>
       </c>
       <c r="O55" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 30650940667 - 202302 - BUSTOS-HOPE S.H</v>
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="4">
-        <f>ROW(A55)</f>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
     </row>
@@ -3780,33 +3943,36 @@
         <v>142</v>
       </c>
       <c r="H56" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CEBAC\2023\02\</v>
       </c>
       <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="J56" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CEBAC\2023\02\</v>
+      </c>
       <c r="K56" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E56,"MMMM AAAA"),1))&amp;MID(TEXT(E56,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 30672372697 - 202302 - CEBAC</v>
       </c>
       <c r="O56" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 30672372697 - 202302 - CEBAC</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="4">
-        <f>ROW(A56)</f>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
     </row>
@@ -3831,33 +3997,36 @@
         <v>142</v>
       </c>
       <c r="H57" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\AITA S.A.\2023\02\</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="J57" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\AITA S.A.\2023\02\</v>
+      </c>
       <c r="K57" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E57,"MMMM AAAA"),1))&amp;MID(TEXT(E57,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 30709419567 - 202302 - AITA S.A.</v>
       </c>
       <c r="O57" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 30709419567 - 202302 - AITA S.A.</v>
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="4">
-        <f>ROW(A57)</f>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
     </row>
@@ -3882,33 +4051,36 @@
         <v>142</v>
       </c>
       <c r="H58" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. LARZABAL\2023\02\</v>
       </c>
       <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="J58" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. LARZABAL\2023\02\</v>
+      </c>
       <c r="K58" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E58,"MMMM AAAA"),1))&amp;MID(TEXT(E58,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7 - 30712026797 - 202302 - COND. LARZABAL</v>
       </c>
       <c r="O58" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7 - 30712026797 - 202302 - COND. LARZABAL</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="4">
-        <f>ROW(A58)</f>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
     </row>
@@ -3934,33 +4106,36 @@
         <v>142</v>
       </c>
       <c r="H59" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA CARLOS\2023\02\</v>
       </c>
       <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="J59" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA CARLOS\2023\02\</v>
+      </c>
       <c r="K59" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E59,"MMMM AAAA"),1))&amp;MID(TEXT(E59,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8 - 20082750488 - 202302 - CASTRO OLIVERA CARLOS</v>
       </c>
       <c r="O59" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8 - 20082750488 - 202302 - CASTRO OLIVERA CARLOS</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="4">
-        <f>ROW(A59)</f>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
     </row>
@@ -3986,33 +4161,36 @@
         <v>142</v>
       </c>
       <c r="H60" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA DIEGO\2023\02\</v>
       </c>
       <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="J60" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA DIEGO\2023\02\</v>
+      </c>
       <c r="K60" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E60,"MMMM AAAA"),1))&amp;MID(TEXT(E60,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8 - 20230966738 - 202302 - URRUTIA DIEGO</v>
       </c>
       <c r="O60" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8 - 20230966738 - 202302 - URRUTIA DIEGO</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="4">
-        <f>ROW(A60)</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
     </row>
@@ -4037,33 +4215,36 @@
         <v>142</v>
       </c>
       <c r="H61" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA GONZALO\2023\02\</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="J61" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA GONZALO\2023\02\</v>
+      </c>
       <c r="K61" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E61,"MMMM AAAA"),1))&amp;MID(TEXT(E61,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8 - 20303980378 - 202302 - CASTRO OLIVERA GONZALO</v>
       </c>
       <c r="O61" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8 - 20303980378 - 202302 - CASTRO OLIVERA GONZALO</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="4">
-        <f>ROW(A61)</f>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
     </row>
@@ -4088,33 +4269,36 @@
         <v>142</v>
       </c>
       <c r="H62" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\MARTIN ADRIANA\2023\02\</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="J62" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MARTIN ADRIANA\2023\02\</v>
+      </c>
       <c r="K62" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E62,"MMMM AAAA"),1))&amp;MID(TEXT(E62,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M62" s="3"/>
       <c r="N62" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8 - 27163651918 - 202302 - MARTIN ADRIANA</v>
       </c>
       <c r="O62" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8 - 27163651918 - 202302 - MARTIN ADRIANA</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="4">
-        <f>ROW(A62)</f>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
     </row>
@@ -4139,33 +4323,36 @@
         <v>142</v>
       </c>
       <c r="H63" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SPAGNOLI SUSANA\2023\02\</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+      <c r="J63" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SPAGNOLI SUSANA\2023\02\</v>
+      </c>
       <c r="K63" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E63,"MMMM AAAA"),1))&amp;MID(TEXT(E63,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8 - 27201932268 - 202302 - SPAGNOLI SUSANA</v>
       </c>
       <c r="O63" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8 - 27201932268 - 202302 - SPAGNOLI SUSANA</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="4">
-        <f>ROW(A63)</f>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
     </row>
@@ -4190,33 +4377,36 @@
         <v>142</v>
       </c>
       <c r="H64" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FORESTAL SA\2023\02\</v>
       </c>
       <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="J64" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FORESTAL SA\2023\02\</v>
+      </c>
       <c r="K64" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E64,"MMMM AAAA"),1))&amp;MID(TEXT(E64,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8 - 30701299538 - 202302 - FORESTAL SA</v>
       </c>
       <c r="O64" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8 - 30701299538 - 202302 - FORESTAL SA</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="4">
-        <f>ROW(A64)</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
     </row>
@@ -4241,39 +4431,42 @@
         <v>142</v>
       </c>
       <c r="H65" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FIDEIC. PDAS INMOB\2023\02\</v>
       </c>
       <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="J65" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FIDEIC. PDAS INMOB\2023\02\</v>
+      </c>
       <c r="K65" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E65,"MMMM AAAA"),1))&amp;MID(TEXT(E65,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="8"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8 - 30708626348 - 202302 - FIDEIC. PDAS INMOB</v>
       </c>
       <c r="O65" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8 - 30708626348 - 202302 - FIDEIC. PDAS INMOB</v>
       </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="4">
-        <f>ROW(A65)</f>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A75" si="5">RIGHT(D66,1)</f>
+        <f t="shared" ref="A66:A75" si="10">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
       <c r="B66" t="s">
@@ -4292,39 +4485,42 @@
         <v>142</v>
       </c>
       <c r="H66" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE RICARDO\2023\02\</v>
       </c>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="J66" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE RICARDO\2023\02\</v>
+      </c>
       <c r="K66" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="L66:L75" si="11">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9 - 20149466739 - 202302 - HOPE RICARDO</v>
       </c>
       <c r="O66" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9 - 20149466739 - 202302 - HOPE RICARDO</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="4">
-        <f>ROW(A66)</f>
+        <f t="shared" ref="S66:S75" si="12">ROW(A66)</f>
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B67" t="s">
@@ -4343,39 +4539,42 @@
         <v>142</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H75" si="6">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
+        <f t="shared" ref="H67:H75" si="13">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
       </c>
       <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="J67" s="4" t="str">
+        <f t="shared" ref="J67:J75" si="14">H67</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
+      </c>
       <c r="K67" s="4" t="str">
-        <f t="shared" ref="K67:K75" si="7">TEXT(E67,"AAAAMM")</f>
+        <f t="shared" ref="K67:K75" si="15">TEXT(E67,"AAAAMM")</f>
         <v>202302</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E67,"MMMM AAAA"),1))&amp;MID(TEXT(E67,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="11"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="str">
-        <f t="shared" ref="N67:N75" si="8">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ",TEXT(L67,"AAAAMM")," - ",B67)</f>
+        <f t="shared" ref="N67:N75" si="16">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ",TEXT(L67,"AAAAMM")," - ",B67)</f>
         <v>9 - 20175255819 - 202302 - BEITIA CRISPIN</v>
       </c>
       <c r="O67" s="3" t="str">
-        <f t="shared" ref="O67:O75" si="9">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ",TEXT(L67,"AAAAMM")," - ",B67)</f>
+        <f t="shared" ref="O67:O75" si="17">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ",TEXT(L67,"AAAAMM")," - ",B67)</f>
         <v>9 - 20175255819 - 202302 - BEITIA CRISPIN</v>
       </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="4">
-        <f>ROW(A67)</f>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B68" t="s">
@@ -4394,39 +4593,42 @@
         <v>142</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
       </c>
       <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="J68" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
+      </c>
       <c r="K68" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>202302</v>
       </c>
       <c r="L68" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E68,"MMMM AAAA"),1))&amp;MID(TEXT(E68,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="11"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9 - 20246008109 - 202302 - BUSTOS GONZALO</v>
       </c>
       <c r="O68" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9 - 20246008109 - 202302 - BUSTOS GONZALO</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="4">
-        <f>ROW(A68)</f>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B69" t="s">
@@ -4446,39 +4648,42 @@
         <v>142</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
       </c>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+      <c r="J69" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
+      </c>
       <c r="K69" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>202302</v>
       </c>
       <c r="L69" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E69,"MMMM AAAA"),1))&amp;MID(TEXT(E69,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="11"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9 - 23120538209 - 202302 - LINDSTROM PLINIO</v>
       </c>
       <c r="O69" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9 - 23120538209 - 202302 - LINDSTROM PLINIO</v>
       </c>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="4">
-        <f>ROW(A69)</f>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B70" t="s">
@@ -4497,39 +4702,42 @@
         <v>142</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
       </c>
       <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+      <c r="J70" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
+      </c>
       <c r="K70" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>202302</v>
       </c>
       <c r="L70" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E70,"MMMM AAAA"),1))&amp;MID(TEXT(E70,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="11"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9 - 23242946669 - 202302 - SOTO GERONIMO</v>
       </c>
       <c r="O70" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9 - 23242946669 - 202302 - SOTO GERONIMO</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="4">
-        <f>ROW(A70)</f>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B71" t="s">
@@ -4548,39 +4756,42 @@
         <v>142</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
       </c>
       <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+      <c r="J71" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
+      </c>
       <c r="K71" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>202302</v>
       </c>
       <c r="L71" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E71,"MMMM AAAA"),1))&amp;MID(TEXT(E71,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="11"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9 - 27173878309 - 202302 - LIONETO CAROLINA</v>
       </c>
       <c r="O71" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9 - 27173878309 - 202302 - LIONETO CAROLINA</v>
       </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="4">
-        <f>ROW(A71)</f>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B72" t="s">
@@ -4599,39 +4810,42 @@
         <v>142</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
       </c>
       <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="J72" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
+      </c>
       <c r="K72" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>202302</v>
       </c>
       <c r="L72" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E72,"MMMM AAAA"),1))&amp;MID(TEXT(E72,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="11"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9 - 30715085409 - 202302 - COND. INVERNADA</v>
       </c>
       <c r="O72" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9 - 30715085409 - 202302 - COND. INVERNADA</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="4">
-        <f>ROW(A72)</f>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B73" t="s">
@@ -4650,39 +4864,42 @@
         <v>142</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
       </c>
       <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+      <c r="J73" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
+      </c>
       <c r="K73" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>202302</v>
       </c>
       <c r="L73" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E73,"MMMM AAAA"),1))&amp;MID(TEXT(E73,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="11"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9 - 33653520439 - 202302 - FAX SRL</v>
       </c>
       <c r="O73" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9 - 33653520439 - 202302 - FAX SRL</v>
       </c>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="4">
-        <f>ROW(A73)</f>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B74" t="s">
@@ -4701,39 +4918,42 @@
         <v>142</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
       </c>
       <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="J74" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
+      </c>
       <c r="K74" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>202302</v>
       </c>
       <c r="L74" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E74,"MMMM AAAA"),1))&amp;MID(TEXT(E74,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="11"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M74" s="3"/>
       <c r="N74" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9 - 33712370829 - 202302 - KM 0 SA</v>
       </c>
       <c r="O74" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9 - 33712370829 - 202302 - KM 0 SA</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="4">
-        <f>ROW(A74)</f>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="B75" t="s">
@@ -4752,38 +4972,45 @@
         <v>142</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
       </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+      <c r="J75" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
+      </c>
       <c r="K75" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>202302</v>
       </c>
       <c r="L75" s="3" t="str">
-        <f>UPPER(LEFT(TEXT(E75,"MMMM AAAA"),1))&amp;MID(TEXT(E75,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="11"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9 - 33712529909 - 202302 - INMUEBLES SRL</v>
       </c>
       <c r="O75" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9 - 33712529909 - 202302 - INMUEBLES SRL</v>
       </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="4">
-        <f>ROW(A75)</f>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S75" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T75">
     <sortCondition ref="B2:B75"/>
   </sortState>

--- a/Importación RETPER SOS.xlsx
+++ b/Importación RETPER SOS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98835BD9-6AED-4E9B-B972-3B439A60FF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E6D714-C386-4DA5-9179-6E78A94936C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clientes!$A$1:$S$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clientes!$A$1:$Z$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="169">
   <si>
     <t>Nro</t>
   </si>
@@ -484,9 +484,6 @@
     <t>SIFERE</t>
   </si>
   <si>
-    <t>CABA - AGIP</t>
-  </si>
-  <si>
     <t>Destino</t>
   </si>
   <si>
@@ -494,6 +491,51 @@
   </si>
   <si>
     <t>Desde</t>
+  </si>
+  <si>
+    <t>PER 216</t>
+  </si>
+  <si>
+    <t>PER 217</t>
+  </si>
+  <si>
+    <t>PER 767</t>
+  </si>
+  <si>
+    <t>216ret.txt</t>
+  </si>
+  <si>
+    <t>217ret.txt</t>
+  </si>
+  <si>
+    <t>767ret.txt</t>
+  </si>
+  <si>
+    <t>216per.txt</t>
+  </si>
+  <si>
+    <t>217per.txt</t>
+  </si>
+  <si>
+    <t>767per.txt</t>
+  </si>
+  <si>
+    <t>CABA - AGIP RET</t>
+  </si>
+  <si>
+    <t>CABA - AGIP PER</t>
+  </si>
+  <si>
+    <t>SUSS</t>
+  </si>
+  <si>
+    <t>SUSS.txt</t>
+  </si>
+  <si>
+    <t>ARBA RET</t>
+  </si>
+  <si>
+    <t>ARBA PER</t>
   </si>
 </sst>
 </file>
@@ -908,11 +950,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,10 +963,10 @@
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="13" max="18" width="18" customWidth="1"/>
+    <col min="13" max="25" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -938,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -950,10 +992,10 @@
         <v>145</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>143</v>
@@ -971,19 +1013,40 @@
         <v>147</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A65" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1021,24 +1084,45 @@
         <f t="shared" ref="L2:L33" si="1">UPPER(LEFT(TEXT(E2,"MMMM AAAA"),1))&amp;MID(TEXT(E2,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",SUBSTITUTE(D2,"-","")," - ",TEXT(L2,"AAAAMM")," - ",B2)</f>
-        <v>0 - 20168291680 - 202302 - CRIVELLO LUIS</v>
-      </c>
-      <c r="O2" s="3" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ",SUBSTITUTE(D2,"-","")," - ",TEXT(L2,"AAAAMM")," - ",B2)</f>
-        <v>0 - 20168291680 - 202302 - CRIVELLO LUIS</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4">
-        <f t="shared" ref="S2:S33" si="2">ROW(A2)</f>
+      <c r="M2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="str">
+        <f>CONCATENATE(SUBSTITUTE(D2,"-","")," - ",K2," - ",B2," - RET.txt")</f>
+        <v>20168291680 - 202302 - CRIVELLO LUIS - RET.txt</v>
+      </c>
+      <c r="Y2" s="3" t="str">
+        <f>CONCATENATE(SUBSTITUTE(D2,"-","")," - ",K2," - ",B2," - PER.txt")</f>
+        <v>20168291680 - 202302 - CRIVELLO LUIS - PER.txt</v>
+      </c>
+      <c r="Z2" s="4">
+        <f t="shared" ref="Z2:Z33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1076,24 +1160,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="str">
-        <f t="shared" ref="N3:N66" si="6">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ",TEXT(L3,"AAAAMM")," - ",B3)</f>
-        <v>0 - 20315731330 - 202302 - VARENIZA ANGEL</v>
-      </c>
-      <c r="O3" s="3" t="str">
-        <f t="shared" ref="O3:O66" si="7">CONCATENATE(TEXT(A3,"0")," - ",SUBSTITUTE(D3,"-","")," - ",TEXT(L3,"AAAAMM")," - ",B3)</f>
-        <v>0 - 20315731330 - 202302 - VARENIZA ANGEL</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="4">
+      <c r="M3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="str">
+        <f t="shared" ref="X3" si="6">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - RET.txt")</f>
+        <v>20315731330 - 202302 - VARENIZA ANGEL - RET.txt</v>
+      </c>
+      <c r="Y3" s="3" t="str">
+        <f t="shared" ref="Y3" si="7">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - PER.txt")</f>
+        <v>20315731330 - 202302 - VARENIZA ANGEL - PER.txt</v>
+      </c>
+      <c r="Z3" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1135,22 +1240,29 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N4:N52" si="8">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
         <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
       </c>
       <c r="O4" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O4:O52" si="9">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
         <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="4">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1187,24 +1299,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 27067089680 - 202302 - SESMERO TERESITA</v>
-      </c>
-      <c r="O5" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 27067089680 - 202302 - SESMERO TERESITA</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="4">
+      <c r="M5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3" t="str">
+        <f t="shared" ref="X5:X18" si="10">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - RET.txt")</f>
+        <v>27067089680 - 202302 - SESMERO TERESITA - RET.txt</v>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f t="shared" ref="Y5:Y18" si="11">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - PER.txt")</f>
+        <v>27067089680 - 202302 - SESMERO TERESITA - PER.txt</v>
+      </c>
+      <c r="Z5" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1241,24 +1374,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 27116976620 - 202302 - URRUTIA MIRIAM</v>
-      </c>
-      <c r="O6" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 27116976620 - 202302 - URRUTIA MIRIAM</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4">
+      <c r="M6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>27116976620 - 202302 - URRUTIA MIRIAM - RET.txt</v>
+      </c>
+      <c r="Y6" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>27116976620 - 202302 - URRUTIA MIRIAM - PER.txt</v>
+      </c>
+      <c r="Z6" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1295,24 +1449,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>0 - 30657146850 - 202302 - MEDINT SRL</v>
-      </c>
-      <c r="O7" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>0 - 30657146850 - 202302 - MEDINT SRL</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="4">
+      <c r="M7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>30657146850 - 202302 - MEDINT SRL - RET.txt</v>
+      </c>
+      <c r="Y7" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>30657146850 - 202302 - MEDINT SRL - PER.txt</v>
+      </c>
+      <c r="Z7" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1349,24 +1524,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1 - 20133762761 - 202302 - FERREYRA CARLOS ALFREDO</v>
-      </c>
-      <c r="O8" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1 - 20133762761 - 202302 - FERREYRA CARLOS ALFREDO</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4">
+      <c r="M8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - RET.txt</v>
+      </c>
+      <c r="Y8" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - PER.txt</v>
+      </c>
+      <c r="Z8" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1403,24 +1599,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1 - 20149462601 - 202302 - SZYCHOWSKI MARCELO</v>
-      </c>
-      <c r="O9" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1 - 20149462601 - 202302 - SZYCHOWSKI MARCELO</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="4">
+      <c r="M9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - RET.txt</v>
+      </c>
+      <c r="Y9" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - PER.txt</v>
+      </c>
+      <c r="Z9" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1458,24 +1675,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1 - 20168291281 - 202302 - BUSTOS GUSTAVO</v>
-      </c>
-      <c r="O10" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1 - 20168291281 - 202302 - BUSTOS GUSTAVO</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="4">
+      <c r="M10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>20168291281 - 202302 - BUSTOS GUSTAVO - RET.txt</v>
+      </c>
+      <c r="Y10" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>20168291281 - 202302 - BUSTOS GUSTAVO - PER.txt</v>
+      </c>
+      <c r="Z10" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1513,24 +1751,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1 - 20172521771 - 202302 - PEREYRA ESTEBAN</v>
-      </c>
-      <c r="O11" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1 - 20172521771 - 202302 - PEREYRA ESTEBAN</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="4">
+      <c r="M11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>20172521771 - 202302 - PEREYRA ESTEBAN - RET.txt</v>
+      </c>
+      <c r="Y11" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>20172521771 - 202302 - PEREYRA ESTEBAN - PER.txt</v>
+      </c>
+      <c r="Z11" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1567,24 +1826,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1 - 27128520851 - 202302 - MOLAS PATRICIA</v>
-      </c>
-      <c r="O12" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1 - 27128520851 - 202302 - MOLAS PATRICIA</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="4">
+      <c r="M12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>27128520851 - 202302 - MOLAS PATRICIA - RET.txt</v>
+      </c>
+      <c r="Y12" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>27128520851 - 202302 - MOLAS PATRICIA - PER.txt</v>
+      </c>
+      <c r="Z12" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1621,24 +1901,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1 - 30710404131 - 202302 - GESAL SA</v>
-      </c>
-      <c r="O13" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1 - 30710404131 - 202302 - GESAL SA</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="4">
+      <c r="M13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>30710404131 - 202302 - GESAL SA - RET.txt</v>
+      </c>
+      <c r="Y13" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>30710404131 - 202302 - GESAL SA - PER.txt</v>
+      </c>
+      <c r="Z13" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1675,24 +1976,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>1 - 30717059111 - 202302 - CONDOMINIO SAN LORENZO</v>
-      </c>
-      <c r="O14" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>1 - 30717059111 - 202302 - CONDOMINIO SAN LORENZO</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="4">
+      <c r="M14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - RET.txt</v>
+      </c>
+      <c r="Y14" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - PER.txt</v>
+      </c>
+      <c r="Z14" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1729,24 +2051,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>2 - 20121182832 - 202302 - RIERA HECTOR M</v>
-      </c>
-      <c r="O15" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>2 - 20121182832 - 202302 - RIERA HECTOR M</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="4">
+      <c r="M15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>20121182832 - 202302 - RIERA HECTOR M - RET.txt</v>
+      </c>
+      <c r="Y15" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>20121182832 - 202302 - RIERA HECTOR M - PER.txt</v>
+      </c>
+      <c r="Z15" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1783,24 +2126,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>2 - 20147130202 - 202302 - BUSTOS MARTIN</v>
-      </c>
-      <c r="O16" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>2 - 20147130202 - 202302 - BUSTOS MARTIN</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="4">
+      <c r="M16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>20147130202 - 202302 - BUSTOS MARTIN - RET.txt</v>
+      </c>
+      <c r="Y16" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>20147130202 - 202302 - BUSTOS MARTIN - PER.txt</v>
+      </c>
+      <c r="Z16" s="4">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1837,24 +2201,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>2 - 20174123072 - 202302 - INSAURRALDE CARLOS</v>
-      </c>
-      <c r="O17" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>2 - 20174123072 - 202302 - INSAURRALDE CARLOS</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="4">
+      <c r="M17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>20174123072 - 202302 - INSAURRALDE CARLOS - RET.txt</v>
+      </c>
+      <c r="Y17" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>20174123072 - 202302 - INSAURRALDE CARLOS - PER.txt</v>
+      </c>
+      <c r="Z17" s="4">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1892,24 +2277,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>2 - 27182653972 - 202302 - FERNANDEZ SOSA LILIANA</v>
-      </c>
-      <c r="O18" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>2 - 27182653972 - 202302 - FERNANDEZ SOSA LILIANA</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="4">
+      <c r="M18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - RET.txt</v>
+      </c>
+      <c r="Y18" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - PER.txt</v>
+      </c>
+      <c r="Z18" s="4">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1951,22 +2357,29 @@
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="4">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="4">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2003,24 +2416,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>2 - 30708370122 - 202302 - POSADAS FIDUCIARIA SA</v>
-      </c>
-      <c r="O20" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>2 - 30708370122 - 202302 - POSADAS FIDUCIARIA SA</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="4">
+      <c r="M20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3" t="str">
+        <f t="shared" ref="X20:X21" si="12">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - RET.txt")</f>
+        <v>30708370122 - 202302 - POSADAS FIDUCIARIA SA - RET.txt</v>
+      </c>
+      <c r="Y20" s="3" t="str">
+        <f t="shared" ref="Y20:Y21" si="13">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - PER.txt")</f>
+        <v>30708370122 - 202302 - POSADAS FIDUCIARIA SA - PER.txt</v>
+      </c>
+      <c r="Z20" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2057,24 +2491,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>3 - 27068286323 - 202302 - SEMILLA ELVIES</v>
-      </c>
-      <c r="O21" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>3 - 27068286323 - 202302 - SEMILLA ELVIES</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="4">
+      <c r="M21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>27068286323 - 202302 - SEMILLA ELVIES - RET.txt</v>
+      </c>
+      <c r="Y21" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>27068286323 - 202302 - SEMILLA ELVIES - PER.txt</v>
+      </c>
+      <c r="Z21" s="4">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2116,22 +2571,29 @@
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="4">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="4">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2168,24 +2630,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>3 - 30672355393 - 202302 - CUCYTI SRL</v>
-      </c>
-      <c r="O23" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>3 - 30672355393 - 202302 - CUCYTI SRL</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="4">
+      <c r="M23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3" t="str">
+        <f t="shared" ref="X23:X51" si="14">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - RET.txt")</f>
+        <v>30672355393 - 202302 - CUCYTI SRL - RET.txt</v>
+      </c>
+      <c r="Y23" s="3" t="str">
+        <f t="shared" ref="Y23:Y51" si="15">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - PER.txt")</f>
+        <v>30672355393 - 202302 - CUCYTI SRL - PER.txt</v>
+      </c>
+      <c r="Z23" s="4">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2222,24 +2705,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>3 - 30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL</v>
-      </c>
-      <c r="O24" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>3 - 30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="4">
+      <c r="M24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL - RET.txt</v>
+      </c>
+      <c r="Y24" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL - PER.txt</v>
+      </c>
+      <c r="Z24" s="4">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2276,24 +2780,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>3 - 30715577743 - 202302 - TRANS. MISIONES SA</v>
-      </c>
-      <c r="O25" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>3 - 30715577743 - 202302 - TRANS. MISIONES SA</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="4">
+      <c r="M25" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>30715577743 - 202302 - TRANS. MISIONES SA - RET.txt</v>
+      </c>
+      <c r="Y25" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30715577743 - 202302 - TRANS. MISIONES SA - PER.txt</v>
+      </c>
+      <c r="Z25" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2330,24 +2855,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>3 - 30717537153 - 202302 - DON LALO SRL</v>
-      </c>
-      <c r="O26" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>3 - 30717537153 - 202302 - DON LALO SRL</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="4">
+      <c r="M26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>30717537153 - 202302 - DON LALO SRL - RET.txt</v>
+      </c>
+      <c r="Y26" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30717537153 - 202302 - DON LALO SRL - PER.txt</v>
+      </c>
+      <c r="Z26" s="4">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2384,24 +2930,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>4 - 20168291834 - 202302 - FERNANDEZ SOSA RODOLFO</v>
-      </c>
-      <c r="O27" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 20168291834 - 202302 - FERNANDEZ SOSA RODOLFO</v>
-      </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="4">
+      <c r="M27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>20168291834 - 202302 - FERNANDEZ SOSA RODOLFO - RET.txt</v>
+      </c>
+      <c r="Y27" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20168291834 - 202302 - FERNANDEZ SOSA RODOLFO - PER.txt</v>
+      </c>
+      <c r="Z27" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2438,24 +3005,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>4 - 23149462074 - 202302 - SESMERO MARIA GABRIELA</v>
-      </c>
-      <c r="O28" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 23149462074 - 202302 - SESMERO MARIA GABRIELA</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="4">
+      <c r="M28" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>23149462074 - 202302 - SESMERO MARIA GABRIELA - RET.txt</v>
+      </c>
+      <c r="Y28" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>23149462074 - 202302 - SESMERO MARIA GABRIELA - PER.txt</v>
+      </c>
+      <c r="Z28" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2492,24 +3080,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>4 - 23342751644 - 202302 - FERREYRA CARMEN VICTORIA</v>
-      </c>
-      <c r="O29" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 23342751644 - 202302 - FERREYRA CARMEN VICTORIA</v>
-      </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="4">
+      <c r="M29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>23342751644 - 202302 - FERREYRA CARMEN VICTORIA - RET.txt</v>
+      </c>
+      <c r="Y29" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>23342751644 - 202302 - FERREYRA CARMEN VICTORIA - PER.txt</v>
+      </c>
+      <c r="Z29" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2546,24 +3155,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>4 - 23351897074 - 202302 - SCOTO LUCILA</v>
-      </c>
-      <c r="O30" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 23351897074 - 202302 - SCOTO LUCILA</v>
-      </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="4">
+      <c r="M30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>23351897074 - 202302 - SCOTO LUCILA - RET.txt</v>
+      </c>
+      <c r="Y30" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>23351897074 - 202302 - SCOTO LUCILA - PER.txt</v>
+      </c>
+      <c r="Z30" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2600,24 +3230,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>4 - 27236873744 - 202302 - TUFRO MALENA</v>
-      </c>
-      <c r="O31" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 27236873744 - 202302 - TUFRO MALENA</v>
-      </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="4">
+      <c r="M31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>27236873744 - 202302 - TUFRO MALENA - RET.txt</v>
+      </c>
+      <c r="Y31" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27236873744 - 202302 - TUFRO MALENA - PER.txt</v>
+      </c>
+      <c r="Z31" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2654,24 +3305,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>4 - 30709431834 - 202302 - DVC SRL</v>
-      </c>
-      <c r="O32" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 30709431834 - 202302 - DVC SRL</v>
-      </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="4">
+      <c r="M32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>30709431834 - 202302 - DVC SRL - RET.txt</v>
+      </c>
+      <c r="Y32" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30709431834 - 202302 - DVC SRL - PER.txt</v>
+      </c>
+      <c r="Z32" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2708,24 +3380,45 @@
         <f t="shared" si="1"/>
         <v>Febrero 2023</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>4 - 30715795864 - 202302 - VECINAS SRL</v>
-      </c>
-      <c r="O33" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>4 - 30715795864 - 202302 - VECINAS SRL</v>
-      </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="4">
+      <c r="M33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>30715795864 - 202302 - VECINAS SRL - RET.txt</v>
+      </c>
+      <c r="Y33" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30715795864 - 202302 - VECINAS SRL - PER.txt</v>
+      </c>
+      <c r="Z33" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2760,27 +3453,48 @@
         <v>202302</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" ref="L34:L65" si="8">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>5 - 20074827455 - 202302 - SZYCHOWSKI RICARDO</v>
-      </c>
-      <c r="O34" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>5 - 20074827455 - 202302 - SZYCHOWSKI RICARDO</v>
-      </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="4">
-        <f t="shared" ref="S34:S65" si="9">ROW(A34)</f>
+        <f t="shared" ref="L34:L65" si="16">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>20074827455 - 202302 - SZYCHOWSKI RICARDO - RET.txt</v>
+      </c>
+      <c r="Y34" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20074827455 - 202302 - SZYCHOWSKI RICARDO - PER.txt</v>
+      </c>
+      <c r="Z34" s="4">
+        <f t="shared" ref="Z34:Z65" si="17">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2814,27 +3528,48 @@
         <v>202302</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>5 - 20170394845 - 202302 - FERREYRA MARCELO</v>
-      </c>
-      <c r="O35" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>5 - 20170394845 - 202302 - FERREYRA MARCELO</v>
-      </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>20170394845 - 202302 - FERREYRA MARCELO - RET.txt</v>
+      </c>
+      <c r="Y35" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20170394845 - 202302 - FERREYRA MARCELO - PER.txt</v>
+      </c>
+      <c r="Z35" s="4">
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2869,27 +3604,48 @@
         <v>202302</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>5 - 27148268105 - 202302 - CANTELI GRACIELA</v>
-      </c>
-      <c r="O36" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>5 - 27148268105 - 202302 - CANTELI GRACIELA</v>
-      </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>27148268105 - 202302 - CANTELI GRACIELA - RET.txt</v>
+      </c>
+      <c r="Y36" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27148268105 - 202302 - CANTELI GRACIELA - PER.txt</v>
+      </c>
+      <c r="Z36" s="4">
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2924,27 +3680,48 @@
         <v>202302</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>5 - 27171709925 - 202302 - CORONAS ALINE</v>
-      </c>
-      <c r="O37" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>5 - 27171709925 - 202302 - CORONAS ALINE</v>
-      </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>27171709925 - 202302 - CORONAS ALINE - RET.txt</v>
+      </c>
+      <c r="Y37" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27171709925 - 202302 - CORONAS ALINE - PER.txt</v>
+      </c>
+      <c r="Z37" s="4">
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2978,27 +3755,48 @@
         <v>202302</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>5 - 30708553715 - 202302 - ASOC. SALUD MNES</v>
-      </c>
-      <c r="O38" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>5 - 30708553715 - 202302 - ASOC. SALUD MNES</v>
-      </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>30708553715 - 202302 - ASOC. SALUD MNES - RET.txt</v>
+      </c>
+      <c r="Y38" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30708553715 - 202302 - ASOC. SALUD MNES - PER.txt</v>
+      </c>
+      <c r="Z38" s="4">
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3032,27 +3830,48 @@
         <v>202302</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>6 - 20149466356 - 202302 - ENRIQUEZ RUBEN</v>
-      </c>
-      <c r="O39" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>6 - 20149466356 - 202302 - ENRIQUEZ RUBEN</v>
-      </c>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>20149466356 - 202302 - ENRIQUEZ RUBEN - RET.txt</v>
+      </c>
+      <c r="Y39" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20149466356 - 202302 - ENRIQUEZ RUBEN - PER.txt</v>
+      </c>
+      <c r="Z39" s="4">
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3086,27 +3905,48 @@
         <v>202302</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>6 - 20416948926 - 202302 - BEITIA IÑAKI</v>
-      </c>
-      <c r="O40" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>6 - 20416948926 - 202302 - BEITIA IÑAKI</v>
-      </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>20416948926 - 202302 - BEITIA IÑAKI - RET.txt</v>
+      </c>
+      <c r="Y40" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20416948926 - 202302 - BEITIA IÑAKI - PER.txt</v>
+      </c>
+      <c r="Z40" s="4">
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3140,27 +3980,48 @@
         <v>202302</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>6 - 27058846916 - 202302 - LAZCOZ VIOLETA</v>
-      </c>
-      <c r="O41" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>6 - 27058846916 - 202302 - LAZCOZ VIOLETA</v>
-      </c>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>27058846916 - 202302 - LAZCOZ VIOLETA - RET.txt</v>
+      </c>
+      <c r="Y41" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27058846916 - 202302 - LAZCOZ VIOLETA - PER.txt</v>
+      </c>
+      <c r="Z41" s="4">
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3194,27 +4055,48 @@
         <v>202302</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">6 - 27201178776 - 202302 - SZYCHOWSKI AMANDA </v>
-      </c>
-      <c r="O42" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">6 - 27201178776 - 202302 - SZYCHOWSKI AMANDA </v>
-      </c>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>27201178776 - 202302 - SZYCHOWSKI AMANDA  - RET.txt</v>
+      </c>
+      <c r="Y42" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27201178776 - 202302 - SZYCHOWSKI AMANDA  - PER.txt</v>
+      </c>
+      <c r="Z42" s="4">
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3248,27 +4130,48 @@
         <v>202302</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>6 - 27261827366 - 202302 - CARBALLO GRACIELA</v>
-      </c>
-      <c r="O43" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>6 - 27261827366 - 202302 - CARBALLO GRACIELA</v>
-      </c>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>27261827366 - 202302 - CARBALLO GRACIELA - RET.txt</v>
+      </c>
+      <c r="Y43" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27261827366 - 202302 - CARBALLO GRACIELA - PER.txt</v>
+      </c>
+      <c r="Z43" s="4">
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3302,27 +4205,48 @@
         <v>202302</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>6 - 30687910636 - 202302 - PREST. SANAT. SA</v>
-      </c>
-      <c r="O44" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>6 - 30687910636 - 202302 - PREST. SANAT. SA</v>
-      </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>30687910636 - 202302 - PREST. SANAT. SA - RET.txt</v>
+      </c>
+      <c r="Y44" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30687910636 - 202302 - PREST. SANAT. SA - PER.txt</v>
+      </c>
+      <c r="Z44" s="4">
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3356,27 +4280,48 @@
         <v>202302</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>6 - 30715347926 - 202302 - CONSULTORIO SAN MARTIN</v>
-      </c>
-      <c r="O45" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>6 - 30715347926 - 202302 - CONSULTORIO SAN MARTIN</v>
-      </c>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>30715347926 - 202302 - CONSULTORIO SAN MARTIN - RET.txt</v>
+      </c>
+      <c r="Y45" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30715347926 - 202302 - CONSULTORIO SAN MARTIN - PER.txt</v>
+      </c>
+      <c r="Z45" s="4">
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3410,27 +4355,48 @@
         <v>202302</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>6 - 30716503816 - 202302 - PENSA PROPIEDADES</v>
-      </c>
-      <c r="O46" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>6 - 30716503816 - 202302 - PENSA PROPIEDADES</v>
-      </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>30716503816 - 202302 - PENSA PROPIEDADES - RET.txt</v>
+      </c>
+      <c r="Y46" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30716503816 - 202302 - PENSA PROPIEDADES - PER.txt</v>
+      </c>
+      <c r="Z46" s="4">
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3465,27 +4431,48 @@
         <v>202302</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 20077065637 - 202302 - PENSA ANIBAL</v>
-      </c>
-      <c r="O47" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 20077065637 - 202302 - PENSA ANIBAL</v>
-      </c>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>20077065637 - 202302 - PENSA ANIBAL - RET.txt</v>
+      </c>
+      <c r="Y47" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20077065637 - 202302 - PENSA ANIBAL - PER.txt</v>
+      </c>
+      <c r="Z47" s="4">
+        <f t="shared" si="17"/>
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3520,27 +4507,48 @@
         <v>202302</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 20130056637 - 202302 - TABBIA ENRIQUE</v>
-      </c>
-      <c r="O48" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 20130056637 - 202302 - TABBIA ENRIQUE</v>
-      </c>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>20130056637 - 202302 - TABBIA ENRIQUE - RET.txt</v>
+      </c>
+      <c r="Y48" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20130056637 - 202302 - TABBIA ENRIQUE - PER.txt</v>
+      </c>
+      <c r="Z48" s="4">
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3574,27 +4582,48 @@
         <v>202302</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 20170395167 - 202302 - HOPE HUGO</v>
-      </c>
-      <c r="O49" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 20170395167 - 202302 - HOPE HUGO</v>
-      </c>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>20170395167 - 202302 - HOPE HUGO - RET.txt</v>
+      </c>
+      <c r="Y49" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20170395167 - 202302 - HOPE HUGO - PER.txt</v>
+      </c>
+      <c r="Z49" s="4">
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3629,27 +4658,48 @@
         <v>202302</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 20301650087 - 202302 - VARENIZA NESTOR LEONEL</v>
-      </c>
-      <c r="O50" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 20301650087 - 202302 - VARENIZA NESTOR LEONEL</v>
-      </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>20301650087 - 202302 - VARENIZA NESTOR LEONEL - RET.txt</v>
+      </c>
+      <c r="Y50" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20301650087 - 202302 - VARENIZA NESTOR LEONEL - PER.txt</v>
+      </c>
+      <c r="Z50" s="4">
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3683,27 +4733,48 @@
         <v>202302</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 20327623967 - 202302 - FERREYRA ANDRES</v>
-      </c>
-      <c r="O51" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 20327623967 - 202302 - FERREYRA ANDRES</v>
-      </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>20327623967 - 202302 - FERREYRA ANDRES - RET.txt</v>
+      </c>
+      <c r="Y51" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20327623967 - 202302 - FERREYRA ANDRES - PER.txt</v>
+      </c>
+      <c r="Z51" s="4">
+        <f t="shared" si="17"/>
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3740,27 +4811,34 @@
         <v>202207</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>Julio 2022</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
       </c>
       <c r="O52" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-      <c r="S52" s="4">
-        <f t="shared" si="9"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="4">
+        <f t="shared" si="17"/>
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3794,27 +4872,48 @@
         <v>202302</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 27109797257 - 202302 - SCOTTO OLGA MARIA</v>
-      </c>
-      <c r="O53" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 27109797257 - 202302 - SCOTTO OLGA MARIA</v>
-      </c>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3" t="str">
+        <f t="shared" ref="X53:X75" si="18">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - RET.txt")</f>
+        <v>27109797257 - 202302 - SCOTTO OLGA MARIA - RET.txt</v>
+      </c>
+      <c r="Y53" s="3" t="str">
+        <f t="shared" ref="Y53:Y75" si="19">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - PER.txt")</f>
+        <v>27109797257 - 202302 - SCOTTO OLGA MARIA - PER.txt</v>
+      </c>
+      <c r="Z53" s="4">
+        <f t="shared" si="17"/>
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3848,27 +4947,48 @@
         <v>202302</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 27217236547 - 202302 - ROKO EUGENIA</v>
-      </c>
-      <c r="O54" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 27217236547 - 202302 - ROKO EUGENIA</v>
-      </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>27217236547 - 202302 - ROKO EUGENIA - RET.txt</v>
+      </c>
+      <c r="Y54" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>27217236547 - 202302 - ROKO EUGENIA - PER.txt</v>
+      </c>
+      <c r="Z54" s="4">
+        <f t="shared" si="17"/>
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3902,27 +5022,48 @@
         <v>202302</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 30650940667 - 202302 - BUSTOS-HOPE S.H</v>
-      </c>
-      <c r="O55" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 30650940667 - 202302 - BUSTOS-HOPE S.H</v>
-      </c>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>30650940667 - 202302 - BUSTOS-HOPE S.H - RET.txt</v>
+      </c>
+      <c r="Y55" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>30650940667 - 202302 - BUSTOS-HOPE S.H - PER.txt</v>
+      </c>
+      <c r="Z55" s="4">
+        <f t="shared" si="17"/>
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3956,27 +5097,48 @@
         <v>202302</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 30672372697 - 202302 - CEBAC</v>
-      </c>
-      <c r="O56" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 30672372697 - 202302 - CEBAC</v>
-      </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>30672372697 - 202302 - CEBAC - RET.txt</v>
+      </c>
+      <c r="Y56" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>30672372697 - 202302 - CEBAC - PER.txt</v>
+      </c>
+      <c r="Z56" s="4">
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4010,27 +5172,48 @@
         <v>202302</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 30709419567 - 202302 - AITA S.A.</v>
-      </c>
-      <c r="O57" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 30709419567 - 202302 - AITA S.A.</v>
-      </c>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>30709419567 - 202302 - AITA S.A. - RET.txt</v>
+      </c>
+      <c r="Y57" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>30709419567 - 202302 - AITA S.A. - PER.txt</v>
+      </c>
+      <c r="Z57" s="4">
+        <f t="shared" si="17"/>
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4064,27 +5247,48 @@
         <v>202302</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>7 - 30712026797 - 202302 - COND. LARZABAL</v>
-      </c>
-      <c r="O58" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>7 - 30712026797 - 202302 - COND. LARZABAL</v>
-      </c>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>30712026797 - 202302 - COND. LARZABAL - RET.txt</v>
+      </c>
+      <c r="Y58" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>30712026797 - 202302 - COND. LARZABAL - PER.txt</v>
+      </c>
+      <c r="Z58" s="4">
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4119,27 +5323,48 @@
         <v>202302</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 20082750488 - 202302 - CASTRO OLIVERA CARLOS</v>
-      </c>
-      <c r="O59" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>8 - 20082750488 - 202302 - CASTRO OLIVERA CARLOS</v>
-      </c>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - RET.txt</v>
+      </c>
+      <c r="Y59" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - PER.txt</v>
+      </c>
+      <c r="Z59" s="4">
+        <f t="shared" si="17"/>
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4174,27 +5399,48 @@
         <v>202302</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 20230966738 - 202302 - URRUTIA DIEGO</v>
-      </c>
-      <c r="O60" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>8 - 20230966738 - 202302 - URRUTIA DIEGO</v>
-      </c>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20230966738 - 202302 - URRUTIA DIEGO - RET.txt</v>
+      </c>
+      <c r="Y60" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>20230966738 - 202302 - URRUTIA DIEGO - PER.txt</v>
+      </c>
+      <c r="Z60" s="4">
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4228,27 +5474,48 @@
         <v>202302</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 20303980378 - 202302 - CASTRO OLIVERA GONZALO</v>
-      </c>
-      <c r="O61" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>8 - 20303980378 - 202302 - CASTRO OLIVERA GONZALO</v>
-      </c>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - RET.txt</v>
+      </c>
+      <c r="Y61" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - PER.txt</v>
+      </c>
+      <c r="Z61" s="4">
+        <f t="shared" si="17"/>
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4282,27 +5549,48 @@
         <v>202302</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 27163651918 - 202302 - MARTIN ADRIANA</v>
-      </c>
-      <c r="O62" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>8 - 27163651918 - 202302 - MARTIN ADRIANA</v>
-      </c>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>27163651918 - 202302 - MARTIN ADRIANA - RET.txt</v>
+      </c>
+      <c r="Y62" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>27163651918 - 202302 - MARTIN ADRIANA - PER.txt</v>
+      </c>
+      <c r="Z62" s="4">
+        <f t="shared" si="17"/>
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4336,27 +5624,48 @@
         <v>202302</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 27201932268 - 202302 - SPAGNOLI SUSANA</v>
-      </c>
-      <c r="O63" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>8 - 27201932268 - 202302 - SPAGNOLI SUSANA</v>
-      </c>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q63" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>27201932268 - 202302 - SPAGNOLI SUSANA - RET.txt</v>
+      </c>
+      <c r="Y63" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>27201932268 - 202302 - SPAGNOLI SUSANA - PER.txt</v>
+      </c>
+      <c r="Z63" s="4">
+        <f t="shared" si="17"/>
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4390,27 +5699,48 @@
         <v>202302</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 30701299538 - 202302 - FORESTAL SA</v>
-      </c>
-      <c r="O64" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>8 - 30701299538 - 202302 - FORESTAL SA</v>
-      </c>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>30701299538 - 202302 - FORESTAL SA - RET.txt</v>
+      </c>
+      <c r="Y64" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>30701299538 - 202302 - FORESTAL SA - PER.txt</v>
+      </c>
+      <c r="Z64" s="4">
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4444,29 +5774,50 @@
         <v>202302</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8 - 30708626348 - 202302 - FIDEIC. PDAS INMOB</v>
-      </c>
-      <c r="O65" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>8 - 30708626348 - 202302 - FIDEIC. PDAS INMOB</v>
-      </c>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - RET.txt</v>
+      </c>
+      <c r="Y65" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - PER.txt</v>
+      </c>
+      <c r="Z65" s="4">
+        <f t="shared" si="17"/>
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A75" si="10">RIGHT(D66,1)</f>
+        <f t="shared" ref="A66:A75" si="20">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
       <c r="B66" t="s">
@@ -4498,29 +5849,50 @@
         <v>202302</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f t="shared" ref="L66:L75" si="11">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>9 - 20149466739 - 202302 - HOPE RICARDO</v>
-      </c>
-      <c r="O66" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v>9 - 20149466739 - 202302 - HOPE RICARDO</v>
-      </c>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="4">
-        <f t="shared" ref="S66:S75" si="12">ROW(A66)</f>
+        <f t="shared" ref="L66:L75" si="21">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20149466739 - 202302 - HOPE RICARDO - RET.txt</v>
+      </c>
+      <c r="Y66" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>20149466739 - 202302 - HOPE RICARDO - PER.txt</v>
+      </c>
+      <c r="Z66" s="4">
+        <f t="shared" ref="Z66:Z75" si="22">ROW(A66)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B67" t="s">
@@ -4539,42 +5911,63 @@
         <v>142</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H75" si="13">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
+        <f t="shared" ref="H67:H75" si="23">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="str">
-        <f t="shared" ref="J67:J75" si="14">H67</f>
+        <f t="shared" ref="J67:J75" si="24">H67</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f t="shared" ref="K67:K75" si="15">TEXT(E67,"AAAAMM")</f>
+        <f t="shared" ref="K67:K75" si="25">TEXT(E67,"AAAAMM")</f>
         <v>202302</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3" t="str">
-        <f t="shared" ref="N67:N75" si="16">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ",TEXT(L67,"AAAAMM")," - ",B67)</f>
-        <v>9 - 20175255819 - 202302 - BEITIA CRISPIN</v>
-      </c>
-      <c r="O67" s="3" t="str">
-        <f t="shared" ref="O67:O75" si="17">CONCATENATE(TEXT(A67,"0")," - ",SUBSTITUTE(D67,"-","")," - ",TEXT(L67,"AAAAMM")," - ",B67)</f>
-        <v>9 - 20175255819 - 202302 - BEITIA CRISPIN</v>
-      </c>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20175255819 - 202302 - BEITIA CRISPIN - RET.txt</v>
+      </c>
+      <c r="Y67" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>20175255819 - 202302 - BEITIA CRISPIN - PER.txt</v>
+      </c>
+      <c r="Z67" s="4">
+        <f t="shared" si="22"/>
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B68" t="s">
@@ -4593,42 +5986,63 @@
         <v>142</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
       </c>
       <c r="K68" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>202302</v>
       </c>
       <c r="L68" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>9 - 20246008109 - 202302 - BUSTOS GONZALO</v>
-      </c>
-      <c r="O68" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>9 - 20246008109 - 202302 - BUSTOS GONZALO</v>
-      </c>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20246008109 - 202302 - BUSTOS GONZALO - RET.txt</v>
+      </c>
+      <c r="Y68" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>20246008109 - 202302 - BUSTOS GONZALO - PER.txt</v>
+      </c>
+      <c r="Z68" s="4">
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B69" t="s">
@@ -4648,42 +6062,63 @@
         <v>142</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
       </c>
       <c r="K69" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>202302</v>
       </c>
       <c r="L69" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>9 - 23120538209 - 202302 - LINDSTROM PLINIO</v>
-      </c>
-      <c r="O69" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>9 - 23120538209 - 202302 - LINDSTROM PLINIO</v>
-      </c>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>23120538209 - 202302 - LINDSTROM PLINIO - RET.txt</v>
+      </c>
+      <c r="Y69" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>23120538209 - 202302 - LINDSTROM PLINIO - PER.txt</v>
+      </c>
+      <c r="Z69" s="4">
+        <f t="shared" si="22"/>
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B70" t="s">
@@ -4702,42 +6137,63 @@
         <v>142</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
       </c>
       <c r="K70" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>202302</v>
       </c>
       <c r="L70" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>9 - 23242946669 - 202302 - SOTO GERONIMO</v>
-      </c>
-      <c r="O70" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>9 - 23242946669 - 202302 - SOTO GERONIMO</v>
-      </c>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>23242946669 - 202302 - SOTO GERONIMO - RET.txt</v>
+      </c>
+      <c r="Y70" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>23242946669 - 202302 - SOTO GERONIMO - PER.txt</v>
+      </c>
+      <c r="Z70" s="4">
+        <f t="shared" si="22"/>
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B71" t="s">
@@ -4756,42 +6212,63 @@
         <v>142</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
       </c>
       <c r="K71" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>202302</v>
       </c>
       <c r="L71" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>9 - 27173878309 - 202302 - LIONETO CAROLINA</v>
-      </c>
-      <c r="O71" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>9 - 27173878309 - 202302 - LIONETO CAROLINA</v>
-      </c>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>27173878309 - 202302 - LIONETO CAROLINA - RET.txt</v>
+      </c>
+      <c r="Y71" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>27173878309 - 202302 - LIONETO CAROLINA - PER.txt</v>
+      </c>
+      <c r="Z71" s="4">
+        <f t="shared" si="22"/>
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B72" t="s">
@@ -4810,42 +6287,63 @@
         <v>142</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
       </c>
       <c r="K72" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>202302</v>
       </c>
       <c r="L72" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>9 - 30715085409 - 202302 - COND. INVERNADA</v>
-      </c>
-      <c r="O72" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>9 - 30715085409 - 202302 - COND. INVERNADA</v>
-      </c>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>30715085409 - 202302 - COND. INVERNADA - RET.txt</v>
+      </c>
+      <c r="Y72" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>30715085409 - 202302 - COND. INVERNADA - PER.txt</v>
+      </c>
+      <c r="Z72" s="4">
+        <f t="shared" si="22"/>
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B73" t="s">
@@ -4864,42 +6362,63 @@
         <v>142</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
       </c>
       <c r="K73" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>202302</v>
       </c>
       <c r="L73" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>9 - 33653520439 - 202302 - FAX SRL</v>
-      </c>
-      <c r="O73" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>9 - 33653520439 - 202302 - FAX SRL</v>
-      </c>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>33653520439 - 202302 - FAX SRL - RET.txt</v>
+      </c>
+      <c r="Y73" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>33653520439 - 202302 - FAX SRL - PER.txt</v>
+      </c>
+      <c r="Z73" s="4">
+        <f t="shared" si="22"/>
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B74" t="s">
@@ -4918,42 +6437,63 @@
         <v>142</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
       </c>
       <c r="K74" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>202302</v>
       </c>
       <c r="L74" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>9 - 33712370829 - 202302 - KM 0 SA</v>
-      </c>
-      <c r="O74" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>9 - 33712370829 - 202302 - KM 0 SA</v>
-      </c>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>33712370829 - 202302 - KM 0 SA - RET.txt</v>
+      </c>
+      <c r="Y74" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>33712370829 - 202302 - KM 0 SA - PER.txt</v>
+      </c>
+      <c r="Z74" s="4">
+        <f t="shared" si="22"/>
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="B75" t="s">
@@ -4972,46 +6512,67 @@
         <v>142</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
       </c>
       <c r="K75" s="4" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>202302</v>
       </c>
       <c r="L75" s="3" t="str">
-        <f t="shared" si="11"/>
-        <v>Febrero 2023</v>
-      </c>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v>9 - 33712529909 - 202302 - INMUEBLES SRL</v>
-      </c>
-      <c r="O75" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>9 - 33712529909 - 202302 - INMUEBLES SRL</v>
-      </c>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
+        <v>Febrero 2023</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>33712529909 - 202302 - INMUEBLES SRL - RET.txt</v>
+      </c>
+      <c r="Y75" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>33712529909 - 202302 - INMUEBLES SRL - PER.txt</v>
+      </c>
+      <c r="Z75" s="4">
+        <f t="shared" si="22"/>
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S75" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:Z75" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T75">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA75">
     <sortCondition ref="B2:B75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Importación RETPER SOS.xlsx
+++ b/Importación RETPER SOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E6D714-C386-4DA5-9179-6E78A94936C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6C943D-67CC-471C-BE39-75B88572ED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clientes!$A$1:$Z$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Clientes!$A$1:$AB$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="171">
   <si>
     <t>Nro</t>
   </si>
@@ -529,13 +529,19 @@
     <t>SUSS</t>
   </si>
   <si>
-    <t>SUSS.txt</t>
-  </si>
-  <si>
     <t>ARBA RET</t>
   </si>
   <si>
     <t>ARBA PER</t>
+  </si>
+  <si>
+    <t>ARBA CT</t>
+  </si>
+  <si>
+    <t>ARBA CB</t>
+  </si>
+  <si>
+    <t>SussMisRetencionesSegSocParaAplicativo.txt</t>
   </si>
 </sst>
 </file>
@@ -950,11 +956,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,10 +969,10 @@
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="13" max="25" width="18" customWidth="1"/>
+    <col min="13" max="27" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1031,22 +1037,28 @@
         <v>150</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A65" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -1103,26 +1115,43 @@
         <v>162</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T2" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T2" s="3" t="str">
+        <f>"retencionesExport_"&amp;SUBSTITUTE(D2,"-","")&amp;"_"&amp;TEXT(E2,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_20168291680_202302.txt</v>
+      </c>
       <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="3" t="str">
+        <f>SUBSTITUTE(D2,"-","")&amp;"CR.txt"</f>
+        <v>20168291680CR.txt</v>
+      </c>
+      <c r="W2" s="3" t="str">
+        <f>SUBSTITUTE(D2,"-","")&amp;"CP.txt"</f>
+        <v>20168291680CP.txt</v>
+      </c>
       <c r="X2" s="3" t="str">
+        <f>SUBSTITUTE(D2,"-","")&amp;"CT.txt"</f>
+        <v>20168291680CT.txt</v>
+      </c>
+      <c r="Y2" s="3" t="str">
+        <f>SUBSTITUTE(D2,"-","")&amp;"CB.txt"</f>
+        <v>20168291680CB.txt</v>
+      </c>
+      <c r="Z2" s="3" t="str">
         <f>CONCATENATE(SUBSTITUTE(D2,"-","")," - ",K2," - ",B2," - RET.txt")</f>
         <v>20168291680 - 202302 - CRIVELLO LUIS - RET.txt</v>
       </c>
-      <c r="Y2" s="3" t="str">
+      <c r="AA2" s="3" t="str">
         <f>CONCATENATE(SUBSTITUTE(D2,"-","")," - ",K2," - ",B2," - PER.txt")</f>
         <v>20168291680 - 202302 - CRIVELLO LUIS - PER.txt</v>
       </c>
-      <c r="Z2" s="4">
-        <f t="shared" ref="Z2:Z33" si="2">ROW(A2)</f>
+      <c r="AB2" s="4">
+        <f t="shared" ref="AB2:AB33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1179,26 +1208,43 @@
         <v>162</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T3" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T3" s="3" t="str">
+        <f>"retencionesExport_"&amp;SUBSTITUTE(D3,"-","")&amp;"_"&amp;TEXT(E3,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_20315731330_202302.txt</v>
+      </c>
       <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="V3" s="3" t="str">
+        <f t="shared" ref="V3" si="6">SUBSTITUTE(D3,"-","")&amp;"CR.txt"</f>
+        <v>20315731330CR.txt</v>
+      </c>
+      <c r="W3" s="3" t="str">
+        <f t="shared" ref="W3" si="7">SUBSTITUTE(D3,"-","")&amp;"CP.txt"</f>
+        <v>20315731330CP.txt</v>
+      </c>
       <c r="X3" s="3" t="str">
-        <f t="shared" ref="X3" si="6">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - RET.txt")</f>
+        <f t="shared" ref="X3" si="8">SUBSTITUTE(D3,"-","")&amp;"CT.txt"</f>
+        <v>20315731330CT.txt</v>
+      </c>
+      <c r="Y3" s="3" t="str">
+        <f t="shared" ref="Y3" si="9">SUBSTITUTE(D3,"-","")&amp;"CB.txt"</f>
+        <v>20315731330CB.txt</v>
+      </c>
+      <c r="Z3" s="3" t="str">
+        <f t="shared" ref="Z3" si="10">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - RET.txt")</f>
         <v>20315731330 - 202302 - VARENIZA ANGEL - RET.txt</v>
       </c>
-      <c r="Y3" s="3" t="str">
-        <f t="shared" ref="Y3" si="7">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - PER.txt")</f>
+      <c r="AA3" s="3" t="str">
+        <f t="shared" ref="AA3" si="11">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - PER.txt")</f>
         <v>20315731330 - 202302 - VARENIZA ANGEL - PER.txt</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AB3" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1240,11 +1286,11 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="str">
-        <f t="shared" ref="N4:N52" si="8">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
+        <f t="shared" ref="N4:N52" si="12">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
         <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
       </c>
       <c r="O4" s="3" t="str">
-        <f t="shared" ref="O4:O52" si="9">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
+        <f t="shared" ref="O4:O52" si="13">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
         <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
       </c>
       <c r="P4" s="3"/>
@@ -1257,12 +1303,14 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="4">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1318,26 +1366,43 @@
         <v>162</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T5" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f t="shared" ref="T5:T18" si="14">"retencionesExport_"&amp;SUBSTITUTE(D5,"-","")&amp;"_"&amp;TEXT(E5,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_27067089680_202302.txt</v>
+      </c>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="V5" s="3" t="str">
+        <f t="shared" ref="V5:V18" si="15">SUBSTITUTE(D5,"-","")&amp;"CR.txt"</f>
+        <v>27067089680CR.txt</v>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f t="shared" ref="W5:W18" si="16">SUBSTITUTE(D5,"-","")&amp;"CP.txt"</f>
+        <v>27067089680CP.txt</v>
+      </c>
       <c r="X5" s="3" t="str">
-        <f t="shared" ref="X5:X18" si="10">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - RET.txt")</f>
+        <f t="shared" ref="X5:X18" si="17">SUBSTITUTE(D5,"-","")&amp;"CT.txt"</f>
+        <v>27067089680CT.txt</v>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f t="shared" ref="Y5:Y18" si="18">SUBSTITUTE(D5,"-","")&amp;"CB.txt"</f>
+        <v>27067089680CB.txt</v>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <f t="shared" ref="Z5:Z18" si="19">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - RET.txt")</f>
         <v>27067089680 - 202302 - SESMERO TERESITA - RET.txt</v>
       </c>
-      <c r="Y5" s="3" t="str">
-        <f t="shared" ref="Y5:Y18" si="11">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - PER.txt")</f>
+      <c r="AA5" s="3" t="str">
+        <f t="shared" ref="AA5:AA18" si="20">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - PER.txt")</f>
         <v>27067089680 - 202302 - SESMERO TERESITA - PER.txt</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AB5" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1393,26 +1458,43 @@
         <v>162</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T6" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T6" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_27116976620_202302.txt</v>
+      </c>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="V6" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27116976620CR.txt</v>
+      </c>
+      <c r="W6" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>27116976620CP.txt</v>
+      </c>
       <c r="X6" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>27116976620CT.txt</v>
+      </c>
+      <c r="Y6" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>27116976620CB.txt</v>
+      </c>
+      <c r="Z6" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>27116976620 - 202302 - URRUTIA MIRIAM - RET.txt</v>
       </c>
-      <c r="Y6" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA6" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>27116976620 - 202302 - URRUTIA MIRIAM - PER.txt</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AB6" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1468,26 +1550,43 @@
         <v>162</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T7" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T7" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_30657146850_202302.txt</v>
+      </c>
       <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="V7" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30657146850CR.txt</v>
+      </c>
+      <c r="W7" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>30657146850CP.txt</v>
+      </c>
       <c r="X7" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>30657146850CT.txt</v>
+      </c>
+      <c r="Y7" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>30657146850CB.txt</v>
+      </c>
+      <c r="Z7" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>30657146850 - 202302 - MEDINT SRL - RET.txt</v>
       </c>
-      <c r="Y7" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA7" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>30657146850 - 202302 - MEDINT SRL - PER.txt</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1543,26 +1642,43 @@
         <v>162</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T8" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T8" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_20133762761_202302.txt</v>
+      </c>
       <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="V8" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20133762761CR.txt</v>
+      </c>
+      <c r="W8" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>20133762761CP.txt</v>
+      </c>
       <c r="X8" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>20133762761CT.txt</v>
+      </c>
+      <c r="Y8" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20133762761CB.txt</v>
+      </c>
+      <c r="Z8" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - RET.txt</v>
       </c>
-      <c r="Y8" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA8" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - PER.txt</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AB8" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1618,26 +1734,43 @@
         <v>162</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T9" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T9" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_20149462601_202302.txt</v>
+      </c>
       <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="V9" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20149462601CR.txt</v>
+      </c>
+      <c r="W9" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>20149462601CP.txt</v>
+      </c>
       <c r="X9" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>20149462601CT.txt</v>
+      </c>
+      <c r="Y9" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20149462601CB.txt</v>
+      </c>
+      <c r="Z9" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - RET.txt</v>
       </c>
-      <c r="Y9" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA9" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - PER.txt</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AB9" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1694,26 +1827,43 @@
         <v>162</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T10" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T10" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_20168291281_202302.txt</v>
+      </c>
       <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="V10" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20168291281CR.txt</v>
+      </c>
+      <c r="W10" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>20168291281CP.txt</v>
+      </c>
       <c r="X10" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>20168291281CT.txt</v>
+      </c>
+      <c r="Y10" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20168291281CB.txt</v>
+      </c>
+      <c r="Z10" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>20168291281 - 202302 - BUSTOS GUSTAVO - RET.txt</v>
       </c>
-      <c r="Y10" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA10" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>20168291281 - 202302 - BUSTOS GUSTAVO - PER.txt</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AB10" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1770,26 +1920,43 @@
         <v>162</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T11" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T11" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_20172521771_202302.txt</v>
+      </c>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="V11" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20172521771CR.txt</v>
+      </c>
+      <c r="W11" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>20172521771CP.txt</v>
+      </c>
       <c r="X11" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>20172521771CT.txt</v>
+      </c>
+      <c r="Y11" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20172521771CB.txt</v>
+      </c>
+      <c r="Z11" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>20172521771 - 202302 - PEREYRA ESTEBAN - RET.txt</v>
       </c>
-      <c r="Y11" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA11" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>20172521771 - 202302 - PEREYRA ESTEBAN - PER.txt</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AB11" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1845,26 +2012,43 @@
         <v>162</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T12" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T12" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_27128520851_202302.txt</v>
+      </c>
       <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="V12" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27128520851CR.txt</v>
+      </c>
+      <c r="W12" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>27128520851CP.txt</v>
+      </c>
       <c r="X12" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>27128520851CT.txt</v>
+      </c>
+      <c r="Y12" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>27128520851CB.txt</v>
+      </c>
+      <c r="Z12" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>27128520851 - 202302 - MOLAS PATRICIA - RET.txt</v>
       </c>
-      <c r="Y12" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA12" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>27128520851 - 202302 - MOLAS PATRICIA - PER.txt</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AB12" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1920,26 +2104,43 @@
         <v>162</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T13" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T13" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_30710404131_202302.txt</v>
+      </c>
       <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="V13" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30710404131CR.txt</v>
+      </c>
+      <c r="W13" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>30710404131CP.txt</v>
+      </c>
       <c r="X13" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>30710404131CT.txt</v>
+      </c>
+      <c r="Y13" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>30710404131CB.txt</v>
+      </c>
+      <c r="Z13" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>30710404131 - 202302 - GESAL SA - RET.txt</v>
       </c>
-      <c r="Y13" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA13" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>30710404131 - 202302 - GESAL SA - PER.txt</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AB13" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1995,26 +2196,43 @@
         <v>162</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T14" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T14" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_30717059111_202302.txt</v>
+      </c>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="V14" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30717059111CR.txt</v>
+      </c>
+      <c r="W14" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>30717059111CP.txt</v>
+      </c>
       <c r="X14" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>30717059111CT.txt</v>
+      </c>
+      <c r="Y14" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>30717059111CB.txt</v>
+      </c>
+      <c r="Z14" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - RET.txt</v>
       </c>
-      <c r="Y14" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA14" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - PER.txt</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AB14" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2070,26 +2288,43 @@
         <v>162</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T15" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T15" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_20121182832_202302.txt</v>
+      </c>
       <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="V15" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20121182832CR.txt</v>
+      </c>
+      <c r="W15" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>20121182832CP.txt</v>
+      </c>
       <c r="X15" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>20121182832CT.txt</v>
+      </c>
+      <c r="Y15" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20121182832CB.txt</v>
+      </c>
+      <c r="Z15" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>20121182832 - 202302 - RIERA HECTOR M - RET.txt</v>
       </c>
-      <c r="Y15" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA15" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>20121182832 - 202302 - RIERA HECTOR M - PER.txt</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="AB15" s="4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2145,26 +2380,43 @@
         <v>162</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T16" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T16" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_20147130202_202302.txt</v>
+      </c>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="V16" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20147130202CR.txt</v>
+      </c>
+      <c r="W16" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>20147130202CP.txt</v>
+      </c>
       <c r="X16" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>20147130202CT.txt</v>
+      </c>
+      <c r="Y16" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20147130202CB.txt</v>
+      </c>
+      <c r="Z16" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>20147130202 - 202302 - BUSTOS MARTIN - RET.txt</v>
       </c>
-      <c r="Y16" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA16" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>20147130202 - 202302 - BUSTOS MARTIN - PER.txt</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="AB16" s="4">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2220,26 +2472,43 @@
         <v>162</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T17" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T17" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_20174123072_202302.txt</v>
+      </c>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="V17" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20174123072CR.txt</v>
+      </c>
+      <c r="W17" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>20174123072CP.txt</v>
+      </c>
       <c r="X17" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>20174123072CT.txt</v>
+      </c>
+      <c r="Y17" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20174123072CB.txt</v>
+      </c>
+      <c r="Z17" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>20174123072 - 202302 - INSAURRALDE CARLOS - RET.txt</v>
       </c>
-      <c r="Y17" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA17" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>20174123072 - 202302 - INSAURRALDE CARLOS - PER.txt</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AB17" s="4">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2296,26 +2565,43 @@
         <v>162</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T18" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T18" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>retencionesExport_27182653972_202302.txt</v>
+      </c>
       <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="V18" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27182653972CR.txt</v>
+      </c>
+      <c r="W18" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>27182653972CP.txt</v>
+      </c>
       <c r="X18" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
+        <v>27182653972CT.txt</v>
+      </c>
+      <c r="Y18" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>27182653972CB.txt</v>
+      </c>
+      <c r="Z18" s="3" t="str">
+        <f t="shared" si="19"/>
         <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - RET.txt</v>
       </c>
-      <c r="Y18" s="3" t="str">
-        <f t="shared" si="11"/>
+      <c r="AA18" s="3" t="str">
+        <f t="shared" si="20"/>
         <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - PER.txt</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AB18" s="4">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2357,11 +2643,11 @@
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
       </c>
       <c r="P19" s="3"/>
@@ -2374,12 +2660,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="4">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="4">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2435,26 +2723,43 @@
         <v>162</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T20" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T20" s="3" t="str">
+        <f t="shared" ref="T20:T21" si="21">"retencionesExport_"&amp;SUBSTITUTE(D20,"-","")&amp;"_"&amp;TEXT(E20,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_30708370122_202302.txt</v>
+      </c>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="V20" s="3" t="str">
+        <f t="shared" ref="V20:V21" si="22">SUBSTITUTE(D20,"-","")&amp;"CR.txt"</f>
+        <v>30708370122CR.txt</v>
+      </c>
+      <c r="W20" s="3" t="str">
+        <f t="shared" ref="W20:W21" si="23">SUBSTITUTE(D20,"-","")&amp;"CP.txt"</f>
+        <v>30708370122CP.txt</v>
+      </c>
       <c r="X20" s="3" t="str">
-        <f t="shared" ref="X20:X21" si="12">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - RET.txt")</f>
+        <f t="shared" ref="X20:X21" si="24">SUBSTITUTE(D20,"-","")&amp;"CT.txt"</f>
+        <v>30708370122CT.txt</v>
+      </c>
+      <c r="Y20" s="3" t="str">
+        <f t="shared" ref="Y20:Y21" si="25">SUBSTITUTE(D20,"-","")&amp;"CB.txt"</f>
+        <v>30708370122CB.txt</v>
+      </c>
+      <c r="Z20" s="3" t="str">
+        <f t="shared" ref="Z20:Z21" si="26">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - RET.txt")</f>
         <v>30708370122 - 202302 - POSADAS FIDUCIARIA SA - RET.txt</v>
       </c>
-      <c r="Y20" s="3" t="str">
-        <f t="shared" ref="Y20:Y21" si="13">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - PER.txt")</f>
+      <c r="AA20" s="3" t="str">
+        <f t="shared" ref="AA20:AA21" si="27">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - PER.txt")</f>
         <v>30708370122 - 202302 - POSADAS FIDUCIARIA SA - PER.txt</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AB20" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2510,26 +2815,43 @@
         <v>162</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T21" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T21" s="3" t="str">
+        <f t="shared" si="21"/>
+        <v>retencionesExport_27068286323_202302.txt</v>
+      </c>
       <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="V21" s="3" t="str">
+        <f t="shared" si="22"/>
+        <v>27068286323CR.txt</v>
+      </c>
+      <c r="W21" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>27068286323CP.txt</v>
+      </c>
       <c r="X21" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
+        <v>27068286323CT.txt</v>
+      </c>
+      <c r="Y21" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>27068286323CB.txt</v>
+      </c>
+      <c r="Z21" s="3" t="str">
+        <f t="shared" si="26"/>
         <v>27068286323 - 202302 - SEMILLA ELVIES - RET.txt</v>
       </c>
-      <c r="Y21" s="3" t="str">
-        <f t="shared" si="13"/>
+      <c r="AA21" s="3" t="str">
+        <f t="shared" si="27"/>
         <v>27068286323 - 202302 - SEMILLA ELVIES - PER.txt</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AB21" s="4">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2571,11 +2893,11 @@
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
       </c>
       <c r="P22" s="3"/>
@@ -2588,12 +2910,14 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="4">
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="4">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2649,26 +2973,43 @@
         <v>162</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T23" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T23" s="3" t="str">
+        <f t="shared" ref="T23:T51" si="28">"retencionesExport_"&amp;SUBSTITUTE(D23,"-","")&amp;"_"&amp;TEXT(E23,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_30672355393_202302.txt</v>
+      </c>
       <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="V23" s="3" t="str">
+        <f t="shared" ref="V23:V51" si="29">SUBSTITUTE(D23,"-","")&amp;"CR.txt"</f>
+        <v>30672355393CR.txt</v>
+      </c>
+      <c r="W23" s="3" t="str">
+        <f t="shared" ref="W23:W51" si="30">SUBSTITUTE(D23,"-","")&amp;"CP.txt"</f>
+        <v>30672355393CP.txt</v>
+      </c>
       <c r="X23" s="3" t="str">
-        <f t="shared" ref="X23:X51" si="14">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - RET.txt")</f>
+        <f t="shared" ref="X23:X51" si="31">SUBSTITUTE(D23,"-","")&amp;"CT.txt"</f>
+        <v>30672355393CT.txt</v>
+      </c>
+      <c r="Y23" s="3" t="str">
+        <f t="shared" ref="Y23:Y51" si="32">SUBSTITUTE(D23,"-","")&amp;"CB.txt"</f>
+        <v>30672355393CB.txt</v>
+      </c>
+      <c r="Z23" s="3" t="str">
+        <f t="shared" ref="Z23:Z51" si="33">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - RET.txt")</f>
         <v>30672355393 - 202302 - CUCYTI SRL - RET.txt</v>
       </c>
-      <c r="Y23" s="3" t="str">
-        <f t="shared" ref="Y23:Y51" si="15">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - PER.txt")</f>
+      <c r="AA23" s="3" t="str">
+        <f t="shared" ref="AA23:AA51" si="34">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - PER.txt")</f>
         <v>30672355393 - 202302 - CUCYTI SRL - PER.txt</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="AB23" s="4">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2724,26 +3065,43 @@
         <v>162</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T24" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T24" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_30707912223_202302.txt</v>
+      </c>
       <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
+      <c r="V24" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>30707912223CR.txt</v>
+      </c>
+      <c r="W24" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>30707912223CP.txt</v>
+      </c>
       <c r="X24" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>30707912223CT.txt</v>
+      </c>
+      <c r="Y24" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>30707912223CB.txt</v>
+      </c>
+      <c r="Z24" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL - RET.txt</v>
       </c>
-      <c r="Y24" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA24" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL - PER.txt</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AB24" s="4">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2799,26 +3157,43 @@
         <v>162</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T25" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T25" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_30715577743_202302.txt</v>
+      </c>
       <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="V25" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>30715577743CR.txt</v>
+      </c>
+      <c r="W25" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>30715577743CP.txt</v>
+      </c>
       <c r="X25" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>30715577743CT.txt</v>
+      </c>
+      <c r="Y25" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>30715577743CB.txt</v>
+      </c>
+      <c r="Z25" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>30715577743 - 202302 - TRANS. MISIONES SA - RET.txt</v>
       </c>
-      <c r="Y25" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA25" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>30715577743 - 202302 - TRANS. MISIONES SA - PER.txt</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="AB25" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2874,26 +3249,43 @@
         <v>162</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T26" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T26" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_30717537153_202302.txt</v>
+      </c>
       <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="V26" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>30717537153CR.txt</v>
+      </c>
+      <c r="W26" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>30717537153CP.txt</v>
+      </c>
       <c r="X26" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>30717537153CT.txt</v>
+      </c>
+      <c r="Y26" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>30717537153CB.txt</v>
+      </c>
+      <c r="Z26" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>30717537153 - 202302 - DON LALO SRL - RET.txt</v>
       </c>
-      <c r="Y26" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA26" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>30717537153 - 202302 - DON LALO SRL - PER.txt</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="AB26" s="4">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2949,26 +3341,43 @@
         <v>162</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T27" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T27" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_20168291834_202302.txt</v>
+      </c>
       <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="V27" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>20168291834CR.txt</v>
+      </c>
+      <c r="W27" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>20168291834CP.txt</v>
+      </c>
       <c r="X27" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>20168291834CT.txt</v>
+      </c>
+      <c r="Y27" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>20168291834CB.txt</v>
+      </c>
+      <c r="Z27" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>20168291834 - 202302 - FERNANDEZ SOSA RODOLFO - RET.txt</v>
       </c>
-      <c r="Y27" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA27" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>20168291834 - 202302 - FERNANDEZ SOSA RODOLFO - PER.txt</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="AB27" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3024,26 +3433,43 @@
         <v>162</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T28" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T28" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_23149462074_202302.txt</v>
+      </c>
       <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="V28" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>23149462074CR.txt</v>
+      </c>
+      <c r="W28" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>23149462074CP.txt</v>
+      </c>
       <c r="X28" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>23149462074CT.txt</v>
+      </c>
+      <c r="Y28" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>23149462074CB.txt</v>
+      </c>
+      <c r="Z28" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>23149462074 - 202302 - SESMERO MARIA GABRIELA - RET.txt</v>
       </c>
-      <c r="Y28" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA28" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>23149462074 - 202302 - SESMERO MARIA GABRIELA - PER.txt</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="AB28" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3099,26 +3525,43 @@
         <v>162</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T29" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T29" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_23342751644_202302.txt</v>
+      </c>
       <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
+      <c r="V29" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>23342751644CR.txt</v>
+      </c>
+      <c r="W29" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>23342751644CP.txt</v>
+      </c>
       <c r="X29" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>23342751644CT.txt</v>
+      </c>
+      <c r="Y29" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>23342751644CB.txt</v>
+      </c>
+      <c r="Z29" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>23342751644 - 202302 - FERREYRA CARMEN VICTORIA - RET.txt</v>
       </c>
-      <c r="Y29" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA29" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>23342751644 - 202302 - FERREYRA CARMEN VICTORIA - PER.txt</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="AB29" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3174,26 +3617,43 @@
         <v>162</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T30" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T30" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_23351897074_202302.txt</v>
+      </c>
       <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
+      <c r="V30" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>23351897074CR.txt</v>
+      </c>
+      <c r="W30" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>23351897074CP.txt</v>
+      </c>
       <c r="X30" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>23351897074CT.txt</v>
+      </c>
+      <c r="Y30" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>23351897074CB.txt</v>
+      </c>
+      <c r="Z30" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>23351897074 - 202302 - SCOTO LUCILA - RET.txt</v>
       </c>
-      <c r="Y30" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA30" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>23351897074 - 202302 - SCOTO LUCILA - PER.txt</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="AB30" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3249,26 +3709,43 @@
         <v>162</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T31" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T31" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_27236873744_202302.txt</v>
+      </c>
       <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
+      <c r="V31" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>27236873744CR.txt</v>
+      </c>
+      <c r="W31" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>27236873744CP.txt</v>
+      </c>
       <c r="X31" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>27236873744CT.txt</v>
+      </c>
+      <c r="Y31" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>27236873744CB.txt</v>
+      </c>
+      <c r="Z31" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>27236873744 - 202302 - TUFRO MALENA - RET.txt</v>
       </c>
-      <c r="Y31" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA31" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>27236873744 - 202302 - TUFRO MALENA - PER.txt</v>
       </c>
-      <c r="Z31" s="4">
+      <c r="AB31" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3324,26 +3801,43 @@
         <v>162</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T32" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T32" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_30709431834_202302.txt</v>
+      </c>
       <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
+      <c r="V32" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>30709431834CR.txt</v>
+      </c>
+      <c r="W32" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>30709431834CP.txt</v>
+      </c>
       <c r="X32" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>30709431834CT.txt</v>
+      </c>
+      <c r="Y32" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>30709431834CB.txt</v>
+      </c>
+      <c r="Z32" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>30709431834 - 202302 - DVC SRL - RET.txt</v>
       </c>
-      <c r="Y32" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA32" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>30709431834 - 202302 - DVC SRL - PER.txt</v>
       </c>
-      <c r="Z32" s="4">
+      <c r="AB32" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3399,26 +3893,43 @@
         <v>162</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T33" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T33" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_30715795864_202302.txt</v>
+      </c>
       <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
+      <c r="V33" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>30715795864CR.txt</v>
+      </c>
+      <c r="W33" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>30715795864CP.txt</v>
+      </c>
       <c r="X33" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>30715795864CT.txt</v>
+      </c>
+      <c r="Y33" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>30715795864CB.txt</v>
+      </c>
+      <c r="Z33" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>30715795864 - 202302 - VECINAS SRL - RET.txt</v>
       </c>
-      <c r="Y33" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA33" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>30715795864 - 202302 - VECINAS SRL - PER.txt</v>
       </c>
-      <c r="Z33" s="4">
+      <c r="AB33" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3453,7 +3964,7 @@
         <v>202302</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" ref="L34:L65" si="16">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="L34:L65" si="35">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -3475,26 +3986,43 @@
         <v>162</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T34" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T34" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_20074827455_202302.txt</v>
+      </c>
       <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
+      <c r="V34" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>20074827455CR.txt</v>
+      </c>
+      <c r="W34" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>20074827455CP.txt</v>
+      </c>
       <c r="X34" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>20074827455CT.txt</v>
+      </c>
+      <c r="Y34" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>20074827455CB.txt</v>
+      </c>
+      <c r="Z34" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>20074827455 - 202302 - SZYCHOWSKI RICARDO - RET.txt</v>
       </c>
-      <c r="Y34" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA34" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>20074827455 - 202302 - SZYCHOWSKI RICARDO - PER.txt</v>
       </c>
-      <c r="Z34" s="4">
-        <f t="shared" ref="Z34:Z65" si="17">ROW(A34)</f>
+      <c r="AB34" s="4">
+        <f t="shared" ref="AB34:AB65" si="36">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3528,7 +4056,7 @@
         <v>202302</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -3550,26 +4078,43 @@
         <v>162</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T35" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T35" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_20170394845_202302.txt</v>
+      </c>
       <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
+      <c r="V35" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>20170394845CR.txt</v>
+      </c>
+      <c r="W35" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>20170394845CP.txt</v>
+      </c>
       <c r="X35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>20170394845CT.txt</v>
+      </c>
+      <c r="Y35" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>20170394845CB.txt</v>
+      </c>
+      <c r="Z35" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>20170394845 - 202302 - FERREYRA MARCELO - RET.txt</v>
       </c>
-      <c r="Y35" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA35" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>20170394845 - 202302 - FERREYRA MARCELO - PER.txt</v>
       </c>
-      <c r="Z35" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB35" s="4">
+        <f t="shared" si="36"/>
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3604,7 +4149,7 @@
         <v>202302</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -3626,26 +4171,43 @@
         <v>162</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T36" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T36" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_27148268105_202302.txt</v>
+      </c>
       <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
+      <c r="V36" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>27148268105CR.txt</v>
+      </c>
+      <c r="W36" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>27148268105CP.txt</v>
+      </c>
       <c r="X36" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>27148268105CT.txt</v>
+      </c>
+      <c r="Y36" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>27148268105CB.txt</v>
+      </c>
+      <c r="Z36" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>27148268105 - 202302 - CANTELI GRACIELA - RET.txt</v>
       </c>
-      <c r="Y36" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA36" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>27148268105 - 202302 - CANTELI GRACIELA - PER.txt</v>
       </c>
-      <c r="Z36" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB36" s="4">
+        <f t="shared" si="36"/>
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3680,7 +4242,7 @@
         <v>202302</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -3702,26 +4264,43 @@
         <v>162</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T37" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T37" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_27171709925_202302.txt</v>
+      </c>
       <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
+      <c r="V37" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>27171709925CR.txt</v>
+      </c>
+      <c r="W37" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>27171709925CP.txt</v>
+      </c>
       <c r="X37" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>27171709925CT.txt</v>
+      </c>
+      <c r="Y37" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>27171709925CB.txt</v>
+      </c>
+      <c r="Z37" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>27171709925 - 202302 - CORONAS ALINE - RET.txt</v>
       </c>
-      <c r="Y37" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA37" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>27171709925 - 202302 - CORONAS ALINE - PER.txt</v>
       </c>
-      <c r="Z37" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB37" s="4">
+        <f t="shared" si="36"/>
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3755,7 +4334,7 @@
         <v>202302</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -3777,26 +4356,43 @@
         <v>162</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T38" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T38" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_30708553715_202302.txt</v>
+      </c>
       <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
+      <c r="V38" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>30708553715CR.txt</v>
+      </c>
+      <c r="W38" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>30708553715CP.txt</v>
+      </c>
       <c r="X38" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>30708553715CT.txt</v>
+      </c>
+      <c r="Y38" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>30708553715CB.txt</v>
+      </c>
+      <c r="Z38" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>30708553715 - 202302 - ASOC. SALUD MNES - RET.txt</v>
       </c>
-      <c r="Y38" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA38" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>30708553715 - 202302 - ASOC. SALUD MNES - PER.txt</v>
       </c>
-      <c r="Z38" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB38" s="4">
+        <f t="shared" si="36"/>
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3830,7 +4426,7 @@
         <v>202302</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M39" s="3" t="s">
@@ -3852,26 +4448,43 @@
         <v>162</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T39" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T39" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_20149466356_202302.txt</v>
+      </c>
       <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
+      <c r="V39" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>20149466356CR.txt</v>
+      </c>
+      <c r="W39" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>20149466356CP.txt</v>
+      </c>
       <c r="X39" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>20149466356CT.txt</v>
+      </c>
+      <c r="Y39" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>20149466356CB.txt</v>
+      </c>
+      <c r="Z39" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>20149466356 - 202302 - ENRIQUEZ RUBEN - RET.txt</v>
       </c>
-      <c r="Y39" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA39" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>20149466356 - 202302 - ENRIQUEZ RUBEN - PER.txt</v>
       </c>
-      <c r="Z39" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB39" s="4">
+        <f t="shared" si="36"/>
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3905,7 +4518,7 @@
         <v>202302</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -3927,26 +4540,43 @@
         <v>162</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T40" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T40" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_20416948926_202302.txt</v>
+      </c>
       <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
+      <c r="V40" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>20416948926CR.txt</v>
+      </c>
+      <c r="W40" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>20416948926CP.txt</v>
+      </c>
       <c r="X40" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>20416948926CT.txt</v>
+      </c>
+      <c r="Y40" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>20416948926CB.txt</v>
+      </c>
+      <c r="Z40" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>20416948926 - 202302 - BEITIA IÑAKI - RET.txt</v>
       </c>
-      <c r="Y40" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA40" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>20416948926 - 202302 - BEITIA IÑAKI - PER.txt</v>
       </c>
-      <c r="Z40" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB40" s="4">
+        <f t="shared" si="36"/>
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3980,7 +4610,7 @@
         <v>202302</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M41" s="3" t="s">
@@ -4002,26 +4632,43 @@
         <v>162</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T41" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T41" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_27058846916_202302.txt</v>
+      </c>
       <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
+      <c r="V41" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>27058846916CR.txt</v>
+      </c>
+      <c r="W41" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>27058846916CP.txt</v>
+      </c>
       <c r="X41" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>27058846916CT.txt</v>
+      </c>
+      <c r="Y41" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>27058846916CB.txt</v>
+      </c>
+      <c r="Z41" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>27058846916 - 202302 - LAZCOZ VIOLETA - RET.txt</v>
       </c>
-      <c r="Y41" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA41" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>27058846916 - 202302 - LAZCOZ VIOLETA - PER.txt</v>
       </c>
-      <c r="Z41" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB41" s="4">
+        <f t="shared" si="36"/>
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4055,7 +4702,7 @@
         <v>202302</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M42" s="3" t="s">
@@ -4077,26 +4724,43 @@
         <v>162</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T42" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T42" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_27201178776_202302.txt</v>
+      </c>
       <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
+      <c r="V42" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>27201178776CR.txt</v>
+      </c>
+      <c r="W42" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>27201178776CP.txt</v>
+      </c>
       <c r="X42" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>27201178776CT.txt</v>
+      </c>
+      <c r="Y42" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>27201178776CB.txt</v>
+      </c>
+      <c r="Z42" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>27201178776 - 202302 - SZYCHOWSKI AMANDA  - RET.txt</v>
       </c>
-      <c r="Y42" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA42" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>27201178776 - 202302 - SZYCHOWSKI AMANDA  - PER.txt</v>
       </c>
-      <c r="Z42" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB42" s="4">
+        <f t="shared" si="36"/>
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4130,7 +4794,7 @@
         <v>202302</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M43" s="3" t="s">
@@ -4152,26 +4816,43 @@
         <v>162</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T43" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T43" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_27261827366_202302.txt</v>
+      </c>
       <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
+      <c r="V43" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>27261827366CR.txt</v>
+      </c>
+      <c r="W43" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>27261827366CP.txt</v>
+      </c>
       <c r="X43" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>27261827366CT.txt</v>
+      </c>
+      <c r="Y43" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>27261827366CB.txt</v>
+      </c>
+      <c r="Z43" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>27261827366 - 202302 - CARBALLO GRACIELA - RET.txt</v>
       </c>
-      <c r="Y43" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA43" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>27261827366 - 202302 - CARBALLO GRACIELA - PER.txt</v>
       </c>
-      <c r="Z43" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB43" s="4">
+        <f t="shared" si="36"/>
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4205,7 +4886,7 @@
         <v>202302</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M44" s="3" t="s">
@@ -4227,26 +4908,43 @@
         <v>162</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T44" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T44" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_30687910636_202302.txt</v>
+      </c>
       <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
+      <c r="V44" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>30687910636CR.txt</v>
+      </c>
+      <c r="W44" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>30687910636CP.txt</v>
+      </c>
       <c r="X44" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>30687910636CT.txt</v>
+      </c>
+      <c r="Y44" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>30687910636CB.txt</v>
+      </c>
+      <c r="Z44" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>30687910636 - 202302 - PREST. SANAT. SA - RET.txt</v>
       </c>
-      <c r="Y44" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA44" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>30687910636 - 202302 - PREST. SANAT. SA - PER.txt</v>
       </c>
-      <c r="Z44" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB44" s="4">
+        <f t="shared" si="36"/>
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4280,7 +4978,7 @@
         <v>202302</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M45" s="3" t="s">
@@ -4302,26 +5000,43 @@
         <v>162</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T45" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T45" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_30715347926_202302.txt</v>
+      </c>
       <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
+      <c r="V45" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>30715347926CR.txt</v>
+      </c>
+      <c r="W45" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>30715347926CP.txt</v>
+      </c>
       <c r="X45" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>30715347926CT.txt</v>
+      </c>
+      <c r="Y45" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>30715347926CB.txt</v>
+      </c>
+      <c r="Z45" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>30715347926 - 202302 - CONSULTORIO SAN MARTIN - RET.txt</v>
       </c>
-      <c r="Y45" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA45" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>30715347926 - 202302 - CONSULTORIO SAN MARTIN - PER.txt</v>
       </c>
-      <c r="Z45" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB45" s="4">
+        <f t="shared" si="36"/>
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4355,7 +5070,7 @@
         <v>202302</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M46" s="3" t="s">
@@ -4377,26 +5092,43 @@
         <v>162</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T46" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T46" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_30716503816_202302.txt</v>
+      </c>
       <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
+      <c r="V46" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>30716503816CR.txt</v>
+      </c>
+      <c r="W46" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>30716503816CP.txt</v>
+      </c>
       <c r="X46" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>30716503816CT.txt</v>
+      </c>
+      <c r="Y46" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>30716503816CB.txt</v>
+      </c>
+      <c r="Z46" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>30716503816 - 202302 - PENSA PROPIEDADES - RET.txt</v>
       </c>
-      <c r="Y46" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA46" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>30716503816 - 202302 - PENSA PROPIEDADES - PER.txt</v>
       </c>
-      <c r="Z46" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB46" s="4">
+        <f t="shared" si="36"/>
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4431,7 +5163,7 @@
         <v>202302</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M47" s="3" t="s">
@@ -4453,26 +5185,43 @@
         <v>162</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T47" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T47" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_20077065637_202302.txt</v>
+      </c>
       <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
+      <c r="V47" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>20077065637CR.txt</v>
+      </c>
+      <c r="W47" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>20077065637CP.txt</v>
+      </c>
       <c r="X47" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>20077065637CT.txt</v>
+      </c>
+      <c r="Y47" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>20077065637CB.txt</v>
+      </c>
+      <c r="Z47" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>20077065637 - 202302 - PENSA ANIBAL - RET.txt</v>
       </c>
-      <c r="Y47" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA47" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>20077065637 - 202302 - PENSA ANIBAL - PER.txt</v>
       </c>
-      <c r="Z47" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB47" s="4">
+        <f t="shared" si="36"/>
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4507,7 +5256,7 @@
         <v>202302</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M48" s="3" t="s">
@@ -4529,26 +5278,43 @@
         <v>162</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T48" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T48" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_20130056637_202302.txt</v>
+      </c>
       <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
+      <c r="V48" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>20130056637CR.txt</v>
+      </c>
+      <c r="W48" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>20130056637CP.txt</v>
+      </c>
       <c r="X48" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>20130056637CT.txt</v>
+      </c>
+      <c r="Y48" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>20130056637CB.txt</v>
+      </c>
+      <c r="Z48" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>20130056637 - 202302 - TABBIA ENRIQUE - RET.txt</v>
       </c>
-      <c r="Y48" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA48" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>20130056637 - 202302 - TABBIA ENRIQUE - PER.txt</v>
       </c>
-      <c r="Z48" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB48" s="4">
+        <f t="shared" si="36"/>
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4582,7 +5348,7 @@
         <v>202302</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M49" s="3" t="s">
@@ -4604,26 +5370,43 @@
         <v>162</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T49" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T49" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_20170395167_202302.txt</v>
+      </c>
       <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
+      <c r="V49" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>20170395167CR.txt</v>
+      </c>
+      <c r="W49" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>20170395167CP.txt</v>
+      </c>
       <c r="X49" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>20170395167CT.txt</v>
+      </c>
+      <c r="Y49" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>20170395167CB.txt</v>
+      </c>
+      <c r="Z49" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>20170395167 - 202302 - HOPE HUGO - RET.txt</v>
       </c>
-      <c r="Y49" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA49" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>20170395167 - 202302 - HOPE HUGO - PER.txt</v>
       </c>
-      <c r="Z49" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB49" s="4">
+        <f t="shared" si="36"/>
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4658,7 +5441,7 @@
         <v>202302</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M50" s="3" t="s">
@@ -4680,26 +5463,43 @@
         <v>162</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T50" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T50" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_20301650087_202302.txt</v>
+      </c>
       <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
+      <c r="V50" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>20301650087CR.txt</v>
+      </c>
+      <c r="W50" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>20301650087CP.txt</v>
+      </c>
       <c r="X50" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>20301650087CT.txt</v>
+      </c>
+      <c r="Y50" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>20301650087CB.txt</v>
+      </c>
+      <c r="Z50" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>20301650087 - 202302 - VARENIZA NESTOR LEONEL - RET.txt</v>
       </c>
-      <c r="Y50" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA50" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>20301650087 - 202302 - VARENIZA NESTOR LEONEL - PER.txt</v>
       </c>
-      <c r="Z50" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB50" s="4">
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4733,7 +5533,7 @@
         <v>202302</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M51" s="3" t="s">
@@ -4755,26 +5555,43 @@
         <v>162</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T51" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T51" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>retencionesExport_20327623967_202302.txt</v>
+      </c>
       <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
+      <c r="V51" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>20327623967CR.txt</v>
+      </c>
+      <c r="W51" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>20327623967CP.txt</v>
+      </c>
       <c r="X51" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
+        <v>20327623967CT.txt</v>
+      </c>
+      <c r="Y51" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>20327623967CB.txt</v>
+      </c>
+      <c r="Z51" s="3" t="str">
+        <f t="shared" si="33"/>
         <v>20327623967 - 202302 - FERREYRA ANDRES - RET.txt</v>
       </c>
-      <c r="Y51" s="3" t="str">
-        <f t="shared" si="15"/>
+      <c r="AA51" s="3" t="str">
+        <f t="shared" si="34"/>
         <v>20327623967 - 202302 - FERREYRA ANDRES - PER.txt</v>
       </c>
-      <c r="Z51" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB51" s="4">
+        <f t="shared" si="36"/>
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4811,16 +5628,16 @@
         <v>202207</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Julio 2022</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
       </c>
       <c r="O52" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
       </c>
       <c r="P52" s="3"/>
@@ -4833,12 +5650,14 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="4">
-        <f t="shared" si="17"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="4">
+        <f t="shared" si="36"/>
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4872,7 +5691,7 @@
         <v>202302</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M53" s="3" t="s">
@@ -4894,26 +5713,43 @@
         <v>162</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T53" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T53" s="3" t="str">
+        <f t="shared" ref="T53:T75" si="37">"retencionesExport_"&amp;SUBSTITUTE(D53,"-","")&amp;"_"&amp;TEXT(E53,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_27109797257_202302.txt</v>
+      </c>
       <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
+      <c r="V53" s="3" t="str">
+        <f t="shared" ref="V53:V75" si="38">SUBSTITUTE(D53,"-","")&amp;"CR.txt"</f>
+        <v>27109797257CR.txt</v>
+      </c>
+      <c r="W53" s="3" t="str">
+        <f t="shared" ref="W53:W75" si="39">SUBSTITUTE(D53,"-","")&amp;"CP.txt"</f>
+        <v>27109797257CP.txt</v>
+      </c>
       <c r="X53" s="3" t="str">
-        <f t="shared" ref="X53:X75" si="18">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - RET.txt")</f>
+        <f t="shared" ref="X53:X75" si="40">SUBSTITUTE(D53,"-","")&amp;"CT.txt"</f>
+        <v>27109797257CT.txt</v>
+      </c>
+      <c r="Y53" s="3" t="str">
+        <f t="shared" ref="Y53:Y75" si="41">SUBSTITUTE(D53,"-","")&amp;"CB.txt"</f>
+        <v>27109797257CB.txt</v>
+      </c>
+      <c r="Z53" s="3" t="str">
+        <f t="shared" ref="Z53:Z75" si="42">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - RET.txt")</f>
         <v>27109797257 - 202302 - SCOTTO OLGA MARIA - RET.txt</v>
       </c>
-      <c r="Y53" s="3" t="str">
-        <f t="shared" ref="Y53:Y75" si="19">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - PER.txt")</f>
+      <c r="AA53" s="3" t="str">
+        <f t="shared" ref="AA53:AA75" si="43">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - PER.txt")</f>
         <v>27109797257 - 202302 - SCOTTO OLGA MARIA - PER.txt</v>
       </c>
-      <c r="Z53" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB53" s="4">
+        <f t="shared" si="36"/>
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4947,7 +5783,7 @@
         <v>202302</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M54" s="3" t="s">
@@ -4969,26 +5805,43 @@
         <v>162</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T54" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T54" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_27217236547_202302.txt</v>
+      </c>
       <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
+      <c r="V54" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>27217236547CR.txt</v>
+      </c>
+      <c r="W54" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>27217236547CP.txt</v>
+      </c>
       <c r="X54" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>27217236547CT.txt</v>
+      </c>
+      <c r="Y54" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>27217236547CB.txt</v>
+      </c>
+      <c r="Z54" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>27217236547 - 202302 - ROKO EUGENIA - RET.txt</v>
       </c>
-      <c r="Y54" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA54" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>27217236547 - 202302 - ROKO EUGENIA - PER.txt</v>
       </c>
-      <c r="Z54" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB54" s="4">
+        <f t="shared" si="36"/>
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5022,7 +5875,7 @@
         <v>202302</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M55" s="3" t="s">
@@ -5044,26 +5897,43 @@
         <v>162</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T55" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T55" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_30650940667_202302.txt</v>
+      </c>
       <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
+      <c r="V55" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>30650940667CR.txt</v>
+      </c>
+      <c r="W55" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>30650940667CP.txt</v>
+      </c>
       <c r="X55" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>30650940667CT.txt</v>
+      </c>
+      <c r="Y55" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>30650940667CB.txt</v>
+      </c>
+      <c r="Z55" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>30650940667 - 202302 - BUSTOS-HOPE S.H - RET.txt</v>
       </c>
-      <c r="Y55" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA55" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>30650940667 - 202302 - BUSTOS-HOPE S.H - PER.txt</v>
       </c>
-      <c r="Z55" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB55" s="4">
+        <f t="shared" si="36"/>
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5097,7 +5967,7 @@
         <v>202302</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M56" s="3" t="s">
@@ -5119,26 +5989,43 @@
         <v>162</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T56" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T56" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_30672372697_202302.txt</v>
+      </c>
       <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
+      <c r="V56" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>30672372697CR.txt</v>
+      </c>
+      <c r="W56" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>30672372697CP.txt</v>
+      </c>
       <c r="X56" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>30672372697CT.txt</v>
+      </c>
+      <c r="Y56" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>30672372697CB.txt</v>
+      </c>
+      <c r="Z56" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>30672372697 - 202302 - CEBAC - RET.txt</v>
       </c>
-      <c r="Y56" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA56" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>30672372697 - 202302 - CEBAC - PER.txt</v>
       </c>
-      <c r="Z56" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB56" s="4">
+        <f t="shared" si="36"/>
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5172,7 +6059,7 @@
         <v>202302</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M57" s="3" t="s">
@@ -5194,26 +6081,43 @@
         <v>162</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T57" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T57" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_30709419567_202302.txt</v>
+      </c>
       <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
+      <c r="V57" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>30709419567CR.txt</v>
+      </c>
+      <c r="W57" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>30709419567CP.txt</v>
+      </c>
       <c r="X57" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>30709419567CT.txt</v>
+      </c>
+      <c r="Y57" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>30709419567CB.txt</v>
+      </c>
+      <c r="Z57" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>30709419567 - 202302 - AITA S.A. - RET.txt</v>
       </c>
-      <c r="Y57" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA57" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>30709419567 - 202302 - AITA S.A. - PER.txt</v>
       </c>
-      <c r="Z57" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB57" s="4">
+        <f t="shared" si="36"/>
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5247,7 +6151,7 @@
         <v>202302</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M58" s="3" t="s">
@@ -5269,26 +6173,43 @@
         <v>162</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T58" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T58" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_30712026797_202302.txt</v>
+      </c>
       <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
+      <c r="V58" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>30712026797CR.txt</v>
+      </c>
+      <c r="W58" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>30712026797CP.txt</v>
+      </c>
       <c r="X58" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>30712026797CT.txt</v>
+      </c>
+      <c r="Y58" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>30712026797CB.txt</v>
+      </c>
+      <c r="Z58" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>30712026797 - 202302 - COND. LARZABAL - RET.txt</v>
       </c>
-      <c r="Y58" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA58" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>30712026797 - 202302 - COND. LARZABAL - PER.txt</v>
       </c>
-      <c r="Z58" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB58" s="4">
+        <f t="shared" si="36"/>
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5323,7 +6244,7 @@
         <v>202302</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M59" s="3" t="s">
@@ -5345,26 +6266,43 @@
         <v>162</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T59" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T59" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_20082750488_202302.txt</v>
+      </c>
       <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
+      <c r="V59" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>20082750488CR.txt</v>
+      </c>
+      <c r="W59" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>20082750488CP.txt</v>
+      </c>
       <c r="X59" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>20082750488CT.txt</v>
+      </c>
+      <c r="Y59" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>20082750488CB.txt</v>
+      </c>
+      <c r="Z59" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - RET.txt</v>
       </c>
-      <c r="Y59" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA59" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - PER.txt</v>
       </c>
-      <c r="Z59" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB59" s="4">
+        <f t="shared" si="36"/>
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5399,7 +6337,7 @@
         <v>202302</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M60" s="3" t="s">
@@ -5421,26 +6359,43 @@
         <v>162</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T60" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T60" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_20230966738_202302.txt</v>
+      </c>
       <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
+      <c r="V60" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>20230966738CR.txt</v>
+      </c>
+      <c r="W60" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>20230966738CP.txt</v>
+      </c>
       <c r="X60" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>20230966738CT.txt</v>
+      </c>
+      <c r="Y60" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>20230966738CB.txt</v>
+      </c>
+      <c r="Z60" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>20230966738 - 202302 - URRUTIA DIEGO - RET.txt</v>
       </c>
-      <c r="Y60" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA60" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>20230966738 - 202302 - URRUTIA DIEGO - PER.txt</v>
       </c>
-      <c r="Z60" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB60" s="4">
+        <f t="shared" si="36"/>
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5474,7 +6429,7 @@
         <v>202302</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M61" s="3" t="s">
@@ -5496,26 +6451,43 @@
         <v>162</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T61" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T61" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_20303980378_202302.txt</v>
+      </c>
       <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
+      <c r="V61" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>20303980378CR.txt</v>
+      </c>
+      <c r="W61" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>20303980378CP.txt</v>
+      </c>
       <c r="X61" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>20303980378CT.txt</v>
+      </c>
+      <c r="Y61" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>20303980378CB.txt</v>
+      </c>
+      <c r="Z61" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - RET.txt</v>
       </c>
-      <c r="Y61" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA61" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - PER.txt</v>
       </c>
-      <c r="Z61" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB61" s="4">
+        <f t="shared" si="36"/>
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5549,7 +6521,7 @@
         <v>202302</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M62" s="3" t="s">
@@ -5571,26 +6543,43 @@
         <v>162</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T62" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T62" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_27163651918_202302.txt</v>
+      </c>
       <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
+      <c r="V62" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>27163651918CR.txt</v>
+      </c>
+      <c r="W62" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>27163651918CP.txt</v>
+      </c>
       <c r="X62" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>27163651918CT.txt</v>
+      </c>
+      <c r="Y62" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>27163651918CB.txt</v>
+      </c>
+      <c r="Z62" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>27163651918 - 202302 - MARTIN ADRIANA - RET.txt</v>
       </c>
-      <c r="Y62" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA62" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>27163651918 - 202302 - MARTIN ADRIANA - PER.txt</v>
       </c>
-      <c r="Z62" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB62" s="4">
+        <f t="shared" si="36"/>
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5624,7 +6613,7 @@
         <v>202302</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M63" s="3" t="s">
@@ -5646,26 +6635,43 @@
         <v>162</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T63" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T63" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_27201932268_202302.txt</v>
+      </c>
       <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
+      <c r="V63" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>27201932268CR.txt</v>
+      </c>
+      <c r="W63" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>27201932268CP.txt</v>
+      </c>
       <c r="X63" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>27201932268CT.txt</v>
+      </c>
+      <c r="Y63" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>27201932268CB.txt</v>
+      </c>
+      <c r="Z63" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>27201932268 - 202302 - SPAGNOLI SUSANA - RET.txt</v>
       </c>
-      <c r="Y63" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA63" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>27201932268 - 202302 - SPAGNOLI SUSANA - PER.txt</v>
       </c>
-      <c r="Z63" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB63" s="4">
+        <f t="shared" si="36"/>
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5699,7 +6705,7 @@
         <v>202302</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M64" s="3" t="s">
@@ -5721,26 +6727,43 @@
         <v>162</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T64" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T64" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_30701299538_202302.txt</v>
+      </c>
       <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
+      <c r="V64" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>30701299538CR.txt</v>
+      </c>
+      <c r="W64" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>30701299538CP.txt</v>
+      </c>
       <c r="X64" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>30701299538CT.txt</v>
+      </c>
+      <c r="Y64" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>30701299538CB.txt</v>
+      </c>
+      <c r="Z64" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>30701299538 - 202302 - FORESTAL SA - RET.txt</v>
       </c>
-      <c r="Y64" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA64" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>30701299538 - 202302 - FORESTAL SA - PER.txt</v>
       </c>
-      <c r="Z64" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB64" s="4">
+        <f t="shared" si="36"/>
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5774,7 +6797,7 @@
         <v>202302</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M65" s="3" t="s">
@@ -5796,28 +6819,45 @@
         <v>162</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T65" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T65" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_30708626348_202302.txt</v>
+      </c>
       <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
+      <c r="V65" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>30708626348CR.txt</v>
+      </c>
+      <c r="W65" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>30708626348CP.txt</v>
+      </c>
       <c r="X65" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>30708626348CT.txt</v>
+      </c>
+      <c r="Y65" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>30708626348CB.txt</v>
+      </c>
+      <c r="Z65" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - RET.txt</v>
       </c>
-      <c r="Y65" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA65" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - PER.txt</v>
       </c>
-      <c r="Z65" s="4">
-        <f t="shared" si="17"/>
+      <c r="AB65" s="4">
+        <f t="shared" si="36"/>
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A75" si="20">RIGHT(D66,1)</f>
+        <f t="shared" ref="A66:A75" si="44">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
       <c r="B66" t="s">
@@ -5849,7 +6889,7 @@
         <v>202302</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f t="shared" ref="L66:L75" si="21">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="L66:L75" si="45">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M66" s="3" t="s">
@@ -5871,28 +6911,45 @@
         <v>162</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T66" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T66" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_20149466739_202302.txt</v>
+      </c>
       <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
+      <c r="V66" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>20149466739CR.txt</v>
+      </c>
+      <c r="W66" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>20149466739CP.txt</v>
+      </c>
       <c r="X66" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>20149466739CT.txt</v>
+      </c>
+      <c r="Y66" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>20149466739CB.txt</v>
+      </c>
+      <c r="Z66" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>20149466739 - 202302 - HOPE RICARDO - RET.txt</v>
       </c>
-      <c r="Y66" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA66" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>20149466739 - 202302 - HOPE RICARDO - PER.txt</v>
       </c>
-      <c r="Z66" s="4">
-        <f t="shared" ref="Z66:Z75" si="22">ROW(A66)</f>
+      <c r="AB66" s="4">
+        <f t="shared" ref="AB66:AB75" si="46">ROW(A66)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="B67" t="s">
@@ -5911,20 +6968,20 @@
         <v>142</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H75" si="23">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
+        <f t="shared" ref="H67:H75" si="47">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="str">
-        <f t="shared" ref="J67:J75" si="24">H67</f>
+        <f t="shared" ref="J67:J75" si="48">H67</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f t="shared" ref="K67:K75" si="25">TEXT(E67,"AAAAMM")</f>
+        <f t="shared" ref="K67:K75" si="49">TEXT(E67,"AAAAMM")</f>
         <v>202302</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M67" s="3" t="s">
@@ -5946,28 +7003,45 @@
         <v>162</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T67" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T67" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_20175255819_202302.txt</v>
+      </c>
       <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
+      <c r="V67" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>20175255819CR.txt</v>
+      </c>
+      <c r="W67" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>20175255819CP.txt</v>
+      </c>
       <c r="X67" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>20175255819CT.txt</v>
+      </c>
+      <c r="Y67" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>20175255819CB.txt</v>
+      </c>
+      <c r="Z67" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>20175255819 - 202302 - BEITIA CRISPIN - RET.txt</v>
       </c>
-      <c r="Y67" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA67" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>20175255819 - 202302 - BEITIA CRISPIN - PER.txt</v>
       </c>
-      <c r="Z67" s="4">
-        <f t="shared" si="22"/>
+      <c r="AB67" s="4">
+        <f t="shared" si="46"/>
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="B68" t="s">
@@ -5986,20 +7060,20 @@
         <v>142</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
       </c>
       <c r="K68" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>202302</v>
       </c>
       <c r="L68" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M68" s="3" t="s">
@@ -6021,28 +7095,45 @@
         <v>162</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T68" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T68" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_20246008109_202302.txt</v>
+      </c>
       <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
+      <c r="V68" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>20246008109CR.txt</v>
+      </c>
+      <c r="W68" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>20246008109CP.txt</v>
+      </c>
       <c r="X68" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>20246008109CT.txt</v>
+      </c>
+      <c r="Y68" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>20246008109CB.txt</v>
+      </c>
+      <c r="Z68" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>20246008109 - 202302 - BUSTOS GONZALO - RET.txt</v>
       </c>
-      <c r="Y68" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA68" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>20246008109 - 202302 - BUSTOS GONZALO - PER.txt</v>
       </c>
-      <c r="Z68" s="4">
-        <f t="shared" si="22"/>
+      <c r="AB68" s="4">
+        <f t="shared" si="46"/>
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="B69" t="s">
@@ -6062,20 +7153,20 @@
         <v>142</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
       </c>
       <c r="K69" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>202302</v>
       </c>
       <c r="L69" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M69" s="3" t="s">
@@ -6097,28 +7188,45 @@
         <v>162</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T69" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T69" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_23120538209_202302.txt</v>
+      </c>
       <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
+      <c r="V69" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>23120538209CR.txt</v>
+      </c>
+      <c r="W69" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>23120538209CP.txt</v>
+      </c>
       <c r="X69" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>23120538209CT.txt</v>
+      </c>
+      <c r="Y69" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>23120538209CB.txt</v>
+      </c>
+      <c r="Z69" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>23120538209 - 202302 - LINDSTROM PLINIO - RET.txt</v>
       </c>
-      <c r="Y69" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA69" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>23120538209 - 202302 - LINDSTROM PLINIO - PER.txt</v>
       </c>
-      <c r="Z69" s="4">
-        <f t="shared" si="22"/>
+      <c r="AB69" s="4">
+        <f t="shared" si="46"/>
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="B70" t="s">
@@ -6137,20 +7245,20 @@
         <v>142</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
       </c>
       <c r="K70" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>202302</v>
       </c>
       <c r="L70" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M70" s="3" t="s">
@@ -6172,28 +7280,45 @@
         <v>162</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T70" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T70" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_23242946669_202302.txt</v>
+      </c>
       <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
+      <c r="V70" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>23242946669CR.txt</v>
+      </c>
+      <c r="W70" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>23242946669CP.txt</v>
+      </c>
       <c r="X70" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>23242946669CT.txt</v>
+      </c>
+      <c r="Y70" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>23242946669CB.txt</v>
+      </c>
+      <c r="Z70" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>23242946669 - 202302 - SOTO GERONIMO - RET.txt</v>
       </c>
-      <c r="Y70" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA70" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>23242946669 - 202302 - SOTO GERONIMO - PER.txt</v>
       </c>
-      <c r="Z70" s="4">
-        <f t="shared" si="22"/>
+      <c r="AB70" s="4">
+        <f t="shared" si="46"/>
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="B71" t="s">
@@ -6212,20 +7337,20 @@
         <v>142</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
       </c>
       <c r="K71" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>202302</v>
       </c>
       <c r="L71" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M71" s="3" t="s">
@@ -6247,28 +7372,45 @@
         <v>162</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T71" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T71" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_27173878309_202302.txt</v>
+      </c>
       <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
+      <c r="V71" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>27173878309CR.txt</v>
+      </c>
+      <c r="W71" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>27173878309CP.txt</v>
+      </c>
       <c r="X71" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>27173878309CT.txt</v>
+      </c>
+      <c r="Y71" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>27173878309CB.txt</v>
+      </c>
+      <c r="Z71" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>27173878309 - 202302 - LIONETO CAROLINA - RET.txt</v>
       </c>
-      <c r="Y71" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA71" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>27173878309 - 202302 - LIONETO CAROLINA - PER.txt</v>
       </c>
-      <c r="Z71" s="4">
-        <f t="shared" si="22"/>
+      <c r="AB71" s="4">
+        <f t="shared" si="46"/>
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="B72" t="s">
@@ -6287,20 +7429,20 @@
         <v>142</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
       </c>
       <c r="K72" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>202302</v>
       </c>
       <c r="L72" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M72" s="3" t="s">
@@ -6322,28 +7464,45 @@
         <v>162</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T72" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T72" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_30715085409_202302.txt</v>
+      </c>
       <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
+      <c r="V72" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>30715085409CR.txt</v>
+      </c>
+      <c r="W72" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>30715085409CP.txt</v>
+      </c>
       <c r="X72" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>30715085409CT.txt</v>
+      </c>
+      <c r="Y72" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>30715085409CB.txt</v>
+      </c>
+      <c r="Z72" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>30715085409 - 202302 - COND. INVERNADA - RET.txt</v>
       </c>
-      <c r="Y72" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA72" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>30715085409 - 202302 - COND. INVERNADA - PER.txt</v>
       </c>
-      <c r="Z72" s="4">
-        <f t="shared" si="22"/>
+      <c r="AB72" s="4">
+        <f t="shared" si="46"/>
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="B73" t="s">
@@ -6362,20 +7521,20 @@
         <v>142</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
       </c>
       <c r="K73" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>202302</v>
       </c>
       <c r="L73" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M73" s="3" t="s">
@@ -6397,28 +7556,45 @@
         <v>162</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T73" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T73" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_33653520439_202302.txt</v>
+      </c>
       <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
+      <c r="V73" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>33653520439CR.txt</v>
+      </c>
+      <c r="W73" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>33653520439CP.txt</v>
+      </c>
       <c r="X73" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>33653520439CT.txt</v>
+      </c>
+      <c r="Y73" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>33653520439CB.txt</v>
+      </c>
+      <c r="Z73" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>33653520439 - 202302 - FAX SRL - RET.txt</v>
       </c>
-      <c r="Y73" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA73" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>33653520439 - 202302 - FAX SRL - PER.txt</v>
       </c>
-      <c r="Z73" s="4">
-        <f t="shared" si="22"/>
+      <c r="AB73" s="4">
+        <f t="shared" si="46"/>
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="B74" t="s">
@@ -6437,20 +7613,20 @@
         <v>142</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
       </c>
       <c r="K74" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>202302</v>
       </c>
       <c r="L74" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M74" s="3" t="s">
@@ -6472,28 +7648,45 @@
         <v>162</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T74" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T74" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_33712370829_202302.txt</v>
+      </c>
       <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
+      <c r="V74" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>33712370829CR.txt</v>
+      </c>
+      <c r="W74" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>33712370829CP.txt</v>
+      </c>
       <c r="X74" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>33712370829CT.txt</v>
+      </c>
+      <c r="Y74" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>33712370829CB.txt</v>
+      </c>
+      <c r="Z74" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>33712370829 - 202302 - KM 0 SA - RET.txt</v>
       </c>
-      <c r="Y74" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA74" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>33712370829 - 202302 - KM 0 SA - PER.txt</v>
       </c>
-      <c r="Z74" s="4">
-        <f t="shared" si="22"/>
+      <c r="AB74" s="4">
+        <f t="shared" si="46"/>
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="B75" t="s">
@@ -6512,20 +7705,20 @@
         <v>142</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
       </c>
       <c r="K75" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="49"/>
         <v>202302</v>
       </c>
       <c r="L75" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M75" s="3" t="s">
@@ -6547,32 +7740,49 @@
         <v>162</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T75" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T75" s="3" t="str">
+        <f t="shared" si="37"/>
+        <v>retencionesExport_33712529909_202302.txt</v>
+      </c>
       <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
+      <c r="V75" s="3" t="str">
+        <f t="shared" si="38"/>
+        <v>33712529909CR.txt</v>
+      </c>
+      <c r="W75" s="3" t="str">
+        <f t="shared" si="39"/>
+        <v>33712529909CP.txt</v>
+      </c>
       <c r="X75" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="40"/>
+        <v>33712529909CT.txt</v>
+      </c>
+      <c r="Y75" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>33712529909CB.txt</v>
+      </c>
+      <c r="Z75" s="3" t="str">
+        <f t="shared" si="42"/>
         <v>33712529909 - 202302 - INMUEBLES SRL - RET.txt</v>
       </c>
-      <c r="Y75" s="3" t="str">
-        <f t="shared" si="19"/>
+      <c r="AA75" s="3" t="str">
+        <f t="shared" si="43"/>
         <v>33712529909 - 202302 - INMUEBLES SRL - PER.txt</v>
       </c>
-      <c r="Z75" s="4">
-        <f t="shared" si="22"/>
+      <c r="AB75" s="4">
+        <f t="shared" si="46"/>
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z75" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:AB75" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA75">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC75">
     <sortCondition ref="B2:B75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Importación RETPER SOS.xlsx
+++ b/Importación RETPER SOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6C943D-67CC-471C-BE39-75B88572ED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC62CA3-C219-4CD7-A733-CBE361213FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,9 +958,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,10 @@
         <f>"retencionesExport_"&amp;SUBSTITUTE(D2,"-","")&amp;"_"&amp;TEXT(E2,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_20168291680_202302.txt</v>
       </c>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3" t="str">
+        <f>"retencionesExport_"&amp;SUBSTITUTE(D2,"-","")&amp;"_"&amp;TEXT(E2,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_20168291680_202302.txt</v>
+      </c>
       <c r="V2" s="3" t="str">
         <f>SUBSTITUTE(D2,"-","")&amp;"CR.txt"</f>
         <v>20168291680CR.txt</v>
@@ -1214,29 +1217,32 @@
         <f>"retencionesExport_"&amp;SUBSTITUTE(D3,"-","")&amp;"_"&amp;TEXT(E3,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_20315731330_202302.txt</v>
       </c>
-      <c r="U3" s="3"/>
+      <c r="U3" s="3" t="str">
+        <f t="shared" ref="U3" si="6">"retencionesExport_"&amp;SUBSTITUTE(D3,"-","")&amp;"_"&amp;TEXT(E3,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_20315731330_202302.txt</v>
+      </c>
       <c r="V3" s="3" t="str">
-        <f t="shared" ref="V3" si="6">SUBSTITUTE(D3,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V3" si="7">SUBSTITUTE(D3,"-","")&amp;"CR.txt"</f>
         <v>20315731330CR.txt</v>
       </c>
       <c r="W3" s="3" t="str">
-        <f t="shared" ref="W3" si="7">SUBSTITUTE(D3,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W3" si="8">SUBSTITUTE(D3,"-","")&amp;"CP.txt"</f>
         <v>20315731330CP.txt</v>
       </c>
       <c r="X3" s="3" t="str">
-        <f t="shared" ref="X3" si="8">SUBSTITUTE(D3,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X3" si="9">SUBSTITUTE(D3,"-","")&amp;"CT.txt"</f>
         <v>20315731330CT.txt</v>
       </c>
       <c r="Y3" s="3" t="str">
-        <f t="shared" ref="Y3" si="9">SUBSTITUTE(D3,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y3" si="10">SUBSTITUTE(D3,"-","")&amp;"CB.txt"</f>
         <v>20315731330CB.txt</v>
       </c>
       <c r="Z3" s="3" t="str">
-        <f t="shared" ref="Z3" si="10">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - RET.txt")</f>
+        <f t="shared" ref="Z3" si="11">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - RET.txt")</f>
         <v>20315731330 - 202302 - VARENIZA ANGEL - RET.txt</v>
       </c>
       <c r="AA3" s="3" t="str">
-        <f t="shared" ref="AA3" si="11">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - PER.txt")</f>
+        <f t="shared" ref="AA3" si="12">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - PER.txt")</f>
         <v>20315731330 - 202302 - VARENIZA ANGEL - PER.txt</v>
       </c>
       <c r="AB3" s="4">
@@ -1286,11 +1292,11 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3" t="str">
-        <f t="shared" ref="N4:N52" si="12">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
+        <f t="shared" ref="N4:N52" si="13">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
         <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
       </c>
       <c r="O4" s="3" t="str">
-        <f t="shared" ref="O4:O52" si="13">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
+        <f t="shared" ref="O4:O52" si="14">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
         <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
       </c>
       <c r="P4" s="3"/>
@@ -1369,32 +1375,35 @@
         <v>170</v>
       </c>
       <c r="T5" s="3" t="str">
-        <f t="shared" ref="T5:T18" si="14">"retencionesExport_"&amp;SUBSTITUTE(D5,"-","")&amp;"_"&amp;TEXT(E5,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="T5:T18" si="15">"retencionesExport_"&amp;SUBSTITUTE(D5,"-","")&amp;"_"&amp;TEXT(E5,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_27067089680_202302.txt</v>
       </c>
-      <c r="U5" s="3"/>
+      <c r="U5" s="3" t="str">
+        <f t="shared" ref="U5:U18" si="16">"retencionesExport_"&amp;SUBSTITUTE(D5,"-","")&amp;"_"&amp;TEXT(E5,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_27067089680_202302.txt</v>
+      </c>
       <c r="V5" s="3" t="str">
-        <f t="shared" ref="V5:V18" si="15">SUBSTITUTE(D5,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V5:V18" si="17">SUBSTITUTE(D5,"-","")&amp;"CR.txt"</f>
         <v>27067089680CR.txt</v>
       </c>
       <c r="W5" s="3" t="str">
-        <f t="shared" ref="W5:W18" si="16">SUBSTITUTE(D5,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W5:W18" si="18">SUBSTITUTE(D5,"-","")&amp;"CP.txt"</f>
         <v>27067089680CP.txt</v>
       </c>
       <c r="X5" s="3" t="str">
-        <f t="shared" ref="X5:X18" si="17">SUBSTITUTE(D5,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X5:X18" si="19">SUBSTITUTE(D5,"-","")&amp;"CT.txt"</f>
         <v>27067089680CT.txt</v>
       </c>
       <c r="Y5" s="3" t="str">
-        <f t="shared" ref="Y5:Y18" si="18">SUBSTITUTE(D5,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y5:Y18" si="20">SUBSTITUTE(D5,"-","")&amp;"CB.txt"</f>
         <v>27067089680CB.txt</v>
       </c>
       <c r="Z5" s="3" t="str">
-        <f t="shared" ref="Z5:Z18" si="19">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - RET.txt")</f>
+        <f t="shared" ref="Z5:Z18" si="21">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - RET.txt")</f>
         <v>27067089680 - 202302 - SESMERO TERESITA - RET.txt</v>
       </c>
       <c r="AA5" s="3" t="str">
-        <f t="shared" ref="AA5:AA18" si="20">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - PER.txt")</f>
+        <f t="shared" ref="AA5:AA18" si="22">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - PER.txt")</f>
         <v>27067089680 - 202302 - SESMERO TERESITA - PER.txt</v>
       </c>
       <c r="AB5" s="4">
@@ -1461,32 +1470,35 @@
         <v>170</v>
       </c>
       <c r="T6" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_27116976620_202302.txt</v>
       </c>
-      <c r="U6" s="3"/>
+      <c r="U6" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_27116976620_202302.txt</v>
+      </c>
       <c r="V6" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27116976620CR.txt</v>
       </c>
       <c r="W6" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27116976620CP.txt</v>
       </c>
       <c r="X6" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>27116976620CT.txt</v>
       </c>
       <c r="Y6" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>27116976620CB.txt</v>
       </c>
       <c r="Z6" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>27116976620 - 202302 - URRUTIA MIRIAM - RET.txt</v>
       </c>
       <c r="AA6" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>27116976620 - 202302 - URRUTIA MIRIAM - PER.txt</v>
       </c>
       <c r="AB6" s="4">
@@ -1553,32 +1565,35 @@
         <v>170</v>
       </c>
       <c r="T7" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_30657146850_202302.txt</v>
       </c>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_30657146850_202302.txt</v>
+      </c>
       <c r="V7" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30657146850CR.txt</v>
       </c>
       <c r="W7" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30657146850CP.txt</v>
       </c>
       <c r="X7" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>30657146850CT.txt</v>
       </c>
       <c r="Y7" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>30657146850CB.txt</v>
       </c>
       <c r="Z7" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>30657146850 - 202302 - MEDINT SRL - RET.txt</v>
       </c>
       <c r="AA7" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>30657146850 - 202302 - MEDINT SRL - PER.txt</v>
       </c>
       <c r="AB7" s="4">
@@ -1645,32 +1660,35 @@
         <v>170</v>
       </c>
       <c r="T8" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_20133762761_202302.txt</v>
       </c>
-      <c r="U8" s="3"/>
+      <c r="U8" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_20133762761_202302.txt</v>
+      </c>
       <c r="V8" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20133762761CR.txt</v>
       </c>
       <c r="W8" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20133762761CP.txt</v>
       </c>
       <c r="X8" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20133762761CT.txt</v>
       </c>
       <c r="Y8" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20133762761CB.txt</v>
       </c>
       <c r="Z8" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - RET.txt</v>
       </c>
       <c r="AA8" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - PER.txt</v>
       </c>
       <c r="AB8" s="4">
@@ -1737,32 +1755,35 @@
         <v>170</v>
       </c>
       <c r="T9" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_20149462601_202302.txt</v>
       </c>
-      <c r="U9" s="3"/>
+      <c r="U9" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_20149462601_202302.txt</v>
+      </c>
       <c r="V9" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20149462601CR.txt</v>
       </c>
       <c r="W9" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20149462601CP.txt</v>
       </c>
       <c r="X9" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20149462601CT.txt</v>
       </c>
       <c r="Y9" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20149462601CB.txt</v>
       </c>
       <c r="Z9" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - RET.txt</v>
       </c>
       <c r="AA9" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - PER.txt</v>
       </c>
       <c r="AB9" s="4">
@@ -1830,32 +1851,35 @@
         <v>170</v>
       </c>
       <c r="T10" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_20168291281_202302.txt</v>
       </c>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_20168291281_202302.txt</v>
+      </c>
       <c r="V10" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20168291281CR.txt</v>
       </c>
       <c r="W10" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20168291281CP.txt</v>
       </c>
       <c r="X10" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20168291281CT.txt</v>
       </c>
       <c r="Y10" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20168291281CB.txt</v>
       </c>
       <c r="Z10" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20168291281 - 202302 - BUSTOS GUSTAVO - RET.txt</v>
       </c>
       <c r="AA10" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20168291281 - 202302 - BUSTOS GUSTAVO - PER.txt</v>
       </c>
       <c r="AB10" s="4">
@@ -1923,32 +1947,35 @@
         <v>170</v>
       </c>
       <c r="T11" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_20172521771_202302.txt</v>
       </c>
-      <c r="U11" s="3"/>
+      <c r="U11" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_20172521771_202302.txt</v>
+      </c>
       <c r="V11" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20172521771CR.txt</v>
       </c>
       <c r="W11" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20172521771CP.txt</v>
       </c>
       <c r="X11" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20172521771CT.txt</v>
       </c>
       <c r="Y11" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20172521771CB.txt</v>
       </c>
       <c r="Z11" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20172521771 - 202302 - PEREYRA ESTEBAN - RET.txt</v>
       </c>
       <c r="AA11" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20172521771 - 202302 - PEREYRA ESTEBAN - PER.txt</v>
       </c>
       <c r="AB11" s="4">
@@ -2015,32 +2042,35 @@
         <v>170</v>
       </c>
       <c r="T12" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_27128520851_202302.txt</v>
       </c>
-      <c r="U12" s="3"/>
+      <c r="U12" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_27128520851_202302.txt</v>
+      </c>
       <c r="V12" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27128520851CR.txt</v>
       </c>
       <c r="W12" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27128520851CP.txt</v>
       </c>
       <c r="X12" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>27128520851CT.txt</v>
       </c>
       <c r="Y12" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>27128520851CB.txt</v>
       </c>
       <c r="Z12" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>27128520851 - 202302 - MOLAS PATRICIA - RET.txt</v>
       </c>
       <c r="AA12" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>27128520851 - 202302 - MOLAS PATRICIA - PER.txt</v>
       </c>
       <c r="AB12" s="4">
@@ -2107,32 +2137,35 @@
         <v>170</v>
       </c>
       <c r="T13" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_30710404131_202302.txt</v>
       </c>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_30710404131_202302.txt</v>
+      </c>
       <c r="V13" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30710404131CR.txt</v>
       </c>
       <c r="W13" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30710404131CP.txt</v>
       </c>
       <c r="X13" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>30710404131CT.txt</v>
       </c>
       <c r="Y13" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>30710404131CB.txt</v>
       </c>
       <c r="Z13" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>30710404131 - 202302 - GESAL SA - RET.txt</v>
       </c>
       <c r="AA13" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>30710404131 - 202302 - GESAL SA - PER.txt</v>
       </c>
       <c r="AB13" s="4">
@@ -2199,32 +2232,35 @@
         <v>170</v>
       </c>
       <c r="T14" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_30717059111_202302.txt</v>
       </c>
-      <c r="U14" s="3"/>
+      <c r="U14" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_30717059111_202302.txt</v>
+      </c>
       <c r="V14" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>30717059111CR.txt</v>
       </c>
       <c r="W14" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>30717059111CP.txt</v>
       </c>
       <c r="X14" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>30717059111CT.txt</v>
       </c>
       <c r="Y14" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>30717059111CB.txt</v>
       </c>
       <c r="Z14" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - RET.txt</v>
       </c>
       <c r="AA14" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - PER.txt</v>
       </c>
       <c r="AB14" s="4">
@@ -2291,32 +2327,35 @@
         <v>170</v>
       </c>
       <c r="T15" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_20121182832_202302.txt</v>
       </c>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_20121182832_202302.txt</v>
+      </c>
       <c r="V15" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20121182832CR.txt</v>
       </c>
       <c r="W15" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20121182832CP.txt</v>
       </c>
       <c r="X15" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20121182832CT.txt</v>
       </c>
       <c r="Y15" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20121182832CB.txt</v>
       </c>
       <c r="Z15" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20121182832 - 202302 - RIERA HECTOR M - RET.txt</v>
       </c>
       <c r="AA15" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20121182832 - 202302 - RIERA HECTOR M - PER.txt</v>
       </c>
       <c r="AB15" s="4">
@@ -2383,32 +2422,35 @@
         <v>170</v>
       </c>
       <c r="T16" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_20147130202_202302.txt</v>
       </c>
-      <c r="U16" s="3"/>
+      <c r="U16" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_20147130202_202302.txt</v>
+      </c>
       <c r="V16" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20147130202CR.txt</v>
       </c>
       <c r="W16" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20147130202CP.txt</v>
       </c>
       <c r="X16" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20147130202CT.txt</v>
       </c>
       <c r="Y16" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20147130202CB.txt</v>
       </c>
       <c r="Z16" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20147130202 - 202302 - BUSTOS MARTIN - RET.txt</v>
       </c>
       <c r="AA16" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20147130202 - 202302 - BUSTOS MARTIN - PER.txt</v>
       </c>
       <c r="AB16" s="4">
@@ -2475,32 +2517,35 @@
         <v>170</v>
       </c>
       <c r="T17" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_20174123072_202302.txt</v>
       </c>
-      <c r="U17" s="3"/>
+      <c r="U17" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_20174123072_202302.txt</v>
+      </c>
       <c r="V17" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20174123072CR.txt</v>
       </c>
       <c r="W17" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>20174123072CP.txt</v>
       </c>
       <c r="X17" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20174123072CT.txt</v>
       </c>
       <c r="Y17" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20174123072CB.txt</v>
       </c>
       <c r="Z17" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20174123072 - 202302 - INSAURRALDE CARLOS - RET.txt</v>
       </c>
       <c r="AA17" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20174123072 - 202302 - INSAURRALDE CARLOS - PER.txt</v>
       </c>
       <c r="AB17" s="4">
@@ -2568,32 +2613,35 @@
         <v>170</v>
       </c>
       <c r="T18" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>retencionesExport_27182653972_202302.txt</v>
       </c>
-      <c r="U18" s="3"/>
+      <c r="U18" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>retencionesExport_27182653972_202302.txt</v>
+      </c>
       <c r="V18" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>27182653972CR.txt</v>
       </c>
       <c r="W18" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27182653972CP.txt</v>
       </c>
       <c r="X18" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>27182653972CT.txt</v>
       </c>
       <c r="Y18" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>27182653972CB.txt</v>
       </c>
       <c r="Z18" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - RET.txt</v>
       </c>
       <c r="AA18" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - PER.txt</v>
       </c>
       <c r="AB18" s="4">
@@ -2643,11 +2691,11 @@
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
       </c>
       <c r="P19" s="3"/>
@@ -2726,32 +2774,35 @@
         <v>170</v>
       </c>
       <c r="T20" s="3" t="str">
-        <f t="shared" ref="T20:T21" si="21">"retencionesExport_"&amp;SUBSTITUTE(D20,"-","")&amp;"_"&amp;TEXT(E20,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="T20:T21" si="23">"retencionesExport_"&amp;SUBSTITUTE(D20,"-","")&amp;"_"&amp;TEXT(E20,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_30708370122_202302.txt</v>
       </c>
-      <c r="U20" s="3"/>
+      <c r="U20" s="3" t="str">
+        <f t="shared" ref="U20:U21" si="24">"retencionesExport_"&amp;SUBSTITUTE(D20,"-","")&amp;"_"&amp;TEXT(E20,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_30708370122_202302.txt</v>
+      </c>
       <c r="V20" s="3" t="str">
-        <f t="shared" ref="V20:V21" si="22">SUBSTITUTE(D20,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V20:V21" si="25">SUBSTITUTE(D20,"-","")&amp;"CR.txt"</f>
         <v>30708370122CR.txt</v>
       </c>
       <c r="W20" s="3" t="str">
-        <f t="shared" ref="W20:W21" si="23">SUBSTITUTE(D20,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W20:W21" si="26">SUBSTITUTE(D20,"-","")&amp;"CP.txt"</f>
         <v>30708370122CP.txt</v>
       </c>
       <c r="X20" s="3" t="str">
-        <f t="shared" ref="X20:X21" si="24">SUBSTITUTE(D20,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X20:X21" si="27">SUBSTITUTE(D20,"-","")&amp;"CT.txt"</f>
         <v>30708370122CT.txt</v>
       </c>
       <c r="Y20" s="3" t="str">
-        <f t="shared" ref="Y20:Y21" si="25">SUBSTITUTE(D20,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y20:Y21" si="28">SUBSTITUTE(D20,"-","")&amp;"CB.txt"</f>
         <v>30708370122CB.txt</v>
       </c>
       <c r="Z20" s="3" t="str">
-        <f t="shared" ref="Z20:Z21" si="26">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - RET.txt")</f>
+        <f t="shared" ref="Z20:Z21" si="29">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - RET.txt")</f>
         <v>30708370122 - 202302 - POSADAS FIDUCIARIA SA - RET.txt</v>
       </c>
       <c r="AA20" s="3" t="str">
-        <f t="shared" ref="AA20:AA21" si="27">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - PER.txt")</f>
+        <f t="shared" ref="AA20:AA21" si="30">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - PER.txt")</f>
         <v>30708370122 - 202302 - POSADAS FIDUCIARIA SA - PER.txt</v>
       </c>
       <c r="AB20" s="4">
@@ -2818,32 +2869,35 @@
         <v>170</v>
       </c>
       <c r="T21" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>retencionesExport_27068286323_202302.txt</v>
       </c>
-      <c r="U21" s="3"/>
+      <c r="U21" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>retencionesExport_27068286323_202302.txt</v>
+      </c>
       <c r="V21" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>27068286323CR.txt</v>
       </c>
       <c r="W21" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>27068286323CP.txt</v>
       </c>
       <c r="X21" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>27068286323CT.txt</v>
       </c>
       <c r="Y21" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>27068286323CB.txt</v>
       </c>
       <c r="Z21" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>27068286323 - 202302 - SEMILLA ELVIES - RET.txt</v>
       </c>
       <c r="AA21" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>27068286323 - 202302 - SEMILLA ELVIES - PER.txt</v>
       </c>
       <c r="AB21" s="4">
@@ -2893,11 +2947,11 @@
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
       </c>
       <c r="P22" s="3"/>
@@ -2976,32 +3030,35 @@
         <v>170</v>
       </c>
       <c r="T23" s="3" t="str">
-        <f t="shared" ref="T23:T51" si="28">"retencionesExport_"&amp;SUBSTITUTE(D23,"-","")&amp;"_"&amp;TEXT(E23,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="T23:T51" si="31">"retencionesExport_"&amp;SUBSTITUTE(D23,"-","")&amp;"_"&amp;TEXT(E23,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_30672355393_202302.txt</v>
       </c>
-      <c r="U23" s="3"/>
+      <c r="U23" s="3" t="str">
+        <f t="shared" ref="U23:U51" si="32">"retencionesExport_"&amp;SUBSTITUTE(D23,"-","")&amp;"_"&amp;TEXT(E23,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_30672355393_202302.txt</v>
+      </c>
       <c r="V23" s="3" t="str">
-        <f t="shared" ref="V23:V51" si="29">SUBSTITUTE(D23,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V23:V51" si="33">SUBSTITUTE(D23,"-","")&amp;"CR.txt"</f>
         <v>30672355393CR.txt</v>
       </c>
       <c r="W23" s="3" t="str">
-        <f t="shared" ref="W23:W51" si="30">SUBSTITUTE(D23,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W23:W51" si="34">SUBSTITUTE(D23,"-","")&amp;"CP.txt"</f>
         <v>30672355393CP.txt</v>
       </c>
       <c r="X23" s="3" t="str">
-        <f t="shared" ref="X23:X51" si="31">SUBSTITUTE(D23,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X23:X51" si="35">SUBSTITUTE(D23,"-","")&amp;"CT.txt"</f>
         <v>30672355393CT.txt</v>
       </c>
       <c r="Y23" s="3" t="str">
-        <f t="shared" ref="Y23:Y51" si="32">SUBSTITUTE(D23,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y23:Y51" si="36">SUBSTITUTE(D23,"-","")&amp;"CB.txt"</f>
         <v>30672355393CB.txt</v>
       </c>
       <c r="Z23" s="3" t="str">
-        <f t="shared" ref="Z23:Z51" si="33">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - RET.txt")</f>
+        <f t="shared" ref="Z23:Z51" si="37">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - RET.txt")</f>
         <v>30672355393 - 202302 - CUCYTI SRL - RET.txt</v>
       </c>
       <c r="AA23" s="3" t="str">
-        <f t="shared" ref="AA23:AA51" si="34">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - PER.txt")</f>
+        <f t="shared" ref="AA23:AA51" si="38">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - PER.txt")</f>
         <v>30672355393 - 202302 - CUCYTI SRL - PER.txt</v>
       </c>
       <c r="AB23" s="4">
@@ -3068,32 +3125,35 @@
         <v>170</v>
       </c>
       <c r="T24" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_30707912223_202302.txt</v>
       </c>
-      <c r="U24" s="3"/>
+      <c r="U24" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_30707912223_202302.txt</v>
+      </c>
       <c r="V24" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>30707912223CR.txt</v>
       </c>
       <c r="W24" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>30707912223CP.txt</v>
       </c>
       <c r="X24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>30707912223CT.txt</v>
       </c>
       <c r="Y24" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30707912223CB.txt</v>
       </c>
       <c r="Z24" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL - RET.txt</v>
       </c>
       <c r="AA24" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL - PER.txt</v>
       </c>
       <c r="AB24" s="4">
@@ -3160,32 +3220,35 @@
         <v>170</v>
       </c>
       <c r="T25" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_30715577743_202302.txt</v>
       </c>
-      <c r="U25" s="3"/>
+      <c r="U25" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_30715577743_202302.txt</v>
+      </c>
       <c r="V25" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>30715577743CR.txt</v>
       </c>
       <c r="W25" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>30715577743CP.txt</v>
       </c>
       <c r="X25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>30715577743CT.txt</v>
       </c>
       <c r="Y25" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30715577743CB.txt</v>
       </c>
       <c r="Z25" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>30715577743 - 202302 - TRANS. MISIONES SA - RET.txt</v>
       </c>
       <c r="AA25" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>30715577743 - 202302 - TRANS. MISIONES SA - PER.txt</v>
       </c>
       <c r="AB25" s="4">
@@ -3252,32 +3315,35 @@
         <v>170</v>
       </c>
       <c r="T26" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_30717537153_202302.txt</v>
       </c>
-      <c r="U26" s="3"/>
+      <c r="U26" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_30717537153_202302.txt</v>
+      </c>
       <c r="V26" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>30717537153CR.txt</v>
       </c>
       <c r="W26" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>30717537153CP.txt</v>
       </c>
       <c r="X26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>30717537153CT.txt</v>
       </c>
       <c r="Y26" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30717537153CB.txt</v>
       </c>
       <c r="Z26" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>30717537153 - 202302 - DON LALO SRL - RET.txt</v>
       </c>
       <c r="AA26" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>30717537153 - 202302 - DON LALO SRL - PER.txt</v>
       </c>
       <c r="AB26" s="4">
@@ -3344,32 +3410,35 @@
         <v>170</v>
       </c>
       <c r="T27" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_20168291834_202302.txt</v>
       </c>
-      <c r="U27" s="3"/>
+      <c r="U27" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_20168291834_202302.txt</v>
+      </c>
       <c r="V27" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>20168291834CR.txt</v>
       </c>
       <c r="W27" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20168291834CP.txt</v>
       </c>
       <c r="X27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20168291834CT.txt</v>
       </c>
       <c r="Y27" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>20168291834CB.txt</v>
       </c>
       <c r="Z27" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20168291834 - 202302 - FERNANDEZ SOSA RODOLFO - RET.txt</v>
       </c>
       <c r="AA27" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>20168291834 - 202302 - FERNANDEZ SOSA RODOLFO - PER.txt</v>
       </c>
       <c r="AB27" s="4">
@@ -3436,32 +3505,35 @@
         <v>170</v>
       </c>
       <c r="T28" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_23149462074_202302.txt</v>
       </c>
-      <c r="U28" s="3"/>
+      <c r="U28" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_23149462074_202302.txt</v>
+      </c>
       <c r="V28" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>23149462074CR.txt</v>
       </c>
       <c r="W28" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>23149462074CP.txt</v>
       </c>
       <c r="X28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>23149462074CT.txt</v>
       </c>
       <c r="Y28" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>23149462074CB.txt</v>
       </c>
       <c r="Z28" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>23149462074 - 202302 - SESMERO MARIA GABRIELA - RET.txt</v>
       </c>
       <c r="AA28" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>23149462074 - 202302 - SESMERO MARIA GABRIELA - PER.txt</v>
       </c>
       <c r="AB28" s="4">
@@ -3528,32 +3600,35 @@
         <v>170</v>
       </c>
       <c r="T29" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_23342751644_202302.txt</v>
       </c>
-      <c r="U29" s="3"/>
+      <c r="U29" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_23342751644_202302.txt</v>
+      </c>
       <c r="V29" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>23342751644CR.txt</v>
       </c>
       <c r="W29" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>23342751644CP.txt</v>
       </c>
       <c r="X29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>23342751644CT.txt</v>
       </c>
       <c r="Y29" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>23342751644CB.txt</v>
       </c>
       <c r="Z29" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>23342751644 - 202302 - FERREYRA CARMEN VICTORIA - RET.txt</v>
       </c>
       <c r="AA29" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>23342751644 - 202302 - FERREYRA CARMEN VICTORIA - PER.txt</v>
       </c>
       <c r="AB29" s="4">
@@ -3620,32 +3695,35 @@
         <v>170</v>
       </c>
       <c r="T30" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_23351897074_202302.txt</v>
       </c>
-      <c r="U30" s="3"/>
+      <c r="U30" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_23351897074_202302.txt</v>
+      </c>
       <c r="V30" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>23351897074CR.txt</v>
       </c>
       <c r="W30" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>23351897074CP.txt</v>
       </c>
       <c r="X30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>23351897074CT.txt</v>
       </c>
       <c r="Y30" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>23351897074CB.txt</v>
       </c>
       <c r="Z30" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>23351897074 - 202302 - SCOTO LUCILA - RET.txt</v>
       </c>
       <c r="AA30" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>23351897074 - 202302 - SCOTO LUCILA - PER.txt</v>
       </c>
       <c r="AB30" s="4">
@@ -3712,32 +3790,35 @@
         <v>170</v>
       </c>
       <c r="T31" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_27236873744_202302.txt</v>
       </c>
-      <c r="U31" s="3"/>
+      <c r="U31" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_27236873744_202302.txt</v>
+      </c>
       <c r="V31" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>27236873744CR.txt</v>
       </c>
       <c r="W31" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>27236873744CP.txt</v>
       </c>
       <c r="X31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>27236873744CT.txt</v>
       </c>
       <c r="Y31" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>27236873744CB.txt</v>
       </c>
       <c r="Z31" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>27236873744 - 202302 - TUFRO MALENA - RET.txt</v>
       </c>
       <c r="AA31" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>27236873744 - 202302 - TUFRO MALENA - PER.txt</v>
       </c>
       <c r="AB31" s="4">
@@ -3804,32 +3885,35 @@
         <v>170</v>
       </c>
       <c r="T32" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_30709431834_202302.txt</v>
       </c>
-      <c r="U32" s="3"/>
+      <c r="U32" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_30709431834_202302.txt</v>
+      </c>
       <c r="V32" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>30709431834CR.txt</v>
       </c>
       <c r="W32" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>30709431834CP.txt</v>
       </c>
       <c r="X32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>30709431834CT.txt</v>
       </c>
       <c r="Y32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30709431834CB.txt</v>
       </c>
       <c r="Z32" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>30709431834 - 202302 - DVC SRL - RET.txt</v>
       </c>
       <c r="AA32" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>30709431834 - 202302 - DVC SRL - PER.txt</v>
       </c>
       <c r="AB32" s="4">
@@ -3896,32 +3980,35 @@
         <v>170</v>
       </c>
       <c r="T33" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_30715795864_202302.txt</v>
       </c>
-      <c r="U33" s="3"/>
+      <c r="U33" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_30715795864_202302.txt</v>
+      </c>
       <c r="V33" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>30715795864CR.txt</v>
       </c>
       <c r="W33" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>30715795864CP.txt</v>
       </c>
       <c r="X33" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>30715795864CT.txt</v>
       </c>
       <c r="Y33" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30715795864CB.txt</v>
       </c>
       <c r="Z33" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>30715795864 - 202302 - VECINAS SRL - RET.txt</v>
       </c>
       <c r="AA33" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>30715795864 - 202302 - VECINAS SRL - PER.txt</v>
       </c>
       <c r="AB33" s="4">
@@ -3964,7 +4051,7 @@
         <v>202302</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" ref="L34:L65" si="35">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="L34:L65" si="39">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -3989,36 +4076,39 @@
         <v>170</v>
       </c>
       <c r="T34" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_20074827455_202302.txt</v>
       </c>
-      <c r="U34" s="3"/>
+      <c r="U34" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_20074827455_202302.txt</v>
+      </c>
       <c r="V34" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>20074827455CR.txt</v>
       </c>
       <c r="W34" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20074827455CP.txt</v>
       </c>
       <c r="X34" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20074827455CT.txt</v>
       </c>
       <c r="Y34" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>20074827455CB.txt</v>
       </c>
       <c r="Z34" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20074827455 - 202302 - SZYCHOWSKI RICARDO - RET.txt</v>
       </c>
       <c r="AA34" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>20074827455 - 202302 - SZYCHOWSKI RICARDO - PER.txt</v>
       </c>
       <c r="AB34" s="4">
-        <f t="shared" ref="AB34:AB65" si="36">ROW(A34)</f>
+        <f t="shared" ref="AB34:AB65" si="40">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
@@ -4056,7 +4146,7 @@
         <v>202302</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -4081,36 +4171,39 @@
         <v>170</v>
       </c>
       <c r="T35" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_20170394845_202302.txt</v>
       </c>
-      <c r="U35" s="3"/>
+      <c r="U35" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_20170394845_202302.txt</v>
+      </c>
       <c r="V35" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>20170394845CR.txt</v>
       </c>
       <c r="W35" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20170394845CP.txt</v>
       </c>
       <c r="X35" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20170394845CT.txt</v>
       </c>
       <c r="Y35" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>20170394845CB.txt</v>
       </c>
       <c r="Z35" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20170394845 - 202302 - FERREYRA MARCELO - RET.txt</v>
       </c>
       <c r="AA35" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>20170394845 - 202302 - FERREYRA MARCELO - PER.txt</v>
       </c>
       <c r="AB35" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>35</v>
       </c>
     </row>
@@ -4149,7 +4242,7 @@
         <v>202302</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -4174,36 +4267,39 @@
         <v>170</v>
       </c>
       <c r="T36" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_27148268105_202302.txt</v>
       </c>
-      <c r="U36" s="3"/>
+      <c r="U36" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_27148268105_202302.txt</v>
+      </c>
       <c r="V36" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>27148268105CR.txt</v>
       </c>
       <c r="W36" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>27148268105CP.txt</v>
       </c>
       <c r="X36" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>27148268105CT.txt</v>
       </c>
       <c r="Y36" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>27148268105CB.txt</v>
       </c>
       <c r="Z36" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>27148268105 - 202302 - CANTELI GRACIELA - RET.txt</v>
       </c>
       <c r="AA36" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>27148268105 - 202302 - CANTELI GRACIELA - PER.txt</v>
       </c>
       <c r="AB36" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>36</v>
       </c>
     </row>
@@ -4242,7 +4338,7 @@
         <v>202302</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -4267,36 +4363,39 @@
         <v>170</v>
       </c>
       <c r="T37" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_27171709925_202302.txt</v>
       </c>
-      <c r="U37" s="3"/>
+      <c r="U37" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_27171709925_202302.txt</v>
+      </c>
       <c r="V37" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>27171709925CR.txt</v>
       </c>
       <c r="W37" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>27171709925CP.txt</v>
       </c>
       <c r="X37" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>27171709925CT.txt</v>
       </c>
       <c r="Y37" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>27171709925CB.txt</v>
       </c>
       <c r="Z37" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>27171709925 - 202302 - CORONAS ALINE - RET.txt</v>
       </c>
       <c r="AA37" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>27171709925 - 202302 - CORONAS ALINE - PER.txt</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>37</v>
       </c>
     </row>
@@ -4334,7 +4433,7 @@
         <v>202302</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -4359,36 +4458,39 @@
         <v>170</v>
       </c>
       <c r="T38" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_30708553715_202302.txt</v>
       </c>
-      <c r="U38" s="3"/>
+      <c r="U38" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_30708553715_202302.txt</v>
+      </c>
       <c r="V38" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>30708553715CR.txt</v>
       </c>
       <c r="W38" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>30708553715CP.txt</v>
       </c>
       <c r="X38" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>30708553715CT.txt</v>
       </c>
       <c r="Y38" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30708553715CB.txt</v>
       </c>
       <c r="Z38" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>30708553715 - 202302 - ASOC. SALUD MNES - RET.txt</v>
       </c>
       <c r="AA38" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>30708553715 - 202302 - ASOC. SALUD MNES - PER.txt</v>
       </c>
       <c r="AB38" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>38</v>
       </c>
     </row>
@@ -4426,7 +4528,7 @@
         <v>202302</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M39" s="3" t="s">
@@ -4451,36 +4553,39 @@
         <v>170</v>
       </c>
       <c r="T39" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_20149466356_202302.txt</v>
       </c>
-      <c r="U39" s="3"/>
+      <c r="U39" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_20149466356_202302.txt</v>
+      </c>
       <c r="V39" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>20149466356CR.txt</v>
       </c>
       <c r="W39" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20149466356CP.txt</v>
       </c>
       <c r="X39" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20149466356CT.txt</v>
       </c>
       <c r="Y39" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>20149466356CB.txt</v>
       </c>
       <c r="Z39" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20149466356 - 202302 - ENRIQUEZ RUBEN - RET.txt</v>
       </c>
       <c r="AA39" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>20149466356 - 202302 - ENRIQUEZ RUBEN - PER.txt</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>39</v>
       </c>
     </row>
@@ -4518,7 +4623,7 @@
         <v>202302</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -4543,36 +4648,39 @@
         <v>170</v>
       </c>
       <c r="T40" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_20416948926_202302.txt</v>
       </c>
-      <c r="U40" s="3"/>
+      <c r="U40" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_20416948926_202302.txt</v>
+      </c>
       <c r="V40" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>20416948926CR.txt</v>
       </c>
       <c r="W40" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20416948926CP.txt</v>
       </c>
       <c r="X40" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20416948926CT.txt</v>
       </c>
       <c r="Y40" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>20416948926CB.txt</v>
       </c>
       <c r="Z40" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20416948926 - 202302 - BEITIA IÑAKI - RET.txt</v>
       </c>
       <c r="AA40" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>20416948926 - 202302 - BEITIA IÑAKI - PER.txt</v>
       </c>
       <c r="AB40" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>40</v>
       </c>
     </row>
@@ -4610,7 +4718,7 @@
         <v>202302</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M41" s="3" t="s">
@@ -4635,36 +4743,39 @@
         <v>170</v>
       </c>
       <c r="T41" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_27058846916_202302.txt</v>
       </c>
-      <c r="U41" s="3"/>
+      <c r="U41" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_27058846916_202302.txt</v>
+      </c>
       <c r="V41" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>27058846916CR.txt</v>
       </c>
       <c r="W41" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>27058846916CP.txt</v>
       </c>
       <c r="X41" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>27058846916CT.txt</v>
       </c>
       <c r="Y41" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>27058846916CB.txt</v>
       </c>
       <c r="Z41" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>27058846916 - 202302 - LAZCOZ VIOLETA - RET.txt</v>
       </c>
       <c r="AA41" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>27058846916 - 202302 - LAZCOZ VIOLETA - PER.txt</v>
       </c>
       <c r="AB41" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>41</v>
       </c>
     </row>
@@ -4702,7 +4813,7 @@
         <v>202302</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M42" s="3" t="s">
@@ -4727,36 +4838,39 @@
         <v>170</v>
       </c>
       <c r="T42" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_27201178776_202302.txt</v>
       </c>
-      <c r="U42" s="3"/>
+      <c r="U42" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_27201178776_202302.txt</v>
+      </c>
       <c r="V42" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>27201178776CR.txt</v>
       </c>
       <c r="W42" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>27201178776CP.txt</v>
       </c>
       <c r="X42" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>27201178776CT.txt</v>
       </c>
       <c r="Y42" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>27201178776CB.txt</v>
       </c>
       <c r="Z42" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>27201178776 - 202302 - SZYCHOWSKI AMANDA  - RET.txt</v>
       </c>
       <c r="AA42" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>27201178776 - 202302 - SZYCHOWSKI AMANDA  - PER.txt</v>
       </c>
       <c r="AB42" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>42</v>
       </c>
     </row>
@@ -4794,7 +4908,7 @@
         <v>202302</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M43" s="3" t="s">
@@ -4819,36 +4933,39 @@
         <v>170</v>
       </c>
       <c r="T43" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_27261827366_202302.txt</v>
       </c>
-      <c r="U43" s="3"/>
+      <c r="U43" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_27261827366_202302.txt</v>
+      </c>
       <c r="V43" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>27261827366CR.txt</v>
       </c>
       <c r="W43" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>27261827366CP.txt</v>
       </c>
       <c r="X43" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>27261827366CT.txt</v>
       </c>
       <c r="Y43" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>27261827366CB.txt</v>
       </c>
       <c r="Z43" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>27261827366 - 202302 - CARBALLO GRACIELA - RET.txt</v>
       </c>
       <c r="AA43" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>27261827366 - 202302 - CARBALLO GRACIELA - PER.txt</v>
       </c>
       <c r="AB43" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>43</v>
       </c>
     </row>
@@ -4886,7 +5003,7 @@
         <v>202302</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M44" s="3" t="s">
@@ -4911,36 +5028,39 @@
         <v>170</v>
       </c>
       <c r="T44" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_30687910636_202302.txt</v>
       </c>
-      <c r="U44" s="3"/>
+      <c r="U44" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_30687910636_202302.txt</v>
+      </c>
       <c r="V44" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>30687910636CR.txt</v>
       </c>
       <c r="W44" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>30687910636CP.txt</v>
       </c>
       <c r="X44" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>30687910636CT.txt</v>
       </c>
       <c r="Y44" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30687910636CB.txt</v>
       </c>
       <c r="Z44" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>30687910636 - 202302 - PREST. SANAT. SA - RET.txt</v>
       </c>
       <c r="AA44" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>30687910636 - 202302 - PREST. SANAT. SA - PER.txt</v>
       </c>
       <c r="AB44" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>44</v>
       </c>
     </row>
@@ -4978,7 +5098,7 @@
         <v>202302</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M45" s="3" t="s">
@@ -5003,36 +5123,39 @@
         <v>170</v>
       </c>
       <c r="T45" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_30715347926_202302.txt</v>
       </c>
-      <c r="U45" s="3"/>
+      <c r="U45" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_30715347926_202302.txt</v>
+      </c>
       <c r="V45" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>30715347926CR.txt</v>
       </c>
       <c r="W45" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>30715347926CP.txt</v>
       </c>
       <c r="X45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>30715347926CT.txt</v>
       </c>
       <c r="Y45" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30715347926CB.txt</v>
       </c>
       <c r="Z45" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>30715347926 - 202302 - CONSULTORIO SAN MARTIN - RET.txt</v>
       </c>
       <c r="AA45" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>30715347926 - 202302 - CONSULTORIO SAN MARTIN - PER.txt</v>
       </c>
       <c r="AB45" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>45</v>
       </c>
     </row>
@@ -5070,7 +5193,7 @@
         <v>202302</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M46" s="3" t="s">
@@ -5095,36 +5218,39 @@
         <v>170</v>
       </c>
       <c r="T46" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_30716503816_202302.txt</v>
       </c>
-      <c r="U46" s="3"/>
+      <c r="U46" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_30716503816_202302.txt</v>
+      </c>
       <c r="V46" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>30716503816CR.txt</v>
       </c>
       <c r="W46" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>30716503816CP.txt</v>
       </c>
       <c r="X46" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>30716503816CT.txt</v>
       </c>
       <c r="Y46" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>30716503816CB.txt</v>
       </c>
       <c r="Z46" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>30716503816 - 202302 - PENSA PROPIEDADES - RET.txt</v>
       </c>
       <c r="AA46" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>30716503816 - 202302 - PENSA PROPIEDADES - PER.txt</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>46</v>
       </c>
     </row>
@@ -5163,7 +5289,7 @@
         <v>202302</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M47" s="3" t="s">
@@ -5188,36 +5314,39 @@
         <v>170</v>
       </c>
       <c r="T47" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_20077065637_202302.txt</v>
       </c>
-      <c r="U47" s="3"/>
+      <c r="U47" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_20077065637_202302.txt</v>
+      </c>
       <c r="V47" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>20077065637CR.txt</v>
       </c>
       <c r="W47" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20077065637CP.txt</v>
       </c>
       <c r="X47" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20077065637CT.txt</v>
       </c>
       <c r="Y47" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>20077065637CB.txt</v>
       </c>
       <c r="Z47" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20077065637 - 202302 - PENSA ANIBAL - RET.txt</v>
       </c>
       <c r="AA47" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>20077065637 - 202302 - PENSA ANIBAL - PER.txt</v>
       </c>
       <c r="AB47" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>47</v>
       </c>
     </row>
@@ -5256,7 +5385,7 @@
         <v>202302</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M48" s="3" t="s">
@@ -5281,36 +5410,39 @@
         <v>170</v>
       </c>
       <c r="T48" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_20130056637_202302.txt</v>
       </c>
-      <c r="U48" s="3"/>
+      <c r="U48" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_20130056637_202302.txt</v>
+      </c>
       <c r="V48" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>20130056637CR.txt</v>
       </c>
       <c r="W48" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20130056637CP.txt</v>
       </c>
       <c r="X48" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20130056637CT.txt</v>
       </c>
       <c r="Y48" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>20130056637CB.txt</v>
       </c>
       <c r="Z48" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20130056637 - 202302 - TABBIA ENRIQUE - RET.txt</v>
       </c>
       <c r="AA48" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>20130056637 - 202302 - TABBIA ENRIQUE - PER.txt</v>
       </c>
       <c r="AB48" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>48</v>
       </c>
     </row>
@@ -5348,7 +5480,7 @@
         <v>202302</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M49" s="3" t="s">
@@ -5373,36 +5505,39 @@
         <v>170</v>
       </c>
       <c r="T49" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_20170395167_202302.txt</v>
       </c>
-      <c r="U49" s="3"/>
+      <c r="U49" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_20170395167_202302.txt</v>
+      </c>
       <c r="V49" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>20170395167CR.txt</v>
       </c>
       <c r="W49" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20170395167CP.txt</v>
       </c>
       <c r="X49" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20170395167CT.txt</v>
       </c>
       <c r="Y49" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>20170395167CB.txt</v>
       </c>
       <c r="Z49" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20170395167 - 202302 - HOPE HUGO - RET.txt</v>
       </c>
       <c r="AA49" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>20170395167 - 202302 - HOPE HUGO - PER.txt</v>
       </c>
       <c r="AB49" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>49</v>
       </c>
     </row>
@@ -5441,7 +5576,7 @@
         <v>202302</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M50" s="3" t="s">
@@ -5466,36 +5601,39 @@
         <v>170</v>
       </c>
       <c r="T50" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_20301650087_202302.txt</v>
       </c>
-      <c r="U50" s="3"/>
+      <c r="U50" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_20301650087_202302.txt</v>
+      </c>
       <c r="V50" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>20301650087CR.txt</v>
       </c>
       <c r="W50" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20301650087CP.txt</v>
       </c>
       <c r="X50" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20301650087CT.txt</v>
       </c>
       <c r="Y50" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>20301650087CB.txt</v>
       </c>
       <c r="Z50" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20301650087 - 202302 - VARENIZA NESTOR LEONEL - RET.txt</v>
       </c>
       <c r="AA50" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>20301650087 - 202302 - VARENIZA NESTOR LEONEL - PER.txt</v>
       </c>
       <c r="AB50" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
     </row>
@@ -5533,7 +5671,7 @@
         <v>202302</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M51" s="3" t="s">
@@ -5558,36 +5696,39 @@
         <v>170</v>
       </c>
       <c r="T51" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>retencionesExport_20327623967_202302.txt</v>
       </c>
-      <c r="U51" s="3"/>
+      <c r="U51" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>retencionesExport_20327623967_202302.txt</v>
+      </c>
       <c r="V51" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>20327623967CR.txt</v>
       </c>
       <c r="W51" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>20327623967CP.txt</v>
       </c>
       <c r="X51" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20327623967CT.txt</v>
       </c>
       <c r="Y51" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>20327623967CB.txt</v>
       </c>
       <c r="Z51" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>20327623967 - 202302 - FERREYRA ANDRES - RET.txt</v>
       </c>
       <c r="AA51" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>20327623967 - 202302 - FERREYRA ANDRES - PER.txt</v>
       </c>
       <c r="AB51" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>51</v>
       </c>
     </row>
@@ -5628,16 +5769,16 @@
         <v>202207</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Julio 2022</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
       </c>
       <c r="O52" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
       </c>
       <c r="P52" s="3"/>
@@ -5653,7 +5794,7 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>52</v>
       </c>
     </row>
@@ -5691,7 +5832,7 @@
         <v>202302</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M53" s="3" t="s">
@@ -5716,36 +5857,39 @@
         <v>170</v>
       </c>
       <c r="T53" s="3" t="str">
-        <f t="shared" ref="T53:T75" si="37">"retencionesExport_"&amp;SUBSTITUTE(D53,"-","")&amp;"_"&amp;TEXT(E53,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="T53:T75" si="41">"retencionesExport_"&amp;SUBSTITUTE(D53,"-","")&amp;"_"&amp;TEXT(E53,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_27109797257_202302.txt</v>
       </c>
-      <c r="U53" s="3"/>
+      <c r="U53" s="3" t="str">
+        <f t="shared" ref="U53:U75" si="42">"retencionesExport_"&amp;SUBSTITUTE(D53,"-","")&amp;"_"&amp;TEXT(E53,"AAAAMM")&amp;".txt"</f>
+        <v>retencionesExport_27109797257_202302.txt</v>
+      </c>
       <c r="V53" s="3" t="str">
-        <f t="shared" ref="V53:V75" si="38">SUBSTITUTE(D53,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V53:V75" si="43">SUBSTITUTE(D53,"-","")&amp;"CR.txt"</f>
         <v>27109797257CR.txt</v>
       </c>
       <c r="W53" s="3" t="str">
-        <f t="shared" ref="W53:W75" si="39">SUBSTITUTE(D53,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W53:W75" si="44">SUBSTITUTE(D53,"-","")&amp;"CP.txt"</f>
         <v>27109797257CP.txt</v>
       </c>
       <c r="X53" s="3" t="str">
-        <f t="shared" ref="X53:X75" si="40">SUBSTITUTE(D53,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X53:X75" si="45">SUBSTITUTE(D53,"-","")&amp;"CT.txt"</f>
         <v>27109797257CT.txt</v>
       </c>
       <c r="Y53" s="3" t="str">
-        <f t="shared" ref="Y53:Y75" si="41">SUBSTITUTE(D53,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y53:Y75" si="46">SUBSTITUTE(D53,"-","")&amp;"CB.txt"</f>
         <v>27109797257CB.txt</v>
       </c>
       <c r="Z53" s="3" t="str">
-        <f t="shared" ref="Z53:Z75" si="42">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - RET.txt")</f>
+        <f t="shared" ref="Z53:Z75" si="47">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - RET.txt")</f>
         <v>27109797257 - 202302 - SCOTTO OLGA MARIA - RET.txt</v>
       </c>
       <c r="AA53" s="3" t="str">
-        <f t="shared" ref="AA53:AA75" si="43">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - PER.txt")</f>
+        <f t="shared" ref="AA53:AA75" si="48">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - PER.txt")</f>
         <v>27109797257 - 202302 - SCOTTO OLGA MARIA - PER.txt</v>
       </c>
       <c r="AB53" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>53</v>
       </c>
     </row>
@@ -5783,7 +5927,7 @@
         <v>202302</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M54" s="3" t="s">
@@ -5808,36 +5952,39 @@
         <v>170</v>
       </c>
       <c r="T54" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_27217236547_202302.txt</v>
       </c>
-      <c r="U54" s="3"/>
+      <c r="U54" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_27217236547_202302.txt</v>
+      </c>
       <c r="V54" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>27217236547CR.txt</v>
       </c>
       <c r="W54" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>27217236547CP.txt</v>
       </c>
       <c r="X54" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>27217236547CT.txt</v>
+      </c>
+      <c r="Y54" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>27217236547CB.txt</v>
+      </c>
+      <c r="Z54" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>27217236547 - 202302 - ROKO EUGENIA - RET.txt</v>
+      </c>
+      <c r="AA54" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>27217236547 - 202302 - ROKO EUGENIA - PER.txt</v>
+      </c>
+      <c r="AB54" s="4">
         <f t="shared" si="40"/>
-        <v>27217236547CT.txt</v>
-      </c>
-      <c r="Y54" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>27217236547CB.txt</v>
-      </c>
-      <c r="Z54" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>27217236547 - 202302 - ROKO EUGENIA - RET.txt</v>
-      </c>
-      <c r="AA54" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>27217236547 - 202302 - ROKO EUGENIA - PER.txt</v>
-      </c>
-      <c r="AB54" s="4">
-        <f t="shared" si="36"/>
         <v>54</v>
       </c>
     </row>
@@ -5875,7 +6022,7 @@
         <v>202302</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M55" s="3" t="s">
@@ -5900,36 +6047,39 @@
         <v>170</v>
       </c>
       <c r="T55" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_30650940667_202302.txt</v>
       </c>
-      <c r="U55" s="3"/>
+      <c r="U55" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_30650940667_202302.txt</v>
+      </c>
       <c r="V55" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>30650940667CR.txt</v>
       </c>
       <c r="W55" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>30650940667CP.txt</v>
       </c>
       <c r="X55" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>30650940667CT.txt</v>
+      </c>
+      <c r="Y55" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>30650940667CB.txt</v>
+      </c>
+      <c r="Z55" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30650940667 - 202302 - BUSTOS-HOPE S.H - RET.txt</v>
+      </c>
+      <c r="AA55" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30650940667 - 202302 - BUSTOS-HOPE S.H - PER.txt</v>
+      </c>
+      <c r="AB55" s="4">
         <f t="shared" si="40"/>
-        <v>30650940667CT.txt</v>
-      </c>
-      <c r="Y55" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>30650940667CB.txt</v>
-      </c>
-      <c r="Z55" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>30650940667 - 202302 - BUSTOS-HOPE S.H - RET.txt</v>
-      </c>
-      <c r="AA55" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>30650940667 - 202302 - BUSTOS-HOPE S.H - PER.txt</v>
-      </c>
-      <c r="AB55" s="4">
-        <f t="shared" si="36"/>
         <v>55</v>
       </c>
     </row>
@@ -5967,7 +6117,7 @@
         <v>202302</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M56" s="3" t="s">
@@ -5992,36 +6142,39 @@
         <v>170</v>
       </c>
       <c r="T56" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_30672372697_202302.txt</v>
       </c>
-      <c r="U56" s="3"/>
+      <c r="U56" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_30672372697_202302.txt</v>
+      </c>
       <c r="V56" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>30672372697CR.txt</v>
       </c>
       <c r="W56" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>30672372697CP.txt</v>
       </c>
       <c r="X56" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>30672372697CT.txt</v>
+      </c>
+      <c r="Y56" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>30672372697CB.txt</v>
+      </c>
+      <c r="Z56" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30672372697 - 202302 - CEBAC - RET.txt</v>
+      </c>
+      <c r="AA56" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30672372697 - 202302 - CEBAC - PER.txt</v>
+      </c>
+      <c r="AB56" s="4">
         <f t="shared" si="40"/>
-        <v>30672372697CT.txt</v>
-      </c>
-      <c r="Y56" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>30672372697CB.txt</v>
-      </c>
-      <c r="Z56" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>30672372697 - 202302 - CEBAC - RET.txt</v>
-      </c>
-      <c r="AA56" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>30672372697 - 202302 - CEBAC - PER.txt</v>
-      </c>
-      <c r="AB56" s="4">
-        <f t="shared" si="36"/>
         <v>56</v>
       </c>
     </row>
@@ -6059,7 +6212,7 @@
         <v>202302</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M57" s="3" t="s">
@@ -6084,36 +6237,39 @@
         <v>170</v>
       </c>
       <c r="T57" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_30709419567_202302.txt</v>
       </c>
-      <c r="U57" s="3"/>
+      <c r="U57" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_30709419567_202302.txt</v>
+      </c>
       <c r="V57" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>30709419567CR.txt</v>
       </c>
       <c r="W57" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>30709419567CP.txt</v>
       </c>
       <c r="X57" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>30709419567CT.txt</v>
+      </c>
+      <c r="Y57" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>30709419567CB.txt</v>
+      </c>
+      <c r="Z57" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30709419567 - 202302 - AITA S.A. - RET.txt</v>
+      </c>
+      <c r="AA57" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30709419567 - 202302 - AITA S.A. - PER.txt</v>
+      </c>
+      <c r="AB57" s="4">
         <f t="shared" si="40"/>
-        <v>30709419567CT.txt</v>
-      </c>
-      <c r="Y57" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>30709419567CB.txt</v>
-      </c>
-      <c r="Z57" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>30709419567 - 202302 - AITA S.A. - RET.txt</v>
-      </c>
-      <c r="AA57" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>30709419567 - 202302 - AITA S.A. - PER.txt</v>
-      </c>
-      <c r="AB57" s="4">
-        <f t="shared" si="36"/>
         <v>57</v>
       </c>
     </row>
@@ -6151,7 +6307,7 @@
         <v>202302</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M58" s="3" t="s">
@@ -6176,36 +6332,39 @@
         <v>170</v>
       </c>
       <c r="T58" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_30712026797_202302.txt</v>
       </c>
-      <c r="U58" s="3"/>
+      <c r="U58" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_30712026797_202302.txt</v>
+      </c>
       <c r="V58" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>30712026797CR.txt</v>
       </c>
       <c r="W58" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>30712026797CP.txt</v>
       </c>
       <c r="X58" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>30712026797CT.txt</v>
+      </c>
+      <c r="Y58" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>30712026797CB.txt</v>
+      </c>
+      <c r="Z58" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30712026797 - 202302 - COND. LARZABAL - RET.txt</v>
+      </c>
+      <c r="AA58" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30712026797 - 202302 - COND. LARZABAL - PER.txt</v>
+      </c>
+      <c r="AB58" s="4">
         <f t="shared" si="40"/>
-        <v>30712026797CT.txt</v>
-      </c>
-      <c r="Y58" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>30712026797CB.txt</v>
-      </c>
-      <c r="Z58" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>30712026797 - 202302 - COND. LARZABAL - RET.txt</v>
-      </c>
-      <c r="AA58" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>30712026797 - 202302 - COND. LARZABAL - PER.txt</v>
-      </c>
-      <c r="AB58" s="4">
-        <f t="shared" si="36"/>
         <v>58</v>
       </c>
     </row>
@@ -6244,7 +6403,7 @@
         <v>202302</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M59" s="3" t="s">
@@ -6269,36 +6428,39 @@
         <v>170</v>
       </c>
       <c r="T59" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_20082750488_202302.txt</v>
       </c>
-      <c r="U59" s="3"/>
+      <c r="U59" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_20082750488_202302.txt</v>
+      </c>
       <c r="V59" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>20082750488CR.txt</v>
       </c>
       <c r="W59" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>20082750488CP.txt</v>
       </c>
       <c r="X59" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>20082750488CT.txt</v>
+      </c>
+      <c r="Y59" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>20082750488CB.txt</v>
+      </c>
+      <c r="Z59" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - RET.txt</v>
+      </c>
+      <c r="AA59" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - PER.txt</v>
+      </c>
+      <c r="AB59" s="4">
         <f t="shared" si="40"/>
-        <v>20082750488CT.txt</v>
-      </c>
-      <c r="Y59" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>20082750488CB.txt</v>
-      </c>
-      <c r="Z59" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - RET.txt</v>
-      </c>
-      <c r="AA59" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - PER.txt</v>
-      </c>
-      <c r="AB59" s="4">
-        <f t="shared" si="36"/>
         <v>59</v>
       </c>
     </row>
@@ -6337,7 +6499,7 @@
         <v>202302</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M60" s="3" t="s">
@@ -6362,36 +6524,39 @@
         <v>170</v>
       </c>
       <c r="T60" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_20230966738_202302.txt</v>
       </c>
-      <c r="U60" s="3"/>
+      <c r="U60" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_20230966738_202302.txt</v>
+      </c>
       <c r="V60" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>20230966738CR.txt</v>
       </c>
       <c r="W60" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>20230966738CP.txt</v>
       </c>
       <c r="X60" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>20230966738CT.txt</v>
+      </c>
+      <c r="Y60" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>20230966738CB.txt</v>
+      </c>
+      <c r="Z60" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>20230966738 - 202302 - URRUTIA DIEGO - RET.txt</v>
+      </c>
+      <c r="AA60" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>20230966738 - 202302 - URRUTIA DIEGO - PER.txt</v>
+      </c>
+      <c r="AB60" s="4">
         <f t="shared" si="40"/>
-        <v>20230966738CT.txt</v>
-      </c>
-      <c r="Y60" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>20230966738CB.txt</v>
-      </c>
-      <c r="Z60" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>20230966738 - 202302 - URRUTIA DIEGO - RET.txt</v>
-      </c>
-      <c r="AA60" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>20230966738 - 202302 - URRUTIA DIEGO - PER.txt</v>
-      </c>
-      <c r="AB60" s="4">
-        <f t="shared" si="36"/>
         <v>60</v>
       </c>
     </row>
@@ -6429,7 +6594,7 @@
         <v>202302</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M61" s="3" t="s">
@@ -6454,36 +6619,39 @@
         <v>170</v>
       </c>
       <c r="T61" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_20303980378_202302.txt</v>
       </c>
-      <c r="U61" s="3"/>
+      <c r="U61" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_20303980378_202302.txt</v>
+      </c>
       <c r="V61" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>20303980378CR.txt</v>
       </c>
       <c r="W61" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>20303980378CP.txt</v>
       </c>
       <c r="X61" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>20303980378CT.txt</v>
+      </c>
+      <c r="Y61" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>20303980378CB.txt</v>
+      </c>
+      <c r="Z61" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - RET.txt</v>
+      </c>
+      <c r="AA61" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - PER.txt</v>
+      </c>
+      <c r="AB61" s="4">
         <f t="shared" si="40"/>
-        <v>20303980378CT.txt</v>
-      </c>
-      <c r="Y61" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>20303980378CB.txt</v>
-      </c>
-      <c r="Z61" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - RET.txt</v>
-      </c>
-      <c r="AA61" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - PER.txt</v>
-      </c>
-      <c r="AB61" s="4">
-        <f t="shared" si="36"/>
         <v>61</v>
       </c>
     </row>
@@ -6521,7 +6689,7 @@
         <v>202302</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M62" s="3" t="s">
@@ -6546,36 +6714,39 @@
         <v>170</v>
       </c>
       <c r="T62" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_27163651918_202302.txt</v>
       </c>
-      <c r="U62" s="3"/>
+      <c r="U62" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_27163651918_202302.txt</v>
+      </c>
       <c r="V62" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>27163651918CR.txt</v>
       </c>
       <c r="W62" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>27163651918CP.txt</v>
       </c>
       <c r="X62" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>27163651918CT.txt</v>
+      </c>
+      <c r="Y62" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>27163651918CB.txt</v>
+      </c>
+      <c r="Z62" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>27163651918 - 202302 - MARTIN ADRIANA - RET.txt</v>
+      </c>
+      <c r="AA62" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>27163651918 - 202302 - MARTIN ADRIANA - PER.txt</v>
+      </c>
+      <c r="AB62" s="4">
         <f t="shared" si="40"/>
-        <v>27163651918CT.txt</v>
-      </c>
-      <c r="Y62" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>27163651918CB.txt</v>
-      </c>
-      <c r="Z62" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>27163651918 - 202302 - MARTIN ADRIANA - RET.txt</v>
-      </c>
-      <c r="AA62" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>27163651918 - 202302 - MARTIN ADRIANA - PER.txt</v>
-      </c>
-      <c r="AB62" s="4">
-        <f t="shared" si="36"/>
         <v>62</v>
       </c>
     </row>
@@ -6613,7 +6784,7 @@
         <v>202302</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M63" s="3" t="s">
@@ -6638,36 +6809,39 @@
         <v>170</v>
       </c>
       <c r="T63" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_27201932268_202302.txt</v>
       </c>
-      <c r="U63" s="3"/>
+      <c r="U63" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_27201932268_202302.txt</v>
+      </c>
       <c r="V63" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>27201932268CR.txt</v>
       </c>
       <c r="W63" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>27201932268CP.txt</v>
       </c>
       <c r="X63" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>27201932268CT.txt</v>
+      </c>
+      <c r="Y63" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>27201932268CB.txt</v>
+      </c>
+      <c r="Z63" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>27201932268 - 202302 - SPAGNOLI SUSANA - RET.txt</v>
+      </c>
+      <c r="AA63" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>27201932268 - 202302 - SPAGNOLI SUSANA - PER.txt</v>
+      </c>
+      <c r="AB63" s="4">
         <f t="shared" si="40"/>
-        <v>27201932268CT.txt</v>
-      </c>
-      <c r="Y63" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>27201932268CB.txt</v>
-      </c>
-      <c r="Z63" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>27201932268 - 202302 - SPAGNOLI SUSANA - RET.txt</v>
-      </c>
-      <c r="AA63" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>27201932268 - 202302 - SPAGNOLI SUSANA - PER.txt</v>
-      </c>
-      <c r="AB63" s="4">
-        <f t="shared" si="36"/>
         <v>63</v>
       </c>
     </row>
@@ -6705,7 +6879,7 @@
         <v>202302</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M64" s="3" t="s">
@@ -6730,36 +6904,39 @@
         <v>170</v>
       </c>
       <c r="T64" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_30701299538_202302.txt</v>
       </c>
-      <c r="U64" s="3"/>
+      <c r="U64" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_30701299538_202302.txt</v>
+      </c>
       <c r="V64" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>30701299538CR.txt</v>
       </c>
       <c r="W64" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>30701299538CP.txt</v>
       </c>
       <c r="X64" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>30701299538CT.txt</v>
+      </c>
+      <c r="Y64" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>30701299538CB.txt</v>
+      </c>
+      <c r="Z64" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30701299538 - 202302 - FORESTAL SA - RET.txt</v>
+      </c>
+      <c r="AA64" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30701299538 - 202302 - FORESTAL SA - PER.txt</v>
+      </c>
+      <c r="AB64" s="4">
         <f t="shared" si="40"/>
-        <v>30701299538CT.txt</v>
-      </c>
-      <c r="Y64" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>30701299538CB.txt</v>
-      </c>
-      <c r="Z64" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>30701299538 - 202302 - FORESTAL SA - RET.txt</v>
-      </c>
-      <c r="AA64" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>30701299538 - 202302 - FORESTAL SA - PER.txt</v>
-      </c>
-      <c r="AB64" s="4">
-        <f t="shared" si="36"/>
         <v>64</v>
       </c>
     </row>
@@ -6797,7 +6974,7 @@
         <v>202302</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M65" s="3" t="s">
@@ -6822,42 +6999,45 @@
         <v>170</v>
       </c>
       <c r="T65" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_30708626348_202302.txt</v>
       </c>
-      <c r="U65" s="3"/>
+      <c r="U65" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_30708626348_202302.txt</v>
+      </c>
       <c r="V65" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>30708626348CR.txt</v>
       </c>
       <c r="W65" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>30708626348CP.txt</v>
       </c>
       <c r="X65" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>30708626348CT.txt</v>
+      </c>
+      <c r="Y65" s="3" t="str">
+        <f t="shared" si="46"/>
+        <v>30708626348CB.txt</v>
+      </c>
+      <c r="Z65" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - RET.txt</v>
+      </c>
+      <c r="AA65" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - PER.txt</v>
+      </c>
+      <c r="AB65" s="4">
         <f t="shared" si="40"/>
-        <v>30708626348CT.txt</v>
-      </c>
-      <c r="Y65" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>30708626348CB.txt</v>
-      </c>
-      <c r="Z65" s="3" t="str">
-        <f t="shared" si="42"/>
-        <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - RET.txt</v>
-      </c>
-      <c r="AA65" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - PER.txt</v>
-      </c>
-      <c r="AB65" s="4">
-        <f t="shared" si="36"/>
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A75" si="44">RIGHT(D66,1)</f>
+        <f t="shared" ref="A66:A75" si="49">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
       <c r="B66" t="s">
@@ -6889,7 +7069,7 @@
         <v>202302</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f t="shared" ref="L66:L75" si="45">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="L66:L75" si="50">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M66" s="3" t="s">
@@ -6914,42 +7094,45 @@
         <v>170</v>
       </c>
       <c r="T66" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_20149466739_202302.txt</v>
       </c>
-      <c r="U66" s="3"/>
+      <c r="U66" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_20149466739_202302.txt</v>
+      </c>
       <c r="V66" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>20149466739CR.txt</v>
       </c>
       <c r="W66" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>20149466739CP.txt</v>
       </c>
       <c r="X66" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>20149466739CT.txt</v>
       </c>
       <c r="Y66" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>20149466739CB.txt</v>
       </c>
       <c r="Z66" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>20149466739 - 202302 - HOPE RICARDO - RET.txt</v>
       </c>
       <c r="AA66" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>20149466739 - 202302 - HOPE RICARDO - PER.txt</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" ref="AB66:AB75" si="46">ROW(A66)</f>
+        <f t="shared" ref="AB66:AB75" si="51">ROW(A66)</f>
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="B67" t="s">
@@ -6968,20 +7151,20 @@
         <v>142</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H75" si="47">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
+        <f t="shared" ref="H67:H75" si="52">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="str">
-        <f t="shared" ref="J67:J75" si="48">H67</f>
+        <f t="shared" ref="J67:J75" si="53">H67</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f t="shared" ref="K67:K75" si="49">TEXT(E67,"AAAAMM")</f>
+        <f t="shared" ref="K67:K75" si="54">TEXT(E67,"AAAAMM")</f>
         <v>202302</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M67" s="3" t="s">
@@ -7006,42 +7189,45 @@
         <v>170</v>
       </c>
       <c r="T67" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_20175255819_202302.txt</v>
       </c>
-      <c r="U67" s="3"/>
+      <c r="U67" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_20175255819_202302.txt</v>
+      </c>
       <c r="V67" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>20175255819CR.txt</v>
       </c>
       <c r="W67" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>20175255819CP.txt</v>
       </c>
       <c r="X67" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>20175255819CT.txt</v>
       </c>
       <c r="Y67" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>20175255819CB.txt</v>
       </c>
       <c r="Z67" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>20175255819 - 202302 - BEITIA CRISPIN - RET.txt</v>
       </c>
       <c r="AA67" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>20175255819 - 202302 - BEITIA CRISPIN - PER.txt</v>
       </c>
       <c r="AB67" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="B68" t="s">
@@ -7060,20 +7246,20 @@
         <v>142</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
       </c>
       <c r="K68" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>202302</v>
       </c>
       <c r="L68" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M68" s="3" t="s">
@@ -7098,42 +7284,45 @@
         <v>170</v>
       </c>
       <c r="T68" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_20246008109_202302.txt</v>
       </c>
-      <c r="U68" s="3"/>
+      <c r="U68" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_20246008109_202302.txt</v>
+      </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>20246008109CR.txt</v>
       </c>
       <c r="W68" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>20246008109CP.txt</v>
       </c>
       <c r="X68" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>20246008109CT.txt</v>
       </c>
       <c r="Y68" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>20246008109CB.txt</v>
       </c>
       <c r="Z68" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>20246008109 - 202302 - BUSTOS GONZALO - RET.txt</v>
       </c>
       <c r="AA68" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>20246008109 - 202302 - BUSTOS GONZALO - PER.txt</v>
       </c>
       <c r="AB68" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="B69" t="s">
@@ -7153,20 +7342,20 @@
         <v>142</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
       </c>
       <c r="K69" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>202302</v>
       </c>
       <c r="L69" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M69" s="3" t="s">
@@ -7191,42 +7380,45 @@
         <v>170</v>
       </c>
       <c r="T69" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_23120538209_202302.txt</v>
       </c>
-      <c r="U69" s="3"/>
+      <c r="U69" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_23120538209_202302.txt</v>
+      </c>
       <c r="V69" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>23120538209CR.txt</v>
       </c>
       <c r="W69" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>23120538209CP.txt</v>
       </c>
       <c r="X69" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>23120538209CT.txt</v>
       </c>
       <c r="Y69" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>23120538209CB.txt</v>
       </c>
       <c r="Z69" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>23120538209 - 202302 - LINDSTROM PLINIO - RET.txt</v>
       </c>
       <c r="AA69" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>23120538209 - 202302 - LINDSTROM PLINIO - PER.txt</v>
       </c>
       <c r="AB69" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="B70" t="s">
@@ -7245,20 +7437,20 @@
         <v>142</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
       </c>
       <c r="K70" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>202302</v>
       </c>
       <c r="L70" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M70" s="3" t="s">
@@ -7283,42 +7475,45 @@
         <v>170</v>
       </c>
       <c r="T70" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_23242946669_202302.txt</v>
       </c>
-      <c r="U70" s="3"/>
+      <c r="U70" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_23242946669_202302.txt</v>
+      </c>
       <c r="V70" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>23242946669CR.txt</v>
       </c>
       <c r="W70" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>23242946669CP.txt</v>
       </c>
       <c r="X70" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>23242946669CT.txt</v>
       </c>
       <c r="Y70" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>23242946669CB.txt</v>
       </c>
       <c r="Z70" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>23242946669 - 202302 - SOTO GERONIMO - RET.txt</v>
       </c>
       <c r="AA70" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>23242946669 - 202302 - SOTO GERONIMO - PER.txt</v>
       </c>
       <c r="AB70" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="B71" t="s">
@@ -7337,20 +7532,20 @@
         <v>142</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
       </c>
       <c r="K71" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>202302</v>
       </c>
       <c r="L71" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M71" s="3" t="s">
@@ -7375,42 +7570,45 @@
         <v>170</v>
       </c>
       <c r="T71" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_27173878309_202302.txt</v>
       </c>
-      <c r="U71" s="3"/>
+      <c r="U71" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_27173878309_202302.txt</v>
+      </c>
       <c r="V71" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>27173878309CR.txt</v>
       </c>
       <c r="W71" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>27173878309CP.txt</v>
       </c>
       <c r="X71" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>27173878309CT.txt</v>
       </c>
       <c r="Y71" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>27173878309CB.txt</v>
       </c>
       <c r="Z71" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>27173878309 - 202302 - LIONETO CAROLINA - RET.txt</v>
       </c>
       <c r="AA71" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>27173878309 - 202302 - LIONETO CAROLINA - PER.txt</v>
       </c>
       <c r="AB71" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="B72" t="s">
@@ -7429,20 +7627,20 @@
         <v>142</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
       </c>
       <c r="K72" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>202302</v>
       </c>
       <c r="L72" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M72" s="3" t="s">
@@ -7467,42 +7665,45 @@
         <v>170</v>
       </c>
       <c r="T72" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_30715085409_202302.txt</v>
       </c>
-      <c r="U72" s="3"/>
+      <c r="U72" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_30715085409_202302.txt</v>
+      </c>
       <c r="V72" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>30715085409CR.txt</v>
       </c>
       <c r="W72" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>30715085409CP.txt</v>
       </c>
       <c r="X72" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>30715085409CT.txt</v>
       </c>
       <c r="Y72" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>30715085409CB.txt</v>
       </c>
       <c r="Z72" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>30715085409 - 202302 - COND. INVERNADA - RET.txt</v>
       </c>
       <c r="AA72" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>30715085409 - 202302 - COND. INVERNADA - PER.txt</v>
       </c>
       <c r="AB72" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="B73" t="s">
@@ -7521,20 +7722,20 @@
         <v>142</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
       </c>
       <c r="K73" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>202302</v>
       </c>
       <c r="L73" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M73" s="3" t="s">
@@ -7559,42 +7760,45 @@
         <v>170</v>
       </c>
       <c r="T73" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_33653520439_202302.txt</v>
       </c>
-      <c r="U73" s="3"/>
+      <c r="U73" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_33653520439_202302.txt</v>
+      </c>
       <c r="V73" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>33653520439CR.txt</v>
       </c>
       <c r="W73" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>33653520439CP.txt</v>
       </c>
       <c r="X73" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>33653520439CT.txt</v>
       </c>
       <c r="Y73" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>33653520439CB.txt</v>
       </c>
       <c r="Z73" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>33653520439 - 202302 - FAX SRL - RET.txt</v>
       </c>
       <c r="AA73" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>33653520439 - 202302 - FAX SRL - PER.txt</v>
       </c>
       <c r="AB73" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="B74" t="s">
@@ -7613,20 +7817,20 @@
         <v>142</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
       </c>
       <c r="K74" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>202302</v>
       </c>
       <c r="L74" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M74" s="3" t="s">
@@ -7651,42 +7855,45 @@
         <v>170</v>
       </c>
       <c r="T74" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_33712370829_202302.txt</v>
       </c>
-      <c r="U74" s="3"/>
+      <c r="U74" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_33712370829_202302.txt</v>
+      </c>
       <c r="V74" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>33712370829CR.txt</v>
       </c>
       <c r="W74" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>33712370829CP.txt</v>
       </c>
       <c r="X74" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>33712370829CT.txt</v>
       </c>
       <c r="Y74" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>33712370829CB.txt</v>
       </c>
       <c r="Z74" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>33712370829 - 202302 - KM 0 SA - RET.txt</v>
       </c>
       <c r="AA74" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>33712370829 - 202302 - KM 0 SA - PER.txt</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="B75" t="s">
@@ -7705,20 +7912,20 @@
         <v>142</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
       </c>
       <c r="K75" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>202302</v>
       </c>
       <c r="L75" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M75" s="3" t="s">
@@ -7743,36 +7950,39 @@
         <v>170</v>
       </c>
       <c r="T75" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>retencionesExport_33712529909_202302.txt</v>
       </c>
-      <c r="U75" s="3"/>
+      <c r="U75" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>retencionesExport_33712529909_202302.txt</v>
+      </c>
       <c r="V75" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>33712529909CR.txt</v>
       </c>
       <c r="W75" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>33712529909CP.txt</v>
       </c>
       <c r="X75" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>33712529909CT.txt</v>
       </c>
       <c r="Y75" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>33712529909CB.txt</v>
       </c>
       <c r="Z75" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>33712529909 - 202302 - INMUEBLES SRL - RET.txt</v>
       </c>
       <c r="AA75" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>33712529909 - 202302 - INMUEBLES SRL - PER.txt</v>
       </c>
       <c r="AB75" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>75</v>
       </c>
     </row>

--- a/Importación RETPER SOS.xlsx
+++ b/Importación RETPER SOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC62CA3-C219-4CD7-A733-CBE361213FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AC1CD7-B8DB-4575-A988-C59A10521821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Importación RETPER SOS.xlsx
+++ b/Importación RETPER SOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AC1CD7-B8DB-4575-A988-C59A10521821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72BE39D-D402-4D84-B797-B986D5CEB31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="172">
   <si>
     <t>Nro</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>SussMisRetencionesSegSocParaAplicativo.txt</t>
+  </si>
+  <si>
+    <t>C:\Users\Agustin Bustos\Desktop\TEST</t>
   </si>
 </sst>
 </file>
@@ -611,12 +614,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,9 +962,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,10 +1087,12 @@
         <f>G2&amp;"\"&amp;B2&amp;"\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\2023\02\</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J2" s="4" t="str">
-        <f>H2</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\2023\02\</v>
+        <f>I2&amp;"\"&amp;B2&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E2,"AAAA-mm")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CRIVELLO LUIS\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K2" s="4" t="str">
         <f>TEXT(E2,"AAAAMM")</f>
@@ -1179,13 +1185,15 @@
         <f t="shared" ref="H3:H66" si="3">G3&amp;"\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\2023\02\</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J3" s="4" t="str">
-        <f t="shared" ref="J3:J66" si="4">H3</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\2023\02\</v>
+        <f>I3&amp;"\"&amp;B3&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E3,"AAAA-mm")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\VARENIZA ANGEL\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K66" si="5">TEXT(E3,"AAAAMM")</f>
+        <f t="shared" ref="K3:K66" si="4">TEXT(E3,"AAAAMM")</f>
         <v>202302</v>
       </c>
       <c r="L3" s="3" t="str">
@@ -1218,31 +1226,31 @@
         <v>retencionesExport_20315731330_202302.txt</v>
       </c>
       <c r="U3" s="3" t="str">
-        <f t="shared" ref="U3" si="6">"retencionesExport_"&amp;SUBSTITUTE(D3,"-","")&amp;"_"&amp;TEXT(E3,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="U3" si="5">"retencionesExport_"&amp;SUBSTITUTE(D3,"-","")&amp;"_"&amp;TEXT(E3,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_20315731330_202302.txt</v>
       </c>
       <c r="V3" s="3" t="str">
-        <f t="shared" ref="V3" si="7">SUBSTITUTE(D3,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V3" si="6">SUBSTITUTE(D3,"-","")&amp;"CR.txt"</f>
         <v>20315731330CR.txt</v>
       </c>
       <c r="W3" s="3" t="str">
-        <f t="shared" ref="W3" si="8">SUBSTITUTE(D3,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W3" si="7">SUBSTITUTE(D3,"-","")&amp;"CP.txt"</f>
         <v>20315731330CP.txt</v>
       </c>
       <c r="X3" s="3" t="str">
-        <f t="shared" ref="X3" si="9">SUBSTITUTE(D3,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X3" si="8">SUBSTITUTE(D3,"-","")&amp;"CT.txt"</f>
         <v>20315731330CT.txt</v>
       </c>
       <c r="Y3" s="3" t="str">
-        <f t="shared" ref="Y3" si="10">SUBSTITUTE(D3,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y3" si="9">SUBSTITUTE(D3,"-","")&amp;"CB.txt"</f>
         <v>20315731330CB.txt</v>
       </c>
       <c r="Z3" s="3" t="str">
-        <f t="shared" ref="Z3" si="11">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - RET.txt")</f>
+        <f t="shared" ref="Z3" si="10">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - RET.txt")</f>
         <v>20315731330 - 202302 - VARENIZA ANGEL - RET.txt</v>
       </c>
       <c r="AA3" s="3" t="str">
-        <f t="shared" ref="AA3" si="12">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - PER.txt")</f>
+        <f t="shared" ref="AA3" si="11">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - PER.txt")</f>
         <v>20315731330 - 202302 - VARENIZA ANGEL - PER.txt</v>
       </c>
       <c r="AB3" s="4">
@@ -1279,11 +1287,11 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="str">
+        <f t="shared" ref="J3:J66" si="12">H4</f>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA TOMAS\2022\07\</v>
+      </c>
+      <c r="K4" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA TOMAS\2022\07\</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202207</v>
       </c>
       <c r="L4" s="3" t="str">
@@ -1340,13 +1348,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\2023\02\</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J5" s="4" t="str">
+        <f t="shared" ref="J5:J18" si="15">I5&amp;"\"&amp;B5&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E5,"AAAA-mm")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SESMERO TERESITA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K5" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\2023\02\</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L5" s="3" t="str">
@@ -1375,35 +1385,35 @@
         <v>170</v>
       </c>
       <c r="T5" s="3" t="str">
-        <f t="shared" ref="T5:T18" si="15">"retencionesExport_"&amp;SUBSTITUTE(D5,"-","")&amp;"_"&amp;TEXT(E5,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="T5:T18" si="16">"retencionesExport_"&amp;SUBSTITUTE(D5,"-","")&amp;"_"&amp;TEXT(E5,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_27067089680_202302.txt</v>
       </c>
       <c r="U5" s="3" t="str">
-        <f t="shared" ref="U5:U18" si="16">"retencionesExport_"&amp;SUBSTITUTE(D5,"-","")&amp;"_"&amp;TEXT(E5,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="U5:U18" si="17">"retencionesExport_"&amp;SUBSTITUTE(D5,"-","")&amp;"_"&amp;TEXT(E5,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_27067089680_202302.txt</v>
       </c>
       <c r="V5" s="3" t="str">
-        <f t="shared" ref="V5:V18" si="17">SUBSTITUTE(D5,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V5:V18" si="18">SUBSTITUTE(D5,"-","")&amp;"CR.txt"</f>
         <v>27067089680CR.txt</v>
       </c>
       <c r="W5" s="3" t="str">
-        <f t="shared" ref="W5:W18" si="18">SUBSTITUTE(D5,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W5:W18" si="19">SUBSTITUTE(D5,"-","")&amp;"CP.txt"</f>
         <v>27067089680CP.txt</v>
       </c>
       <c r="X5" s="3" t="str">
-        <f t="shared" ref="X5:X18" si="19">SUBSTITUTE(D5,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X5:X18" si="20">SUBSTITUTE(D5,"-","")&amp;"CT.txt"</f>
         <v>27067089680CT.txt</v>
       </c>
       <c r="Y5" s="3" t="str">
-        <f t="shared" ref="Y5:Y18" si="20">SUBSTITUTE(D5,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y5:Y18" si="21">SUBSTITUTE(D5,"-","")&amp;"CB.txt"</f>
         <v>27067089680CB.txt</v>
       </c>
       <c r="Z5" s="3" t="str">
-        <f t="shared" ref="Z5:Z18" si="21">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - RET.txt")</f>
+        <f t="shared" ref="Z5:Z18" si="22">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - RET.txt")</f>
         <v>27067089680 - 202302 - SESMERO TERESITA - RET.txt</v>
       </c>
       <c r="AA5" s="3" t="str">
-        <f t="shared" ref="AA5:AA18" si="22">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - PER.txt")</f>
+        <f t="shared" ref="AA5:AA18" si="23">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - PER.txt")</f>
         <v>27067089680 - 202302 - SESMERO TERESITA - PER.txt</v>
       </c>
       <c r="AB5" s="4">
@@ -1435,13 +1445,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA MIRIAM\2023\02\</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J6" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\URRUTIA MIRIAM\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA MIRIAM\2023\02\</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L6" s="3" t="str">
@@ -1470,35 +1482,35 @@
         <v>170</v>
       </c>
       <c r="T6" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_27116976620_202302.txt</v>
-      </c>
-      <c r="U6" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_27116976620_202302.txt</v>
       </c>
+      <c r="U6" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_27116976620_202302.txt</v>
+      </c>
       <c r="V6" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27116976620CR.txt</v>
       </c>
       <c r="W6" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27116976620CP.txt</v>
       </c>
       <c r="X6" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27116976620CT.txt</v>
       </c>
       <c r="Y6" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>27116976620CB.txt</v>
       </c>
       <c r="Z6" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27116976620 - 202302 - URRUTIA MIRIAM - RET.txt</v>
       </c>
       <c r="AA6" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27116976620 - 202302 - URRUTIA MIRIAM - PER.txt</v>
       </c>
       <c r="AB6" s="4">
@@ -1530,13 +1542,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\MEDINT SRL\2023\02\</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J7" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\MEDINT SRL\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K7" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MEDINT SRL\2023\02\</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L7" s="3" t="str">
@@ -1565,35 +1579,35 @@
         <v>170</v>
       </c>
       <c r="T7" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_30657146850_202302.txt</v>
-      </c>
-      <c r="U7" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_30657146850_202302.txt</v>
       </c>
+      <c r="U7" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_30657146850_202302.txt</v>
+      </c>
       <c r="V7" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30657146850CR.txt</v>
       </c>
       <c r="W7" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30657146850CP.txt</v>
       </c>
       <c r="X7" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30657146850CT.txt</v>
       </c>
       <c r="Y7" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30657146850CB.txt</v>
       </c>
       <c r="Z7" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30657146850 - 202302 - MEDINT SRL - RET.txt</v>
       </c>
       <c r="AA7" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30657146850 - 202302 - MEDINT SRL - PER.txt</v>
       </c>
       <c r="AB7" s="4">
@@ -1625,13 +1639,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARLOS ALFREDO\2023\02\</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J8" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA CARLOS ALFREDO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K8" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARLOS ALFREDO\2023\02\</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L8" s="3" t="str">
@@ -1660,35 +1676,35 @@
         <v>170</v>
       </c>
       <c r="T8" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_20133762761_202302.txt</v>
-      </c>
-      <c r="U8" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_20133762761_202302.txt</v>
       </c>
+      <c r="U8" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_20133762761_202302.txt</v>
+      </c>
       <c r="V8" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20133762761CR.txt</v>
       </c>
       <c r="W8" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20133762761CP.txt</v>
       </c>
       <c r="X8" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20133762761CT.txt</v>
       </c>
       <c r="Y8" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20133762761CB.txt</v>
       </c>
       <c r="Z8" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - RET.txt</v>
       </c>
       <c r="AA8" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - PER.txt</v>
       </c>
       <c r="AB8" s="4">
@@ -1720,13 +1736,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI MARCELO\2023\02\</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J9" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SZYCHOWSKI MARCELO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K9" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI MARCELO\2023\02\</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L9" s="3" t="str">
@@ -1755,35 +1773,35 @@
         <v>170</v>
       </c>
       <c r="T9" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_20149462601_202302.txt</v>
-      </c>
-      <c r="U9" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_20149462601_202302.txt</v>
       </c>
+      <c r="U9" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_20149462601_202302.txt</v>
+      </c>
       <c r="V9" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20149462601CR.txt</v>
       </c>
       <c r="W9" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20149462601CP.txt</v>
       </c>
       <c r="X9" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20149462601CT.txt</v>
       </c>
       <c r="Y9" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20149462601CB.txt</v>
       </c>
       <c r="Z9" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - RET.txt</v>
       </c>
       <c r="AA9" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - PER.txt</v>
       </c>
       <c r="AB9" s="4">
@@ -1816,13 +1834,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GUSTAVO\2023\02\</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J10" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS GUSTAVO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K10" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GUSTAVO\2023\02\</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L10" s="3" t="str">
@@ -1851,35 +1871,35 @@
         <v>170</v>
       </c>
       <c r="T10" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_20168291281_202302.txt</v>
-      </c>
-      <c r="U10" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_20168291281_202302.txt</v>
       </c>
+      <c r="U10" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_20168291281_202302.txt</v>
+      </c>
       <c r="V10" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20168291281CR.txt</v>
       </c>
       <c r="W10" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20168291281CP.txt</v>
       </c>
       <c r="X10" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20168291281CT.txt</v>
       </c>
       <c r="Y10" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20168291281CB.txt</v>
       </c>
       <c r="Z10" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20168291281 - 202302 - BUSTOS GUSTAVO - RET.txt</v>
       </c>
       <c r="AA10" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20168291281 - 202302 - BUSTOS GUSTAVO - PER.txt</v>
       </c>
       <c r="AB10" s="4">
@@ -1912,13 +1932,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PEREYRA ESTEBAN\2023\02\</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J11" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\PEREYRA ESTEBAN\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K11" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PEREYRA ESTEBAN\2023\02\</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L11" s="3" t="str">
@@ -1947,35 +1969,35 @@
         <v>170</v>
       </c>
       <c r="T11" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_20172521771_202302.txt</v>
-      </c>
-      <c r="U11" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_20172521771_202302.txt</v>
       </c>
+      <c r="U11" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_20172521771_202302.txt</v>
+      </c>
       <c r="V11" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20172521771CR.txt</v>
       </c>
       <c r="W11" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20172521771CP.txt</v>
       </c>
       <c r="X11" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20172521771CT.txt</v>
       </c>
       <c r="Y11" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20172521771CB.txt</v>
       </c>
       <c r="Z11" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20172521771 - 202302 - PEREYRA ESTEBAN - RET.txt</v>
       </c>
       <c r="AA11" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20172521771 - 202302 - PEREYRA ESTEBAN - PER.txt</v>
       </c>
       <c r="AB11" s="4">
@@ -2007,13 +2029,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\MOLAS PATRICIA\2023\02\</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J12" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\MOLAS PATRICIA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K12" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MOLAS PATRICIA\2023\02\</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L12" s="3" t="str">
@@ -2042,35 +2066,35 @@
         <v>170</v>
       </c>
       <c r="T12" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_27128520851_202302.txt</v>
-      </c>
-      <c r="U12" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_27128520851_202302.txt</v>
       </c>
+      <c r="U12" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_27128520851_202302.txt</v>
+      </c>
       <c r="V12" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27128520851CR.txt</v>
       </c>
       <c r="W12" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27128520851CP.txt</v>
       </c>
       <c r="X12" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27128520851CT.txt</v>
       </c>
       <c r="Y12" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>27128520851CB.txt</v>
       </c>
       <c r="Z12" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27128520851 - 202302 - MOLAS PATRICIA - RET.txt</v>
       </c>
       <c r="AA12" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27128520851 - 202302 - MOLAS PATRICIA - PER.txt</v>
       </c>
       <c r="AB12" s="4">
@@ -2102,13 +2126,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\GESAL SA\2023\02\</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J13" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\GESAL SA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K13" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\GESAL SA\2023\02\</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L13" s="3" t="str">
@@ -2137,35 +2163,35 @@
         <v>170</v>
       </c>
       <c r="T13" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_30710404131_202302.txt</v>
-      </c>
-      <c r="U13" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_30710404131_202302.txt</v>
       </c>
+      <c r="U13" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_30710404131_202302.txt</v>
+      </c>
       <c r="V13" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30710404131CR.txt</v>
       </c>
       <c r="W13" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30710404131CP.txt</v>
       </c>
       <c r="X13" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30710404131CT.txt</v>
       </c>
       <c r="Y13" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30710404131CB.txt</v>
       </c>
       <c r="Z13" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30710404131 - 202302 - GESAL SA - RET.txt</v>
       </c>
       <c r="AA13" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30710404131 - 202302 - GESAL SA - PER.txt</v>
       </c>
       <c r="AB13" s="4">
@@ -2197,13 +2223,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONDOMINIO SAN LORENZO\2023\02\</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J14" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CONDOMINIO SAN LORENZO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K14" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONDOMINIO SAN LORENZO\2023\02\</v>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L14" s="3" t="str">
@@ -2232,35 +2260,35 @@
         <v>170</v>
       </c>
       <c r="T14" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_30717059111_202302.txt</v>
-      </c>
-      <c r="U14" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_30717059111_202302.txt</v>
       </c>
+      <c r="U14" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_30717059111_202302.txt</v>
+      </c>
       <c r="V14" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30717059111CR.txt</v>
       </c>
       <c r="W14" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30717059111CP.txt</v>
       </c>
       <c r="X14" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>30717059111CT.txt</v>
       </c>
       <c r="Y14" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>30717059111CB.txt</v>
       </c>
       <c r="Z14" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - RET.txt</v>
       </c>
       <c r="AA14" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - PER.txt</v>
       </c>
       <c r="AB14" s="4">
@@ -2292,13 +2320,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\RIERA HECTOR M\2023\02\</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J15" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\RIERA HECTOR M\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K15" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\RIERA HECTOR M\2023\02\</v>
-      </c>
-      <c r="K15" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L15" s="3" t="str">
@@ -2327,35 +2357,35 @@
         <v>170</v>
       </c>
       <c r="T15" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_20121182832_202302.txt</v>
-      </c>
-      <c r="U15" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_20121182832_202302.txt</v>
       </c>
+      <c r="U15" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_20121182832_202302.txt</v>
+      </c>
       <c r="V15" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20121182832CR.txt</v>
       </c>
       <c r="W15" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20121182832CP.txt</v>
       </c>
       <c r="X15" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20121182832CT.txt</v>
       </c>
       <c r="Y15" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20121182832CB.txt</v>
       </c>
       <c r="Z15" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20121182832 - 202302 - RIERA HECTOR M - RET.txt</v>
       </c>
       <c r="AA15" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20121182832 - 202302 - RIERA HECTOR M - PER.txt</v>
       </c>
       <c r="AB15" s="4">
@@ -2387,13 +2417,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS MARTIN\2023\02\</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J16" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS MARTIN\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS MARTIN\2023\02\</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L16" s="3" t="str">
@@ -2422,35 +2454,35 @@
         <v>170</v>
       </c>
       <c r="T16" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_20147130202_202302.txt</v>
-      </c>
-      <c r="U16" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_20147130202_202302.txt</v>
       </c>
+      <c r="U16" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_20147130202_202302.txt</v>
+      </c>
       <c r="V16" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20147130202CR.txt</v>
       </c>
       <c r="W16" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20147130202CP.txt</v>
       </c>
       <c r="X16" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20147130202CT.txt</v>
       </c>
       <c r="Y16" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20147130202CB.txt</v>
       </c>
       <c r="Z16" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20147130202 - 202302 - BUSTOS MARTIN - RET.txt</v>
       </c>
       <c r="AA16" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20147130202 - 202302 - BUSTOS MARTIN - PER.txt</v>
       </c>
       <c r="AB16" s="4">
@@ -2482,13 +2514,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INSAURRALDE CARLOS\2023\02\</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J17" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\INSAURRALDE CARLOS\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K17" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\INSAURRALDE CARLOS\2023\02\</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L17" s="3" t="str">
@@ -2517,35 +2551,35 @@
         <v>170</v>
       </c>
       <c r="T17" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_20174123072_202302.txt</v>
-      </c>
-      <c r="U17" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_20174123072_202302.txt</v>
       </c>
+      <c r="U17" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_20174123072_202302.txt</v>
+      </c>
       <c r="V17" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20174123072CR.txt</v>
       </c>
       <c r="W17" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20174123072CP.txt</v>
       </c>
       <c r="X17" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20174123072CT.txt</v>
       </c>
       <c r="Y17" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20174123072CB.txt</v>
       </c>
       <c r="Z17" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20174123072 - 202302 - INSAURRALDE CARLOS - RET.txt</v>
       </c>
       <c r="AA17" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20174123072 - 202302 - INSAURRALDE CARLOS - PER.txt</v>
       </c>
       <c r="AB17" s="4">
@@ -2578,13 +2612,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA LILIANA\2023\02\</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J18" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERNANDEZ SOSA LILIANA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K18" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA LILIANA\2023\02\</v>
-      </c>
-      <c r="K18" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L18" s="3" t="str">
@@ -2613,35 +2649,35 @@
         <v>170</v>
       </c>
       <c r="T18" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>retencionesExport_27182653972_202302.txt</v>
-      </c>
-      <c r="U18" s="3" t="str">
         <f t="shared" si="16"/>
         <v>retencionesExport_27182653972_202302.txt</v>
       </c>
+      <c r="U18" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>retencionesExport_27182653972_202302.txt</v>
+      </c>
       <c r="V18" s="3" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27182653972CR.txt</v>
       </c>
       <c r="W18" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27182653972CP.txt</v>
       </c>
       <c r="X18" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27182653972CT.txt</v>
       </c>
       <c r="Y18" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>27182653972CB.txt</v>
       </c>
       <c r="Z18" s="3" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - RET.txt</v>
       </c>
       <c r="AA18" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - PER.txt</v>
       </c>
       <c r="AB18" s="4">
@@ -2678,11 +2714,11 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI KAREN\2022\07\</v>
+      </c>
+      <c r="K19" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI KAREN\2022\07\</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202207</v>
       </c>
       <c r="L19" s="3" t="str">
@@ -2739,13 +2775,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\POSADAS FIDUCIARIA SA\2023\02\</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J20" s="4" t="str">
+        <f t="shared" ref="J20:J21" si="24">I20&amp;"\"&amp;B20&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E20,"AAAA-mm")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\POSADAS FIDUCIARIA SA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K20" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\POSADAS FIDUCIARIA SA\2023\02\</v>
-      </c>
-      <c r="K20" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L20" s="3" t="str">
@@ -2774,35 +2812,35 @@
         <v>170</v>
       </c>
       <c r="T20" s="3" t="str">
-        <f t="shared" ref="T20:T21" si="23">"retencionesExport_"&amp;SUBSTITUTE(D20,"-","")&amp;"_"&amp;TEXT(E20,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="T20:T21" si="25">"retencionesExport_"&amp;SUBSTITUTE(D20,"-","")&amp;"_"&amp;TEXT(E20,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_30708370122_202302.txt</v>
       </c>
       <c r="U20" s="3" t="str">
-        <f t="shared" ref="U20:U21" si="24">"retencionesExport_"&amp;SUBSTITUTE(D20,"-","")&amp;"_"&amp;TEXT(E20,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="U20:U21" si="26">"retencionesExport_"&amp;SUBSTITUTE(D20,"-","")&amp;"_"&amp;TEXT(E20,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_30708370122_202302.txt</v>
       </c>
       <c r="V20" s="3" t="str">
-        <f t="shared" ref="V20:V21" si="25">SUBSTITUTE(D20,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V20:V21" si="27">SUBSTITUTE(D20,"-","")&amp;"CR.txt"</f>
         <v>30708370122CR.txt</v>
       </c>
       <c r="W20" s="3" t="str">
-        <f t="shared" ref="W20:W21" si="26">SUBSTITUTE(D20,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W20:W21" si="28">SUBSTITUTE(D20,"-","")&amp;"CP.txt"</f>
         <v>30708370122CP.txt</v>
       </c>
       <c r="X20" s="3" t="str">
-        <f t="shared" ref="X20:X21" si="27">SUBSTITUTE(D20,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X20:X21" si="29">SUBSTITUTE(D20,"-","")&amp;"CT.txt"</f>
         <v>30708370122CT.txt</v>
       </c>
       <c r="Y20" s="3" t="str">
-        <f t="shared" ref="Y20:Y21" si="28">SUBSTITUTE(D20,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y20:Y21" si="30">SUBSTITUTE(D20,"-","")&amp;"CB.txt"</f>
         <v>30708370122CB.txt</v>
       </c>
       <c r="Z20" s="3" t="str">
-        <f t="shared" ref="Z20:Z21" si="29">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - RET.txt")</f>
+        <f t="shared" ref="Z20:Z21" si="31">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - RET.txt")</f>
         <v>30708370122 - 202302 - POSADAS FIDUCIARIA SA - RET.txt</v>
       </c>
       <c r="AA20" s="3" t="str">
-        <f t="shared" ref="AA20:AA21" si="30">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - PER.txt")</f>
+        <f t="shared" ref="AA20:AA21" si="32">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - PER.txt")</f>
         <v>30708370122 - 202302 - POSADAS FIDUCIARIA SA - PER.txt</v>
       </c>
       <c r="AB20" s="4">
@@ -2834,13 +2872,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SEMILLA ELVIES\2023\02\</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J21" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SEMILLA ELVIES\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K21" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SEMILLA ELVIES\2023\02\</v>
-      </c>
-      <c r="K21" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L21" s="3" t="str">
@@ -2869,35 +2909,35 @@
         <v>170</v>
       </c>
       <c r="T21" s="3" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>retencionesExport_27068286323_202302.txt</v>
       </c>
       <c r="U21" s="3" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>retencionesExport_27068286323_202302.txt</v>
       </c>
       <c r="V21" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>27068286323CR.txt</v>
       </c>
       <c r="W21" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>27068286323CP.txt</v>
       </c>
       <c r="X21" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>27068286323CT.txt</v>
       </c>
       <c r="Y21" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>27068286323CB.txt</v>
       </c>
       <c r="Z21" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>27068286323 - 202302 - SEMILLA ELVIES - RET.txt</v>
       </c>
       <c r="AA21" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>27068286323 - 202302 - SEMILLA ELVIES - PER.txt</v>
       </c>
       <c r="AB21" s="4">
@@ -2934,11 +2974,11 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA MARIA EUGENIA\2022\07\</v>
+      </c>
+      <c r="K22" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA MARIA EUGENIA\2022\07\</v>
-      </c>
-      <c r="K22" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202207</v>
       </c>
       <c r="L22" s="3" t="str">
@@ -2995,13 +3035,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CUCYTI SRL\2023\02\</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J23" s="4" t="str">
+        <f t="shared" ref="J23:J51" si="33">I23&amp;"\"&amp;B23&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E23,"AAAA-mm")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CUCYTI SRL\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K23" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CUCYTI SRL\2023\02\</v>
-      </c>
-      <c r="K23" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L23" s="3" t="str">
@@ -3030,35 +3072,35 @@
         <v>170</v>
       </c>
       <c r="T23" s="3" t="str">
-        <f t="shared" ref="T23:T51" si="31">"retencionesExport_"&amp;SUBSTITUTE(D23,"-","")&amp;"_"&amp;TEXT(E23,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="T23:T51" si="34">"retencionesExport_"&amp;SUBSTITUTE(D23,"-","")&amp;"_"&amp;TEXT(E23,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_30672355393_202302.txt</v>
       </c>
       <c r="U23" s="3" t="str">
-        <f t="shared" ref="U23:U51" si="32">"retencionesExport_"&amp;SUBSTITUTE(D23,"-","")&amp;"_"&amp;TEXT(E23,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="U23:U51" si="35">"retencionesExport_"&amp;SUBSTITUTE(D23,"-","")&amp;"_"&amp;TEXT(E23,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_30672355393_202302.txt</v>
       </c>
       <c r="V23" s="3" t="str">
-        <f t="shared" ref="V23:V51" si="33">SUBSTITUTE(D23,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V23:V51" si="36">SUBSTITUTE(D23,"-","")&amp;"CR.txt"</f>
         <v>30672355393CR.txt</v>
       </c>
       <c r="W23" s="3" t="str">
-        <f t="shared" ref="W23:W51" si="34">SUBSTITUTE(D23,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W23:W51" si="37">SUBSTITUTE(D23,"-","")&amp;"CP.txt"</f>
         <v>30672355393CP.txt</v>
       </c>
       <c r="X23" s="3" t="str">
-        <f t="shared" ref="X23:X51" si="35">SUBSTITUTE(D23,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X23:X51" si="38">SUBSTITUTE(D23,"-","")&amp;"CT.txt"</f>
         <v>30672355393CT.txt</v>
       </c>
       <c r="Y23" s="3" t="str">
-        <f t="shared" ref="Y23:Y51" si="36">SUBSTITUTE(D23,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y23:Y51" si="39">SUBSTITUTE(D23,"-","")&amp;"CB.txt"</f>
         <v>30672355393CB.txt</v>
       </c>
       <c r="Z23" s="3" t="str">
-        <f t="shared" ref="Z23:Z51" si="37">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - RET.txt")</f>
+        <f t="shared" ref="Z23:Z51" si="40">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - RET.txt")</f>
         <v>30672355393 - 202302 - CUCYTI SRL - RET.txt</v>
       </c>
       <c r="AA23" s="3" t="str">
-        <f t="shared" ref="AA23:AA51" si="38">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - PER.txt")</f>
+        <f t="shared" ref="AA23:AA51" si="41">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - PER.txt")</f>
         <v>30672355393 - 202302 - CUCYTI SRL - PER.txt</v>
       </c>
       <c r="AB23" s="4">
@@ -3090,13 +3132,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARLOS ABELARDO SESMERO SRL\2023\02\</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J24" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CARLOS ABELARDO SESMERO SRL\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K24" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARLOS ABELARDO SESMERO SRL\2023\02\</v>
-      </c>
-      <c r="K24" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L24" s="3" t="str">
@@ -3125,35 +3169,35 @@
         <v>170</v>
       </c>
       <c r="T24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_30707912223_202302.txt</v>
       </c>
       <c r="U24" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_30707912223_202302.txt</v>
       </c>
       <c r="V24" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>30707912223CR.txt</v>
       </c>
       <c r="W24" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>30707912223CP.txt</v>
       </c>
       <c r="X24" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>30707912223CT.txt</v>
       </c>
       <c r="Y24" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30707912223CB.txt</v>
       </c>
       <c r="Z24" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL - RET.txt</v>
       </c>
       <c r="AA24" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL - PER.txt</v>
       </c>
       <c r="AB24" s="4">
@@ -3185,13 +3229,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\TRANS. MISIONES SA\2023\02\</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J25" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\TRANS. MISIONES SA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K25" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\TRANS. MISIONES SA\2023\02\</v>
-      </c>
-      <c r="K25" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L25" s="3" t="str">
@@ -3220,35 +3266,35 @@
         <v>170</v>
       </c>
       <c r="T25" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_30715577743_202302.txt</v>
       </c>
       <c r="U25" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_30715577743_202302.txt</v>
       </c>
       <c r="V25" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>30715577743CR.txt</v>
       </c>
       <c r="W25" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>30715577743CP.txt</v>
       </c>
       <c r="X25" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>30715577743CT.txt</v>
       </c>
       <c r="Y25" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30715577743CB.txt</v>
       </c>
       <c r="Z25" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>30715577743 - 202302 - TRANS. MISIONES SA - RET.txt</v>
       </c>
       <c r="AA25" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30715577743 - 202302 - TRANS. MISIONES SA - PER.txt</v>
       </c>
       <c r="AB25" s="4">
@@ -3280,13 +3326,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\DON LALO SRL\2023\02\</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J26" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\DON LALO SRL\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K26" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\DON LALO SRL\2023\02\</v>
-      </c>
-      <c r="K26" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L26" s="3" t="str">
@@ -3315,35 +3363,35 @@
         <v>170</v>
       </c>
       <c r="T26" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_30717537153_202302.txt</v>
       </c>
       <c r="U26" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_30717537153_202302.txt</v>
       </c>
       <c r="V26" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>30717537153CR.txt</v>
       </c>
       <c r="W26" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>30717537153CP.txt</v>
       </c>
       <c r="X26" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>30717537153CT.txt</v>
       </c>
       <c r="Y26" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30717537153CB.txt</v>
       </c>
       <c r="Z26" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>30717537153 - 202302 - DON LALO SRL - RET.txt</v>
       </c>
       <c r="AA26" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30717537153 - 202302 - DON LALO SRL - PER.txt</v>
       </c>
       <c r="AB26" s="4">
@@ -3375,13 +3423,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA RODOLFO\2023\02\</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J27" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERNANDEZ SOSA RODOLFO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA RODOLFO\2023\02\</v>
-      </c>
-      <c r="K27" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L27" s="3" t="str">
@@ -3410,35 +3460,35 @@
         <v>170</v>
       </c>
       <c r="T27" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_20168291834_202302.txt</v>
       </c>
       <c r="U27" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_20168291834_202302.txt</v>
       </c>
       <c r="V27" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20168291834CR.txt</v>
       </c>
       <c r="W27" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20168291834CP.txt</v>
       </c>
       <c r="X27" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20168291834CT.txt</v>
       </c>
       <c r="Y27" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20168291834CB.txt</v>
       </c>
       <c r="Z27" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>20168291834 - 202302 - FERNANDEZ SOSA RODOLFO - RET.txt</v>
       </c>
       <c r="AA27" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20168291834 - 202302 - FERNANDEZ SOSA RODOLFO - PER.txt</v>
       </c>
       <c r="AB27" s="4">
@@ -3470,13 +3520,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO MARIA GABRIELA\2023\02\</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J28" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SESMERO MARIA GABRIELA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO MARIA GABRIELA\2023\02\</v>
-      </c>
-      <c r="K28" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L28" s="3" t="str">
@@ -3505,35 +3557,35 @@
         <v>170</v>
       </c>
       <c r="T28" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_23149462074_202302.txt</v>
       </c>
       <c r="U28" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_23149462074_202302.txt</v>
       </c>
       <c r="V28" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>23149462074CR.txt</v>
       </c>
       <c r="W28" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>23149462074CP.txt</v>
       </c>
       <c r="X28" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>23149462074CT.txt</v>
       </c>
       <c r="Y28" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>23149462074CB.txt</v>
       </c>
       <c r="Z28" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>23149462074 - 202302 - SESMERO MARIA GABRIELA - RET.txt</v>
       </c>
       <c r="AA28" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>23149462074 - 202302 - SESMERO MARIA GABRIELA - PER.txt</v>
       </c>
       <c r="AB28" s="4">
@@ -3565,13 +3617,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARMEN VICTORIA\2023\02\</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J29" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA CARMEN VICTORIA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARMEN VICTORIA\2023\02\</v>
-      </c>
-      <c r="K29" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L29" s="3" t="str">
@@ -3600,35 +3654,35 @@
         <v>170</v>
       </c>
       <c r="T29" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_23342751644_202302.txt</v>
       </c>
       <c r="U29" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_23342751644_202302.txt</v>
       </c>
       <c r="V29" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>23342751644CR.txt</v>
       </c>
       <c r="W29" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>23342751644CP.txt</v>
       </c>
       <c r="X29" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>23342751644CT.txt</v>
       </c>
       <c r="Y29" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>23342751644CB.txt</v>
       </c>
       <c r="Z29" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>23342751644 - 202302 - FERREYRA CARMEN VICTORIA - RET.txt</v>
       </c>
       <c r="AA29" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>23342751644 - 202302 - FERREYRA CARMEN VICTORIA - PER.txt</v>
       </c>
       <c r="AB29" s="4">
@@ -3660,13 +3714,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTO LUCILA\2023\02\</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J30" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SCOTO LUCILA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K30" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTO LUCILA\2023\02\</v>
-      </c>
-      <c r="K30" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L30" s="3" t="str">
@@ -3695,35 +3751,35 @@
         <v>170</v>
       </c>
       <c r="T30" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_23351897074_202302.txt</v>
       </c>
       <c r="U30" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_23351897074_202302.txt</v>
       </c>
       <c r="V30" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>23351897074CR.txt</v>
       </c>
       <c r="W30" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>23351897074CP.txt</v>
       </c>
       <c r="X30" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>23351897074CT.txt</v>
       </c>
       <c r="Y30" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>23351897074CB.txt</v>
       </c>
       <c r="Z30" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>23351897074 - 202302 - SCOTO LUCILA - RET.txt</v>
       </c>
       <c r="AA30" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>23351897074 - 202302 - SCOTO LUCILA - PER.txt</v>
       </c>
       <c r="AB30" s="4">
@@ -3755,13 +3811,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\TUFRO MALENA\2023\02\</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J31" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\TUFRO MALENA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K31" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\TUFRO MALENA\2023\02\</v>
-      </c>
-      <c r="K31" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L31" s="3" t="str">
@@ -3790,35 +3848,35 @@
         <v>170</v>
       </c>
       <c r="T31" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_27236873744_202302.txt</v>
       </c>
       <c r="U31" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_27236873744_202302.txt</v>
       </c>
       <c r="V31" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>27236873744CR.txt</v>
       </c>
       <c r="W31" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>27236873744CP.txt</v>
       </c>
       <c r="X31" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27236873744CT.txt</v>
       </c>
       <c r="Y31" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>27236873744CB.txt</v>
       </c>
       <c r="Z31" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>27236873744 - 202302 - TUFRO MALENA - RET.txt</v>
       </c>
       <c r="AA31" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>27236873744 - 202302 - TUFRO MALENA - PER.txt</v>
       </c>
       <c r="AB31" s="4">
@@ -3850,13 +3908,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\DVC SRL\2023\02\</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J32" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\DVC SRL\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K32" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\DVC SRL\2023\02\</v>
-      </c>
-      <c r="K32" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L32" s="3" t="str">
@@ -3885,35 +3945,35 @@
         <v>170</v>
       </c>
       <c r="T32" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_30709431834_202302.txt</v>
       </c>
       <c r="U32" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_30709431834_202302.txt</v>
       </c>
       <c r="V32" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>30709431834CR.txt</v>
       </c>
       <c r="W32" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>30709431834CP.txt</v>
       </c>
       <c r="X32" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>30709431834CT.txt</v>
       </c>
       <c r="Y32" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30709431834CB.txt</v>
       </c>
       <c r="Z32" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>30709431834 - 202302 - DVC SRL - RET.txt</v>
       </c>
       <c r="AA32" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30709431834 - 202302 - DVC SRL - PER.txt</v>
       </c>
       <c r="AB32" s="4">
@@ -3945,13 +4005,15 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VECINAS SRL\2023\02\</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J33" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\VECINAS SRL\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K33" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VECINAS SRL\2023\02\</v>
-      </c>
-      <c r="K33" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L33" s="3" t="str">
@@ -3980,35 +4042,35 @@
         <v>170</v>
       </c>
       <c r="T33" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_30715795864_202302.txt</v>
       </c>
       <c r="U33" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_30715795864_202302.txt</v>
       </c>
       <c r="V33" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>30715795864CR.txt</v>
       </c>
       <c r="W33" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>30715795864CP.txt</v>
       </c>
       <c r="X33" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>30715795864CT.txt</v>
       </c>
       <c r="Y33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30715795864CB.txt</v>
       </c>
       <c r="Z33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>30715795864 - 202302 - VECINAS SRL - RET.txt</v>
       </c>
       <c r="AA33" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30715795864 - 202302 - VECINAS SRL - PER.txt</v>
       </c>
       <c r="AB33" s="4">
@@ -4041,17 +4103,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI RICARDO\2023\02\</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J34" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SZYCHOWSKI RICARDO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K34" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI RICARDO\2023\02\</v>
-      </c>
-      <c r="K34" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" ref="L34:L65" si="39">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="L34:L65" si="42">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -4076,39 +4140,39 @@
         <v>170</v>
       </c>
       <c r="T34" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_20074827455_202302.txt</v>
       </c>
       <c r="U34" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_20074827455_202302.txt</v>
       </c>
       <c r="V34" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20074827455CR.txt</v>
       </c>
       <c r="W34" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20074827455CP.txt</v>
       </c>
       <c r="X34" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20074827455CT.txt</v>
       </c>
       <c r="Y34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20074827455CB.txt</v>
       </c>
       <c r="Z34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>20074827455 - 202302 - SZYCHOWSKI RICARDO - RET.txt</v>
       </c>
       <c r="AA34" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20074827455 - 202302 - SZYCHOWSKI RICARDO - PER.txt</v>
       </c>
       <c r="AB34" s="4">
-        <f t="shared" ref="AB34:AB65" si="40">ROW(A34)</f>
+        <f t="shared" ref="AB34:AB65" si="43">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
@@ -4136,17 +4200,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA MARCELO\2023\02\</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J35" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA MARCELO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K35" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA MARCELO\2023\02\</v>
-      </c>
-      <c r="K35" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -4171,39 +4237,39 @@
         <v>170</v>
       </c>
       <c r="T35" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_20170394845_202302.txt</v>
       </c>
       <c r="U35" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_20170394845_202302.txt</v>
       </c>
       <c r="V35" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20170394845CR.txt</v>
       </c>
       <c r="W35" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20170394845CP.txt</v>
       </c>
       <c r="X35" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20170394845CT.txt</v>
       </c>
       <c r="Y35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20170394845CB.txt</v>
       </c>
       <c r="Z35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>20170394845 - 202302 - FERREYRA MARCELO - RET.txt</v>
       </c>
       <c r="AA35" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20170394845 - 202302 - FERREYRA MARCELO - PER.txt</v>
       </c>
       <c r="AB35" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>35</v>
       </c>
     </row>
@@ -4232,17 +4298,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CANTELI GRACIELA\2023\02\</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="I36" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J36" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CANTELI GRACIELA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K36" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CANTELI GRACIELA\2023\02\</v>
-      </c>
-      <c r="K36" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -4267,39 +4335,39 @@
         <v>170</v>
       </c>
       <c r="T36" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_27148268105_202302.txt</v>
       </c>
       <c r="U36" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_27148268105_202302.txt</v>
       </c>
       <c r="V36" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>27148268105CR.txt</v>
       </c>
       <c r="W36" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>27148268105CP.txt</v>
       </c>
       <c r="X36" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27148268105CT.txt</v>
       </c>
       <c r="Y36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>27148268105CB.txt</v>
       </c>
       <c r="Z36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>27148268105 - 202302 - CANTELI GRACIELA - RET.txt</v>
       </c>
       <c r="AA36" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>27148268105 - 202302 - CANTELI GRACIELA - PER.txt</v>
       </c>
       <c r="AB36" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>36</v>
       </c>
     </row>
@@ -4328,17 +4396,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CORONAS ALINE\2023\02\</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="I37" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J37" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CORONAS ALINE\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K37" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CORONAS ALINE\2023\02\</v>
-      </c>
-      <c r="K37" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -4363,39 +4433,39 @@
         <v>170</v>
       </c>
       <c r="T37" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_27171709925_202302.txt</v>
       </c>
       <c r="U37" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_27171709925_202302.txt</v>
       </c>
       <c r="V37" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>27171709925CR.txt</v>
       </c>
       <c r="W37" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>27171709925CP.txt</v>
       </c>
       <c r="X37" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27171709925CT.txt</v>
       </c>
       <c r="Y37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>27171709925CB.txt</v>
       </c>
       <c r="Z37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>27171709925 - 202302 - CORONAS ALINE - RET.txt</v>
       </c>
       <c r="AA37" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>27171709925 - 202302 - CORONAS ALINE - PER.txt</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>37</v>
       </c>
     </row>
@@ -4423,17 +4493,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ASOC. SALUD MNES\2023\02\</v>
       </c>
-      <c r="I38" s="4"/>
+      <c r="I38" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J38" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\ASOC. SALUD MNES\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K38" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\ASOC. SALUD MNES\2023\02\</v>
-      </c>
-      <c r="K38" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -4458,39 +4530,39 @@
         <v>170</v>
       </c>
       <c r="T38" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_30708553715_202302.txt</v>
       </c>
       <c r="U38" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_30708553715_202302.txt</v>
       </c>
       <c r="V38" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>30708553715CR.txt</v>
       </c>
       <c r="W38" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>30708553715CP.txt</v>
       </c>
       <c r="X38" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>30708553715CT.txt</v>
       </c>
       <c r="Y38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30708553715CB.txt</v>
       </c>
       <c r="Z38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>30708553715 - 202302 - ASOC. SALUD MNES - RET.txt</v>
       </c>
       <c r="AA38" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30708553715 - 202302 - ASOC. SALUD MNES - PER.txt</v>
       </c>
       <c r="AB38" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>38</v>
       </c>
     </row>
@@ -4518,17 +4590,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ENRIQUEZ RUBEN\2023\02\</v>
       </c>
-      <c r="I39" s="4"/>
+      <c r="I39" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J39" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\ENRIQUEZ RUBEN\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K39" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\ENRIQUEZ RUBEN\2023\02\</v>
-      </c>
-      <c r="K39" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M39" s="3" t="s">
@@ -4553,39 +4627,39 @@
         <v>170</v>
       </c>
       <c r="T39" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_20149466356_202302.txt</v>
       </c>
       <c r="U39" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_20149466356_202302.txt</v>
       </c>
       <c r="V39" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20149466356CR.txt</v>
       </c>
       <c r="W39" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20149466356CP.txt</v>
       </c>
       <c r="X39" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20149466356CT.txt</v>
       </c>
       <c r="Y39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20149466356CB.txt</v>
       </c>
       <c r="Z39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>20149466356 - 202302 - ENRIQUEZ RUBEN - RET.txt</v>
       </c>
       <c r="AA39" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20149466356 - 202302 - ENRIQUEZ RUBEN - PER.txt</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>39</v>
       </c>
     </row>
@@ -4613,17 +4687,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA IÑAKI\2023\02\</v>
       </c>
-      <c r="I40" s="4"/>
+      <c r="I40" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J40" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BEITIA IÑAKI\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K40" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA IÑAKI\2023\02\</v>
-      </c>
-      <c r="K40" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -4648,39 +4724,39 @@
         <v>170</v>
       </c>
       <c r="T40" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_20416948926_202302.txt</v>
       </c>
       <c r="U40" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_20416948926_202302.txt</v>
       </c>
       <c r="V40" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20416948926CR.txt</v>
       </c>
       <c r="W40" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20416948926CP.txt</v>
       </c>
       <c r="X40" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20416948926CT.txt</v>
       </c>
       <c r="Y40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20416948926CB.txt</v>
       </c>
       <c r="Z40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>20416948926 - 202302 - BEITIA IÑAKI - RET.txt</v>
       </c>
       <c r="AA40" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20416948926 - 202302 - BEITIA IÑAKI - PER.txt</v>
       </c>
       <c r="AB40" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
     </row>
@@ -4708,17 +4784,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LAZCOZ VIOLETA\2023\02\</v>
       </c>
-      <c r="I41" s="4"/>
+      <c r="I41" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J41" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\LAZCOZ VIOLETA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K41" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\LAZCOZ VIOLETA\2023\02\</v>
-      </c>
-      <c r="K41" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M41" s="3" t="s">
@@ -4743,39 +4821,39 @@
         <v>170</v>
       </c>
       <c r="T41" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_27058846916_202302.txt</v>
       </c>
       <c r="U41" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_27058846916_202302.txt</v>
       </c>
       <c r="V41" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>27058846916CR.txt</v>
       </c>
       <c r="W41" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>27058846916CP.txt</v>
       </c>
       <c r="X41" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27058846916CT.txt</v>
       </c>
       <c r="Y41" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>27058846916CB.txt</v>
       </c>
       <c r="Z41" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>27058846916 - 202302 - LAZCOZ VIOLETA - RET.txt</v>
       </c>
       <c r="AA41" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>27058846916 - 202302 - LAZCOZ VIOLETA - PER.txt</v>
       </c>
       <c r="AB41" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>41</v>
       </c>
     </row>
@@ -4803,17 +4881,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI AMANDA \2023\02\</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J42" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SZYCHOWSKI AMANDA \Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K42" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI AMANDA \2023\02\</v>
-      </c>
-      <c r="K42" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M42" s="3" t="s">
@@ -4838,39 +4918,39 @@
         <v>170</v>
       </c>
       <c r="T42" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_27201178776_202302.txt</v>
       </c>
       <c r="U42" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_27201178776_202302.txt</v>
       </c>
       <c r="V42" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>27201178776CR.txt</v>
       </c>
       <c r="W42" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>27201178776CP.txt</v>
       </c>
       <c r="X42" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27201178776CT.txt</v>
       </c>
       <c r="Y42" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>27201178776CB.txt</v>
       </c>
       <c r="Z42" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>27201178776 - 202302 - SZYCHOWSKI AMANDA  - RET.txt</v>
       </c>
       <c r="AA42" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>27201178776 - 202302 - SZYCHOWSKI AMANDA  - PER.txt</v>
       </c>
       <c r="AB42" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>42</v>
       </c>
     </row>
@@ -4898,17 +4978,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARBALLO GRACIELA\2023\02\</v>
       </c>
-      <c r="I43" s="4"/>
+      <c r="I43" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J43" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CARBALLO GRACIELA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K43" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARBALLO GRACIELA\2023\02\</v>
-      </c>
-      <c r="K43" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M43" s="3" t="s">
@@ -4933,39 +5015,39 @@
         <v>170</v>
       </c>
       <c r="T43" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_27261827366_202302.txt</v>
       </c>
       <c r="U43" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_27261827366_202302.txt</v>
       </c>
       <c r="V43" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>27261827366CR.txt</v>
       </c>
       <c r="W43" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>27261827366CP.txt</v>
       </c>
       <c r="X43" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27261827366CT.txt</v>
       </c>
       <c r="Y43" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>27261827366CB.txt</v>
       </c>
       <c r="Z43" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>27261827366 - 202302 - CARBALLO GRACIELA - RET.txt</v>
       </c>
       <c r="AA43" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>27261827366 - 202302 - CARBALLO GRACIELA - PER.txt</v>
       </c>
       <c r="AB43" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>43</v>
       </c>
     </row>
@@ -4993,17 +5075,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PREST. SANAT. SA\2023\02\</v>
       </c>
-      <c r="I44" s="4"/>
+      <c r="I44" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J44" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\PREST. SANAT. SA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K44" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PREST. SANAT. SA\2023\02\</v>
-      </c>
-      <c r="K44" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M44" s="3" t="s">
@@ -5028,39 +5112,39 @@
         <v>170</v>
       </c>
       <c r="T44" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_30687910636_202302.txt</v>
       </c>
       <c r="U44" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_30687910636_202302.txt</v>
       </c>
       <c r="V44" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>30687910636CR.txt</v>
       </c>
       <c r="W44" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>30687910636CP.txt</v>
       </c>
       <c r="X44" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>30687910636CT.txt</v>
       </c>
       <c r="Y44" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30687910636CB.txt</v>
       </c>
       <c r="Z44" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>30687910636 - 202302 - PREST. SANAT. SA - RET.txt</v>
       </c>
       <c r="AA44" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30687910636 - 202302 - PREST. SANAT. SA - PER.txt</v>
       </c>
       <c r="AB44" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>44</v>
       </c>
     </row>
@@ -5088,17 +5172,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONSULTORIO SAN MARTIN\2023\02\</v>
       </c>
-      <c r="I45" s="4"/>
+      <c r="I45" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J45" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CONSULTORIO SAN MARTIN\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K45" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONSULTORIO SAN MARTIN\2023\02\</v>
-      </c>
-      <c r="K45" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M45" s="3" t="s">
@@ -5123,39 +5209,39 @@
         <v>170</v>
       </c>
       <c r="T45" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_30715347926_202302.txt</v>
       </c>
       <c r="U45" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_30715347926_202302.txt</v>
       </c>
       <c r="V45" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>30715347926CR.txt</v>
       </c>
       <c r="W45" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>30715347926CP.txt</v>
       </c>
       <c r="X45" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>30715347926CT.txt</v>
       </c>
       <c r="Y45" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30715347926CB.txt</v>
       </c>
       <c r="Z45" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>30715347926 - 202302 - CONSULTORIO SAN MARTIN - RET.txt</v>
       </c>
       <c r="AA45" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30715347926 - 202302 - CONSULTORIO SAN MARTIN - PER.txt</v>
       </c>
       <c r="AB45" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>45</v>
       </c>
     </row>
@@ -5183,17 +5269,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA PROPIEDADES\2023\02\</v>
       </c>
-      <c r="I46" s="4"/>
+      <c r="I46" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J46" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\PENSA PROPIEDADES\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K46" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA PROPIEDADES\2023\02\</v>
-      </c>
-      <c r="K46" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M46" s="3" t="s">
@@ -5218,39 +5306,39 @@
         <v>170</v>
       </c>
       <c r="T46" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_30716503816_202302.txt</v>
       </c>
       <c r="U46" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_30716503816_202302.txt</v>
       </c>
       <c r="V46" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>30716503816CR.txt</v>
       </c>
       <c r="W46" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>30716503816CP.txt</v>
       </c>
       <c r="X46" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>30716503816CT.txt</v>
       </c>
       <c r="Y46" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30716503816CB.txt</v>
       </c>
       <c r="Z46" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>30716503816 - 202302 - PENSA PROPIEDADES - RET.txt</v>
       </c>
       <c r="AA46" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30716503816 - 202302 - PENSA PROPIEDADES - PER.txt</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>46</v>
       </c>
     </row>
@@ -5279,17 +5367,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA ANIBAL\2023\02\</v>
       </c>
-      <c r="I47" s="4"/>
+      <c r="I47" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J47" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\PENSA ANIBAL\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K47" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA ANIBAL\2023\02\</v>
-      </c>
-      <c r="K47" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M47" s="3" t="s">
@@ -5314,39 +5404,39 @@
         <v>170</v>
       </c>
       <c r="T47" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_20077065637_202302.txt</v>
       </c>
       <c r="U47" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_20077065637_202302.txt</v>
       </c>
       <c r="V47" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20077065637CR.txt</v>
       </c>
       <c r="W47" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20077065637CP.txt</v>
       </c>
       <c r="X47" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20077065637CT.txt</v>
       </c>
       <c r="Y47" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20077065637CB.txt</v>
       </c>
       <c r="Z47" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>20077065637 - 202302 - PENSA ANIBAL - RET.txt</v>
       </c>
       <c r="AA47" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20077065637 - 202302 - PENSA ANIBAL - PER.txt</v>
       </c>
       <c r="AB47" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>47</v>
       </c>
     </row>
@@ -5375,17 +5465,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\TABBIA ENRIQUE\2023\02\</v>
       </c>
-      <c r="I48" s="4"/>
+      <c r="I48" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J48" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\TABBIA ENRIQUE\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K48" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\TABBIA ENRIQUE\2023\02\</v>
-      </c>
-      <c r="K48" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M48" s="3" t="s">
@@ -5410,39 +5502,39 @@
         <v>170</v>
       </c>
       <c r="T48" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_20130056637_202302.txt</v>
       </c>
       <c r="U48" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_20130056637_202302.txt</v>
       </c>
       <c r="V48" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20130056637CR.txt</v>
       </c>
       <c r="W48" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20130056637CP.txt</v>
       </c>
       <c r="X48" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20130056637CT.txt</v>
       </c>
       <c r="Y48" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20130056637CB.txt</v>
       </c>
       <c r="Z48" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>20130056637 - 202302 - TABBIA ENRIQUE - RET.txt</v>
       </c>
       <c r="AA48" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20130056637 - 202302 - TABBIA ENRIQUE - PER.txt</v>
       </c>
       <c r="AB48" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>48</v>
       </c>
     </row>
@@ -5470,17 +5562,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE HUGO\2023\02\</v>
       </c>
-      <c r="I49" s="4"/>
+      <c r="I49" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J49" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\HOPE HUGO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K49" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE HUGO\2023\02\</v>
-      </c>
-      <c r="K49" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M49" s="3" t="s">
@@ -5505,39 +5599,39 @@
         <v>170</v>
       </c>
       <c r="T49" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_20170395167_202302.txt</v>
       </c>
       <c r="U49" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_20170395167_202302.txt</v>
       </c>
       <c r="V49" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20170395167CR.txt</v>
       </c>
       <c r="W49" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20170395167CP.txt</v>
       </c>
       <c r="X49" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20170395167CT.txt</v>
       </c>
       <c r="Y49" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20170395167CB.txt</v>
       </c>
       <c r="Z49" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>20170395167 - 202302 - HOPE HUGO - RET.txt</v>
       </c>
       <c r="AA49" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20170395167 - 202302 - HOPE HUGO - PER.txt</v>
       </c>
       <c r="AB49" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>49</v>
       </c>
     </row>
@@ -5566,17 +5660,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA NESTOR LEONEL\2023\02\</v>
       </c>
-      <c r="I50" s="4"/>
+      <c r="I50" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J50" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\VARENIZA NESTOR LEONEL\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K50" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA NESTOR LEONEL\2023\02\</v>
-      </c>
-      <c r="K50" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M50" s="3" t="s">
@@ -5601,39 +5697,39 @@
         <v>170</v>
       </c>
       <c r="T50" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_20301650087_202302.txt</v>
       </c>
       <c r="U50" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_20301650087_202302.txt</v>
       </c>
       <c r="V50" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20301650087CR.txt</v>
       </c>
       <c r="W50" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20301650087CP.txt</v>
       </c>
       <c r="X50" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20301650087CT.txt</v>
       </c>
       <c r="Y50" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20301650087CB.txt</v>
       </c>
       <c r="Z50" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>20301650087 - 202302 - VARENIZA NESTOR LEONEL - RET.txt</v>
       </c>
       <c r="AA50" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20301650087 - 202302 - VARENIZA NESTOR LEONEL - PER.txt</v>
       </c>
       <c r="AB50" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
     </row>
@@ -5661,17 +5757,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA ANDRES\2023\02\</v>
       </c>
-      <c r="I51" s="4"/>
+      <c r="I51" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J51" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA ANDRES\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K51" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA ANDRES\2023\02\</v>
-      </c>
-      <c r="K51" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M51" s="3" t="s">
@@ -5696,39 +5794,39 @@
         <v>170</v>
       </c>
       <c r="T51" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>retencionesExport_20327623967_202302.txt</v>
       </c>
       <c r="U51" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>retencionesExport_20327623967_202302.txt</v>
       </c>
       <c r="V51" s="3" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20327623967CR.txt</v>
       </c>
       <c r="W51" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>20327623967CP.txt</v>
       </c>
       <c r="X51" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>20327623967CT.txt</v>
       </c>
       <c r="Y51" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>20327623967CB.txt</v>
       </c>
       <c r="Z51" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>20327623967 - 202302 - FERREYRA ANDRES - RET.txt</v>
       </c>
       <c r="AA51" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>20327623967 - 202302 - FERREYRA ANDRES - PER.txt</v>
       </c>
       <c r="AB51" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>51</v>
       </c>
     </row>
@@ -5761,15 +5859,15 @@
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA LUCIANO\2022\07\</v>
+      </c>
+      <c r="K52" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA LUCIANO\2022\07\</v>
-      </c>
-      <c r="K52" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202207</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Julio 2022</v>
       </c>
       <c r="M52" s="3"/>
@@ -5794,7 +5892,7 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>52</v>
       </c>
     </row>
@@ -5822,17 +5920,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTTO OLGA MARIA\2023\02\</v>
       </c>
-      <c r="I53" s="4"/>
+      <c r="I53" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J53" s="4" t="str">
+        <f t="shared" ref="J53:J75" si="44">I53&amp;"\"&amp;B53&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E53,"AAAA-mm")&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SCOTTO OLGA MARIA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K53" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTTO OLGA MARIA\2023\02\</v>
-      </c>
-      <c r="K53" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M53" s="3" t="s">
@@ -5857,39 +5957,39 @@
         <v>170</v>
       </c>
       <c r="T53" s="3" t="str">
-        <f t="shared" ref="T53:T75" si="41">"retencionesExport_"&amp;SUBSTITUTE(D53,"-","")&amp;"_"&amp;TEXT(E53,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="T53:T75" si="45">"retencionesExport_"&amp;SUBSTITUTE(D53,"-","")&amp;"_"&amp;TEXT(E53,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_27109797257_202302.txt</v>
       </c>
       <c r="U53" s="3" t="str">
-        <f t="shared" ref="U53:U75" si="42">"retencionesExport_"&amp;SUBSTITUTE(D53,"-","")&amp;"_"&amp;TEXT(E53,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="U53:U75" si="46">"retencionesExport_"&amp;SUBSTITUTE(D53,"-","")&amp;"_"&amp;TEXT(E53,"AAAAMM")&amp;".txt"</f>
         <v>retencionesExport_27109797257_202302.txt</v>
       </c>
       <c r="V53" s="3" t="str">
-        <f t="shared" ref="V53:V75" si="43">SUBSTITUTE(D53,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V53:V75" si="47">SUBSTITUTE(D53,"-","")&amp;"CR.txt"</f>
         <v>27109797257CR.txt</v>
       </c>
       <c r="W53" s="3" t="str">
-        <f t="shared" ref="W53:W75" si="44">SUBSTITUTE(D53,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W53:W75" si="48">SUBSTITUTE(D53,"-","")&amp;"CP.txt"</f>
         <v>27109797257CP.txt</v>
       </c>
       <c r="X53" s="3" t="str">
-        <f t="shared" ref="X53:X75" si="45">SUBSTITUTE(D53,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X53:X75" si="49">SUBSTITUTE(D53,"-","")&amp;"CT.txt"</f>
         <v>27109797257CT.txt</v>
       </c>
       <c r="Y53" s="3" t="str">
-        <f t="shared" ref="Y53:Y75" si="46">SUBSTITUTE(D53,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y53:Y75" si="50">SUBSTITUTE(D53,"-","")&amp;"CB.txt"</f>
         <v>27109797257CB.txt</v>
       </c>
       <c r="Z53" s="3" t="str">
-        <f t="shared" ref="Z53:Z75" si="47">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - RET.txt")</f>
+        <f t="shared" ref="Z53:Z75" si="51">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - RET.txt")</f>
         <v>27109797257 - 202302 - SCOTTO OLGA MARIA - RET.txt</v>
       </c>
       <c r="AA53" s="3" t="str">
-        <f t="shared" ref="AA53:AA75" si="48">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - PER.txt")</f>
+        <f t="shared" ref="AA53:AA75" si="52">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - PER.txt")</f>
         <v>27109797257 - 202302 - SCOTTO OLGA MARIA - PER.txt</v>
       </c>
       <c r="AB53" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>53</v>
       </c>
     </row>
@@ -5917,17 +6017,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ROKO EUGENIA\2023\02\</v>
       </c>
-      <c r="I54" s="4"/>
+      <c r="I54" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J54" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\ROKO EUGENIA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K54" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\ROKO EUGENIA\2023\02\</v>
-      </c>
-      <c r="K54" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M54" s="3" t="s">
@@ -5952,39 +6054,39 @@
         <v>170</v>
       </c>
       <c r="T54" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_27217236547_202302.txt</v>
       </c>
       <c r="U54" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_27217236547_202302.txt</v>
       </c>
       <c r="V54" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>27217236547CR.txt</v>
+      </c>
+      <c r="W54" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>27217236547CP.txt</v>
+      </c>
+      <c r="X54" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>27217236547CT.txt</v>
+      </c>
+      <c r="Y54" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>27217236547CB.txt</v>
+      </c>
+      <c r="Z54" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>27217236547 - 202302 - ROKO EUGENIA - RET.txt</v>
+      </c>
+      <c r="AA54" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>27217236547 - 202302 - ROKO EUGENIA - PER.txt</v>
+      </c>
+      <c r="AB54" s="4">
         <f t="shared" si="43"/>
-        <v>27217236547CR.txt</v>
-      </c>
-      <c r="W54" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>27217236547CP.txt</v>
-      </c>
-      <c r="X54" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>27217236547CT.txt</v>
-      </c>
-      <c r="Y54" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>27217236547CB.txt</v>
-      </c>
-      <c r="Z54" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>27217236547 - 202302 - ROKO EUGENIA - RET.txt</v>
-      </c>
-      <c r="AA54" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>27217236547 - 202302 - ROKO EUGENIA - PER.txt</v>
-      </c>
-      <c r="AB54" s="4">
-        <f t="shared" si="40"/>
         <v>54</v>
       </c>
     </row>
@@ -6012,17 +6114,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS-HOPE S.H\2023\02\</v>
       </c>
-      <c r="I55" s="4"/>
+      <c r="I55" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J55" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS-HOPE S.H\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K55" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS-HOPE S.H\2023\02\</v>
-      </c>
-      <c r="K55" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M55" s="3" t="s">
@@ -6047,39 +6151,39 @@
         <v>170</v>
       </c>
       <c r="T55" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_30650940667_202302.txt</v>
       </c>
       <c r="U55" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_30650940667_202302.txt</v>
       </c>
       <c r="V55" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30650940667CR.txt</v>
+      </c>
+      <c r="W55" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30650940667CP.txt</v>
+      </c>
+      <c r="X55" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>30650940667CT.txt</v>
+      </c>
+      <c r="Y55" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>30650940667CB.txt</v>
+      </c>
+      <c r="Z55" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>30650940667 - 202302 - BUSTOS-HOPE S.H - RET.txt</v>
+      </c>
+      <c r="AA55" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>30650940667 - 202302 - BUSTOS-HOPE S.H - PER.txt</v>
+      </c>
+      <c r="AB55" s="4">
         <f t="shared" si="43"/>
-        <v>30650940667CR.txt</v>
-      </c>
-      <c r="W55" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>30650940667CP.txt</v>
-      </c>
-      <c r="X55" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>30650940667CT.txt</v>
-      </c>
-      <c r="Y55" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>30650940667CB.txt</v>
-      </c>
-      <c r="Z55" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>30650940667 - 202302 - BUSTOS-HOPE S.H - RET.txt</v>
-      </c>
-      <c r="AA55" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>30650940667 - 202302 - BUSTOS-HOPE S.H - PER.txt</v>
-      </c>
-      <c r="AB55" s="4">
-        <f t="shared" si="40"/>
         <v>55</v>
       </c>
     </row>
@@ -6107,17 +6211,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CEBAC\2023\02\</v>
       </c>
-      <c r="I56" s="4"/>
+      <c r="I56" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J56" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CEBAC\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K56" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CEBAC\2023\02\</v>
-      </c>
-      <c r="K56" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M56" s="3" t="s">
@@ -6142,39 +6248,39 @@
         <v>170</v>
       </c>
       <c r="T56" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_30672372697_202302.txt</v>
       </c>
       <c r="U56" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_30672372697_202302.txt</v>
       </c>
       <c r="V56" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30672372697CR.txt</v>
+      </c>
+      <c r="W56" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30672372697CP.txt</v>
+      </c>
+      <c r="X56" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>30672372697CT.txt</v>
+      </c>
+      <c r="Y56" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>30672372697CB.txt</v>
+      </c>
+      <c r="Z56" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>30672372697 - 202302 - CEBAC - RET.txt</v>
+      </c>
+      <c r="AA56" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>30672372697 - 202302 - CEBAC - PER.txt</v>
+      </c>
+      <c r="AB56" s="4">
         <f t="shared" si="43"/>
-        <v>30672372697CR.txt</v>
-      </c>
-      <c r="W56" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>30672372697CP.txt</v>
-      </c>
-      <c r="X56" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>30672372697CT.txt</v>
-      </c>
-      <c r="Y56" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>30672372697CB.txt</v>
-      </c>
-      <c r="Z56" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>30672372697 - 202302 - CEBAC - RET.txt</v>
-      </c>
-      <c r="AA56" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>30672372697 - 202302 - CEBAC - PER.txt</v>
-      </c>
-      <c r="AB56" s="4">
-        <f t="shared" si="40"/>
         <v>56</v>
       </c>
     </row>
@@ -6202,17 +6308,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\AITA S.A.\2023\02\</v>
       </c>
-      <c r="I57" s="4"/>
+      <c r="I57" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J57" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\AITA S.A.\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K57" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\AITA S.A.\2023\02\</v>
-      </c>
-      <c r="K57" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M57" s="3" t="s">
@@ -6237,39 +6345,39 @@
         <v>170</v>
       </c>
       <c r="T57" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_30709419567_202302.txt</v>
       </c>
       <c r="U57" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_30709419567_202302.txt</v>
       </c>
       <c r="V57" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30709419567CR.txt</v>
+      </c>
+      <c r="W57" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30709419567CP.txt</v>
+      </c>
+      <c r="X57" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>30709419567CT.txt</v>
+      </c>
+      <c r="Y57" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>30709419567CB.txt</v>
+      </c>
+      <c r="Z57" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>30709419567 - 202302 - AITA S.A. - RET.txt</v>
+      </c>
+      <c r="AA57" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>30709419567 - 202302 - AITA S.A. - PER.txt</v>
+      </c>
+      <c r="AB57" s="4">
         <f t="shared" si="43"/>
-        <v>30709419567CR.txt</v>
-      </c>
-      <c r="W57" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>30709419567CP.txt</v>
-      </c>
-      <c r="X57" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>30709419567CT.txt</v>
-      </c>
-      <c r="Y57" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>30709419567CB.txt</v>
-      </c>
-      <c r="Z57" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>30709419567 - 202302 - AITA S.A. - RET.txt</v>
-      </c>
-      <c r="AA57" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>30709419567 - 202302 - AITA S.A. - PER.txt</v>
-      </c>
-      <c r="AB57" s="4">
-        <f t="shared" si="40"/>
         <v>57</v>
       </c>
     </row>
@@ -6297,17 +6405,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. LARZABAL\2023\02\</v>
       </c>
-      <c r="I58" s="4"/>
+      <c r="I58" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J58" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\COND. LARZABAL\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K58" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. LARZABAL\2023\02\</v>
-      </c>
-      <c r="K58" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M58" s="3" t="s">
@@ -6332,39 +6442,39 @@
         <v>170</v>
       </c>
       <c r="T58" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_30712026797_202302.txt</v>
       </c>
       <c r="U58" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_30712026797_202302.txt</v>
       </c>
       <c r="V58" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30712026797CR.txt</v>
+      </c>
+      <c r="W58" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30712026797CP.txt</v>
+      </c>
+      <c r="X58" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>30712026797CT.txt</v>
+      </c>
+      <c r="Y58" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>30712026797CB.txt</v>
+      </c>
+      <c r="Z58" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>30712026797 - 202302 - COND. LARZABAL - RET.txt</v>
+      </c>
+      <c r="AA58" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>30712026797 - 202302 - COND. LARZABAL - PER.txt</v>
+      </c>
+      <c r="AB58" s="4">
         <f t="shared" si="43"/>
-        <v>30712026797CR.txt</v>
-      </c>
-      <c r="W58" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>30712026797CP.txt</v>
-      </c>
-      <c r="X58" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>30712026797CT.txt</v>
-      </c>
-      <c r="Y58" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>30712026797CB.txt</v>
-      </c>
-      <c r="Z58" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>30712026797 - 202302 - COND. LARZABAL - RET.txt</v>
-      </c>
-      <c r="AA58" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>30712026797 - 202302 - COND. LARZABAL - PER.txt</v>
-      </c>
-      <c r="AB58" s="4">
-        <f t="shared" si="40"/>
         <v>58</v>
       </c>
     </row>
@@ -6393,17 +6503,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA CARLOS\2023\02\</v>
       </c>
-      <c r="I59" s="4"/>
+      <c r="I59" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J59" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CASTRO OLIVERA CARLOS\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K59" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA CARLOS\2023\02\</v>
-      </c>
-      <c r="K59" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M59" s="3" t="s">
@@ -6428,39 +6540,39 @@
         <v>170</v>
       </c>
       <c r="T59" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_20082750488_202302.txt</v>
       </c>
       <c r="U59" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_20082750488_202302.txt</v>
       </c>
       <c r="V59" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>20082750488CR.txt</v>
+      </c>
+      <c r="W59" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>20082750488CP.txt</v>
+      </c>
+      <c r="X59" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>20082750488CT.txt</v>
+      </c>
+      <c r="Y59" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>20082750488CB.txt</v>
+      </c>
+      <c r="Z59" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - RET.txt</v>
+      </c>
+      <c r="AA59" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - PER.txt</v>
+      </c>
+      <c r="AB59" s="4">
         <f t="shared" si="43"/>
-        <v>20082750488CR.txt</v>
-      </c>
-      <c r="W59" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>20082750488CP.txt</v>
-      </c>
-      <c r="X59" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>20082750488CT.txt</v>
-      </c>
-      <c r="Y59" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>20082750488CB.txt</v>
-      </c>
-      <c r="Z59" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - RET.txt</v>
-      </c>
-      <c r="AA59" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - PER.txt</v>
-      </c>
-      <c r="AB59" s="4">
-        <f t="shared" si="40"/>
         <v>59</v>
       </c>
     </row>
@@ -6489,17 +6601,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA DIEGO\2023\02\</v>
       </c>
-      <c r="I60" s="4"/>
+      <c r="I60" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J60" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\URRUTIA DIEGO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K60" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA DIEGO\2023\02\</v>
-      </c>
-      <c r="K60" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M60" s="3" t="s">
@@ -6524,39 +6638,39 @@
         <v>170</v>
       </c>
       <c r="T60" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_20230966738_202302.txt</v>
       </c>
       <c r="U60" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_20230966738_202302.txt</v>
       </c>
       <c r="V60" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>20230966738CR.txt</v>
+      </c>
+      <c r="W60" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>20230966738CP.txt</v>
+      </c>
+      <c r="X60" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>20230966738CT.txt</v>
+      </c>
+      <c r="Y60" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>20230966738CB.txt</v>
+      </c>
+      <c r="Z60" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>20230966738 - 202302 - URRUTIA DIEGO - RET.txt</v>
+      </c>
+      <c r="AA60" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>20230966738 - 202302 - URRUTIA DIEGO - PER.txt</v>
+      </c>
+      <c r="AB60" s="4">
         <f t="shared" si="43"/>
-        <v>20230966738CR.txt</v>
-      </c>
-      <c r="W60" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>20230966738CP.txt</v>
-      </c>
-      <c r="X60" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>20230966738CT.txt</v>
-      </c>
-      <c r="Y60" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>20230966738CB.txt</v>
-      </c>
-      <c r="Z60" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>20230966738 - 202302 - URRUTIA DIEGO - RET.txt</v>
-      </c>
-      <c r="AA60" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>20230966738 - 202302 - URRUTIA DIEGO - PER.txt</v>
-      </c>
-      <c r="AB60" s="4">
-        <f t="shared" si="40"/>
         <v>60</v>
       </c>
     </row>
@@ -6584,17 +6698,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA GONZALO\2023\02\</v>
       </c>
-      <c r="I61" s="4"/>
+      <c r="I61" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J61" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CASTRO OLIVERA GONZALO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K61" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA GONZALO\2023\02\</v>
-      </c>
-      <c r="K61" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M61" s="3" t="s">
@@ -6619,39 +6735,39 @@
         <v>170</v>
       </c>
       <c r="T61" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_20303980378_202302.txt</v>
       </c>
       <c r="U61" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_20303980378_202302.txt</v>
       </c>
       <c r="V61" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>20303980378CR.txt</v>
+      </c>
+      <c r="W61" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>20303980378CP.txt</v>
+      </c>
+      <c r="X61" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>20303980378CT.txt</v>
+      </c>
+      <c r="Y61" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>20303980378CB.txt</v>
+      </c>
+      <c r="Z61" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - RET.txt</v>
+      </c>
+      <c r="AA61" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - PER.txt</v>
+      </c>
+      <c r="AB61" s="4">
         <f t="shared" si="43"/>
-        <v>20303980378CR.txt</v>
-      </c>
-      <c r="W61" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>20303980378CP.txt</v>
-      </c>
-      <c r="X61" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>20303980378CT.txt</v>
-      </c>
-      <c r="Y61" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>20303980378CB.txt</v>
-      </c>
-      <c r="Z61" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - RET.txt</v>
-      </c>
-      <c r="AA61" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - PER.txt</v>
-      </c>
-      <c r="AB61" s="4">
-        <f t="shared" si="40"/>
         <v>61</v>
       </c>
     </row>
@@ -6679,17 +6795,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\MARTIN ADRIANA\2023\02\</v>
       </c>
-      <c r="I62" s="4"/>
+      <c r="I62" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J62" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\MARTIN ADRIANA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K62" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\MARTIN ADRIANA\2023\02\</v>
-      </c>
-      <c r="K62" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M62" s="3" t="s">
@@ -6714,39 +6832,39 @@
         <v>170</v>
       </c>
       <c r="T62" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_27163651918_202302.txt</v>
       </c>
       <c r="U62" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_27163651918_202302.txt</v>
       </c>
       <c r="V62" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>27163651918CR.txt</v>
+      </c>
+      <c r="W62" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>27163651918CP.txt</v>
+      </c>
+      <c r="X62" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>27163651918CT.txt</v>
+      </c>
+      <c r="Y62" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>27163651918CB.txt</v>
+      </c>
+      <c r="Z62" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>27163651918 - 202302 - MARTIN ADRIANA - RET.txt</v>
+      </c>
+      <c r="AA62" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>27163651918 - 202302 - MARTIN ADRIANA - PER.txt</v>
+      </c>
+      <c r="AB62" s="4">
         <f t="shared" si="43"/>
-        <v>27163651918CR.txt</v>
-      </c>
-      <c r="W62" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>27163651918CP.txt</v>
-      </c>
-      <c r="X62" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>27163651918CT.txt</v>
-      </c>
-      <c r="Y62" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>27163651918CB.txt</v>
-      </c>
-      <c r="Z62" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>27163651918 - 202302 - MARTIN ADRIANA - RET.txt</v>
-      </c>
-      <c r="AA62" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>27163651918 - 202302 - MARTIN ADRIANA - PER.txt</v>
-      </c>
-      <c r="AB62" s="4">
-        <f t="shared" si="40"/>
         <v>62</v>
       </c>
     </row>
@@ -6774,17 +6892,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SPAGNOLI SUSANA\2023\02\</v>
       </c>
-      <c r="I63" s="4"/>
+      <c r="I63" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J63" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SPAGNOLI SUSANA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K63" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SPAGNOLI SUSANA\2023\02\</v>
-      </c>
-      <c r="K63" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M63" s="3" t="s">
@@ -6809,39 +6929,39 @@
         <v>170</v>
       </c>
       <c r="T63" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_27201932268_202302.txt</v>
       </c>
       <c r="U63" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_27201932268_202302.txt</v>
       </c>
       <c r="V63" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>27201932268CR.txt</v>
+      </c>
+      <c r="W63" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>27201932268CP.txt</v>
+      </c>
+      <c r="X63" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>27201932268CT.txt</v>
+      </c>
+      <c r="Y63" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>27201932268CB.txt</v>
+      </c>
+      <c r="Z63" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>27201932268 - 202302 - SPAGNOLI SUSANA - RET.txt</v>
+      </c>
+      <c r="AA63" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>27201932268 - 202302 - SPAGNOLI SUSANA - PER.txt</v>
+      </c>
+      <c r="AB63" s="4">
         <f t="shared" si="43"/>
-        <v>27201932268CR.txt</v>
-      </c>
-      <c r="W63" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>27201932268CP.txt</v>
-      </c>
-      <c r="X63" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>27201932268CT.txt</v>
-      </c>
-      <c r="Y63" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>27201932268CB.txt</v>
-      </c>
-      <c r="Z63" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>27201932268 - 202302 - SPAGNOLI SUSANA - RET.txt</v>
-      </c>
-      <c r="AA63" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>27201932268 - 202302 - SPAGNOLI SUSANA - PER.txt</v>
-      </c>
-      <c r="AB63" s="4">
-        <f t="shared" si="40"/>
         <v>63</v>
       </c>
     </row>
@@ -6869,17 +6989,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FORESTAL SA\2023\02\</v>
       </c>
-      <c r="I64" s="4"/>
+      <c r="I64" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J64" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FORESTAL SA\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K64" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FORESTAL SA\2023\02\</v>
-      </c>
-      <c r="K64" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M64" s="3" t="s">
@@ -6904,39 +7026,39 @@
         <v>170</v>
       </c>
       <c r="T64" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_30701299538_202302.txt</v>
       </c>
       <c r="U64" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_30701299538_202302.txt</v>
       </c>
       <c r="V64" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30701299538CR.txt</v>
+      </c>
+      <c r="W64" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30701299538CP.txt</v>
+      </c>
+      <c r="X64" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>30701299538CT.txt</v>
+      </c>
+      <c r="Y64" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>30701299538CB.txt</v>
+      </c>
+      <c r="Z64" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>30701299538 - 202302 - FORESTAL SA - RET.txt</v>
+      </c>
+      <c r="AA64" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>30701299538 - 202302 - FORESTAL SA - PER.txt</v>
+      </c>
+      <c r="AB64" s="4">
         <f t="shared" si="43"/>
-        <v>30701299538CR.txt</v>
-      </c>
-      <c r="W64" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>30701299538CP.txt</v>
-      </c>
-      <c r="X64" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>30701299538CT.txt</v>
-      </c>
-      <c r="Y64" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>30701299538CB.txt</v>
-      </c>
-      <c r="Z64" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>30701299538 - 202302 - FORESTAL SA - RET.txt</v>
-      </c>
-      <c r="AA64" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>30701299538 - 202302 - FORESTAL SA - PER.txt</v>
-      </c>
-      <c r="AB64" s="4">
-        <f t="shared" si="40"/>
         <v>64</v>
       </c>
     </row>
@@ -6964,17 +7086,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FIDEIC. PDAS INMOB\2023\02\</v>
       </c>
-      <c r="I65" s="4"/>
+      <c r="I65" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J65" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FIDEIC. PDAS INMOB\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K65" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FIDEIC. PDAS INMOB\2023\02\</v>
-      </c>
-      <c r="K65" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M65" s="3" t="s">
@@ -6999,45 +7123,45 @@
         <v>170</v>
       </c>
       <c r="T65" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_30708626348_202302.txt</v>
       </c>
       <c r="U65" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_30708626348_202302.txt</v>
       </c>
       <c r="V65" s="3" t="str">
+        <f t="shared" si="47"/>
+        <v>30708626348CR.txt</v>
+      </c>
+      <c r="W65" s="3" t="str">
+        <f t="shared" si="48"/>
+        <v>30708626348CP.txt</v>
+      </c>
+      <c r="X65" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>30708626348CT.txt</v>
+      </c>
+      <c r="Y65" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>30708626348CB.txt</v>
+      </c>
+      <c r="Z65" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - RET.txt</v>
+      </c>
+      <c r="AA65" s="3" t="str">
+        <f t="shared" si="52"/>
+        <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - PER.txt</v>
+      </c>
+      <c r="AB65" s="4">
         <f t="shared" si="43"/>
-        <v>30708626348CR.txt</v>
-      </c>
-      <c r="W65" s="3" t="str">
-        <f t="shared" si="44"/>
-        <v>30708626348CP.txt</v>
-      </c>
-      <c r="X65" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>30708626348CT.txt</v>
-      </c>
-      <c r="Y65" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>30708626348CB.txt</v>
-      </c>
-      <c r="Z65" s="3" t="str">
-        <f t="shared" si="47"/>
-        <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - RET.txt</v>
-      </c>
-      <c r="AA65" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - PER.txt</v>
-      </c>
-      <c r="AB65" s="4">
-        <f t="shared" si="40"/>
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A75" si="49">RIGHT(D66,1)</f>
+        <f t="shared" ref="A66:A75" si="53">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
       <c r="B66" t="s">
@@ -7059,17 +7183,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE RICARDO\2023\02\</v>
       </c>
-      <c r="I66" s="4"/>
+      <c r="I66" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J66" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\HOPE RICARDO\Resultado de Imporación SOS\2023-02\</v>
+      </c>
+      <c r="K66" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE RICARDO\2023\02\</v>
-      </c>
-      <c r="K66" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>202302</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f t="shared" ref="L66:L75" si="50">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
+        <f t="shared" ref="L66:L75" si="54">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M66" s="3" t="s">
@@ -7094,45 +7220,45 @@
         <v>170</v>
       </c>
       <c r="T66" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_20149466739_202302.txt</v>
       </c>
       <c r="U66" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_20149466739_202302.txt</v>
       </c>
       <c r="V66" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>20149466739CR.txt</v>
       </c>
       <c r="W66" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>20149466739CP.txt</v>
       </c>
       <c r="X66" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>20149466739CT.txt</v>
       </c>
       <c r="Y66" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>20149466739CB.txt</v>
       </c>
       <c r="Z66" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>20149466739 - 202302 - HOPE RICARDO - RET.txt</v>
       </c>
       <c r="AA66" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>20149466739 - 202302 - HOPE RICARDO - PER.txt</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" ref="AB66:AB75" si="51">ROW(A66)</f>
+        <f t="shared" ref="AB66:AB75" si="55">ROW(A66)</f>
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="B67" t="s">
@@ -7151,20 +7277,22 @@
         <v>142</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H75" si="52">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
+        <f t="shared" ref="H67:H75" si="56">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
       </c>
-      <c r="I67" s="4"/>
+      <c r="I67" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J67" s="4" t="str">
-        <f t="shared" ref="J67:J75" si="53">H67</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BEITIA CRISPIN\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f t="shared" ref="K67:K75" si="54">TEXT(E67,"AAAAMM")</f>
+        <f t="shared" ref="K67:K75" si="57">TEXT(E67,"AAAAMM")</f>
         <v>202302</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M67" s="3" t="s">
@@ -7189,45 +7317,45 @@
         <v>170</v>
       </c>
       <c r="T67" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_20175255819_202302.txt</v>
       </c>
       <c r="U67" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_20175255819_202302.txt</v>
       </c>
       <c r="V67" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>20175255819CR.txt</v>
       </c>
       <c r="W67" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>20175255819CP.txt</v>
       </c>
       <c r="X67" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>20175255819CT.txt</v>
       </c>
       <c r="Y67" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>20175255819CB.txt</v>
       </c>
       <c r="Z67" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>20175255819 - 202302 - BEITIA CRISPIN - RET.txt</v>
       </c>
       <c r="AA67" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>20175255819 - 202302 - BEITIA CRISPIN - PER.txt</v>
       </c>
       <c r="AB67" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="B68" t="s">
@@ -7246,20 +7374,22 @@
         <v>142</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
       </c>
-      <c r="I68" s="4"/>
+      <c r="I68" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J68" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS GONZALO\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K68" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>202302</v>
+      </c>
+      <c r="L68" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>202302</v>
-      </c>
-      <c r="L68" s="3" t="str">
-        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M68" s="3" t="s">
@@ -7284,45 +7414,45 @@
         <v>170</v>
       </c>
       <c r="T68" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_20246008109_202302.txt</v>
       </c>
       <c r="U68" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_20246008109_202302.txt</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>20246008109CR.txt</v>
       </c>
       <c r="W68" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>20246008109CP.txt</v>
       </c>
       <c r="X68" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>20246008109CT.txt</v>
       </c>
       <c r="Y68" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>20246008109CB.txt</v>
       </c>
       <c r="Z68" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>20246008109 - 202302 - BUSTOS GONZALO - RET.txt</v>
       </c>
       <c r="AA68" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>20246008109 - 202302 - BUSTOS GONZALO - PER.txt</v>
       </c>
       <c r="AB68" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="B69" t="s">
@@ -7342,20 +7472,22 @@
         <v>142</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
       </c>
-      <c r="I69" s="4"/>
+      <c r="I69" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J69" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\LINDSTROM PLINIO\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K69" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>202302</v>
+      </c>
+      <c r="L69" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>202302</v>
-      </c>
-      <c r="L69" s="3" t="str">
-        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M69" s="3" t="s">
@@ -7380,45 +7512,45 @@
         <v>170</v>
       </c>
       <c r="T69" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_23120538209_202302.txt</v>
       </c>
       <c r="U69" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_23120538209_202302.txt</v>
       </c>
       <c r="V69" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>23120538209CR.txt</v>
       </c>
       <c r="W69" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>23120538209CP.txt</v>
       </c>
       <c r="X69" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>23120538209CT.txt</v>
       </c>
       <c r="Y69" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>23120538209CB.txt</v>
       </c>
       <c r="Z69" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>23120538209 - 202302 - LINDSTROM PLINIO - RET.txt</v>
       </c>
       <c r="AA69" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>23120538209 - 202302 - LINDSTROM PLINIO - PER.txt</v>
       </c>
       <c r="AB69" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="B70" t="s">
@@ -7437,20 +7569,22 @@
         <v>142</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
       </c>
-      <c r="I70" s="4"/>
+      <c r="I70" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J70" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SOTO GERONIMO\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K70" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>202302</v>
+      </c>
+      <c r="L70" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>202302</v>
-      </c>
-      <c r="L70" s="3" t="str">
-        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M70" s="3" t="s">
@@ -7475,45 +7609,45 @@
         <v>170</v>
       </c>
       <c r="T70" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_23242946669_202302.txt</v>
       </c>
       <c r="U70" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_23242946669_202302.txt</v>
       </c>
       <c r="V70" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>23242946669CR.txt</v>
       </c>
       <c r="W70" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>23242946669CP.txt</v>
       </c>
       <c r="X70" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>23242946669CT.txt</v>
       </c>
       <c r="Y70" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>23242946669CB.txt</v>
       </c>
       <c r="Z70" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>23242946669 - 202302 - SOTO GERONIMO - RET.txt</v>
       </c>
       <c r="AA70" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>23242946669 - 202302 - SOTO GERONIMO - PER.txt</v>
       </c>
       <c r="AB70" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="B71" t="s">
@@ -7532,20 +7666,22 @@
         <v>142</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
       </c>
-      <c r="I71" s="4"/>
+      <c r="I71" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J71" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\LIONETO CAROLINA\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K71" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>202302</v>
+      </c>
+      <c r="L71" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>202302</v>
-      </c>
-      <c r="L71" s="3" t="str">
-        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M71" s="3" t="s">
@@ -7570,45 +7706,45 @@
         <v>170</v>
       </c>
       <c r="T71" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_27173878309_202302.txt</v>
       </c>
       <c r="U71" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_27173878309_202302.txt</v>
       </c>
       <c r="V71" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>27173878309CR.txt</v>
       </c>
       <c r="W71" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>27173878309CP.txt</v>
       </c>
       <c r="X71" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>27173878309CT.txt</v>
       </c>
       <c r="Y71" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>27173878309CB.txt</v>
       </c>
       <c r="Z71" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>27173878309 - 202302 - LIONETO CAROLINA - RET.txt</v>
       </c>
       <c r="AA71" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>27173878309 - 202302 - LIONETO CAROLINA - PER.txt</v>
       </c>
       <c r="AB71" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="B72" t="s">
@@ -7627,20 +7763,22 @@
         <v>142</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
       </c>
-      <c r="I72" s="4"/>
+      <c r="I72" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J72" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\COND. INVERNADA\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K72" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>202302</v>
+      </c>
+      <c r="L72" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>202302</v>
-      </c>
-      <c r="L72" s="3" t="str">
-        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M72" s="3" t="s">
@@ -7665,45 +7803,45 @@
         <v>170</v>
       </c>
       <c r="T72" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_30715085409_202302.txt</v>
       </c>
       <c r="U72" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_30715085409_202302.txt</v>
       </c>
       <c r="V72" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>30715085409CR.txt</v>
       </c>
       <c r="W72" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>30715085409CP.txt</v>
       </c>
       <c r="X72" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>30715085409CT.txt</v>
       </c>
       <c r="Y72" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>30715085409CB.txt</v>
       </c>
       <c r="Z72" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>30715085409 - 202302 - COND. INVERNADA - RET.txt</v>
       </c>
       <c r="AA72" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>30715085409 - 202302 - COND. INVERNADA - PER.txt</v>
       </c>
       <c r="AB72" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="B73" t="s">
@@ -7722,20 +7860,22 @@
         <v>142</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
       </c>
-      <c r="I73" s="4"/>
+      <c r="I73" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J73" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FAX SRL\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K73" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>202302</v>
+      </c>
+      <c r="L73" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>202302</v>
-      </c>
-      <c r="L73" s="3" t="str">
-        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M73" s="3" t="s">
@@ -7760,45 +7900,45 @@
         <v>170</v>
       </c>
       <c r="T73" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_33653520439_202302.txt</v>
       </c>
       <c r="U73" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_33653520439_202302.txt</v>
       </c>
       <c r="V73" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>33653520439CR.txt</v>
       </c>
       <c r="W73" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>33653520439CP.txt</v>
       </c>
       <c r="X73" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>33653520439CT.txt</v>
       </c>
       <c r="Y73" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>33653520439CB.txt</v>
       </c>
       <c r="Z73" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>33653520439 - 202302 - FAX SRL - RET.txt</v>
       </c>
       <c r="AA73" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>33653520439 - 202302 - FAX SRL - PER.txt</v>
       </c>
       <c r="AB73" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="B74" t="s">
@@ -7817,20 +7957,22 @@
         <v>142</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
       </c>
-      <c r="I74" s="4"/>
+      <c r="I74" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J74" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\KM 0 SA\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K74" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>202302</v>
+      </c>
+      <c r="L74" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>202302</v>
-      </c>
-      <c r="L74" s="3" t="str">
-        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M74" s="3" t="s">
@@ -7855,45 +7997,45 @@
         <v>170</v>
       </c>
       <c r="T74" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_33712370829_202302.txt</v>
       </c>
       <c r="U74" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_33712370829_202302.txt</v>
       </c>
       <c r="V74" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>33712370829CR.txt</v>
       </c>
       <c r="W74" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>33712370829CP.txt</v>
       </c>
       <c r="X74" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>33712370829CT.txt</v>
       </c>
       <c r="Y74" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>33712370829CB.txt</v>
       </c>
       <c r="Z74" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>33712370829 - 202302 - KM 0 SA - RET.txt</v>
       </c>
       <c r="AA74" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>33712370829 - 202302 - KM 0 SA - PER.txt</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="B75" t="s">
@@ -7912,20 +8054,22 @@
         <v>142</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
       </c>
-      <c r="I75" s="4"/>
+      <c r="I75" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J75" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
+        <f t="shared" si="44"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\INMUEBLES SRL\Resultado de Imporación SOS\2023-02\</v>
       </c>
       <c r="K75" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>202302</v>
+      </c>
+      <c r="L75" s="3" t="str">
         <f t="shared" si="54"/>
-        <v>202302</v>
-      </c>
-      <c r="L75" s="3" t="str">
-        <f t="shared" si="50"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M75" s="3" t="s">
@@ -7950,39 +8094,39 @@
         <v>170</v>
       </c>
       <c r="T75" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>retencionesExport_33712529909_202302.txt</v>
       </c>
       <c r="U75" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>retencionesExport_33712529909_202302.txt</v>
       </c>
       <c r="V75" s="3" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>33712529909CR.txt</v>
       </c>
       <c r="W75" s="3" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>33712529909CP.txt</v>
       </c>
       <c r="X75" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>33712529909CT.txt</v>
       </c>
       <c r="Y75" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>33712529909CB.txt</v>
       </c>
       <c r="Z75" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>33712529909 - 202302 - INMUEBLES SRL - RET.txt</v>
       </c>
       <c r="AA75" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>33712529909 - 202302 - INMUEBLES SRL - PER.txt</v>
       </c>
       <c r="AB75" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>75</v>
       </c>
     </row>

--- a/Importación RETPER SOS.xlsx
+++ b/Importación RETPER SOS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72BE39D-D402-4D84-B797-B986D5CEB31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE29B3-C28A-425F-B357-A06556E664C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="172">
   <si>
     <t>Nro</t>
   </si>
@@ -614,13 +614,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,9 +638,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -679,9 +678,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,26 +713,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -766,26 +748,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -963,8 +928,8 @@
   <dimension ref="A1:AB75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3:J15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,6 +938,7 @@
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="27" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1087,19 +1053,19 @@
         <f>G2&amp;"\"&amp;B2&amp;"\"&amp;YEAR(E2)&amp;"\"&amp;TEXT(MONTH(E2),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CRIVELLO LUIS\2023\02\</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>171</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f>I2&amp;"\"&amp;B2&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E2,"AAAA-mm")&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CRIVELLO LUIS\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K2" s="4" t="str">
-        <f>TEXT(E2,"AAAAMM")</f>
+        <f>I2&amp;"\"&amp;B2&amp;"\Resultado de Imporación SOS\"&amp;K2&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CRIVELLO LUIS\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K2" s="3" t="str">
+        <f t="shared" ref="K2:K33" si="1">YEAR(E2)&amp;TEXT(MONTH(E2),"00")</f>
         <v>202302</v>
       </c>
       <c r="L2" s="3" t="str">
-        <f t="shared" ref="L2:L33" si="1">UPPER(LEFT(TEXT(E2,"MMMM AAAA"),1))&amp;MID(TEXT(E2,"MMMM AAAA"),2,30)</f>
+        <f>PROPER(TEXT(E2,"mmmm"))&amp;" "&amp;YEAR(E2)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -1124,11 +1090,11 @@
         <v>170</v>
       </c>
       <c r="T2" s="3" t="str">
-        <f>"retencionesExport_"&amp;SUBSTITUTE(D2,"-","")&amp;"_"&amp;TEXT(E2,"AAAAMM")&amp;".txt"</f>
+        <f>"retencionesExport_"&amp;SUBSTITUTE(D2,"-","")&amp;"_"&amp;K2&amp;".txt"</f>
         <v>retencionesExport_20168291680_202302.txt</v>
       </c>
       <c r="U2" s="3" t="str">
-        <f>"retencionesExport_"&amp;SUBSTITUTE(D2,"-","")&amp;"_"&amp;TEXT(E2,"AAAAMM")&amp;".txt"</f>
+        <f>"retencionesExport_"&amp;SUBSTITUTE(D2,"-","")&amp;"_"&amp;K2&amp;".txt"</f>
         <v>retencionesExport_20168291680_202302.txt</v>
       </c>
       <c r="V2" s="3" t="str">
@@ -1185,19 +1151,19 @@
         <f t="shared" ref="H3:H66" si="3">G3&amp;"\"&amp;B3&amp;"\"&amp;YEAR(E3)&amp;"\"&amp;TEXT(MONTH(E3),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA ANGEL\2023\02\</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>171</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f>I3&amp;"\"&amp;B3&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E3,"AAAA-mm")&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\VARENIZA ANGEL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K66" si="4">TEXT(E3,"AAAAMM")</f>
+        <f t="shared" ref="J3:J66" si="4">I3&amp;"\"&amp;B3&amp;"\Resultado de Imporación SOS\"&amp;K3&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\VARENIZA ANGEL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f>YEAR(E3)&amp;TEXT(MONTH(E3),"00")</f>
         <v>202302</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L3:L66" si="5">PROPER(TEXT(E3,"mmmm"))&amp;" "&amp;YEAR(E3)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1222,35 +1188,35 @@
         <v>170</v>
       </c>
       <c r="T3" s="3" t="str">
-        <f>"retencionesExport_"&amp;SUBSTITUTE(D3,"-","")&amp;"_"&amp;TEXT(E3,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="T3:T66" si="6">"retencionesExport_"&amp;SUBSTITUTE(D3,"-","")&amp;"_"&amp;K3&amp;".txt"</f>
         <v>retencionesExport_20315731330_202302.txt</v>
       </c>
       <c r="U3" s="3" t="str">
-        <f t="shared" ref="U3" si="5">"retencionesExport_"&amp;SUBSTITUTE(D3,"-","")&amp;"_"&amp;TEXT(E3,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" ref="U3:U66" si="7">"retencionesExport_"&amp;SUBSTITUTE(D3,"-","")&amp;"_"&amp;K3&amp;".txt"</f>
         <v>retencionesExport_20315731330_202302.txt</v>
       </c>
       <c r="V3" s="3" t="str">
-        <f t="shared" ref="V3" si="6">SUBSTITUTE(D3,"-","")&amp;"CR.txt"</f>
+        <f t="shared" ref="V3" si="8">SUBSTITUTE(D3,"-","")&amp;"CR.txt"</f>
         <v>20315731330CR.txt</v>
       </c>
       <c r="W3" s="3" t="str">
-        <f t="shared" ref="W3" si="7">SUBSTITUTE(D3,"-","")&amp;"CP.txt"</f>
+        <f t="shared" ref="W3" si="9">SUBSTITUTE(D3,"-","")&amp;"CP.txt"</f>
         <v>20315731330CP.txt</v>
       </c>
       <c r="X3" s="3" t="str">
-        <f t="shared" ref="X3" si="8">SUBSTITUTE(D3,"-","")&amp;"CT.txt"</f>
+        <f t="shared" ref="X3" si="10">SUBSTITUTE(D3,"-","")&amp;"CT.txt"</f>
         <v>20315731330CT.txt</v>
       </c>
       <c r="Y3" s="3" t="str">
-        <f t="shared" ref="Y3" si="9">SUBSTITUTE(D3,"-","")&amp;"CB.txt"</f>
+        <f t="shared" ref="Y3" si="11">SUBSTITUTE(D3,"-","")&amp;"CB.txt"</f>
         <v>20315731330CB.txt</v>
       </c>
       <c r="Z3" s="3" t="str">
-        <f t="shared" ref="Z3" si="10">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - RET.txt")</f>
+        <f t="shared" ref="Z3" si="12">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - RET.txt")</f>
         <v>20315731330 - 202302 - VARENIZA ANGEL - RET.txt</v>
       </c>
       <c r="AA3" s="3" t="str">
-        <f t="shared" ref="AA3" si="11">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - PER.txt")</f>
+        <f t="shared" ref="AA3" si="13">CONCATENATE(SUBSTITUTE(D3,"-","")," - ",K3," - ",B3," - PER.txt")</f>
         <v>20315731330 - 202302 - VARENIZA ANGEL - PER.txt</v>
       </c>
       <c r="AB3" s="4">
@@ -1287,38 +1253,70 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="str">
-        <f t="shared" ref="J3:J66" si="12">H4</f>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA TOMAS\2022\07\</v>
-      </c>
-      <c r="K4" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>\BEITIA TOMAS\Resultado de Imporación SOS\202207\</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f t="shared" ref="K4:K67" si="14">YEAR(E4)&amp;TEXT(MONTH(E4),"00")</f>
         <v>202207</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Julio 2022</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="str">
-        <f t="shared" ref="N4:N52" si="13">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
-        <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
-      </c>
-      <c r="O4" s="3" t="str">
-        <f t="shared" ref="O4:O52" si="14">CONCATENATE(TEXT(A4,"0")," - ",SUBSTITUTE(D4,"-","")," - ",TEXT(L4,"AAAAMM")," - ",B4)</f>
-        <v>0 - 20364074310 - 202207 - BEITIA TOMAS</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T4" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_20364074310_202207.txt</v>
+      </c>
+      <c r="U4" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_20364074310_202207.txt</v>
+      </c>
+      <c r="V4" s="3" t="str">
+        <f t="shared" ref="V4:V67" si="15">SUBSTITUTE(D4,"-","")&amp;"CR.txt"</f>
+        <v>20364074310CR.txt</v>
+      </c>
+      <c r="W4" s="3" t="str">
+        <f t="shared" ref="W4:W67" si="16">SUBSTITUTE(D4,"-","")&amp;"CP.txt"</f>
+        <v>20364074310CP.txt</v>
+      </c>
+      <c r="X4" s="3" t="str">
+        <f t="shared" ref="X4:X67" si="17">SUBSTITUTE(D4,"-","")&amp;"CT.txt"</f>
+        <v>20364074310CT.txt</v>
+      </c>
+      <c r="Y4" s="3" t="str">
+        <f t="shared" ref="Y4:Y67" si="18">SUBSTITUTE(D4,"-","")&amp;"CB.txt"</f>
+        <v>20364074310CB.txt</v>
+      </c>
+      <c r="Z4" s="3" t="str">
+        <f t="shared" ref="Z4:Z67" si="19">CONCATENATE(SUBSTITUTE(D4,"-","")," - ",K4," - ",B4," - RET.txt")</f>
+        <v>20364074310 - 202207 - BEITIA TOMAS - RET.txt</v>
+      </c>
+      <c r="AA4" s="3" t="str">
+        <f t="shared" ref="AA4:AA67" si="20">CONCATENATE(SUBSTITUTE(D4,"-","")," - ",K4," - ",B4," - PER.txt")</f>
+        <v>20364074310 - 202207 - BEITIA TOMAS - PER.txt</v>
+      </c>
       <c r="AB4" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1348,19 +1346,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO TERESITA\2023\02\</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>171</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f t="shared" ref="J5:J18" si="15">I5&amp;"\"&amp;B5&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E5,"AAAA-mm")&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\SESMERO TERESITA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K5" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SESMERO TERESITA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -1385,35 +1383,35 @@
         <v>170</v>
       </c>
       <c r="T5" s="3" t="str">
-        <f t="shared" ref="T5:T18" si="16">"retencionesExport_"&amp;SUBSTITUTE(D5,"-","")&amp;"_"&amp;TEXT(E5,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27067089680_202302.txt</v>
       </c>
       <c r="U5" s="3" t="str">
-        <f t="shared" ref="U5:U18" si="17">"retencionesExport_"&amp;SUBSTITUTE(D5,"-","")&amp;"_"&amp;TEXT(E5,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27067089680_202302.txt</v>
       </c>
       <c r="V5" s="3" t="str">
-        <f t="shared" ref="V5:V18" si="18">SUBSTITUTE(D5,"-","")&amp;"CR.txt"</f>
+        <f t="shared" si="15"/>
         <v>27067089680CR.txt</v>
       </c>
       <c r="W5" s="3" t="str">
-        <f t="shared" ref="W5:W18" si="19">SUBSTITUTE(D5,"-","")&amp;"CP.txt"</f>
+        <f t="shared" si="16"/>
         <v>27067089680CP.txt</v>
       </c>
       <c r="X5" s="3" t="str">
-        <f t="shared" ref="X5:X18" si="20">SUBSTITUTE(D5,"-","")&amp;"CT.txt"</f>
+        <f t="shared" si="17"/>
         <v>27067089680CT.txt</v>
       </c>
       <c r="Y5" s="3" t="str">
-        <f t="shared" ref="Y5:Y18" si="21">SUBSTITUTE(D5,"-","")&amp;"CB.txt"</f>
+        <f t="shared" si="18"/>
         <v>27067089680CB.txt</v>
       </c>
       <c r="Z5" s="3" t="str">
-        <f t="shared" ref="Z5:Z18" si="22">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - RET.txt")</f>
+        <f t="shared" si="19"/>
         <v>27067089680 - 202302 - SESMERO TERESITA - RET.txt</v>
       </c>
       <c r="AA5" s="3" t="str">
-        <f t="shared" ref="AA5:AA18" si="23">CONCATENATE(SUBSTITUTE(D5,"-","")," - ",K5," - ",B5," - PER.txt")</f>
+        <f t="shared" si="20"/>
         <v>27067089680 - 202302 - SESMERO TERESITA - PER.txt</v>
       </c>
       <c r="AB5" s="4">
@@ -1445,19 +1443,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA MIRIAM\2023\02\</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" t="s">
         <v>171</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\URRUTIA MIRIAM\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K6" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\URRUTIA MIRIAM\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1482,35 +1480,35 @@
         <v>170</v>
       </c>
       <c r="T6" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_27116976620_202302.txt</v>
+      </c>
+      <c r="U6" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_27116976620_202302.txt</v>
+      </c>
+      <c r="V6" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27116976620CR.txt</v>
+      </c>
+      <c r="W6" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_27116976620_202302.txt</v>
-      </c>
-      <c r="U6" s="3" t="str">
+        <v>27116976620CP.txt</v>
+      </c>
+      <c r="X6" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_27116976620_202302.txt</v>
-      </c>
-      <c r="V6" s="3" t="str">
+        <v>27116976620CT.txt</v>
+      </c>
+      <c r="Y6" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>27116976620CR.txt</v>
-      </c>
-      <c r="W6" s="3" t="str">
+        <v>27116976620CB.txt</v>
+      </c>
+      <c r="Z6" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>27116976620CP.txt</v>
-      </c>
-      <c r="X6" s="3" t="str">
+        <v>27116976620 - 202302 - URRUTIA MIRIAM - RET.txt</v>
+      </c>
+      <c r="AA6" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>27116976620CT.txt</v>
-      </c>
-      <c r="Y6" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>27116976620CB.txt</v>
-      </c>
-      <c r="Z6" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>27116976620 - 202302 - URRUTIA MIRIAM - RET.txt</v>
-      </c>
-      <c r="AA6" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>27116976620 - 202302 - URRUTIA MIRIAM - PER.txt</v>
       </c>
       <c r="AB6" s="4">
@@ -1542,19 +1540,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\MEDINT SRL\2023\02\</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>171</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\MEDINT SRL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K7" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\MEDINT SRL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1579,35 +1577,35 @@
         <v>170</v>
       </c>
       <c r="T7" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_30657146850_202302.txt</v>
+      </c>
+      <c r="U7" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_30657146850_202302.txt</v>
+      </c>
+      <c r="V7" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30657146850CR.txt</v>
+      </c>
+      <c r="W7" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_30657146850_202302.txt</v>
-      </c>
-      <c r="U7" s="3" t="str">
+        <v>30657146850CP.txt</v>
+      </c>
+      <c r="X7" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_30657146850_202302.txt</v>
-      </c>
-      <c r="V7" s="3" t="str">
+        <v>30657146850CT.txt</v>
+      </c>
+      <c r="Y7" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>30657146850CR.txt</v>
-      </c>
-      <c r="W7" s="3" t="str">
+        <v>30657146850CB.txt</v>
+      </c>
+      <c r="Z7" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>30657146850CP.txt</v>
-      </c>
-      <c r="X7" s="3" t="str">
+        <v>30657146850 - 202302 - MEDINT SRL - RET.txt</v>
+      </c>
+      <c r="AA7" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>30657146850CT.txt</v>
-      </c>
-      <c r="Y7" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>30657146850CB.txt</v>
-      </c>
-      <c r="Z7" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>30657146850 - 202302 - MEDINT SRL - RET.txt</v>
-      </c>
-      <c r="AA7" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>30657146850 - 202302 - MEDINT SRL - PER.txt</v>
       </c>
       <c r="AB7" s="4">
@@ -1639,19 +1637,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARLOS ALFREDO\2023\02\</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>171</v>
       </c>
       <c r="J8" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA CARLOS ALFREDO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K8" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA CARLOS ALFREDO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1676,35 +1674,35 @@
         <v>170</v>
       </c>
       <c r="T8" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_20133762761_202302.txt</v>
+      </c>
+      <c r="U8" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_20133762761_202302.txt</v>
+      </c>
+      <c r="V8" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20133762761CR.txt</v>
+      </c>
+      <c r="W8" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_20133762761_202302.txt</v>
-      </c>
-      <c r="U8" s="3" t="str">
+        <v>20133762761CP.txt</v>
+      </c>
+      <c r="X8" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_20133762761_202302.txt</v>
-      </c>
-      <c r="V8" s="3" t="str">
+        <v>20133762761CT.txt</v>
+      </c>
+      <c r="Y8" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>20133762761CR.txt</v>
-      </c>
-      <c r="W8" s="3" t="str">
+        <v>20133762761CB.txt</v>
+      </c>
+      <c r="Z8" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>20133762761CP.txt</v>
-      </c>
-      <c r="X8" s="3" t="str">
+        <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - RET.txt</v>
+      </c>
+      <c r="AA8" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>20133762761CT.txt</v>
-      </c>
-      <c r="Y8" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>20133762761CB.txt</v>
-      </c>
-      <c r="Z8" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - RET.txt</v>
-      </c>
-      <c r="AA8" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>20133762761 - 202302 - FERREYRA CARLOS ALFREDO - PER.txt</v>
       </c>
       <c r="AB8" s="4">
@@ -1736,19 +1734,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI MARCELO\2023\02\</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>171</v>
       </c>
       <c r="J9" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\SZYCHOWSKI MARCELO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K9" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SZYCHOWSKI MARCELO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -1773,35 +1771,35 @@
         <v>170</v>
       </c>
       <c r="T9" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_20149462601_202302.txt</v>
+      </c>
+      <c r="U9" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_20149462601_202302.txt</v>
+      </c>
+      <c r="V9" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20149462601CR.txt</v>
+      </c>
+      <c r="W9" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_20149462601_202302.txt</v>
-      </c>
-      <c r="U9" s="3" t="str">
+        <v>20149462601CP.txt</v>
+      </c>
+      <c r="X9" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_20149462601_202302.txt</v>
-      </c>
-      <c r="V9" s="3" t="str">
+        <v>20149462601CT.txt</v>
+      </c>
+      <c r="Y9" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>20149462601CR.txt</v>
-      </c>
-      <c r="W9" s="3" t="str">
+        <v>20149462601CB.txt</v>
+      </c>
+      <c r="Z9" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>20149462601CP.txt</v>
-      </c>
-      <c r="X9" s="3" t="str">
+        <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - RET.txt</v>
+      </c>
+      <c r="AA9" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>20149462601CT.txt</v>
-      </c>
-      <c r="Y9" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>20149462601CB.txt</v>
-      </c>
-      <c r="Z9" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - RET.txt</v>
-      </c>
-      <c r="AA9" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>20149462601 - 202302 - SZYCHOWSKI MARCELO - PER.txt</v>
       </c>
       <c r="AB9" s="4">
@@ -1834,19 +1832,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GUSTAVO\2023\02\</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>171</v>
       </c>
       <c r="J10" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS GUSTAVO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K10" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS GUSTAVO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1871,35 +1869,35 @@
         <v>170</v>
       </c>
       <c r="T10" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_20168291281_202302.txt</v>
+      </c>
+      <c r="U10" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_20168291281_202302.txt</v>
+      </c>
+      <c r="V10" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20168291281CR.txt</v>
+      </c>
+      <c r="W10" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_20168291281_202302.txt</v>
-      </c>
-      <c r="U10" s="3" t="str">
+        <v>20168291281CP.txt</v>
+      </c>
+      <c r="X10" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_20168291281_202302.txt</v>
-      </c>
-      <c r="V10" s="3" t="str">
+        <v>20168291281CT.txt</v>
+      </c>
+      <c r="Y10" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>20168291281CR.txt</v>
-      </c>
-      <c r="W10" s="3" t="str">
+        <v>20168291281CB.txt</v>
+      </c>
+      <c r="Z10" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>20168291281CP.txt</v>
-      </c>
-      <c r="X10" s="3" t="str">
+        <v>20168291281 - 202302 - BUSTOS GUSTAVO - RET.txt</v>
+      </c>
+      <c r="AA10" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>20168291281CT.txt</v>
-      </c>
-      <c r="Y10" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>20168291281CB.txt</v>
-      </c>
-      <c r="Z10" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>20168291281 - 202302 - BUSTOS GUSTAVO - RET.txt</v>
-      </c>
-      <c r="AA10" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>20168291281 - 202302 - BUSTOS GUSTAVO - PER.txt</v>
       </c>
       <c r="AB10" s="4">
@@ -1932,19 +1930,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PEREYRA ESTEBAN\2023\02\</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" t="s">
         <v>171</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\PEREYRA ESTEBAN\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K11" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\PEREYRA ESTEBAN\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1969,35 +1967,35 @@
         <v>170</v>
       </c>
       <c r="T11" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_20172521771_202302.txt</v>
+      </c>
+      <c r="U11" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_20172521771_202302.txt</v>
+      </c>
+      <c r="V11" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20172521771CR.txt</v>
+      </c>
+      <c r="W11" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_20172521771_202302.txt</v>
-      </c>
-      <c r="U11" s="3" t="str">
+        <v>20172521771CP.txt</v>
+      </c>
+      <c r="X11" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_20172521771_202302.txt</v>
-      </c>
-      <c r="V11" s="3" t="str">
+        <v>20172521771CT.txt</v>
+      </c>
+      <c r="Y11" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>20172521771CR.txt</v>
-      </c>
-      <c r="W11" s="3" t="str">
+        <v>20172521771CB.txt</v>
+      </c>
+      <c r="Z11" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>20172521771CP.txt</v>
-      </c>
-      <c r="X11" s="3" t="str">
+        <v>20172521771 - 202302 - PEREYRA ESTEBAN - RET.txt</v>
+      </c>
+      <c r="AA11" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>20172521771CT.txt</v>
-      </c>
-      <c r="Y11" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>20172521771CB.txt</v>
-      </c>
-      <c r="Z11" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>20172521771 - 202302 - PEREYRA ESTEBAN - RET.txt</v>
-      </c>
-      <c r="AA11" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>20172521771 - 202302 - PEREYRA ESTEBAN - PER.txt</v>
       </c>
       <c r="AB11" s="4">
@@ -2029,19 +2027,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\MOLAS PATRICIA\2023\02\</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>171</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\MOLAS PATRICIA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K12" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\MOLAS PATRICIA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -2066,35 +2064,35 @@
         <v>170</v>
       </c>
       <c r="T12" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_27128520851_202302.txt</v>
+      </c>
+      <c r="U12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_27128520851_202302.txt</v>
+      </c>
+      <c r="V12" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27128520851CR.txt</v>
+      </c>
+      <c r="W12" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_27128520851_202302.txt</v>
-      </c>
-      <c r="U12" s="3" t="str">
+        <v>27128520851CP.txt</v>
+      </c>
+      <c r="X12" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_27128520851_202302.txt</v>
-      </c>
-      <c r="V12" s="3" t="str">
+        <v>27128520851CT.txt</v>
+      </c>
+      <c r="Y12" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>27128520851CR.txt</v>
-      </c>
-      <c r="W12" s="3" t="str">
+        <v>27128520851CB.txt</v>
+      </c>
+      <c r="Z12" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>27128520851CP.txt</v>
-      </c>
-      <c r="X12" s="3" t="str">
+        <v>27128520851 - 202302 - MOLAS PATRICIA - RET.txt</v>
+      </c>
+      <c r="AA12" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>27128520851CT.txt</v>
-      </c>
-      <c r="Y12" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>27128520851CB.txt</v>
-      </c>
-      <c r="Z12" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>27128520851 - 202302 - MOLAS PATRICIA - RET.txt</v>
-      </c>
-      <c r="AA12" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>27128520851 - 202302 - MOLAS PATRICIA - PER.txt</v>
       </c>
       <c r="AB12" s="4">
@@ -2126,19 +2124,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\GESAL SA\2023\02\</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>171</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\GESAL SA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K13" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\GESAL SA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -2163,35 +2161,35 @@
         <v>170</v>
       </c>
       <c r="T13" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_30710404131_202302.txt</v>
+      </c>
+      <c r="U13" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_30710404131_202302.txt</v>
+      </c>
+      <c r="V13" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30710404131CR.txt</v>
+      </c>
+      <c r="W13" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_30710404131_202302.txt</v>
-      </c>
-      <c r="U13" s="3" t="str">
+        <v>30710404131CP.txt</v>
+      </c>
+      <c r="X13" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_30710404131_202302.txt</v>
-      </c>
-      <c r="V13" s="3" t="str">
+        <v>30710404131CT.txt</v>
+      </c>
+      <c r="Y13" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>30710404131CR.txt</v>
-      </c>
-      <c r="W13" s="3" t="str">
+        <v>30710404131CB.txt</v>
+      </c>
+      <c r="Z13" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>30710404131CP.txt</v>
-      </c>
-      <c r="X13" s="3" t="str">
+        <v>30710404131 - 202302 - GESAL SA - RET.txt</v>
+      </c>
+      <c r="AA13" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>30710404131CT.txt</v>
-      </c>
-      <c r="Y13" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>30710404131CB.txt</v>
-      </c>
-      <c r="Z13" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>30710404131 - 202302 - GESAL SA - RET.txt</v>
-      </c>
-      <c r="AA13" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>30710404131 - 202302 - GESAL SA - PER.txt</v>
       </c>
       <c r="AB13" s="4">
@@ -2223,19 +2221,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONDOMINIO SAN LORENZO\2023\02\</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" t="s">
         <v>171</v>
       </c>
       <c r="J14" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CONDOMINIO SAN LORENZO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K14" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CONDOMINIO SAN LORENZO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -2260,35 +2258,35 @@
         <v>170</v>
       </c>
       <c r="T14" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_30717059111_202302.txt</v>
+      </c>
+      <c r="U14" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_30717059111_202302.txt</v>
+      </c>
+      <c r="V14" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>30717059111CR.txt</v>
+      </c>
+      <c r="W14" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_30717059111_202302.txt</v>
-      </c>
-      <c r="U14" s="3" t="str">
+        <v>30717059111CP.txt</v>
+      </c>
+      <c r="X14" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_30717059111_202302.txt</v>
-      </c>
-      <c r="V14" s="3" t="str">
+        <v>30717059111CT.txt</v>
+      </c>
+      <c r="Y14" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>30717059111CR.txt</v>
-      </c>
-      <c r="W14" s="3" t="str">
+        <v>30717059111CB.txt</v>
+      </c>
+      <c r="Z14" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>30717059111CP.txt</v>
-      </c>
-      <c r="X14" s="3" t="str">
+        <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - RET.txt</v>
+      </c>
+      <c r="AA14" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>30717059111CT.txt</v>
-      </c>
-      <c r="Y14" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>30717059111CB.txt</v>
-      </c>
-      <c r="Z14" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - RET.txt</v>
-      </c>
-      <c r="AA14" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>30717059111 - 202302 - CONDOMINIO SAN LORENZO - PER.txt</v>
       </c>
       <c r="AB14" s="4">
@@ -2320,19 +2318,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\RIERA HECTOR M\2023\02\</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>171</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\RIERA HECTOR M\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K15" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\RIERA HECTOR M\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -2357,35 +2355,35 @@
         <v>170</v>
       </c>
       <c r="T15" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_20121182832_202302.txt</v>
+      </c>
+      <c r="U15" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_20121182832_202302.txt</v>
+      </c>
+      <c r="V15" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20121182832CR.txt</v>
+      </c>
+      <c r="W15" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_20121182832_202302.txt</v>
-      </c>
-      <c r="U15" s="3" t="str">
+        <v>20121182832CP.txt</v>
+      </c>
+      <c r="X15" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_20121182832_202302.txt</v>
-      </c>
-      <c r="V15" s="3" t="str">
+        <v>20121182832CT.txt</v>
+      </c>
+      <c r="Y15" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>20121182832CR.txt</v>
-      </c>
-      <c r="W15" s="3" t="str">
+        <v>20121182832CB.txt</v>
+      </c>
+      <c r="Z15" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>20121182832CP.txt</v>
-      </c>
-      <c r="X15" s="3" t="str">
+        <v>20121182832 - 202302 - RIERA HECTOR M - RET.txt</v>
+      </c>
+      <c r="AA15" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>20121182832CT.txt</v>
-      </c>
-      <c r="Y15" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>20121182832CB.txt</v>
-      </c>
-      <c r="Z15" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>20121182832 - 202302 - RIERA HECTOR M - RET.txt</v>
-      </c>
-      <c r="AA15" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>20121182832 - 202302 - RIERA HECTOR M - PER.txt</v>
       </c>
       <c r="AB15" s="4">
@@ -2417,19 +2415,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS MARTIN\2023\02\</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="s">
         <v>171</v>
       </c>
       <c r="J16" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS MARTIN\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K16" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS MARTIN\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -2454,35 +2452,35 @@
         <v>170</v>
       </c>
       <c r="T16" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_20147130202_202302.txt</v>
+      </c>
+      <c r="U16" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_20147130202_202302.txt</v>
+      </c>
+      <c r="V16" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20147130202CR.txt</v>
+      </c>
+      <c r="W16" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_20147130202_202302.txt</v>
-      </c>
-      <c r="U16" s="3" t="str">
+        <v>20147130202CP.txt</v>
+      </c>
+      <c r="X16" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_20147130202_202302.txt</v>
-      </c>
-      <c r="V16" s="3" t="str">
+        <v>20147130202CT.txt</v>
+      </c>
+      <c r="Y16" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>20147130202CR.txt</v>
-      </c>
-      <c r="W16" s="3" t="str">
+        <v>20147130202CB.txt</v>
+      </c>
+      <c r="Z16" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>20147130202CP.txt</v>
-      </c>
-      <c r="X16" s="3" t="str">
+        <v>20147130202 - 202302 - BUSTOS MARTIN - RET.txt</v>
+      </c>
+      <c r="AA16" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>20147130202CT.txt</v>
-      </c>
-      <c r="Y16" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>20147130202CB.txt</v>
-      </c>
-      <c r="Z16" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>20147130202 - 202302 - BUSTOS MARTIN - RET.txt</v>
-      </c>
-      <c r="AA16" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>20147130202 - 202302 - BUSTOS MARTIN - PER.txt</v>
       </c>
       <c r="AB16" s="4">
@@ -2514,19 +2512,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INSAURRALDE CARLOS\2023\02\</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>171</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\INSAURRALDE CARLOS\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K17" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\INSAURRALDE CARLOS\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -2551,35 +2549,35 @@
         <v>170</v>
       </c>
       <c r="T17" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_20174123072_202302.txt</v>
+      </c>
+      <c r="U17" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_20174123072_202302.txt</v>
+      </c>
+      <c r="V17" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20174123072CR.txt</v>
+      </c>
+      <c r="W17" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_20174123072_202302.txt</v>
-      </c>
-      <c r="U17" s="3" t="str">
+        <v>20174123072CP.txt</v>
+      </c>
+      <c r="X17" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_20174123072_202302.txt</v>
-      </c>
-      <c r="V17" s="3" t="str">
+        <v>20174123072CT.txt</v>
+      </c>
+      <c r="Y17" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>20174123072CR.txt</v>
-      </c>
-      <c r="W17" s="3" t="str">
+        <v>20174123072CB.txt</v>
+      </c>
+      <c r="Z17" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>20174123072CP.txt</v>
-      </c>
-      <c r="X17" s="3" t="str">
+        <v>20174123072 - 202302 - INSAURRALDE CARLOS - RET.txt</v>
+      </c>
+      <c r="AA17" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>20174123072CT.txt</v>
-      </c>
-      <c r="Y17" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>20174123072CB.txt</v>
-      </c>
-      <c r="Z17" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>20174123072 - 202302 - INSAURRALDE CARLOS - RET.txt</v>
-      </c>
-      <c r="AA17" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>20174123072 - 202302 - INSAURRALDE CARLOS - PER.txt</v>
       </c>
       <c r="AB17" s="4">
@@ -2612,19 +2610,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA LILIANA\2023\02\</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="s">
         <v>171</v>
       </c>
       <c r="J18" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERNANDEZ SOSA LILIANA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K18" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERNANDEZ SOSA LILIANA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -2649,35 +2647,35 @@
         <v>170</v>
       </c>
       <c r="T18" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_27182653972_202302.txt</v>
+      </c>
+      <c r="U18" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_27182653972_202302.txt</v>
+      </c>
+      <c r="V18" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27182653972CR.txt</v>
+      </c>
+      <c r="W18" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>retencionesExport_27182653972_202302.txt</v>
-      </c>
-      <c r="U18" s="3" t="str">
+        <v>27182653972CP.txt</v>
+      </c>
+      <c r="X18" s="3" t="str">
         <f t="shared" si="17"/>
-        <v>retencionesExport_27182653972_202302.txt</v>
-      </c>
-      <c r="V18" s="3" t="str">
+        <v>27182653972CT.txt</v>
+      </c>
+      <c r="Y18" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>27182653972CR.txt</v>
-      </c>
-      <c r="W18" s="3" t="str">
+        <v>27182653972CB.txt</v>
+      </c>
+      <c r="Z18" s="3" t="str">
         <f t="shared" si="19"/>
-        <v>27182653972CP.txt</v>
-      </c>
-      <c r="X18" s="3" t="str">
+        <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - RET.txt</v>
+      </c>
+      <c r="AA18" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>27182653972CT.txt</v>
-      </c>
-      <c r="Y18" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>27182653972CB.txt</v>
-      </c>
-      <c r="Z18" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - RET.txt</v>
-      </c>
-      <c r="AA18" s="3" t="str">
-        <f t="shared" si="23"/>
         <v>27182653972 - 202302 - FERNANDEZ SOSA LILIANA - PER.txt</v>
       </c>
       <c r="AB18" s="4">
@@ -2714,38 +2712,70 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI KAREN\2022\07\</v>
-      </c>
-      <c r="K19" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>\SZYCHOWSKI KAREN\Resultado de Imporación SOS\202207\</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202207</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Julio 2022</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
-      </c>
-      <c r="O19" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>2 - 27348916942 - 202207 - SZYCHOWSKI KAREN</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T19" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_27348916942_202207.txt</v>
+      </c>
+      <c r="U19" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_27348916942_202207.txt</v>
+      </c>
+      <c r="V19" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27348916942CR.txt</v>
+      </c>
+      <c r="W19" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>27348916942CP.txt</v>
+      </c>
+      <c r="X19" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>27348916942CT.txt</v>
+      </c>
+      <c r="Y19" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>27348916942CB.txt</v>
+      </c>
+      <c r="Z19" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>27348916942 - 202207 - SZYCHOWSKI KAREN - RET.txt</v>
+      </c>
+      <c r="AA19" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>27348916942 - 202207 - SZYCHOWSKI KAREN - PER.txt</v>
+      </c>
       <c r="AB19" s="4">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2775,19 +2805,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\POSADAS FIDUCIARIA SA\2023\02\</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" t="s">
         <v>171</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f t="shared" ref="J20:J21" si="24">I20&amp;"\"&amp;B20&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E20,"AAAA-mm")&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\POSADAS FIDUCIARIA SA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K20" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\POSADAS FIDUCIARIA SA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -2812,35 +2842,35 @@
         <v>170</v>
       </c>
       <c r="T20" s="3" t="str">
-        <f t="shared" ref="T20:T21" si="25">"retencionesExport_"&amp;SUBSTITUTE(D20,"-","")&amp;"_"&amp;TEXT(E20,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30708370122_202302.txt</v>
       </c>
       <c r="U20" s="3" t="str">
-        <f t="shared" ref="U20:U21" si="26">"retencionesExport_"&amp;SUBSTITUTE(D20,"-","")&amp;"_"&amp;TEXT(E20,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30708370122_202302.txt</v>
       </c>
       <c r="V20" s="3" t="str">
-        <f t="shared" ref="V20:V21" si="27">SUBSTITUTE(D20,"-","")&amp;"CR.txt"</f>
+        <f t="shared" si="15"/>
         <v>30708370122CR.txt</v>
       </c>
       <c r="W20" s="3" t="str">
-        <f t="shared" ref="W20:W21" si="28">SUBSTITUTE(D20,"-","")&amp;"CP.txt"</f>
+        <f t="shared" si="16"/>
         <v>30708370122CP.txt</v>
       </c>
       <c r="X20" s="3" t="str">
-        <f t="shared" ref="X20:X21" si="29">SUBSTITUTE(D20,"-","")&amp;"CT.txt"</f>
+        <f t="shared" si="17"/>
         <v>30708370122CT.txt</v>
       </c>
       <c r="Y20" s="3" t="str">
-        <f t="shared" ref="Y20:Y21" si="30">SUBSTITUTE(D20,"-","")&amp;"CB.txt"</f>
+        <f t="shared" si="18"/>
         <v>30708370122CB.txt</v>
       </c>
       <c r="Z20" s="3" t="str">
-        <f t="shared" ref="Z20:Z21" si="31">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - RET.txt")</f>
+        <f t="shared" si="19"/>
         <v>30708370122 - 202302 - POSADAS FIDUCIARIA SA - RET.txt</v>
       </c>
       <c r="AA20" s="3" t="str">
-        <f t="shared" ref="AA20:AA21" si="32">CONCATENATE(SUBSTITUTE(D20,"-","")," - ",K20," - ",B20," - PER.txt")</f>
+        <f t="shared" si="20"/>
         <v>30708370122 - 202302 - POSADAS FIDUCIARIA SA - PER.txt</v>
       </c>
       <c r="AB20" s="4">
@@ -2872,19 +2902,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SEMILLA ELVIES\2023\02\</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" t="s">
         <v>171</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\SEMILLA ELVIES\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K21" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SEMILLA ELVIES\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -2909,35 +2939,35 @@
         <v>170</v>
       </c>
       <c r="T21" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27068286323_202302.txt</v>
       </c>
       <c r="U21" s="3" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27068286323_202302.txt</v>
       </c>
       <c r="V21" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="15"/>
         <v>27068286323CR.txt</v>
       </c>
       <c r="W21" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="16"/>
         <v>27068286323CP.txt</v>
       </c>
       <c r="X21" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>27068286323CT.txt</v>
       </c>
       <c r="Y21" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="18"/>
         <v>27068286323CB.txt</v>
       </c>
       <c r="Z21" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="19"/>
         <v>27068286323 - 202302 - SEMILLA ELVIES - RET.txt</v>
       </c>
       <c r="AA21" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>27068286323 - 202302 - SEMILLA ELVIES - PER.txt</v>
       </c>
       <c r="AB21" s="4">
@@ -2974,38 +3004,70 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA MARIA EUGENIA\2022\07\</v>
-      </c>
-      <c r="K22" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>\PENSA MARIA EUGENIA\Resultado de Imporación SOS\202207\</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202207</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Julio 2022</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
-      </c>
-      <c r="O22" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>3 - 27354872183 - 202207 - PENSA MARIA EUGENIA</v>
-      </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T22" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_27354872183_202207.txt</v>
+      </c>
+      <c r="U22" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_27354872183_202207.txt</v>
+      </c>
+      <c r="V22" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>27354872183CR.txt</v>
+      </c>
+      <c r="W22" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>27354872183CP.txt</v>
+      </c>
+      <c r="X22" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>27354872183CT.txt</v>
+      </c>
+      <c r="Y22" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>27354872183CB.txt</v>
+      </c>
+      <c r="Z22" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>27354872183 - 202207 - PENSA MARIA EUGENIA - RET.txt</v>
+      </c>
+      <c r="AA22" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>27354872183 - 202207 - PENSA MARIA EUGENIA - PER.txt</v>
+      </c>
       <c r="AB22" s="4">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -3035,19 +3097,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CUCYTI SRL\2023\02\</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" t="s">
         <v>171</v>
       </c>
       <c r="J23" s="4" t="str">
-        <f t="shared" ref="J23:J51" si="33">I23&amp;"\"&amp;B23&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E23,"AAAA-mm")&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CUCYTI SRL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K23" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CUCYTI SRL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -3072,35 +3134,35 @@
         <v>170</v>
       </c>
       <c r="T23" s="3" t="str">
-        <f t="shared" ref="T23:T51" si="34">"retencionesExport_"&amp;SUBSTITUTE(D23,"-","")&amp;"_"&amp;TEXT(E23,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30672355393_202302.txt</v>
       </c>
       <c r="U23" s="3" t="str">
-        <f t="shared" ref="U23:U51" si="35">"retencionesExport_"&amp;SUBSTITUTE(D23,"-","")&amp;"_"&amp;TEXT(E23,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30672355393_202302.txt</v>
       </c>
       <c r="V23" s="3" t="str">
-        <f t="shared" ref="V23:V51" si="36">SUBSTITUTE(D23,"-","")&amp;"CR.txt"</f>
+        <f t="shared" si="15"/>
         <v>30672355393CR.txt</v>
       </c>
       <c r="W23" s="3" t="str">
-        <f t="shared" ref="W23:W51" si="37">SUBSTITUTE(D23,"-","")&amp;"CP.txt"</f>
+        <f t="shared" si="16"/>
         <v>30672355393CP.txt</v>
       </c>
       <c r="X23" s="3" t="str">
-        <f t="shared" ref="X23:X51" si="38">SUBSTITUTE(D23,"-","")&amp;"CT.txt"</f>
+        <f t="shared" si="17"/>
         <v>30672355393CT.txt</v>
       </c>
       <c r="Y23" s="3" t="str">
-        <f t="shared" ref="Y23:Y51" si="39">SUBSTITUTE(D23,"-","")&amp;"CB.txt"</f>
+        <f t="shared" si="18"/>
         <v>30672355393CB.txt</v>
       </c>
       <c r="Z23" s="3" t="str">
-        <f t="shared" ref="Z23:Z51" si="40">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - RET.txt")</f>
+        <f t="shared" si="19"/>
         <v>30672355393 - 202302 - CUCYTI SRL - RET.txt</v>
       </c>
       <c r="AA23" s="3" t="str">
-        <f t="shared" ref="AA23:AA51" si="41">CONCATENATE(SUBSTITUTE(D23,"-","")," - ",K23," - ",B23," - PER.txt")</f>
+        <f t="shared" si="20"/>
         <v>30672355393 - 202302 - CUCYTI SRL - PER.txt</v>
       </c>
       <c r="AB23" s="4">
@@ -3132,19 +3194,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARLOS ABELARDO SESMERO SRL\2023\02\</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" t="s">
         <v>171</v>
       </c>
       <c r="J24" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CARLOS ABELARDO SESMERO SRL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K24" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CARLOS ABELARDO SESMERO SRL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -3169,35 +3231,35 @@
         <v>170</v>
       </c>
       <c r="T24" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30707912223_202302.txt</v>
       </c>
       <c r="U24" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30707912223_202302.txt</v>
       </c>
       <c r="V24" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>30707912223CR.txt</v>
       </c>
       <c r="W24" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>30707912223CP.txt</v>
       </c>
       <c r="X24" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>30707912223CT.txt</v>
       </c>
       <c r="Y24" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>30707912223CB.txt</v>
       </c>
       <c r="Z24" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL - RET.txt</v>
       </c>
       <c r="AA24" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>30707912223 - 202302 - CARLOS ABELARDO SESMERO SRL - PER.txt</v>
       </c>
       <c r="AB24" s="4">
@@ -3229,19 +3291,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\TRANS. MISIONES SA\2023\02\</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" t="s">
         <v>171</v>
       </c>
       <c r="J25" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\TRANS. MISIONES SA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K25" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\TRANS. MISIONES SA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -3266,35 +3328,35 @@
         <v>170</v>
       </c>
       <c r="T25" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30715577743_202302.txt</v>
       </c>
       <c r="U25" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30715577743_202302.txt</v>
       </c>
       <c r="V25" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>30715577743CR.txt</v>
       </c>
       <c r="W25" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>30715577743CP.txt</v>
       </c>
       <c r="X25" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>30715577743CT.txt</v>
       </c>
       <c r="Y25" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>30715577743CB.txt</v>
       </c>
       <c r="Z25" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>30715577743 - 202302 - TRANS. MISIONES SA - RET.txt</v>
       </c>
       <c r="AA25" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>30715577743 - 202302 - TRANS. MISIONES SA - PER.txt</v>
       </c>
       <c r="AB25" s="4">
@@ -3326,19 +3388,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\DON LALO SRL\2023\02\</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" t="s">
         <v>171</v>
       </c>
       <c r="J26" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\DON LALO SRL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K26" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\DON LALO SRL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -3363,35 +3425,35 @@
         <v>170</v>
       </c>
       <c r="T26" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30717537153_202302.txt</v>
       </c>
       <c r="U26" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30717537153_202302.txt</v>
       </c>
       <c r="V26" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>30717537153CR.txt</v>
       </c>
       <c r="W26" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>30717537153CP.txt</v>
       </c>
       <c r="X26" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>30717537153CT.txt</v>
       </c>
       <c r="Y26" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>30717537153CB.txt</v>
       </c>
       <c r="Z26" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>30717537153 - 202302 - DON LALO SRL - RET.txt</v>
       </c>
       <c r="AA26" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>30717537153 - 202302 - DON LALO SRL - PER.txt</v>
       </c>
       <c r="AB26" s="4">
@@ -3423,19 +3485,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERNANDEZ SOSA RODOLFO\2023\02\</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" t="s">
         <v>171</v>
       </c>
       <c r="J27" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERNANDEZ SOSA RODOLFO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K27" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERNANDEZ SOSA RODOLFO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K27" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -3460,35 +3522,35 @@
         <v>170</v>
       </c>
       <c r="T27" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20168291834_202302.txt</v>
       </c>
       <c r="U27" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20168291834_202302.txt</v>
       </c>
       <c r="V27" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>20168291834CR.txt</v>
       </c>
       <c r="W27" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>20168291834CP.txt</v>
       </c>
       <c r="X27" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>20168291834CT.txt</v>
       </c>
       <c r="Y27" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>20168291834CB.txt</v>
       </c>
       <c r="Z27" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>20168291834 - 202302 - FERNANDEZ SOSA RODOLFO - RET.txt</v>
       </c>
       <c r="AA27" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>20168291834 - 202302 - FERNANDEZ SOSA RODOLFO - PER.txt</v>
       </c>
       <c r="AB27" s="4">
@@ -3520,19 +3582,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SESMERO MARIA GABRIELA\2023\02\</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" t="s">
         <v>171</v>
       </c>
       <c r="J28" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\SESMERO MARIA GABRIELA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K28" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SESMERO MARIA GABRIELA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -3557,35 +3619,35 @@
         <v>170</v>
       </c>
       <c r="T28" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_23149462074_202302.txt</v>
       </c>
       <c r="U28" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_23149462074_202302.txt</v>
       </c>
       <c r="V28" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>23149462074CR.txt</v>
       </c>
       <c r="W28" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>23149462074CP.txt</v>
       </c>
       <c r="X28" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>23149462074CT.txt</v>
       </c>
       <c r="Y28" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>23149462074CB.txt</v>
       </c>
       <c r="Z28" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>23149462074 - 202302 - SESMERO MARIA GABRIELA - RET.txt</v>
       </c>
       <c r="AA28" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>23149462074 - 202302 - SESMERO MARIA GABRIELA - PER.txt</v>
       </c>
       <c r="AB28" s="4">
@@ -3617,19 +3679,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA CARMEN VICTORIA\2023\02\</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" t="s">
         <v>171</v>
       </c>
       <c r="J29" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA CARMEN VICTORIA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K29" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA CARMEN VICTORIA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K29" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -3654,35 +3716,35 @@
         <v>170</v>
       </c>
       <c r="T29" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_23342751644_202302.txt</v>
       </c>
       <c r="U29" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_23342751644_202302.txt</v>
       </c>
       <c r="V29" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>23342751644CR.txt</v>
       </c>
       <c r="W29" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>23342751644CP.txt</v>
       </c>
       <c r="X29" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>23342751644CT.txt</v>
       </c>
       <c r="Y29" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>23342751644CB.txt</v>
       </c>
       <c r="Z29" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>23342751644 - 202302 - FERREYRA CARMEN VICTORIA - RET.txt</v>
       </c>
       <c r="AA29" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>23342751644 - 202302 - FERREYRA CARMEN VICTORIA - PER.txt</v>
       </c>
       <c r="AB29" s="4">
@@ -3714,19 +3776,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTO LUCILA\2023\02\</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" t="s">
         <v>171</v>
       </c>
       <c r="J30" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\SCOTO LUCILA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K30" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SCOTO LUCILA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -3751,35 +3813,35 @@
         <v>170</v>
       </c>
       <c r="T30" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_23351897074_202302.txt</v>
       </c>
       <c r="U30" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_23351897074_202302.txt</v>
       </c>
       <c r="V30" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>23351897074CR.txt</v>
       </c>
       <c r="W30" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>23351897074CP.txt</v>
       </c>
       <c r="X30" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>23351897074CT.txt</v>
       </c>
       <c r="Y30" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>23351897074CB.txt</v>
       </c>
       <c r="Z30" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>23351897074 - 202302 - SCOTO LUCILA - RET.txt</v>
       </c>
       <c r="AA30" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>23351897074 - 202302 - SCOTO LUCILA - PER.txt</v>
       </c>
       <c r="AB30" s="4">
@@ -3811,19 +3873,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\TUFRO MALENA\2023\02\</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" t="s">
         <v>171</v>
       </c>
       <c r="J31" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\TUFRO MALENA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K31" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\TUFRO MALENA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -3848,35 +3910,35 @@
         <v>170</v>
       </c>
       <c r="T31" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27236873744_202302.txt</v>
       </c>
       <c r="U31" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27236873744_202302.txt</v>
       </c>
       <c r="V31" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>27236873744CR.txt</v>
       </c>
       <c r="W31" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>27236873744CP.txt</v>
       </c>
       <c r="X31" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>27236873744CT.txt</v>
       </c>
       <c r="Y31" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>27236873744CB.txt</v>
       </c>
       <c r="Z31" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>27236873744 - 202302 - TUFRO MALENA - RET.txt</v>
       </c>
       <c r="AA31" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>27236873744 - 202302 - TUFRO MALENA - PER.txt</v>
       </c>
       <c r="AB31" s="4">
@@ -3908,19 +3970,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\DVC SRL\2023\02\</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" t="s">
         <v>171</v>
       </c>
       <c r="J32" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\DVC SRL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K32" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\DVC SRL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -3945,35 +4007,35 @@
         <v>170</v>
       </c>
       <c r="T32" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30709431834_202302.txt</v>
       </c>
       <c r="U32" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30709431834_202302.txt</v>
       </c>
       <c r="V32" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>30709431834CR.txt</v>
       </c>
       <c r="W32" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>30709431834CP.txt</v>
       </c>
       <c r="X32" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>30709431834CT.txt</v>
       </c>
       <c r="Y32" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>30709431834CB.txt</v>
       </c>
       <c r="Z32" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>30709431834 - 202302 - DVC SRL - RET.txt</v>
       </c>
       <c r="AA32" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>30709431834 - 202302 - DVC SRL - PER.txt</v>
       </c>
       <c r="AB32" s="4">
@@ -4005,19 +4067,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VECINAS SRL\2023\02\</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" t="s">
         <v>171</v>
       </c>
       <c r="J33" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\VECINAS SRL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K33" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\VECINAS SRL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K33" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -4042,35 +4104,35 @@
         <v>170</v>
       </c>
       <c r="T33" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30715795864_202302.txt</v>
       </c>
       <c r="U33" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30715795864_202302.txt</v>
       </c>
       <c r="V33" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>30715795864CR.txt</v>
       </c>
       <c r="W33" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>30715795864CP.txt</v>
       </c>
       <c r="X33" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>30715795864CT.txt</v>
       </c>
       <c r="Y33" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>30715795864CB.txt</v>
       </c>
       <c r="Z33" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>30715795864 - 202302 - VECINAS SRL - RET.txt</v>
       </c>
       <c r="AA33" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>30715795864 - 202302 - VECINAS SRL - PER.txt</v>
       </c>
       <c r="AB33" s="4">
@@ -4103,19 +4165,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI RICARDO\2023\02\</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" t="s">
         <v>171</v>
       </c>
       <c r="J34" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\SZYCHOWSKI RICARDO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K34" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SZYCHOWSKI RICARDO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f t="shared" ref="L34:L65" si="42">UPPER(LEFT(TEXT(E34,"MMMM AAAA"),1))&amp;MID(TEXT(E34,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -4140,39 +4202,39 @@
         <v>170</v>
       </c>
       <c r="T34" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20074827455_202302.txt</v>
       </c>
       <c r="U34" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20074827455_202302.txt</v>
       </c>
       <c r="V34" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>20074827455CR.txt</v>
       </c>
       <c r="W34" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>20074827455CP.txt</v>
       </c>
       <c r="X34" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>20074827455CT.txt</v>
       </c>
       <c r="Y34" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>20074827455CB.txt</v>
       </c>
       <c r="Z34" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>20074827455 - 202302 - SZYCHOWSKI RICARDO - RET.txt</v>
       </c>
       <c r="AA34" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>20074827455 - 202302 - SZYCHOWSKI RICARDO - PER.txt</v>
       </c>
       <c r="AB34" s="4">
-        <f t="shared" ref="AB34:AB65" si="43">ROW(A34)</f>
+        <f t="shared" ref="AB34:AB65" si="21">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
@@ -4200,19 +4262,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA MARCELO\2023\02\</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" t="s">
         <v>171</v>
       </c>
       <c r="J35" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA MARCELO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K35" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA MARCELO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -4237,39 +4299,39 @@
         <v>170</v>
       </c>
       <c r="T35" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20170394845_202302.txt</v>
       </c>
       <c r="U35" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20170394845_202302.txt</v>
       </c>
       <c r="V35" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>20170394845CR.txt</v>
       </c>
       <c r="W35" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>20170394845CP.txt</v>
       </c>
       <c r="X35" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>20170394845CT.txt</v>
       </c>
       <c r="Y35" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>20170394845CB.txt</v>
       </c>
       <c r="Z35" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>20170394845 - 202302 - FERREYRA MARCELO - RET.txt</v>
       </c>
       <c r="AA35" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>20170394845 - 202302 - FERREYRA MARCELO - PER.txt</v>
       </c>
       <c r="AB35" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
     </row>
@@ -4298,19 +4360,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CANTELI GRACIELA\2023\02\</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" t="s">
         <v>171</v>
       </c>
       <c r="J36" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CANTELI GRACIELA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K36" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CANTELI GRACIELA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -4335,39 +4397,39 @@
         <v>170</v>
       </c>
       <c r="T36" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27148268105_202302.txt</v>
       </c>
       <c r="U36" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27148268105_202302.txt</v>
       </c>
       <c r="V36" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>27148268105CR.txt</v>
       </c>
       <c r="W36" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>27148268105CP.txt</v>
       </c>
       <c r="X36" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>27148268105CT.txt</v>
       </c>
       <c r="Y36" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>27148268105CB.txt</v>
       </c>
       <c r="Z36" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>27148268105 - 202302 - CANTELI GRACIELA - RET.txt</v>
       </c>
       <c r="AA36" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>27148268105 - 202302 - CANTELI GRACIELA - PER.txt</v>
       </c>
       <c r="AB36" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
     </row>
@@ -4396,19 +4458,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CORONAS ALINE\2023\02\</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" t="s">
         <v>171</v>
       </c>
       <c r="J37" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CORONAS ALINE\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K37" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CORONAS ALINE\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K37" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -4433,39 +4495,39 @@
         <v>170</v>
       </c>
       <c r="T37" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27171709925_202302.txt</v>
       </c>
       <c r="U37" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27171709925_202302.txt</v>
       </c>
       <c r="V37" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>27171709925CR.txt</v>
       </c>
       <c r="W37" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>27171709925CP.txt</v>
       </c>
       <c r="X37" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>27171709925CT.txt</v>
       </c>
       <c r="Y37" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>27171709925CB.txt</v>
       </c>
       <c r="Z37" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>27171709925 - 202302 - CORONAS ALINE - RET.txt</v>
       </c>
       <c r="AA37" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>27171709925 - 202302 - CORONAS ALINE - PER.txt</v>
       </c>
       <c r="AB37" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
     </row>
@@ -4493,19 +4555,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ASOC. SALUD MNES\2023\02\</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" t="s">
         <v>171</v>
       </c>
       <c r="J38" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\ASOC. SALUD MNES\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K38" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\ASOC. SALUD MNES\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K38" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -4530,39 +4592,39 @@
         <v>170</v>
       </c>
       <c r="T38" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30708553715_202302.txt</v>
       </c>
       <c r="U38" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30708553715_202302.txt</v>
       </c>
       <c r="V38" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>30708553715CR.txt</v>
       </c>
       <c r="W38" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>30708553715CP.txt</v>
       </c>
       <c r="X38" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>30708553715CT.txt</v>
       </c>
       <c r="Y38" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>30708553715CB.txt</v>
       </c>
       <c r="Z38" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>30708553715 - 202302 - ASOC. SALUD MNES - RET.txt</v>
       </c>
       <c r="AA38" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>30708553715 - 202302 - ASOC. SALUD MNES - PER.txt</v>
       </c>
       <c r="AB38" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>38</v>
       </c>
     </row>
@@ -4590,19 +4652,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ENRIQUEZ RUBEN\2023\02\</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" t="s">
         <v>171</v>
       </c>
       <c r="J39" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\ENRIQUEZ RUBEN\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K39" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\ENRIQUEZ RUBEN\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M39" s="3" t="s">
@@ -4627,39 +4689,39 @@
         <v>170</v>
       </c>
       <c r="T39" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20149466356_202302.txt</v>
       </c>
       <c r="U39" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20149466356_202302.txt</v>
       </c>
       <c r="V39" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>20149466356CR.txt</v>
       </c>
       <c r="W39" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>20149466356CP.txt</v>
       </c>
       <c r="X39" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>20149466356CT.txt</v>
       </c>
       <c r="Y39" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>20149466356CB.txt</v>
       </c>
       <c r="Z39" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>20149466356 - 202302 - ENRIQUEZ RUBEN - RET.txt</v>
       </c>
       <c r="AA39" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>20149466356 - 202302 - ENRIQUEZ RUBEN - PER.txt</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
     </row>
@@ -4687,19 +4749,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA IÑAKI\2023\02\</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" t="s">
         <v>171</v>
       </c>
       <c r="J40" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\BEITIA IÑAKI\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K40" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BEITIA IÑAKI\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K40" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -4724,39 +4786,39 @@
         <v>170</v>
       </c>
       <c r="T40" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20416948926_202302.txt</v>
       </c>
       <c r="U40" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20416948926_202302.txt</v>
       </c>
       <c r="V40" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>20416948926CR.txt</v>
       </c>
       <c r="W40" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>20416948926CP.txt</v>
       </c>
       <c r="X40" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>20416948926CT.txt</v>
       </c>
       <c r="Y40" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>20416948926CB.txt</v>
       </c>
       <c r="Z40" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>20416948926 - 202302 - BEITIA IÑAKI - RET.txt</v>
       </c>
       <c r="AA40" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>20416948926 - 202302 - BEITIA IÑAKI - PER.txt</v>
       </c>
       <c r="AB40" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
     </row>
@@ -4784,19 +4846,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LAZCOZ VIOLETA\2023\02\</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" t="s">
         <v>171</v>
       </c>
       <c r="J41" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\LAZCOZ VIOLETA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K41" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\LAZCOZ VIOLETA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K41" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M41" s="3" t="s">
@@ -4821,39 +4883,39 @@
         <v>170</v>
       </c>
       <c r="T41" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27058846916_202302.txt</v>
       </c>
       <c r="U41" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27058846916_202302.txt</v>
       </c>
       <c r="V41" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>27058846916CR.txt</v>
       </c>
       <c r="W41" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>27058846916CP.txt</v>
       </c>
       <c r="X41" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>27058846916CT.txt</v>
       </c>
       <c r="Y41" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>27058846916CB.txt</v>
       </c>
       <c r="Z41" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>27058846916 - 202302 - LAZCOZ VIOLETA - RET.txt</v>
       </c>
       <c r="AA41" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>27058846916 - 202302 - LAZCOZ VIOLETA - PER.txt</v>
       </c>
       <c r="AB41" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>41</v>
       </c>
     </row>
@@ -4881,19 +4943,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SZYCHOWSKI AMANDA \2023\02\</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" t="s">
         <v>171</v>
       </c>
       <c r="J42" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\SZYCHOWSKI AMANDA \Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K42" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SZYCHOWSKI AMANDA \Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K42" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L42" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M42" s="3" t="s">
@@ -4918,39 +4980,39 @@
         <v>170</v>
       </c>
       <c r="T42" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27201178776_202302.txt</v>
       </c>
       <c r="U42" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27201178776_202302.txt</v>
       </c>
       <c r="V42" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>27201178776CR.txt</v>
       </c>
       <c r="W42" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>27201178776CP.txt</v>
       </c>
       <c r="X42" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>27201178776CT.txt</v>
       </c>
       <c r="Y42" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>27201178776CB.txt</v>
       </c>
       <c r="Z42" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>27201178776 - 202302 - SZYCHOWSKI AMANDA  - RET.txt</v>
       </c>
       <c r="AA42" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>27201178776 - 202302 - SZYCHOWSKI AMANDA  - PER.txt</v>
       </c>
       <c r="AB42" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
     </row>
@@ -4978,19 +5040,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CARBALLO GRACIELA\2023\02\</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" t="s">
         <v>171</v>
       </c>
       <c r="J43" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CARBALLO GRACIELA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K43" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CARBALLO GRACIELA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K43" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M43" s="3" t="s">
@@ -5015,39 +5077,39 @@
         <v>170</v>
       </c>
       <c r="T43" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27261827366_202302.txt</v>
       </c>
       <c r="U43" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27261827366_202302.txt</v>
       </c>
       <c r="V43" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>27261827366CR.txt</v>
       </c>
       <c r="W43" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>27261827366CP.txt</v>
       </c>
       <c r="X43" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>27261827366CT.txt</v>
       </c>
       <c r="Y43" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>27261827366CB.txt</v>
       </c>
       <c r="Z43" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>27261827366 - 202302 - CARBALLO GRACIELA - RET.txt</v>
       </c>
       <c r="AA43" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>27261827366 - 202302 - CARBALLO GRACIELA - PER.txt</v>
       </c>
       <c r="AB43" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>43</v>
       </c>
     </row>
@@ -5075,19 +5137,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PREST. SANAT. SA\2023\02\</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" t="s">
         <v>171</v>
       </c>
       <c r="J44" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\PREST. SANAT. SA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K44" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\PREST. SANAT. SA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K44" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L44" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M44" s="3" t="s">
@@ -5112,39 +5174,39 @@
         <v>170</v>
       </c>
       <c r="T44" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30687910636_202302.txt</v>
       </c>
       <c r="U44" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30687910636_202302.txt</v>
       </c>
       <c r="V44" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>30687910636CR.txt</v>
       </c>
       <c r="W44" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>30687910636CP.txt</v>
       </c>
       <c r="X44" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>30687910636CT.txt</v>
       </c>
       <c r="Y44" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>30687910636CB.txt</v>
       </c>
       <c r="Z44" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>30687910636 - 202302 - PREST. SANAT. SA - RET.txt</v>
       </c>
       <c r="AA44" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>30687910636 - 202302 - PREST. SANAT. SA - PER.txt</v>
       </c>
       <c r="AB44" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
     </row>
@@ -5172,19 +5234,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CONSULTORIO SAN MARTIN\2023\02\</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" t="s">
         <v>171</v>
       </c>
       <c r="J45" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CONSULTORIO SAN MARTIN\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K45" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CONSULTORIO SAN MARTIN\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K45" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L45" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M45" s="3" t="s">
@@ -5209,39 +5271,39 @@
         <v>170</v>
       </c>
       <c r="T45" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30715347926_202302.txt</v>
       </c>
       <c r="U45" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30715347926_202302.txt</v>
       </c>
       <c r="V45" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>30715347926CR.txt</v>
       </c>
       <c r="W45" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>30715347926CP.txt</v>
       </c>
       <c r="X45" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>30715347926CT.txt</v>
       </c>
       <c r="Y45" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>30715347926CB.txt</v>
       </c>
       <c r="Z45" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>30715347926 - 202302 - CONSULTORIO SAN MARTIN - RET.txt</v>
       </c>
       <c r="AA45" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>30715347926 - 202302 - CONSULTORIO SAN MARTIN - PER.txt</v>
       </c>
       <c r="AB45" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>45</v>
       </c>
     </row>
@@ -5269,19 +5331,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA PROPIEDADES\2023\02\</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" t="s">
         <v>171</v>
       </c>
       <c r="J46" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\PENSA PROPIEDADES\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K46" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\PENSA PROPIEDADES\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K46" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L46" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M46" s="3" t="s">
@@ -5306,39 +5368,39 @@
         <v>170</v>
       </c>
       <c r="T46" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30716503816_202302.txt</v>
       </c>
       <c r="U46" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30716503816_202302.txt</v>
       </c>
       <c r="V46" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>30716503816CR.txt</v>
       </c>
       <c r="W46" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>30716503816CP.txt</v>
       </c>
       <c r="X46" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>30716503816CT.txt</v>
       </c>
       <c r="Y46" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>30716503816CB.txt</v>
       </c>
       <c r="Z46" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>30716503816 - 202302 - PENSA PROPIEDADES - RET.txt</v>
       </c>
       <c r="AA46" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>30716503816 - 202302 - PENSA PROPIEDADES - PER.txt</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>46</v>
       </c>
     </row>
@@ -5367,19 +5429,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA ANIBAL\2023\02\</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" t="s">
         <v>171</v>
       </c>
       <c r="J47" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\PENSA ANIBAL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K47" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\PENSA ANIBAL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K47" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L47" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M47" s="3" t="s">
@@ -5404,39 +5466,39 @@
         <v>170</v>
       </c>
       <c r="T47" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20077065637_202302.txt</v>
       </c>
       <c r="U47" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20077065637_202302.txt</v>
       </c>
       <c r="V47" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>20077065637CR.txt</v>
       </c>
       <c r="W47" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>20077065637CP.txt</v>
       </c>
       <c r="X47" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>20077065637CT.txt</v>
       </c>
       <c r="Y47" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>20077065637CB.txt</v>
       </c>
       <c r="Z47" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>20077065637 - 202302 - PENSA ANIBAL - RET.txt</v>
       </c>
       <c r="AA47" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>20077065637 - 202302 - PENSA ANIBAL - PER.txt</v>
       </c>
       <c r="AB47" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>47</v>
       </c>
     </row>
@@ -5465,19 +5527,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\TABBIA ENRIQUE\2023\02\</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" t="s">
         <v>171</v>
       </c>
       <c r="J48" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\TABBIA ENRIQUE\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K48" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\TABBIA ENRIQUE\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K48" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L48" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M48" s="3" t="s">
@@ -5502,39 +5564,39 @@
         <v>170</v>
       </c>
       <c r="T48" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20130056637_202302.txt</v>
       </c>
       <c r="U48" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20130056637_202302.txt</v>
       </c>
       <c r="V48" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>20130056637CR.txt</v>
       </c>
       <c r="W48" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>20130056637CP.txt</v>
       </c>
       <c r="X48" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>20130056637CT.txt</v>
       </c>
       <c r="Y48" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>20130056637CB.txt</v>
       </c>
       <c r="Z48" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>20130056637 - 202302 - TABBIA ENRIQUE - RET.txt</v>
       </c>
       <c r="AA48" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>20130056637 - 202302 - TABBIA ENRIQUE - PER.txt</v>
       </c>
       <c r="AB48" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
     </row>
@@ -5562,19 +5624,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE HUGO\2023\02\</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" t="s">
         <v>171</v>
       </c>
       <c r="J49" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\HOPE HUGO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K49" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\HOPE HUGO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K49" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L49" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M49" s="3" t="s">
@@ -5599,39 +5661,39 @@
         <v>170</v>
       </c>
       <c r="T49" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20170395167_202302.txt</v>
       </c>
       <c r="U49" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20170395167_202302.txt</v>
       </c>
       <c r="V49" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>20170395167CR.txt</v>
       </c>
       <c r="W49" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>20170395167CP.txt</v>
       </c>
       <c r="X49" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>20170395167CT.txt</v>
       </c>
       <c r="Y49" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>20170395167CB.txt</v>
       </c>
       <c r="Z49" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>20170395167 - 202302 - HOPE HUGO - RET.txt</v>
       </c>
       <c r="AA49" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>20170395167 - 202302 - HOPE HUGO - PER.txt</v>
       </c>
       <c r="AB49" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>49</v>
       </c>
     </row>
@@ -5660,19 +5722,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\VARENIZA NESTOR LEONEL\2023\02\</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" t="s">
         <v>171</v>
       </c>
       <c r="J50" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\VARENIZA NESTOR LEONEL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K50" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\VARENIZA NESTOR LEONEL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K50" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L50" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M50" s="3" t="s">
@@ -5697,39 +5759,39 @@
         <v>170</v>
       </c>
       <c r="T50" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20301650087_202302.txt</v>
       </c>
       <c r="U50" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20301650087_202302.txt</v>
       </c>
       <c r="V50" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>20301650087CR.txt</v>
       </c>
       <c r="W50" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>20301650087CP.txt</v>
       </c>
       <c r="X50" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>20301650087CT.txt</v>
       </c>
       <c r="Y50" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>20301650087CB.txt</v>
       </c>
       <c r="Z50" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>20301650087 - 202302 - VARENIZA NESTOR LEONEL - RET.txt</v>
       </c>
       <c r="AA50" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>20301650087 - 202302 - VARENIZA NESTOR LEONEL - PER.txt</v>
       </c>
       <c r="AB50" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
     </row>
@@ -5757,19 +5819,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FERREYRA ANDRES\2023\02\</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" t="s">
         <v>171</v>
       </c>
       <c r="J51" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA ANDRES\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K51" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FERREYRA ANDRES\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K51" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M51" s="3" t="s">
@@ -5794,39 +5856,39 @@
         <v>170</v>
       </c>
       <c r="T51" s="3" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20327623967_202302.txt</v>
       </c>
       <c r="U51" s="3" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20327623967_202302.txt</v>
       </c>
       <c r="V51" s="3" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="15"/>
         <v>20327623967CR.txt</v>
       </c>
       <c r="W51" s="3" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="16"/>
         <v>20327623967CP.txt</v>
       </c>
       <c r="X51" s="3" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="17"/>
         <v>20327623967CT.txt</v>
       </c>
       <c r="Y51" s="3" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="18"/>
         <v>20327623967CB.txt</v>
       </c>
       <c r="Z51" s="3" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="19"/>
         <v>20327623967 - 202302 - FERREYRA ANDRES - RET.txt</v>
       </c>
       <c r="AA51" s="3" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="20"/>
         <v>20327623967 - 202302 - FERREYRA ANDRES - PER.txt</v>
       </c>
       <c r="AB51" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>51</v>
       </c>
     </row>
@@ -5859,40 +5921,72 @@
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>C:\Users\Agustin Bustos\Desktop\Clientes\PENSA LUCIANO\2022\07\</v>
-      </c>
-      <c r="K52" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>\PENSA LUCIANO\Resultado de Imporación SOS\202207\</v>
+      </c>
+      <c r="K52" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202207</v>
       </c>
       <c r="L52" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Julio 2022</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
-      </c>
-      <c r="O52" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>7 - 20334250327 - 202207 - PENSA LUCIANO</v>
-      </c>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
+      <c r="M52" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="T52" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>retencionesExport_20334250327_202207.txt</v>
+      </c>
+      <c r="U52" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>retencionesExport_20334250327_202207.txt</v>
+      </c>
+      <c r="V52" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>20334250327CR.txt</v>
+      </c>
+      <c r="W52" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>20334250327CP.txt</v>
+      </c>
+      <c r="X52" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v>20334250327CT.txt</v>
+      </c>
+      <c r="Y52" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>20334250327CB.txt</v>
+      </c>
+      <c r="Z52" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v>20334250327 - 202207 - PENSA LUCIANO - RET.txt</v>
+      </c>
+      <c r="AA52" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>20334250327 - 202207 - PENSA LUCIANO - PER.txt</v>
+      </c>
       <c r="AB52" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>52</v>
       </c>
     </row>
@@ -5920,19 +6014,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SCOTTO OLGA MARIA\2023\02\</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" t="s">
         <v>171</v>
       </c>
       <c r="J53" s="4" t="str">
-        <f t="shared" ref="J53:J75" si="44">I53&amp;"\"&amp;B53&amp;"\Resultado de Imporación SOS\"&amp;TEXT(E53,"AAAA-mm")&amp;"\"</f>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\SCOTTO OLGA MARIA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K53" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SCOTTO OLGA MARIA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K53" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L53" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M53" s="3" t="s">
@@ -5957,39 +6051,39 @@
         <v>170</v>
       </c>
       <c r="T53" s="3" t="str">
-        <f t="shared" ref="T53:T75" si="45">"retencionesExport_"&amp;SUBSTITUTE(D53,"-","")&amp;"_"&amp;TEXT(E53,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27109797257_202302.txt</v>
       </c>
       <c r="U53" s="3" t="str">
-        <f t="shared" ref="U53:U75" si="46">"retencionesExport_"&amp;SUBSTITUTE(D53,"-","")&amp;"_"&amp;TEXT(E53,"AAAAMM")&amp;".txt"</f>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27109797257_202302.txt</v>
       </c>
       <c r="V53" s="3" t="str">
-        <f t="shared" ref="V53:V75" si="47">SUBSTITUTE(D53,"-","")&amp;"CR.txt"</f>
+        <f t="shared" si="15"/>
         <v>27109797257CR.txt</v>
       </c>
       <c r="W53" s="3" t="str">
-        <f t="shared" ref="W53:W75" si="48">SUBSTITUTE(D53,"-","")&amp;"CP.txt"</f>
+        <f t="shared" si="16"/>
         <v>27109797257CP.txt</v>
       </c>
       <c r="X53" s="3" t="str">
-        <f t="shared" ref="X53:X75" si="49">SUBSTITUTE(D53,"-","")&amp;"CT.txt"</f>
+        <f t="shared" si="17"/>
         <v>27109797257CT.txt</v>
       </c>
       <c r="Y53" s="3" t="str">
-        <f t="shared" ref="Y53:Y75" si="50">SUBSTITUTE(D53,"-","")&amp;"CB.txt"</f>
+        <f t="shared" si="18"/>
         <v>27109797257CB.txt</v>
       </c>
       <c r="Z53" s="3" t="str">
-        <f t="shared" ref="Z53:Z75" si="51">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - RET.txt")</f>
+        <f t="shared" si="19"/>
         <v>27109797257 - 202302 - SCOTTO OLGA MARIA - RET.txt</v>
       </c>
       <c r="AA53" s="3" t="str">
-        <f t="shared" ref="AA53:AA75" si="52">CONCATENATE(SUBSTITUTE(D53,"-","")," - ",K53," - ",B53," - PER.txt")</f>
+        <f t="shared" si="20"/>
         <v>27109797257 - 202302 - SCOTTO OLGA MARIA - PER.txt</v>
       </c>
       <c r="AB53" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>53</v>
       </c>
     </row>
@@ -6017,19 +6111,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\ROKO EUGENIA\2023\02\</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" t="s">
         <v>171</v>
       </c>
       <c r="J54" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\ROKO EUGENIA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K54" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\ROKO EUGENIA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K54" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L54" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M54" s="3" t="s">
@@ -6054,39 +6148,39 @@
         <v>170</v>
       </c>
       <c r="T54" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27217236547_202302.txt</v>
       </c>
       <c r="U54" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27217236547_202302.txt</v>
       </c>
       <c r="V54" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>27217236547CR.txt</v>
       </c>
       <c r="W54" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>27217236547CP.txt</v>
       </c>
       <c r="X54" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>27217236547CT.txt</v>
       </c>
       <c r="Y54" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>27217236547CB.txt</v>
       </c>
       <c r="Z54" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>27217236547 - 202302 - ROKO EUGENIA - RET.txt</v>
       </c>
       <c r="AA54" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>27217236547 - 202302 - ROKO EUGENIA - PER.txt</v>
       </c>
       <c r="AB54" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>54</v>
       </c>
     </row>
@@ -6114,19 +6208,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS-HOPE S.H\2023\02\</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" t="s">
         <v>171</v>
       </c>
       <c r="J55" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS-HOPE S.H\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K55" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS-HOPE S.H\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K55" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L55" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M55" s="3" t="s">
@@ -6151,39 +6245,39 @@
         <v>170</v>
       </c>
       <c r="T55" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30650940667_202302.txt</v>
       </c>
       <c r="U55" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30650940667_202302.txt</v>
       </c>
       <c r="V55" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>30650940667CR.txt</v>
       </c>
       <c r="W55" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>30650940667CP.txt</v>
       </c>
       <c r="X55" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>30650940667CT.txt</v>
       </c>
       <c r="Y55" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>30650940667CB.txt</v>
       </c>
       <c r="Z55" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>30650940667 - 202302 - BUSTOS-HOPE S.H - RET.txt</v>
       </c>
       <c r="AA55" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>30650940667 - 202302 - BUSTOS-HOPE S.H - PER.txt</v>
       </c>
       <c r="AB55" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>55</v>
       </c>
     </row>
@@ -6211,19 +6305,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CEBAC\2023\02\</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" t="s">
         <v>171</v>
       </c>
       <c r="J56" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CEBAC\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K56" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CEBAC\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K56" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L56" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M56" s="3" t="s">
@@ -6248,39 +6342,39 @@
         <v>170</v>
       </c>
       <c r="T56" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30672372697_202302.txt</v>
       </c>
       <c r="U56" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30672372697_202302.txt</v>
       </c>
       <c r="V56" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>30672372697CR.txt</v>
       </c>
       <c r="W56" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>30672372697CP.txt</v>
       </c>
       <c r="X56" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>30672372697CT.txt</v>
       </c>
       <c r="Y56" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>30672372697CB.txt</v>
       </c>
       <c r="Z56" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>30672372697 - 202302 - CEBAC - RET.txt</v>
       </c>
       <c r="AA56" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>30672372697 - 202302 - CEBAC - PER.txt</v>
       </c>
       <c r="AB56" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>56</v>
       </c>
     </row>
@@ -6308,19 +6402,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\AITA S.A.\2023\02\</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" t="s">
         <v>171</v>
       </c>
       <c r="J57" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\AITA S.A.\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K57" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\AITA S.A.\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K57" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L57" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M57" s="3" t="s">
@@ -6345,39 +6439,39 @@
         <v>170</v>
       </c>
       <c r="T57" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30709419567_202302.txt</v>
       </c>
       <c r="U57" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30709419567_202302.txt</v>
       </c>
       <c r="V57" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>30709419567CR.txt</v>
       </c>
       <c r="W57" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>30709419567CP.txt</v>
       </c>
       <c r="X57" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>30709419567CT.txt</v>
       </c>
       <c r="Y57" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>30709419567CB.txt</v>
       </c>
       <c r="Z57" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>30709419567 - 202302 - AITA S.A. - RET.txt</v>
       </c>
       <c r="AA57" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>30709419567 - 202302 - AITA S.A. - PER.txt</v>
       </c>
       <c r="AB57" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>57</v>
       </c>
     </row>
@@ -6405,19 +6499,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. LARZABAL\2023\02\</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" t="s">
         <v>171</v>
       </c>
       <c r="J58" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\COND. LARZABAL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K58" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\COND. LARZABAL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K58" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L58" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M58" s="3" t="s">
@@ -6442,39 +6536,39 @@
         <v>170</v>
       </c>
       <c r="T58" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30712026797_202302.txt</v>
       </c>
       <c r="U58" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30712026797_202302.txt</v>
       </c>
       <c r="V58" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>30712026797CR.txt</v>
       </c>
       <c r="W58" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>30712026797CP.txt</v>
       </c>
       <c r="X58" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>30712026797CT.txt</v>
       </c>
       <c r="Y58" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>30712026797CB.txt</v>
       </c>
       <c r="Z58" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>30712026797 - 202302 - COND. LARZABAL - RET.txt</v>
       </c>
       <c r="AA58" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>30712026797 - 202302 - COND. LARZABAL - PER.txt</v>
       </c>
       <c r="AB58" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>58</v>
       </c>
     </row>
@@ -6503,19 +6597,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA CARLOS\2023\02\</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" t="s">
         <v>171</v>
       </c>
       <c r="J59" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CASTRO OLIVERA CARLOS\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K59" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CASTRO OLIVERA CARLOS\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K59" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M59" s="3" t="s">
@@ -6540,39 +6634,39 @@
         <v>170</v>
       </c>
       <c r="T59" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20082750488_202302.txt</v>
       </c>
       <c r="U59" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20082750488_202302.txt</v>
       </c>
       <c r="V59" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>20082750488CR.txt</v>
       </c>
       <c r="W59" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>20082750488CP.txt</v>
       </c>
       <c r="X59" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>20082750488CT.txt</v>
       </c>
       <c r="Y59" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>20082750488CB.txt</v>
       </c>
       <c r="Z59" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - RET.txt</v>
       </c>
       <c r="AA59" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>20082750488 - 202302 - CASTRO OLIVERA CARLOS - PER.txt</v>
       </c>
       <c r="AB59" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>59</v>
       </c>
     </row>
@@ -6601,19 +6695,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\URRUTIA DIEGO\2023\02\</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" t="s">
         <v>171</v>
       </c>
       <c r="J60" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\URRUTIA DIEGO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K60" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\URRUTIA DIEGO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K60" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L60" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M60" s="3" t="s">
@@ -6638,39 +6732,39 @@
         <v>170</v>
       </c>
       <c r="T60" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20230966738_202302.txt</v>
       </c>
       <c r="U60" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20230966738_202302.txt</v>
       </c>
       <c r="V60" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>20230966738CR.txt</v>
       </c>
       <c r="W60" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>20230966738CP.txt</v>
       </c>
       <c r="X60" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>20230966738CT.txt</v>
       </c>
       <c r="Y60" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>20230966738CB.txt</v>
       </c>
       <c r="Z60" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>20230966738 - 202302 - URRUTIA DIEGO - RET.txt</v>
       </c>
       <c r="AA60" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>20230966738 - 202302 - URRUTIA DIEGO - PER.txt</v>
       </c>
       <c r="AB60" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>60</v>
       </c>
     </row>
@@ -6698,19 +6792,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\CASTRO OLIVERA GONZALO\2023\02\</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" t="s">
         <v>171</v>
       </c>
       <c r="J61" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\CASTRO OLIVERA GONZALO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K61" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\CASTRO OLIVERA GONZALO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K61" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L61" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M61" s="3" t="s">
@@ -6735,39 +6829,39 @@
         <v>170</v>
       </c>
       <c r="T61" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20303980378_202302.txt</v>
       </c>
       <c r="U61" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20303980378_202302.txt</v>
       </c>
       <c r="V61" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>20303980378CR.txt</v>
       </c>
       <c r="W61" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>20303980378CP.txt</v>
       </c>
       <c r="X61" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>20303980378CT.txt</v>
       </c>
       <c r="Y61" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>20303980378CB.txt</v>
       </c>
       <c r="Z61" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - RET.txt</v>
       </c>
       <c r="AA61" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>20303980378 - 202302 - CASTRO OLIVERA GONZALO - PER.txt</v>
       </c>
       <c r="AB61" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>61</v>
       </c>
     </row>
@@ -6795,19 +6889,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\MARTIN ADRIANA\2023\02\</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" t="s">
         <v>171</v>
       </c>
       <c r="J62" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\MARTIN ADRIANA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K62" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\MARTIN ADRIANA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K62" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L62" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M62" s="3" t="s">
@@ -6832,39 +6926,39 @@
         <v>170</v>
       </c>
       <c r="T62" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27163651918_202302.txt</v>
       </c>
       <c r="U62" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27163651918_202302.txt</v>
       </c>
       <c r="V62" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>27163651918CR.txt</v>
       </c>
       <c r="W62" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>27163651918CP.txt</v>
       </c>
       <c r="X62" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>27163651918CT.txt</v>
       </c>
       <c r="Y62" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>27163651918CB.txt</v>
       </c>
       <c r="Z62" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>27163651918 - 202302 - MARTIN ADRIANA - RET.txt</v>
       </c>
       <c r="AA62" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>27163651918 - 202302 - MARTIN ADRIANA - PER.txt</v>
       </c>
       <c r="AB62" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>62</v>
       </c>
     </row>
@@ -6892,19 +6986,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SPAGNOLI SUSANA\2023\02\</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" t="s">
         <v>171</v>
       </c>
       <c r="J63" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\SPAGNOLI SUSANA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K63" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SPAGNOLI SUSANA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K63" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L63" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M63" s="3" t="s">
@@ -6929,39 +7023,39 @@
         <v>170</v>
       </c>
       <c r="T63" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_27201932268_202302.txt</v>
       </c>
       <c r="U63" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_27201932268_202302.txt</v>
       </c>
       <c r="V63" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>27201932268CR.txt</v>
       </c>
       <c r="W63" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>27201932268CP.txt</v>
       </c>
       <c r="X63" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>27201932268CT.txt</v>
       </c>
       <c r="Y63" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>27201932268CB.txt</v>
       </c>
       <c r="Z63" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>27201932268 - 202302 - SPAGNOLI SUSANA - RET.txt</v>
       </c>
       <c r="AA63" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>27201932268 - 202302 - SPAGNOLI SUSANA - PER.txt</v>
       </c>
       <c r="AB63" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>63</v>
       </c>
     </row>
@@ -6989,19 +7083,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FORESTAL SA\2023\02\</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" t="s">
         <v>171</v>
       </c>
       <c r="J64" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\FORESTAL SA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K64" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FORESTAL SA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K64" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L64" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M64" s="3" t="s">
@@ -7026,39 +7120,39 @@
         <v>170</v>
       </c>
       <c r="T64" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30701299538_202302.txt</v>
       </c>
       <c r="U64" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30701299538_202302.txt</v>
       </c>
       <c r="V64" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>30701299538CR.txt</v>
       </c>
       <c r="W64" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>30701299538CP.txt</v>
       </c>
       <c r="X64" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>30701299538CT.txt</v>
       </c>
       <c r="Y64" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>30701299538CB.txt</v>
       </c>
       <c r="Z64" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>30701299538 - 202302 - FORESTAL SA - RET.txt</v>
       </c>
       <c r="AA64" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>30701299538 - 202302 - FORESTAL SA - PER.txt</v>
       </c>
       <c r="AB64" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
     </row>
@@ -7086,19 +7180,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FIDEIC. PDAS INMOB\2023\02\</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" t="s">
         <v>171</v>
       </c>
       <c r="J65" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\FIDEIC. PDAS INMOB\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K65" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FIDEIC. PDAS INMOB\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K65" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L65" s="3" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M65" s="3" t="s">
@@ -7123,45 +7217,45 @@
         <v>170</v>
       </c>
       <c r="T65" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_30708626348_202302.txt</v>
       </c>
       <c r="U65" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_30708626348_202302.txt</v>
       </c>
       <c r="V65" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>30708626348CR.txt</v>
       </c>
       <c r="W65" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>30708626348CP.txt</v>
       </c>
       <c r="X65" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>30708626348CT.txt</v>
       </c>
       <c r="Y65" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>30708626348CB.txt</v>
       </c>
       <c r="Z65" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - RET.txt</v>
       </c>
       <c r="AA65" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>30708626348 - 202302 - FIDEIC. PDAS INMOB - PER.txt</v>
       </c>
       <c r="AB65" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="21"/>
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:A75" si="53">RIGHT(D66,1)</f>
+        <f t="shared" ref="A66:A75" si="22">RIGHT(D66,1)</f>
         <v>9</v>
       </c>
       <c r="B66" t="s">
@@ -7183,19 +7277,19 @@
         <f t="shared" si="3"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\HOPE RICARDO\2023\02\</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" t="s">
         <v>171</v>
       </c>
       <c r="J66" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\HOPE RICARDO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K66" s="4" t="str">
         <f t="shared" si="4"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\HOPE RICARDO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K66" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L66" s="3" t="str">
-        <f t="shared" ref="L66:L75" si="54">UPPER(LEFT(TEXT(E66,"MMMM AAAA"),1))&amp;MID(TEXT(E66,"MMMM AAAA"),2,30)</f>
+        <f t="shared" si="5"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M66" s="3" t="s">
@@ -7220,45 +7314,45 @@
         <v>170</v>
       </c>
       <c r="T66" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>retencionesExport_20149466739_202302.txt</v>
       </c>
       <c r="U66" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>retencionesExport_20149466739_202302.txt</v>
       </c>
       <c r="V66" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>20149466739CR.txt</v>
       </c>
       <c r="W66" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>20149466739CP.txt</v>
       </c>
       <c r="X66" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>20149466739CT.txt</v>
       </c>
       <c r="Y66" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>20149466739CB.txt</v>
       </c>
       <c r="Z66" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>20149466739 - 202302 - HOPE RICARDO - RET.txt</v>
       </c>
       <c r="AA66" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>20149466739 - 202302 - HOPE RICARDO - PER.txt</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" ref="AB66:AB75" si="55">ROW(A66)</f>
+        <f t="shared" ref="AB66:AB75" si="23">ROW(A66)</f>
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="B67" t="s">
@@ -7277,22 +7371,22 @@
         <v>142</v>
       </c>
       <c r="H67" s="4" t="str">
-        <f t="shared" ref="H67:H75" si="56">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
+        <f t="shared" ref="H67:H75" si="24">G67&amp;"\"&amp;B67&amp;"\"&amp;YEAR(E67)&amp;"\"&amp;TEXT(MONTH(E67),"00")&amp;"\"</f>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BEITIA CRISPIN\2023\02\</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" t="s">
         <v>171</v>
       </c>
       <c r="J67" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\BEITIA CRISPIN\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K67" s="4" t="str">
-        <f t="shared" ref="K67:K75" si="57">TEXT(E67,"AAAAMM")</f>
+        <f t="shared" ref="J67:J75" si="25">I67&amp;"\"&amp;B67&amp;"\Resultado de Imporación SOS\"&amp;K67&amp;"\"</f>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BEITIA CRISPIN\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K67" s="3" t="str">
+        <f t="shared" si="14"/>
         <v>202302</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="L67:L75" si="26">PROPER(TEXT(E67,"mmmm"))&amp;" "&amp;YEAR(E67)</f>
         <v>Febrero 2023</v>
       </c>
       <c r="M67" s="3" t="s">
@@ -7317,45 +7411,45 @@
         <v>170</v>
       </c>
       <c r="T67" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="T67:T75" si="27">"retencionesExport_"&amp;SUBSTITUTE(D67,"-","")&amp;"_"&amp;K67&amp;".txt"</f>
         <v>retencionesExport_20175255819_202302.txt</v>
       </c>
       <c r="U67" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="U67:U75" si="28">"retencionesExport_"&amp;SUBSTITUTE(D67,"-","")&amp;"_"&amp;K67&amp;".txt"</f>
         <v>retencionesExport_20175255819_202302.txt</v>
       </c>
       <c r="V67" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="15"/>
         <v>20175255819CR.txt</v>
       </c>
       <c r="W67" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>20175255819CP.txt</v>
       </c>
       <c r="X67" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="17"/>
         <v>20175255819CT.txt</v>
       </c>
       <c r="Y67" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="18"/>
         <v>20175255819CB.txt</v>
       </c>
       <c r="Z67" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="19"/>
         <v>20175255819 - 202302 - BEITIA CRISPIN - RET.txt</v>
       </c>
       <c r="AA67" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="20"/>
         <v>20175255819 - 202302 - BEITIA CRISPIN - PER.txt</v>
       </c>
       <c r="AB67" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="23"/>
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="B68" t="s">
@@ -7374,22 +7468,22 @@
         <v>142</v>
       </c>
       <c r="H68" s="4" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\BUSTOS GONZALO\2023\02\</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" t="s">
         <v>171</v>
       </c>
       <c r="J68" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS GONZALO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K68" s="4" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="25"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\BUSTOS GONZALO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K68" s="3" t="str">
+        <f t="shared" ref="K68:K75" si="29">YEAR(E68)&amp;TEXT(MONTH(E68),"00")</f>
         <v>202302</v>
       </c>
       <c r="L68" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M68" s="3" t="s">
@@ -7414,45 +7508,45 @@
         <v>170</v>
       </c>
       <c r="T68" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="27"/>
         <v>retencionesExport_20246008109_202302.txt</v>
       </c>
       <c r="U68" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="28"/>
         <v>retencionesExport_20246008109_202302.txt</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="V68:V75" si="30">SUBSTITUTE(D68,"-","")&amp;"CR.txt"</f>
         <v>20246008109CR.txt</v>
       </c>
       <c r="W68" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="W68:W75" si="31">SUBSTITUTE(D68,"-","")&amp;"CP.txt"</f>
         <v>20246008109CP.txt</v>
       </c>
       <c r="X68" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="X68:X75" si="32">SUBSTITUTE(D68,"-","")&amp;"CT.txt"</f>
         <v>20246008109CT.txt</v>
       </c>
       <c r="Y68" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="Y68:Y75" si="33">SUBSTITUTE(D68,"-","")&amp;"CB.txt"</f>
         <v>20246008109CB.txt</v>
       </c>
       <c r="Z68" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="Z68:Z75" si="34">CONCATENATE(SUBSTITUTE(D68,"-","")," - ",K68," - ",B68," - RET.txt")</f>
         <v>20246008109 - 202302 - BUSTOS GONZALO - RET.txt</v>
       </c>
       <c r="AA68" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="AA68:AA75" si="35">CONCATENATE(SUBSTITUTE(D68,"-","")," - ",K68," - ",B68," - PER.txt")</f>
         <v>20246008109 - 202302 - BUSTOS GONZALO - PER.txt</v>
       </c>
       <c r="AB68" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="23"/>
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="B69" t="s">
@@ -7472,22 +7566,22 @@
         <v>142</v>
       </c>
       <c r="H69" s="4" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LINDSTROM PLINIO\2023\02\</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" t="s">
         <v>171</v>
       </c>
       <c r="J69" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\LINDSTROM PLINIO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K69" s="4" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="25"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\LINDSTROM PLINIO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K69" s="3" t="str">
+        <f t="shared" si="29"/>
         <v>202302</v>
       </c>
       <c r="L69" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M69" s="3" t="s">
@@ -7512,45 +7606,45 @@
         <v>170</v>
       </c>
       <c r="T69" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="27"/>
         <v>retencionesExport_23120538209_202302.txt</v>
       </c>
       <c r="U69" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="28"/>
         <v>retencionesExport_23120538209_202302.txt</v>
       </c>
       <c r="V69" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>23120538209CR.txt</v>
       </c>
       <c r="W69" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>23120538209CP.txt</v>
       </c>
       <c r="X69" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>23120538209CT.txt</v>
       </c>
       <c r="Y69" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>23120538209CB.txt</v>
       </c>
       <c r="Z69" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>23120538209 - 202302 - LINDSTROM PLINIO - RET.txt</v>
       </c>
       <c r="AA69" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>23120538209 - 202302 - LINDSTROM PLINIO - PER.txt</v>
       </c>
       <c r="AB69" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="23"/>
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="B70" t="s">
@@ -7569,22 +7663,22 @@
         <v>142</v>
       </c>
       <c r="H70" s="4" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\SOTO GERONIMO\2023\02\</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" t="s">
         <v>171</v>
       </c>
       <c r="J70" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\SOTO GERONIMO\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K70" s="4" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="25"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\SOTO GERONIMO\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K70" s="3" t="str">
+        <f t="shared" si="29"/>
         <v>202302</v>
       </c>
       <c r="L70" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M70" s="3" t="s">
@@ -7609,45 +7703,45 @@
         <v>170</v>
       </c>
       <c r="T70" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="27"/>
         <v>retencionesExport_23242946669_202302.txt</v>
       </c>
       <c r="U70" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="28"/>
         <v>retencionesExport_23242946669_202302.txt</v>
       </c>
       <c r="V70" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>23242946669CR.txt</v>
       </c>
       <c r="W70" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>23242946669CP.txt</v>
       </c>
       <c r="X70" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>23242946669CT.txt</v>
       </c>
       <c r="Y70" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>23242946669CB.txt</v>
       </c>
       <c r="Z70" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>23242946669 - 202302 - SOTO GERONIMO - RET.txt</v>
       </c>
       <c r="AA70" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>23242946669 - 202302 - SOTO GERONIMO - PER.txt</v>
       </c>
       <c r="AB70" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="B71" t="s">
@@ -7666,22 +7760,22 @@
         <v>142</v>
       </c>
       <c r="H71" s="4" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\LIONETO CAROLINA\2023\02\</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" t="s">
         <v>171</v>
       </c>
       <c r="J71" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\LIONETO CAROLINA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K71" s="4" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="25"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\LIONETO CAROLINA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K71" s="3" t="str">
+        <f t="shared" si="29"/>
         <v>202302</v>
       </c>
       <c r="L71" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M71" s="3" t="s">
@@ -7706,45 +7800,45 @@
         <v>170</v>
       </c>
       <c r="T71" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="27"/>
         <v>retencionesExport_27173878309_202302.txt</v>
       </c>
       <c r="U71" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="28"/>
         <v>retencionesExport_27173878309_202302.txt</v>
       </c>
       <c r="V71" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>27173878309CR.txt</v>
       </c>
       <c r="W71" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>27173878309CP.txt</v>
       </c>
       <c r="X71" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>27173878309CT.txt</v>
       </c>
       <c r="Y71" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>27173878309CB.txt</v>
       </c>
       <c r="Z71" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>27173878309 - 202302 - LIONETO CAROLINA - RET.txt</v>
       </c>
       <c r="AA71" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>27173878309 - 202302 - LIONETO CAROLINA - PER.txt</v>
       </c>
       <c r="AB71" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="23"/>
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="B72" t="s">
@@ -7763,22 +7857,22 @@
         <v>142</v>
       </c>
       <c r="H72" s="4" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\COND. INVERNADA\2023\02\</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" t="s">
         <v>171</v>
       </c>
       <c r="J72" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\COND. INVERNADA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K72" s="4" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="25"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\COND. INVERNADA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K72" s="3" t="str">
+        <f t="shared" si="29"/>
         <v>202302</v>
       </c>
       <c r="L72" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M72" s="3" t="s">
@@ -7803,45 +7897,45 @@
         <v>170</v>
       </c>
       <c r="T72" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="27"/>
         <v>retencionesExport_30715085409_202302.txt</v>
       </c>
       <c r="U72" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="28"/>
         <v>retencionesExport_30715085409_202302.txt</v>
       </c>
       <c r="V72" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>30715085409CR.txt</v>
       </c>
       <c r="W72" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>30715085409CP.txt</v>
       </c>
       <c r="X72" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>30715085409CT.txt</v>
       </c>
       <c r="Y72" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>30715085409CB.txt</v>
       </c>
       <c r="Z72" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>30715085409 - 202302 - COND. INVERNADA - RET.txt</v>
       </c>
       <c r="AA72" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>30715085409 - 202302 - COND. INVERNADA - PER.txt</v>
       </c>
       <c r="AB72" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="23"/>
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="B73" t="s">
@@ -7860,22 +7954,22 @@
         <v>142</v>
       </c>
       <c r="H73" s="4" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\FAX SRL\2023\02\</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" t="s">
         <v>171</v>
       </c>
       <c r="J73" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\FAX SRL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K73" s="4" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="25"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\FAX SRL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K73" s="3" t="str">
+        <f t="shared" si="29"/>
         <v>202302</v>
       </c>
       <c r="L73" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M73" s="3" t="s">
@@ -7900,45 +7994,45 @@
         <v>170</v>
       </c>
       <c r="T73" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="27"/>
         <v>retencionesExport_33653520439_202302.txt</v>
       </c>
       <c r="U73" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="28"/>
         <v>retencionesExport_33653520439_202302.txt</v>
       </c>
       <c r="V73" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>33653520439CR.txt</v>
       </c>
       <c r="W73" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>33653520439CP.txt</v>
       </c>
       <c r="X73" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>33653520439CT.txt</v>
       </c>
       <c r="Y73" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>33653520439CB.txt</v>
       </c>
       <c r="Z73" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>33653520439 - 202302 - FAX SRL - RET.txt</v>
       </c>
       <c r="AA73" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>33653520439 - 202302 - FAX SRL - PER.txt</v>
       </c>
       <c r="AB73" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="23"/>
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="B74" t="s">
@@ -7957,22 +8051,22 @@
         <v>142</v>
       </c>
       <c r="H74" s="4" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\KM 0 SA\2023\02\</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" t="s">
         <v>171</v>
       </c>
       <c r="J74" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\KM 0 SA\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K74" s="4" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="25"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\KM 0 SA\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K74" s="3" t="str">
+        <f t="shared" si="29"/>
         <v>202302</v>
       </c>
       <c r="L74" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M74" s="3" t="s">
@@ -7997,45 +8091,45 @@
         <v>170</v>
       </c>
       <c r="T74" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="27"/>
         <v>retencionesExport_33712370829_202302.txt</v>
       </c>
       <c r="U74" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="28"/>
         <v>retencionesExport_33712370829_202302.txt</v>
       </c>
       <c r="V74" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>33712370829CR.txt</v>
       </c>
       <c r="W74" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>33712370829CP.txt</v>
       </c>
       <c r="X74" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>33712370829CT.txt</v>
       </c>
       <c r="Y74" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>33712370829CB.txt</v>
       </c>
       <c r="Z74" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>33712370829 - 202302 - KM 0 SA - RET.txt</v>
       </c>
       <c r="AA74" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>33712370829 - 202302 - KM 0 SA - PER.txt</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="23"/>
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="B75" t="s">
@@ -8054,22 +8148,22 @@
         <v>142</v>
       </c>
       <c r="H75" s="4" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="24"/>
         <v>C:\Users\Agustin Bustos\Desktop\Clientes\INMUEBLES SRL\2023\02\</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" t="s">
         <v>171</v>
       </c>
       <c r="J75" s="4" t="str">
-        <f t="shared" si="44"/>
-        <v>C:\Users\Agustin Bustos\Desktop\TEST\INMUEBLES SRL\Resultado de Imporación SOS\2023-02\</v>
-      </c>
-      <c r="K75" s="4" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="25"/>
+        <v>C:\Users\Agustin Bustos\Desktop\TEST\INMUEBLES SRL\Resultado de Imporación SOS\202302\</v>
+      </c>
+      <c r="K75" s="3" t="str">
+        <f t="shared" si="29"/>
         <v>202302</v>
       </c>
       <c r="L75" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>Febrero 2023</v>
       </c>
       <c r="M75" s="3" t="s">
@@ -8094,39 +8188,39 @@
         <v>170</v>
       </c>
       <c r="T75" s="3" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="27"/>
         <v>retencionesExport_33712529909_202302.txt</v>
       </c>
       <c r="U75" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="28"/>
         <v>retencionesExport_33712529909_202302.txt</v>
       </c>
       <c r="V75" s="3" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>33712529909CR.txt</v>
       </c>
       <c r="W75" s="3" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>33712529909CP.txt</v>
       </c>
       <c r="X75" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>33712529909CT.txt</v>
       </c>
       <c r="Y75" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>33712529909CB.txt</v>
       </c>
       <c r="Z75" s="3" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>33712529909 - 202302 - INMUEBLES SRL - RET.txt</v>
       </c>
       <c r="AA75" s="3" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>33712529909 - 202302 - INMUEBLES SRL - PER.txt</v>
       </c>
       <c r="AB75" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="23"/>
         <v>75</v>
       </c>
     </row>
